--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="7" r:id="rId1"/>
@@ -15,13 +15,20 @@
     <sheet name="操作方法" sheetId="5" r:id="rId6"/>
     <sheet name="アイテム" sheetId="4" r:id="rId7"/>
     <sheet name="モンスター" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1 (5)" sheetId="10" r:id="rId9"/>
+    <sheet name="ステージ" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet1 (5)" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="ゲームメインの画面">各画面仕様!$B$18</definedName>
+    <definedName name="ステージ全景_イメージ">ステージ!$B$6</definedName>
     <definedName name="プレイヤーアップグレード表">プレイヤー!$B$7</definedName>
     <definedName name="プレイヤーの容姿について。">プレイヤー!$B$21</definedName>
     <definedName name="マッチング待機画面">各画面仕様!$B$10</definedName>
     <definedName name="リザルト画面">各画面仕様!$B$14</definedName>
+    <definedName name="各エリア解説">ステージ!$B$38</definedName>
+    <definedName name="操作ボタン一覧">操作方法!$B$7</definedName>
+    <definedName name="操作図解_ゲーム本編">操作方法!$B$27</definedName>
+    <definedName name="名前入力">各画面仕様!$B$6</definedName>
     <definedName name="名前入力画面">各画面仕様!$B$6</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="218">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -191,10 +198,6 @@
   </si>
   <si>
     <t>魔法照準　ボタンを離して発射</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下に要追記</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -750,10 +753,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの容姿について。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーアップグレード表</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -864,10 +863,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本編に登場するアイテム一覧について</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームルールを確認したい！
 メインについて知りたい！</t>
     <phoneticPr fontId="1"/>
@@ -943,6 +938,165 @@
   </si>
   <si>
     <t>各画面仕様へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの容姿について</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSRPG ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ全景(イメージ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各エリア解説</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全景イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『拠点エリア』
+各プレイヤーが出現するエリアです。
+この中には他のプレイヤーは侵入する事ができず、
+ステージ上で唯一安全なエリアと言えます。
+出来ること
+・アイテムの獲得、変更
+イメージ
+小さな砦、城下町
+お伝えした通りのイメージ(風のタクト系)でOKです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア解説</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『フィールド』
+小型モンスターが開始時から出現するエリアです。
+フィールド内で一番の広さを誇ります
+出来ること
+・小型モンスターを倒し経験値獲得する
+・ほかのプレイヤーを攻撃する
+イメージ
+明るい草原、砦が軽い防衛戦を張っています。
+中央に行くにつれて荒野となります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『凶獣の山』
+大型モンスターがスポーンするエリアです。
+開始後30秒後に初出現し、倒すと15秒後再出現します。
+出来ること
+・大型モンスターを倒してスコアを稼ぐ。
+・ほかのプレイヤーを攻撃する。
+イメージ
+荒れた山のイメージです
+山頂である中央は平らでそこから大型が出現します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作ボタン一覧</t>
+  </si>
+  <si>
+    <t>操作図解_ゲーム本編</t>
+  </si>
+  <si>
+    <t>プレイヤーネームの入力画面です。
+プレイヤーは初めに名前を入力しなければなりません。
+入力内容はひらがなで最大四文字まで、キーボードでの入力ではなくコントローラーで選択、決定をします。
+イメージイラストでは小文字の『あいうえお、やゆよ、わ』が抜けていますが、真ん中の列の右隣に配置します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(画像の綴り間違ってる……)</t>
+  </si>
+  <si>
+    <t>マッチングの待機画面です。
+画面左半分にプレイヤーの容姿、入力した名前、ランダムで決められる称号が表示されます。
+右半分は参加プレイヤーが表示されます。左プレイヤー同様、名前と称号と容姿が表示されます。
+表示順は、上から入室順となります。
+誰も入室していない場合は『empty』が表示され、背景が灰色になります。
+この画面の時に、L1、R1でカラーリングを変更することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了後表示されるリザルト画面です。
+ここでは、先ほどの点数と順位が表示されます。
+表示演出については、別ページにて記述しますので少々お待ちください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①→マップ　　　　　　　：全体マップが表示されます。通常は自分の位置のみ表示となります。
+②→アイテムスロット ：現在所持中のアイテムが表示されます。『↑←→』は各十字キーと連動しています。
+③→経験値量　　　　 ：現在の経験値所持数です。
+④→HP　　　　　　　　 ：現在のHP量を表示します。　画像にはありませんが『現在値/最大値』を表示します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラーでの操作方法を確認したい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージのイメージが知りたい！
+ステージの特徴が知りたい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -950,7 +1104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,8 +1255,40 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,8 +1301,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1537,12 +1729,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1623,42 +1889,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1671,43 +1901,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1716,60 +1913,21 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1779,95 +1937,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1884,8 +1958,376 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3286,15 +3728,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>センキューフォア</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>プレイング</a:t>
+            <a:t>最後のお礼</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3896,7 +4330,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>制限時間の経過</a:t>
+            <a:t>制限時間の経過で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移行します</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -4196,8 +4638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1285874" y="19042062"/>
-          <a:ext cx="6290734" cy="3538538"/>
+          <a:off x="1289049" y="19318287"/>
+          <a:ext cx="6322484" cy="3538538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4206,6 +4648,230 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870238" cy="559192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="19716750"/>
+          <a:ext cx="870238" cy="559192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>←①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2733675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870238" cy="559192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="21678900"/>
+          <a:ext cx="870238" cy="559192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②→</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2933700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870238" cy="559192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="21878925"/>
+          <a:ext cx="870238" cy="559192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>←③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3238500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870238" cy="559192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="22183725"/>
+          <a:ext cx="870238" cy="559192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④→</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4256,49 +4922,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1716122</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>3429001</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="30712" t="13850" r="14596" b="20100"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7989094" y="18526125"/>
-          <a:ext cx="1525622" cy="3274220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1244203</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -4318,7 +4941,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4361,7 +4984,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4383,6 +5006,137 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1084791</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>324557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>189441</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3454213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1772708" y="21131390"/>
+          <a:ext cx="2353733" cy="3129656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1438276</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>198446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>3252670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="21070" r="5659" b="11111"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124076" y="26887496"/>
+          <a:ext cx="2390774" cy="3054224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1885950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3648137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="20840700"/>
+          <a:ext cx="1847850" cy="3610037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4391,15 +5145,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1664580</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
+      <xdr:colOff>1997955</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>407575</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>58325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4422,7 +5176,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3188580" y="5786438"/>
+          <a:off x="3521955" y="5778501"/>
           <a:ext cx="5426370" cy="3354387"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4430,6 +5184,815 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112713</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5097463" y="3883025"/>
+          <a:ext cx="476250" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1682750" y="3913188"/>
+          <a:ext cx="476250" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3417888" y="5561012"/>
+          <a:ext cx="476250" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>26988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>153988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3408363" y="2178050"/>
+          <a:ext cx="476250" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3325813" y="1508125"/>
+          <a:ext cx="627063" cy="627063"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>１</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596901</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円/楕円 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1279526" y="3676650"/>
+          <a:ext cx="609599" cy="627063"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>４</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622301</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>566739</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円/楕円 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352801" y="5868988"/>
+          <a:ext cx="627063" cy="627063"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>３</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84138</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="円/楕円 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5545138" y="3616326"/>
+          <a:ext cx="627063" cy="627063"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>２</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341313</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="円/楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349500" y="2476500"/>
+          <a:ext cx="2992438" cy="2992438"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627063</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="円/楕円 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3263900" y="3581399"/>
+          <a:ext cx="776288" cy="776288"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>217488</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>804864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>360363</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1281114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1638301" y="8020051"/>
+          <a:ext cx="476250" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>873126</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>301626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>595314</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>928689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="円/楕円 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1555751" y="7350126"/>
+          <a:ext cx="627063" cy="627063"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>１</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1785938</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="円/楕円 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349375" y="9064626"/>
+          <a:ext cx="1635125" cy="1635125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>260351</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1490663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="円/楕円 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1754188" y="11850688"/>
+          <a:ext cx="776288" cy="776288"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4722,10 +6285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4733,79 +6296,80 @@
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-    </row>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="40" t="s">
+    <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="180" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="182"/>
+    </row>
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+    </row>
+    <row r="4" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-    </row>
-    <row r="4" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="40" t="s">
+      <c r="C4" s="192"/>
+      <c r="D4" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="61" t="s">
+      <c r="E4" s="186"/>
+      <c r="F4" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="48" t="s">
+      <c r="G4" s="192"/>
+      <c r="H4" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="76" t="s">
+      <c r="I4" s="188"/>
+      <c r="J4" s="191" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="48" t="s">
+      <c r="K4" s="192"/>
+      <c r="L4" s="189" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" s="62"/>
+      <c r="M4" s="190"/>
     </row>
     <row r="5" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
     </row>
     <row r="6" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="37"/>
@@ -4822,187 +6386,209 @@
       <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="56" t="s">
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
     </row>
     <row r="9" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="174" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="176" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+    </row>
+    <row r="10" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="173" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+    </row>
+    <row r="11" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="174" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="176" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+    </row>
+    <row r="12" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="173" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="183" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+    </row>
+    <row r="13" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="174" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="176" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-    </row>
-    <row r="10" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-    </row>
-    <row r="11" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-    </row>
-    <row r="13" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+    </row>
+    <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B14" s="173" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+    </row>
+    <row r="15" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="176" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="B17:G17"/>
@@ -5019,20 +6605,6 @@
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="H12:M12"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5041,360 +6613,455 @@
     <hyperlink ref="H12:M12" location="プレイヤー!A1" display="プレイヤーへ"/>
     <hyperlink ref="H13:M13" location="アイテム!A1" display="アイテムへ"/>
     <hyperlink ref="H11:M11" location="各画面仕様!A1" display="各画面仕様へ"/>
+    <hyperlink ref="H14:M14" location="操作方法!A1" display="操作方法へ"/>
+    <hyperlink ref="H15:M15" location="ステージ!A1" display="ステージへ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24:L24"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="68"/>
+      <c r="A1" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="M1:N1" location="Sheet1!A1" display="戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="96"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="80"/>
+    </row>
+    <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="83"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
-    </row>
-    <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="113" t="s">
+      <c r="C8" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="75"/>
+    </row>
+    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="115"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="117" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
-    </row>
-    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="119" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
+    </row>
+    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="168" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="171"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="91"/>
+    </row>
+    <row r="19" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94"/>
-    </row>
-    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="95" t="s">
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="75"/>
+    </row>
+    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="105"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="105"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="105"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="109"/>
-    </row>
-    <row r="19" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="116" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="117" t="s">
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="78"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="118"/>
-    </row>
-    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="119" t="s">
+      <c r="C23" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="80"/>
+    </row>
+    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="121"/>
-    </row>
-    <row r="22" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="110" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="111" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="112"/>
-    </row>
-    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="113" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="115"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+    </row>
+    <row r="25" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B26" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="163" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="164"/>
+    </row>
+    <row r="27" spans="2:12" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="167"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="C20:L20"/>
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="C23:L23"/>
@@ -5411,14 +7078,6 @@
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
     <mergeCell ref="B9:L9"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5435,32 +7094,32 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R69" sqref="R69"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="64"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="113"/>
       <c r="O1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
@@ -5476,8 +7135,8 @@
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
       <c r="L2" s="37"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -5512,208 +7171,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:L14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="70"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>183</v>
+      <c r="A1" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="103"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="152" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="154" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="153" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="B6" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:14" ht="296.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-    </row>
-    <row r="8" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
+    </row>
+    <row r="8" spans="1:14" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="159" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="161"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="B10" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:14" ht="331.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-    </row>
-    <row r="12" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="116"/>
+      <c r="M11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="159" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="161"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
+      <c r="B14" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:14" ht="329.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-    </row>
-    <row r="16" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="116"/>
+    </row>
+    <row r="16" spans="1:14" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="159" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="161"/>
     </row>
     <row r="17" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="B18" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="101"/>
     </row>
     <row r="19" spans="2:12" ht="329.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-    </row>
-    <row r="20" spans="2:12" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="127"/>
+    </row>
+    <row r="20" spans="2:12" ht="143.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="159" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B11:L11"/>
@@ -5722,16 +7417,14 @@
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="M1:N1" location="Sheet1!A1" display="戻る"/>
+    <hyperlink ref="B4" location="名前入力画面" display="名前画面"/>
+    <hyperlink ref="C4" location="マッチング待機画面" display="待機画面"/>
+    <hyperlink ref="D4" location="リザルト画面" display="リザルト"/>
+    <hyperlink ref="E4" location="ゲームメインの画面" display="メインUI"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -5743,9 +7436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5760,148 +7453,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="113"/>
+      <c r="O1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="50"/>
+      <c r="B3" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="50"/>
+      <c r="B4" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+    </row>
+    <row r="6" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="48"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
+    </row>
+    <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="64"/>
-      <c r="O1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86"/>
-      <c r="B3" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="125"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="86"/>
-      <c r="B4" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="86"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-    </row>
-    <row r="6" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
-    </row>
-    <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="85"/>
-      <c r="B7" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="84"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
@@ -5923,55 +7616,55 @@
       <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="127"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="125"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="128"/>
+        <v>60</v>
+      </c>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
@@ -5979,22 +7672,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
@@ -6002,22 +7695,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
@@ -6025,22 +7718,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -6048,233 +7741,249 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>81</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>82</v>
-      </c>
-      <c r="F18" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
+      <c r="B21" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="100"/>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" spans="1:7" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="109"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="23" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" spans="1:7" ht="266.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="101"/>
     </row>
     <row r="29" spans="1:7" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="109"/>
+      <c r="E29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="109"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="23" t="s">
+      <c r="C30" s="100"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="101"/>
     </row>
     <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="101"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
+      <c r="B33" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="100"/>
+      <c r="G33" s="101"/>
     </row>
     <row r="34" spans="2:7" ht="164.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="109"/>
+      <c r="E34" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="109"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="23" t="s">
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="101"/>
     </row>
     <row r="36" spans="2:7" ht="294" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="101"/>
     </row>
     <row r="37" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
+      <c r="B38" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
     </row>
     <row r="39" spans="2:7" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="109"/>
+    </row>
+    <row r="40" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="47"/>
-    </row>
-    <row r="40" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="101"/>
     </row>
     <row r="41" spans="2:7" ht="267" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B7:G7"/>
@@ -6291,22 +8000,6 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -6322,198 +8015,698 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="64"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="49" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="96"/>
+      <c r="O1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="50"/>
+      <c r="B3" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+    </row>
+    <row r="4" spans="1:15" s="122" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="123"/>
+      <c r="B4" s="158" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="157" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+    </row>
+    <row r="5" spans="1:15" s="122" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="123"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+    </row>
+    <row r="6" spans="1:15" s="122" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="64"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="117"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B9" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="E5" s="49" t="s">
+      <c r="C9" s="111"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="111"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="64"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="64"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="64"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="117"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B15" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="111"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="E7" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E8" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="21" t="s">
+      <c r="F15" s="111"/>
+    </row>
+    <row r="16" spans="1:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="155" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="117"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="117"/>
+    </row>
+    <row r="19" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="117"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="64"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="117"/>
+    </row>
+    <row r="21" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="64"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="117"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="E11" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="22"/>
-    </row>
-    <row r="17" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="49" t="s">
+      <c r="C22" s="111"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="117"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="50"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="19" t="s">
+      <c r="C23" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="117"/>
+    </row>
+    <row r="24" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="22"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="117"/>
+    </row>
+    <row r="25" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+    </row>
+    <row r="26" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="115"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="116"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="125"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="127"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="125"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="127"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="125"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="127"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="125"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="127"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B33" s="125"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B34" s="125"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="127"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B35" s="125"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="127"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B36" s="125"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="127"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B37" s="125"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B38" s="125"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="127"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B39" s="125"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="127"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="125"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="127"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B41" s="125"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="127"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B42" s="125"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="127"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B43" s="125"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="127"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B44" s="125"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="127"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B45" s="125"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="127"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B46" s="125"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="127"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B47" s="125"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="127"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B48" s="125"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="126"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="127"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B49" s="125"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="127"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B50" s="125"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="127"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B51" s="125"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="126"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="127"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B52" s="125"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="127"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B53" s="125"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="127"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B54" s="125"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="127"/>
+    </row>
+    <row r="55" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="128"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="129"/>
+      <c r="L55" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B28:L55"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="M1:N1" location="Top!A1" display="戻る"/>
+    <hyperlink ref="B4" location="操作ボタン一覧" display="操作ボタン一覧"/>
+    <hyperlink ref="C4" location="操作図解_ゲーム本編" display="操作図解_ゲーム本編"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -6527,7 +8720,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6539,45 +8732,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="103"/>
       <c r="O1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="178" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
@@ -6608,7 +8801,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>19</v>
@@ -6625,7 +8818,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>22</v>
@@ -6645,7 +8838,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>25</v>
@@ -6665,7 +8858,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>19</v>
@@ -6686,10 +8879,9 @@
       <c r="F8" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6711,30 +8903,30 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="64"/>
+      <c r="A1" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6752,7 +8944,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -6760,37 +8952,456 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="70"/>
+      <c r="A1" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="103"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="152" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="153" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="111"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="133"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="134"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="133"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="134"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="133"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="134"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="133"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="134"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="133"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="134"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="133"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="134"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="133"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="134"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="133"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="134"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="133"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="134"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="133"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="134"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="133"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="134"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="133"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="134"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="133"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="134"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="133"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="134"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="133"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="134"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="133"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="134"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="133"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="134"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="133"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="134"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="133"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="134"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="133"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="134"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="133"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="134"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="133"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="134"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="133"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="134"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="133"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="134"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="133"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="134"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="133"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="134"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="133"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="134"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="133"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="134"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="135"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="137"/>
+    </row>
+    <row r="37" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="149" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="151"/>
+    </row>
+    <row r="39" spans="2:10" ht="175.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="144"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="146" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="148"/>
+    </row>
+    <row r="40" spans="2:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="133"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="140"/>
+    </row>
+    <row r="41" spans="2:10" ht="180.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="141" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="143"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="11">
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:J41"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J35"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:J39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="M1:N1" location="Sheet1!A1" display="戻る"/>
+    <hyperlink ref="B4" location="ステージ全景_イメージ" display="全景イメージ"/>
+    <hyperlink ref="C4" location="各エリア解説" display="エリア解説"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="244">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -471,10 +471,6 @@
   </si>
   <si>
     <t>レベルアップメニューの表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>押している間スコア表示</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -885,10 +881,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最終更新2016/10/05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最終更新　2016/10/5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1092,11 +1084,143 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最終更新2016/10/3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最終更新2016/10/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見た目イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の草　木の実もついている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力こぶ型の瓶　色は橙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾型の瓶　色は青</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目薬　パッケージに目のイラスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押している間スコア表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーアップグレードのアイコンイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『疾風斬り』
+剣が風をまとっている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『踏み込み斬り』
+剣で斬っている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『重撃』
+剣から衝撃波</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『豪傑の証』
+力こぶがムキムキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『魔力の刃』
+剣のアイコンの後ろに
+魔法のアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『怒りの一撃』
+火山が大噴火</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジックショット』
+丸い球体が飛んでいる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジックミサイル』
+ミサイルの形状をした
+魔弾が飛んでいる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マギカチャージ』
+身体の中心に炎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジカルボム』
+爆発している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ルーンエンハンス』
+ストップウォッチのアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『メテオバースト』
+隕石のアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージイラストを後で貼り付けておきます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ガードアップ』
+守っている人のアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ロックウォール』
+岩のアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『アイアンシールド』
+キラキラした盾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『メタルボディ』
+キラキラした鎧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『頑強の意思』
+仁王立ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ザ・フォートレス』
+大きな砦のアイコン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1308,7 +1432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1669,19 +1793,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1808,7 +1919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1874,12 +1985,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1916,7 +2025,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1958,166 +2067,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2128,88 +2084,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2224,109 +2099,371 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5186,6 +5323,438 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>770659</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2485159" y="6165273"/>
+          <a:ext cx="2389909" cy="554182"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49457"/>
+            <a:gd name="adj2" fmla="val 95313"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>386195</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1745672</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1070263" y="7746423"/>
+          <a:ext cx="2389909" cy="554182"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 91124"/>
+            <a:gd name="adj2" fmla="val 4688"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテムの使用</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アップグレド時：カーソル移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1018310</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>65809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403514</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>100446</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2732810" y="9841923"/>
+          <a:ext cx="2389909" cy="554182"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68298"/>
+            <a:gd name="adj2" fmla="val -189062"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤーの移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>魔法詠唱時：照準の移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1265960</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>140278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>651165</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形吹き出し 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6669233" y="10089573"/>
+          <a:ext cx="2389909" cy="554182"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34601"/>
+            <a:gd name="adj2" fmla="val -223437"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457202</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110838</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>128155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形吹き出し 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8865179" y="7964632"/>
+          <a:ext cx="2389909" cy="554182"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -83152"/>
+            <a:gd name="adj2" fmla="val -18750"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>72737</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8480714" y="6090804"/>
+          <a:ext cx="2758785" cy="554182"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65643"/>
+            <a:gd name="adj2" fmla="val 98438"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>R1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>押している間：全プレイヤーのスコア表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>510887</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>164522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>450274</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形吹き出し 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5914160" y="6996545"/>
+          <a:ext cx="1575955" cy="337704"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6703"/>
+            <a:gd name="adj2" fmla="val 281250"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アップグレードの表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6287,8 +6856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6298,280 +6867,280 @@
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+    </row>
+    <row r="3" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+    </row>
+    <row r="4" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="108"/>
+      <c r="H4" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="113"/>
+      <c r="J4" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="108"/>
+      <c r="L4" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="115"/>
+    </row>
+    <row r="5" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+    </row>
+    <row r="6" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="182"/>
-    </row>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-    </row>
-    <row r="4" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="193" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="185" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="186"/>
-      <c r="F4" s="191" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="192"/>
-      <c r="H4" s="187" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="188"/>
-      <c r="J4" s="191" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" s="192"/>
-      <c r="L4" s="189" t="s">
-        <v>132</v>
-      </c>
-      <c r="M4" s="190"/>
-    </row>
-    <row r="5" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-    </row>
-    <row r="6" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="37"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="71" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="105"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="145" t="s">
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
     </row>
     <row r="9" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="176" t="s">
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+    </row>
+    <row r="10" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+    </row>
+    <row r="11" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+    </row>
+    <row r="12" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
-    </row>
-    <row r="10" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="173" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="183" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-    </row>
-    <row r="11" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="174" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="176" t="s">
-        <v>186</v>
-      </c>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="177"/>
-    </row>
-    <row r="12" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="173" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="183" t="s">
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+    </row>
+    <row r="13" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-    </row>
-    <row r="13" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="174" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="176" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
     </row>
     <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+    </row>
+    <row r="15" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="183" t="s">
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="93" t="s">
         <v>212</v>
       </c>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-    </row>
-    <row r="15" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="174" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="176" t="s">
-        <v>214</v>
-      </c>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -6633,24 +7202,24 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="103"/>
+      <c r="A1" s="143" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6668,390 +7237,425 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="96"/>
+      <c r="A1" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="130"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="132"/>
+    </row>
+    <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="133" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-    </row>
-    <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="81" t="s">
+      <c r="C8" s="146" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="147"/>
+    </row>
+    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="83"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="75"/>
-    </row>
-    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
+    </row>
+    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
-    </row>
-    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="81" t="s">
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="135"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="126"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="126"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="126"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="126"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="128"/>
+    </row>
+    <row r="19" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="168" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="171"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91"/>
-    </row>
-    <row r="19" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="74" t="s">
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="147"/>
+    </row>
+    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
-    </row>
-    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="76" t="s">
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="118"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-    </row>
-    <row r="22" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="56" t="s">
+      <c r="C23" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="132"/>
+    </row>
+    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="80"/>
-    </row>
-    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="83"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="135"/>
     </row>
     <row r="25" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="162" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="163" t="s">
+      <c r="B26" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="164"/>
+      <c r="C26" s="136" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="137"/>
     </row>
     <row r="27" spans="2:12" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="167"/>
+      <c r="B27" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="140"/>
+    </row>
+    <row r="28" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="136" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="137"/>
+    </row>
+    <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="140"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="B30:L30"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C5:L5"/>
     <mergeCell ref="B6:L6"/>
@@ -7068,6 +7672,7 @@
     <mergeCell ref="B24:L24"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B9:L9"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -7077,7 +7682,6 @@
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="F18:L18"/>
-    <mergeCell ref="B9:L9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7100,43 +7704,43 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="113"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="149"/>
       <c r="O1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -7172,234 +7776,234 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="103"/>
+      <c r="A1" s="143" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="163"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="152" t="s">
-        <v>180</v>
+      <c r="B3" s="72" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="E4" s="73" t="s">
         <v>205</v>
-      </c>
-      <c r="D4" s="153" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" s="153" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="101"/>
+      <c r="B6" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="161"/>
     </row>
     <row r="7" spans="1:14" ht="296.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="152"/>
     </row>
     <row r="8" spans="1:14" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="159" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="161"/>
+      <c r="B8" s="153" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="155"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="B10" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="161"/>
     </row>
     <row r="11" spans="1:14" ht="331.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="115"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="116"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="158"/>
       <c r="M11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="159" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="161"/>
+      <c r="B12" s="153" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="155"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="99" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="B14" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="161"/>
     </row>
     <row r="15" spans="1:14" ht="329.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="115"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="116"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="158"/>
     </row>
     <row r="16" spans="1:14" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="159" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="161"/>
+      <c r="B16" s="153" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
     </row>
     <row r="17" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="99" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
+      <c r="B18" s="159" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="161"/>
     </row>
     <row r="19" spans="2:12" ht="329.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="125"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
     </row>
     <row r="20" spans="2:12" ht="143.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="159" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="161"/>
+      <c r="B20" s="153" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7434,11 +8038,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7449,152 +8053,153 @@
     <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.125" customWidth="1"/>
     <col min="7" max="7" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="149"/>
+      <c r="O1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
+      <c r="B3" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="59"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="48"/>
+      <c r="B4" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
+    </row>
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="48"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+    </row>
+    <row r="6" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
+    </row>
+    <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47"/>
+      <c r="B7" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="113"/>
-      <c r="O1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="114" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="61"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-    </row>
-    <row r="6" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47"/>
-    </row>
-    <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
@@ -7616,9 +8221,9 @@
       <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
@@ -7642,7 +8247,7 @@
       <c r="G10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="64"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
@@ -7781,193 +8386,377 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
+      <c r="B21" s="164" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="166"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="101"/>
+      <c r="B23" s="159" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="159" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="160"/>
+      <c r="G23" s="161"/>
     </row>
     <row r="24" spans="1:7" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="169"/>
+      <c r="E24" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="168" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="169"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="23" t="s">
+      <c r="C25" s="160"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="109"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="100"/>
-      <c r="G25" s="101"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="161"/>
     </row>
     <row r="26" spans="1:7" ht="266.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="99"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="101"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="161"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="159" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="160"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="100"/>
-      <c r="G28" s="101"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="161"/>
     </row>
     <row r="29" spans="1:7" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="168" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="169"/>
+      <c r="E29" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="168" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="169"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="108" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="23" t="s">
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F30" s="160"/>
+      <c r="G30" s="161"/>
+    </row>
+    <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="159"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="161"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="159" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="160"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="159" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="160"/>
+      <c r="G33" s="161"/>
+    </row>
+    <row r="34" spans="1:7" ht="164.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="109"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="100"/>
-      <c r="G30" s="101"/>
-    </row>
-    <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="101"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="99" t="s">
+      <c r="D34" s="169"/>
+      <c r="E34" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="100"/>
-      <c r="G33" s="101"/>
-    </row>
-    <row r="34" spans="2:7" ht="164.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="23" t="s">
+      <c r="G34" s="169"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="108" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="109"/>
-      <c r="E34" s="23" t="s">
+      <c r="C35" s="160"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="108" t="s">
+      <c r="F35" s="160"/>
+      <c r="G35" s="161"/>
+    </row>
+    <row r="36" spans="1:7" ht="294" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="159"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="161"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="109"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="100"/>
-      <c r="G35" s="101"/>
-    </row>
-    <row r="36" spans="2:7" ht="294" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="101"/>
-    </row>
-    <row r="37" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="99" t="s">
+      <c r="C38" s="160"/>
+      <c r="D38" s="161"/>
+    </row>
+    <row r="39" spans="1:7" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="101"/>
-    </row>
-    <row r="39" spans="2:7" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="23" t="s">
+      <c r="D39" s="169"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="108" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="109"/>
-    </row>
-    <row r="40" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="101"/>
-    </row>
-    <row r="41" spans="2:7" ht="267" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="99"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="101"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="161"/>
+    </row>
+    <row r="41" spans="1:7" ht="267" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="159"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="161"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="200"/>
+      <c r="B46" s="167" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="145"/>
+    </row>
+    <row r="47" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="199"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="199"/>
+      <c r="G47" s="201"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="A47:G47"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -8031,125 +8820,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="96"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="130"/>
       <c r="O1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-    </row>
-    <row r="4" spans="1:15" s="122" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="123"/>
-      <c r="B4" s="158" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="157" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-    </row>
-    <row r="5" spans="1:15" s="122" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-    </row>
-    <row r="6" spans="1:15" s="122" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" spans="1:15" s="69" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="70"/>
+      <c r="B4" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+    </row>
+    <row r="5" spans="1:15" s="69" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+    </row>
+    <row r="6" spans="1:15" s="69" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="99" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="159" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="64"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="117"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="110" t="s">
+      <c r="C9" s="174"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="174"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" s="19" t="s">
@@ -8158,7 +8947,7 @@
       <c r="C10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="19" t="s">
         <v>87</v>
       </c>
@@ -8169,118 +8958,118 @@
         <v>83</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="61"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="19" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="64"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="19" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="64"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="21" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="64"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="117"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="110" t="s">
+      <c r="C15" s="174"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="111"/>
+      <c r="F15" s="174"/>
     </row>
     <row r="16" spans="1:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="155" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="117"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="75" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="117"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="117"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="64"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="117"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="64"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="117"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="117"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="64"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="19" t="s">
@@ -8289,405 +9078,405 @@
       <c r="C23" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="117"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="64"/>
     </row>
     <row r="24" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="117"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="64"/>
     </row>
     <row r="25" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="120"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
     </row>
     <row r="26" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="99" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="101"/>
+      <c r="B27" s="159" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="161"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="115"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="116"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="158"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="125"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="127"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="125"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="127"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="152"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="125"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="127"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="152"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="125"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="127"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B33" s="125"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="127"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="152"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B34" s="125"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="127"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="152"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B35" s="125"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="127"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="152"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B36" s="125"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="127"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="152"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B37" s="125"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="152"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B38" s="125"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="127"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="152"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B39" s="125"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="127"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="152"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B40" s="125"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
-      <c r="K40" s="126"/>
-      <c r="L40" s="127"/>
+      <c r="B40" s="150"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
+      <c r="L40" s="152"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="125"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="127"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="152"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="125"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="127"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="152"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="125"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="127"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="152"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="125"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="127"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="152"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="125"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="127"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="152"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B46" s="125"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="127"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="152"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B47" s="125"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="127"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="152"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B48" s="125"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="126"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="127"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="152"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B49" s="125"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="127"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="152"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B50" s="125"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="127"/>
+      <c r="B50" s="150"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="152"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B51" s="125"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="127"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="152"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B52" s="125"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="127"/>
+      <c r="B52" s="150"/>
+      <c r="C52" s="151"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="151"/>
+      <c r="K52" s="151"/>
+      <c r="L52" s="152"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B53" s="125"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="127"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="151"/>
+      <c r="D53" s="151"/>
+      <c r="E53" s="151"/>
+      <c r="F53" s="151"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="151"/>
+      <c r="K53" s="151"/>
+      <c r="L53" s="152"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" s="125"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="126"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="127"/>
+      <c r="B54" s="150"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="151"/>
+      <c r="F54" s="151"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="151"/>
+      <c r="K54" s="151"/>
+      <c r="L54" s="152"/>
     </row>
     <row r="55" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="128"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="130"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="171"/>
+      <c r="D55" s="171"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="171"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="171"/>
+      <c r="L55" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8718,9 +9507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8729,52 +9518,53 @@
     <col min="3" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.375" customWidth="1"/>
+    <col min="7" max="7" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="103"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="163"/>
       <c r="O1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="178" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="A2" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30" t="s">
@@ -8786,39 +9576,45 @@
       <c r="E3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>27</v>
+      </c>
+      <c r="G3" s="197" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="26" t="s">
         <v>28</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>112</v>
+      <c r="C5" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>22</v>
@@ -8826,19 +9622,22 @@
       <c r="E5" s="18">
         <v>15</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>29</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>112</v>
+      <c r="C6" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>25</v>
@@ -8846,19 +9645,22 @@
       <c r="E6" s="18">
         <v>15</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>30</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>113</v>
+      <c r="C7" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>19</v>
@@ -8866,17 +9668,21 @@
       <c r="E7" s="18">
         <v>30</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>32</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8909,24 +9715,24 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="97"/>
+      <c r="A1" s="143" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="176" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8957,428 +9763,428 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="103"/>
+      <c r="A1" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="163"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="152" t="s">
-        <v>119</v>
+      <c r="B3" s="72" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="73" t="s">
         <v>192</v>
-      </c>
-      <c r="C4" s="153" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="110" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="111"/>
+      <c r="B6" s="173" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="174"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="133"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="134"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="180"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="133"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="134"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="133"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="134"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="180"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="133"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="134"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="180"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="133"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="134"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="180"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="133"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="134"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="180"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="133"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="134"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="180"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="133"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="134"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="180"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="133"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="134"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="133"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="134"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="133"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="134"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="180"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="133"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="134"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="180"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="133"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="134"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="180"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="133"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="134"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="180"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="133"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="134"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="133"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="134"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="133"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="134"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="180"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="133"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="134"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="180"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="133"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="134"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="180"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="133"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="134"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="133"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="134"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="133"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="134"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="180"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="133"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="134"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="133"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="134"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="180"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="133"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="134"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="180"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="133"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="134"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="133"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="134"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="180"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="133"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="134"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="180"/>
     </row>
     <row r="35" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="135"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="137"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="183"/>
     </row>
     <row r="37" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="149" t="s">
+      <c r="B38" s="184" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="185"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="186"/>
+    </row>
+    <row r="39" spans="2:10" ht="175.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="187"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="151"/>
-    </row>
-    <row r="39" spans="2:10" ht="175.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="144"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="146" t="s">
+      <c r="G39" s="189"/>
+      <c r="H39" s="189"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="190"/>
+    </row>
+    <row r="40" spans="2:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="178"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="179"/>
+      <c r="F40" s="191" t="s">
         <v>193</v>
       </c>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="148"/>
-    </row>
-    <row r="40" spans="2:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="133"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="138" t="s">
-        <v>195</v>
-      </c>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="140"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="193"/>
     </row>
     <row r="41" spans="2:10" ht="180.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="143"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="194" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="195"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="アイテム" sheetId="4" r:id="rId7"/>
     <sheet name="モンスター" sheetId="9" r:id="rId8"/>
     <sheet name="ステージ" sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet1 (5)" sheetId="10" r:id="rId10"/>
+    <sheet name="思いつき" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1 (6)" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="ゲームメインの画面">各画面仕様!$B$18</definedName>
@@ -24,6 +25,7 @@
     <definedName name="プレイヤーアップグレード表">プレイヤー!$B$7</definedName>
     <definedName name="プレイヤーの容姿について。">プレイヤー!$B$21</definedName>
     <definedName name="マッチング待機画面">各画面仕様!$B$10</definedName>
+    <definedName name="モンスターの能力値">モンスター!$B$8</definedName>
     <definedName name="リザルト画面">各画面仕様!$B$14</definedName>
     <definedName name="各エリア解説">ステージ!$B$38</definedName>
     <definedName name="操作ボタン一覧">操作方法!$B$7</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="286">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -851,10 +853,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">VSRPG </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VSRPG モンスター仕様</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -881,18 +879,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最終更新　2016/10/5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最終更新　2016/10/4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最終更新　2016/10/3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>操作ボタン一覧</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -954,6 +940,308 @@
   </si>
   <si>
     <t>全景イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア解説</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作ボタン一覧</t>
+  </si>
+  <si>
+    <t>操作図解_ゲーム本編</t>
+  </si>
+  <si>
+    <t>プレイヤーネームの入力画面です。
+プレイヤーは初めに名前を入力しなければなりません。
+入力内容はひらがなで最大四文字まで、キーボードでの入力ではなくコントローラーで選択、決定をします。
+イメージイラストでは小文字の『あいうえお、やゆよ、わ』が抜けていますが、真ん中の列の右隣に配置します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(画像の綴り間違ってる……)</t>
+  </si>
+  <si>
+    <t>マッチングの待機画面です。
+画面左半分にプレイヤーの容姿、入力した名前、ランダムで決められる称号が表示されます。
+右半分は参加プレイヤーが表示されます。左プレイヤー同様、名前と称号と容姿が表示されます。
+表示順は、上から入室順となります。
+誰も入室していない場合は『empty』が表示され、背景が灰色になります。
+この画面の時に、L1、R1でカラーリングを変更することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了後表示されるリザルト画面です。
+ここでは、先ほどの点数と順位が表示されます。
+表示演出については、別ページにて記述しますので少々お待ちください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラーでの操作方法を確認したい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージのイメージが知りたい！
+ステージの特徴が知りたい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見た目イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑の草　木の実もついている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力こぶ型の瓶　色は橙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾型の瓶　色は青</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目薬　パッケージに目のイラスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押している間スコア表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーアップグレードのアイコンイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『疾風斬り』
+剣が風をまとっている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『踏み込み斬り』
+剣で斬っている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『重撃』
+剣から衝撃波</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『豪傑の証』
+力こぶがムキムキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『魔力の刃』
+剣のアイコンの後ろに
+魔法のアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『怒りの一撃』
+火山が大噴火</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジックショット』
+丸い球体が飛んでいる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジックミサイル』
+ミサイルの形状をした
+魔弾が飛んでいる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マギカチャージ』
+身体の中心に炎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジカルボム』
+爆発している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ルーンエンハンス』
+ストップウォッチのアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『メテオバースト』
+隕石のアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージイラストを後で貼り付けておきます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ガードアップ』
+守っている人のアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ロックウォール』
+岩のアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『アイアンシールド』
+キラキラした盾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『メタルボディ』
+キラキラした鎧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『頑強の意思』
+仁王立ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ザ・フォートレス』
+大きな砦のアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新　2016/10/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①→マップ　　　　　　　：全体マップが表示されます。通常は自分の位置のみ表示となります。
+②→アイテムスロット ：現在所持中のアイテムが表示されます。『↑←→』は各十字キーと連動しています。
+③→経験値量　　　　 ：現在の経験値所持数です。
+④→HP　　　　　　　　 ：現在のHP量を表示します。　画像にはありませんが『現在値/最大値』を表示します。
+カメラについて
+ハーフトップビューでの実装をお願いします。
+なお、オブジェクトは位置によって見えにくい事が起こることも予想されます。
+その場合は、カメラの移動(プレイヤーを中心に円形)を実装します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能力値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターの能力値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃(Atk)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御(Def)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔攻(Mat)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔防(Mdf)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小型スライム型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖剣伝説のラビが近い
+スライム型の身体に
+獣の耳と尻尾
+体当たりで攻撃する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -965,11 +1253,8 @@
 ・アイテムの獲得、変更
 イメージ
 小さな砦、城下町
-お伝えした通りのイメージ(風のタクト系)でOKです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エリア解説</t>
+お伝えした通りのイメージ(風のタクト系)でOKです。
+周囲は崖の上のイメージ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -981,7 +1266,15 @@
 ・ほかのプレイヤーを攻撃する
 イメージ
 明るい草原、砦が軽い防衛戦を張っています。
-中央に行くにつれて荒野となります</t>
+中央に行くにつれて荒野となります
+オブジェイメージ
+○拠点周り
+土嚢とか、石の壁などの防衛設備
+拠点近くの目印や、砦があることを伝えたい
+○フィールド
+木、丸太、石などの自然物
+ここは、いたってスタンダードな部分
+中心に道を引き、周囲を侵入可能な森にしてしまってもいいかも</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -993,234 +1286,138 @@
 ・ほかのプレイヤーを攻撃する。
 イメージ
 荒れた山のイメージです
-山頂である中央は平らでそこから大型が出現します</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>操作ボタン一覧</t>
-  </si>
-  <si>
-    <t>操作図解_ゲーム本編</t>
-  </si>
-  <si>
-    <t>プレイヤーネームの入力画面です。
-プレイヤーは初めに名前を入力しなければなりません。
-入力内容はひらがなで最大四文字まで、キーボードでの入力ではなくコントローラーで選択、決定をします。
-イメージイラストでは小文字の『あいうえお、やゆよ、わ』が抜けていますが、真ん中の列の右隣に配置します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(画像の綴り間違ってる……)</t>
-  </si>
-  <si>
-    <t>マッチングの待機画面です。
-画面左半分にプレイヤーの容姿、入力した名前、ランダムで決められる称号が表示されます。
-右半分は参加プレイヤーが表示されます。左プレイヤー同様、名前と称号と容姿が表示されます。
-表示順は、上から入室順となります。
-誰も入室していない場合は『empty』が表示され、背景が灰色になります。
-この画面の時に、L1、R1でカラーリングを変更することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム終了後表示されるリザルト画面です。
-ここでは、先ほどの点数と順位が表示されます。
-表示演出については、別ページにて記述しますので少々お待ちください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①→マップ　　　　　　　：全体マップが表示されます。通常は自分の位置のみ表示となります。
-②→アイテムスロット ：現在所持中のアイテムが表示されます。『↑←→』は各十字キーと連動しています。
-③→経験値量　　　　 ：現在の経験値所持数です。
-④→HP　　　　　　　　 ：現在のHP量を表示します。　画像にはありませんが『現在値/最大値』を表示します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>待機画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リザルト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインUI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本文</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑥</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コントローラーでの操作方法を確認したい！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>操作方法へ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージのイメージが知りたい！
-ステージの特徴が知りたい！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージへ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最終更新2016/10/5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最終更新2016/10/5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見た目イメージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緑の草　木の実もついている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>力こぶ型の瓶　色は橙</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>盾型の瓶　色は青</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目薬　パッケージに目のイラスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最終更新2016/10/8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最終更新2016/10/08</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑦</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>押している間スコア表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーアップグレードのアイコンイメージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『疾風斬り』
-剣が風をまとっている。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『踏み込み斬り』
-剣で斬っている。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『重撃』
-剣から衝撃波</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『豪傑の証』
-力こぶがムキムキ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『魔力の刃』
-剣のアイコンの後ろに
-魔法のアイコン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『怒りの一撃』
-火山が大噴火</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『マジックショット』
-丸い球体が飛んでいる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『マジックミサイル』
-ミサイルの形状をした
-魔弾が飛んでいる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『マギカチャージ』
-身体の中心に炎</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『マジカルボム』
-爆発している</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『ルーンエンハンス』
-ストップウォッチのアイコン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『メテオバースト』
-隕石のアイコン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イメージイラストを後で貼り付けておきます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『ガードアップ』
-守っている人のアイコン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『ロックウォール』
-岩のアイコン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『アイアンシールド』
-キラキラした盾</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『メタルボディ』
-キラキラした鎧</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『頑強の意思』
-仁王立ち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『ザ・フォートレス』
-大きな砦のアイコン</t>
+山頂である中央は平らでそこから大型が出現します
+○山
+骨、大岩、枯れ木など荒廃をイメージさせられるもの
+大型出現エリアとひと目でわかるように
+フィールドとは大きく違ったオブジェクトを配置したい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSRPG にゃむの思いつき(実装するかはわからない)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSRPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業中に思いついたアイデアを書き記すよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思いついたこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビィみたいな妖精さんに、ゲームの状況を実況して欲しい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一位王冠はあってもいいかも！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去のキャラクターをどこかに出せたら面白そうだが……(内輪ネタとか言わない)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『アイテム』について</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは『アイテム』を３つまで獲得する事ができます。
+『アイテム』の種類は回復と強化の二種類に分かれ、
+どのアイテムも拠点内で補充をすることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思いつきへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今後の野望、展望ってあるの？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンセプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれの戦略を編み出し、戦い方に色が出る対戦ゲームを開発しよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまで、我々が開発してきたゲームは基本的にキャラクターに合わせて戦術を変えていた。
+が、その戦術考案に自由度を持たせることによって、ユーザーが編み出す無限の戦略を見出すことが出来るのではないだろうか？
+という事で、そんな『自分で戦略を探すことが好き』なユーザーに対して、『戦略を編み出せる機会を多く設けたゲーム』を開発しよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このゲームはどんなゲーム？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSRPG(仮)は従来のRPGに含まれる戦闘、成長、アイテム、ボス敵などをコンパクトにまとめ、
+それに対戦要素を組み合わせることで出来た、『対戦型RPG』である。
+MOVA系とも似ているが、そことは違い戦闘はアクション要素を多めに取り入れている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下の方が未完だったので追記</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインのカメラについて言及</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイトのラフを追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムのイメージ文を追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターの仕様について知りたい！
+モンスターAIはどんな感じ？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法の画像化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトについての追記</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターの能力＆イメージについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備忘録を知ってもらうために追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『アイテム』についてを追記</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1228,7 +1425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1411,6 +1608,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="24"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="24"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="26"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="26"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000099"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1432,7 +1709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1914,12 +2191,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2043,9 +2394,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2123,6 +2471,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2138,77 +2574,68 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2219,12 +2646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2249,69 +2670,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2339,20 +2718,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2363,15 +2745,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2393,24 +2766,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2435,37 +2826,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="25" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2473,6 +2927,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000099"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3235,15 +3694,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent3">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -3871,59 +4330,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>519113</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>661988</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="3"/>
-          <a:endCxn id="2" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5319713" y="1152526"/>
-          <a:ext cx="142875" cy="13125449"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2013333"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4604,6 +5010,273 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="四角形吹き出し 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="3352800"/>
+          <a:ext cx="1657350" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -74856"/>
+            <a:gd name="adj2" fmla="val -16189"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>補足</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="四角形吹き出し 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="13287375"/>
+          <a:ext cx="1847850" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 109875"/>
+            <a:gd name="adj2" fmla="val 2676"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全員が決定ボタンを押すと</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移行します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="四角形吹き出し 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="15430500"/>
+          <a:ext cx="1847850" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35133"/>
+            <a:gd name="adj2" fmla="val -136686"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スタッフロールです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>最後まで流し終わるか、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>何かのボタンを押すと</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移行します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="3"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5319713" y="1476376"/>
+          <a:ext cx="142875" cy="13125449"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2806667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5266,6 +5939,50 @@
         <a:xfrm>
           <a:off x="7715250" y="20840700"/>
           <a:ext cx="1847850" cy="3610037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1873251</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>391582</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3186998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7704668" y="15028334"/>
+          <a:ext cx="2624664" cy="3038831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6854,336 +7571,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M17"/>
+  <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="100" t="s">
+    <row r="1" spans="2:15" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:15" ht="66" customHeight="1" thickBot="1">
+      <c r="B2" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="90" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+    </row>
+    <row r="3" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B3" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="107" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+    </row>
+    <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B4" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111" t="s">
+      <c r="E4" s="112"/>
+      <c r="F4" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="112" t="s">
+      <c r="G4" s="110"/>
+      <c r="H4" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="111" t="s">
+      <c r="I4" s="115"/>
+      <c r="J4" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="114" t="s">
+      <c r="K4" s="110"/>
+      <c r="L4" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="115"/>
-    </row>
-    <row r="5" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M4" s="99"/>
+    </row>
+    <row r="5" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-    </row>
-    <row r="6" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="35"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="103" t="s">
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="2:15" ht="22.5" customHeight="1">
+      <c r="B6" s="210" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="211" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="212"/>
+    </row>
+    <row r="7" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
+      <c r="B7" s="213" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="215"/>
+    </row>
+    <row r="8" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
+      <c r="B8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="217"/>
+      <c r="L8" s="217"/>
+      <c r="M8" s="217"/>
+    </row>
+    <row r="9" spans="2:15" ht="23.25" customHeight="1">
+      <c r="B9" s="221" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="222"/>
+      <c r="K9" s="222"/>
+      <c r="L9" s="222"/>
+      <c r="M9" s="223"/>
+    </row>
+    <row r="10" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
+      <c r="B10" s="218" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="219"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="220"/>
+    </row>
+    <row r="11" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B11" s="86"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+    </row>
+    <row r="12" spans="2:15" ht="30" customHeight="1" thickBot="1">
+      <c r="B12" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="105"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="106" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="107"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-    </row>
-    <row r="9" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="92" t="s">
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="48" customHeight="1">
+      <c r="B14" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="93" t="s">
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="240">
+        <v>42653</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="31.5" customHeight="1">
+      <c r="B15" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="241">
+        <v>42653</v>
+      </c>
+      <c r="O15" s="228" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="31.5" customHeight="1">
+      <c r="B16" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="240">
+        <v>42653</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="42.75" customHeight="1">
+      <c r="B17" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-    </row>
-    <row r="10" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-    </row>
-    <row r="11" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-    </row>
-    <row r="12" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98" t="s">
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="241">
+        <v>42653</v>
+      </c>
+      <c r="O17" s="228" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="45.75" customHeight="1">
+      <c r="B18" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-    </row>
-    <row r="13" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-    </row>
-    <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="96" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-    </row>
-    <row r="15" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="93" t="s">
-        <v>212</v>
-      </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="224">
+        <v>42651</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="30" customHeight="1">
+      <c r="B19" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="234">
+        <v>42649</v>
+      </c>
+      <c r="O19" s="228" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="30" customHeight="1">
+      <c r="B20" s="100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="240">
+        <v>42653</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="30" customHeight="1">
+      <c r="B21" s="92" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="241">
+        <v>42653</v>
+      </c>
+      <c r="O21" s="228" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="34.5" customHeight="1">
+      <c r="B22" s="225" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="233" t="s">
+        <v>265</v>
+      </c>
+      <c r="I22" s="233"/>
+      <c r="J22" s="233"/>
+      <c r="K22" s="233"/>
+      <c r="L22" s="233"/>
+      <c r="M22" s="233"/>
+      <c r="N22" s="242">
+        <v>42653</v>
+      </c>
+      <c r="O22" s="227" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B9:G9"/>
+  <mergeCells count="38">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B12:O12"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H10:M10" location="フローチャート!A1" display="フローチャート!A1"/>
-    <hyperlink ref="H9:M9" location="ゲームルール!A1" display="ゲームルールへ"/>
-    <hyperlink ref="H12:M12" location="プレイヤー!A1" display="プレイヤーへ"/>
-    <hyperlink ref="H13:M13" location="アイテム!A1" display="アイテムへ"/>
-    <hyperlink ref="H11:M11" location="各画面仕様!A1" display="各画面仕様へ"/>
-    <hyperlink ref="H14:M14" location="操作方法!A1" display="操作方法へ"/>
-    <hyperlink ref="H15:M15" location="ステージ!A1" display="ステージへ"/>
+    <hyperlink ref="H15:M15" location="フローチャート!A1" display="フローチャート!A1"/>
+    <hyperlink ref="H14:M14" location="ゲームルール!A1" display="ゲームルールへ"/>
+    <hyperlink ref="H17:M17" location="プレイヤー!A1" display="プレイヤーへ"/>
+    <hyperlink ref="H18:M18" location="アイテム!A1" display="アイテムへ"/>
+    <hyperlink ref="H16:M16" location="各画面仕様!A1" display="各画面仕様へ"/>
+    <hyperlink ref="H19:M19" location="操作方法!A1" display="操作方法へ"/>
+    <hyperlink ref="H20:M20" location="ステージ!A1" display="ステージへ"/>
+    <hyperlink ref="H22:M22" location="思いつき!A1" display="思いつきへ"/>
+    <hyperlink ref="H21:M21" location="モンスター!A1" display="モンスターへ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7192,34 +8097,255 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="162" t="s">
+    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A1" s="137" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="231" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="163"/>
+      <c r="N1" s="232"/>
+    </row>
+    <row r="2" spans="1:14" s="68" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="206" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
+    <row r="5" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B5" s="198" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="207" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="209"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="207" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="209"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="207" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="209"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="207"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="209"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="207"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="209"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="207"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="209"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="207"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="208"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="209"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="207"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="209"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="207"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="209"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="207"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="209"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="207"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="209"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="207"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="209"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="M1:N1" location="Top!A1" display="戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A1" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="184" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7228,7 +8354,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="M1:N1" location="Sheet1!A1" display="戻る"/>
+    <hyperlink ref="M1:N1" location="Top!A1" display="戻る"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -7240,71 +8366,71 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27:L27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A1" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="129" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="130"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N1" s="127"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
+    <row r="5" spans="1:14" ht="25.5" customHeight="1">
+      <c r="B5" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
-    </row>
-    <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="133" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="129"/>
+    </row>
+    <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1">
+      <c r="B6" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" thickBot="1">
       <c r="B7" s="49"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
@@ -7317,39 +8443,39 @@
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="1:14">
+      <c r="B8" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="140" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="147"/>
-    </row>
-    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="116" t="s">
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="141"/>
+    </row>
+    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="B9" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="144"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" thickBot="1">
       <c r="B10" s="49"/>
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
@@ -7362,141 +8488,141 @@
       <c r="K10" s="50"/>
       <c r="L10" s="50"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="54" t="s">
+    <row r="11" spans="1:14">
+      <c r="B11" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="132"/>
-    </row>
-    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="133" t="s">
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
+    </row>
+    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B12" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="135"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="141" t="s">
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="132"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="123" t="s">
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="147" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="119" t="s">
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="148"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="125" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="126"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="119" t="s">
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="150"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="125" t="s">
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="126"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="119" t="s">
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="150"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="125" t="s">
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="119" t="s">
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="150"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="125" t="s">
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="126"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="121" t="s">
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="150"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B18" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="127" t="s">
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="151" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="128"/>
-    </row>
-    <row r="19" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="152"/>
+    </row>
+    <row r="19" spans="2:12" ht="14.25" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -7509,39 +8635,39 @@
       <c r="K19" s="51"/>
       <c r="L19" s="51"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="55" t="s">
+    <row r="20" spans="2:12">
+      <c r="B20" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="146" t="s">
+      <c r="C20" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="147"/>
-    </row>
-    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="116" t="s">
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="141"/>
+    </row>
+    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1">
+      <c r="B21" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="118"/>
-    </row>
-    <row r="22" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="144"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.25" thickBot="1">
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -7554,106 +8680,118 @@
       <c r="K22" s="50"/>
       <c r="L22" s="50"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="54" t="s">
+    <row r="23" spans="2:12">
+      <c r="B23" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="132"/>
-    </row>
-    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="133" t="s">
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="129"/>
+    </row>
+    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1">
+      <c r="B24" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="135"/>
-    </row>
-    <row r="25" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="137"/>
-    </row>
-    <row r="27" spans="2:12" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="139"/>
-      <c r="L27" s="140"/>
-    </row>
-    <row r="28" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="137"/>
-    </row>
-    <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="140"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="132"/>
+    </row>
+    <row r="25" spans="2:12" ht="14.25" thickBot="1"/>
+    <row r="26" spans="2:12">
+      <c r="B26" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="121" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="122"/>
+    </row>
+    <row r="27" spans="2:12" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B27" s="123" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+    </row>
+    <row r="28" spans="2:12" ht="14.25" thickBot="1"/>
+    <row r="29" spans="2:12">
+      <c r="B29" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="122"/>
+    </row>
+    <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1">
+      <c r="B30" s="123" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="C29:L29"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="M1:N1"/>
@@ -7670,18 +8808,6 @@
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="C23:L23"/>
     <mergeCell ref="B24:L24"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7701,32 +8827,32 @@
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:15" ht="39.75" customHeight="1">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="148" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="153" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="149"/>
+      <c r="N1" s="154"/>
       <c r="O1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="25.5">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -7742,7 +8868,7 @@
       <c r="M2" s="44"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7776,243 +8902,237 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A1" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="159"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B3" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
+    <row r="6" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B6" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="157"/>
+    </row>
+    <row r="7" spans="1:14" ht="296.25" customHeight="1">
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="162"/>
+    </row>
+    <row r="8" spans="1:14" ht="78.75" customHeight="1" thickBot="1">
+      <c r="B8" s="163" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="165"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" thickBot="1"/>
+    <row r="10" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B10" s="155" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="157"/>
+    </row>
+    <row r="11" spans="1:14" ht="331.5" customHeight="1">
+      <c r="B11" s="166"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="168"/>
+      <c r="M11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1">
+      <c r="B12" s="163" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" thickBot="1"/>
+    <row r="14" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B14" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="162" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="163"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="72" t="s">
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="157"/>
+    </row>
+    <row r="15" spans="1:14" ht="329.25" customHeight="1">
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="168"/>
+    </row>
+    <row r="16" spans="1:14" ht="144.75" customHeight="1" thickBot="1">
+      <c r="B16" s="163" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="165"/>
+    </row>
+    <row r="17" spans="2:12" ht="14.25" thickBot="1"/>
+    <row r="18" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B18" s="155" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="159" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="161"/>
-    </row>
-    <row r="7" spans="1:14" ht="296.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="150"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="152"/>
-    </row>
-    <row r="8" spans="1:14" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="153" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="155"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="159" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="161"/>
-    </row>
-    <row r="11" spans="1:14" ht="331.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="158"/>
-      <c r="M11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="153" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="155"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="159" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="161"/>
-    </row>
-    <row r="15" spans="1:14" ht="329.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="156"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="158"/>
-    </row>
-    <row r="16" spans="1:14" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="153" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="155"/>
-    </row>
-    <row r="17" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="159" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="161"/>
-    </row>
-    <row r="19" spans="2:12" ht="329.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="150"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-    </row>
-    <row r="20" spans="2:12" ht="143.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="153" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="155"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="157"/>
+    </row>
+    <row r="19" spans="2:12" ht="329.25" customHeight="1">
+      <c r="B19" s="160"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="162"/>
+    </row>
+    <row r="20" spans="2:12" ht="143.25" customHeight="1" thickBot="1">
+      <c r="B20" s="163" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B11:L11"/>
@@ -8021,6 +9141,12 @@
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8040,12 +9166,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
@@ -8057,30 +9183,30 @@
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A1" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="148" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="153" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="149"/>
+      <c r="N1" s="154"/>
       <c r="O1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
       <c r="A2" s="48"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -8096,9 +9222,9 @@
       <c r="M2" s="44"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>163</v>
       </c>
       <c r="C3" s="52"/>
@@ -8113,14 +9239,14 @@
       <c r="L3" s="43"/>
       <c r="M3" s="44"/>
       <c r="N3" s="45"/>
-      <c r="O3" s="59"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.75" customHeight="1">
       <c r="A4" s="48"/>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="238" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="239" t="s">
         <v>164</v>
       </c>
       <c r="D4" s="52"/>
@@ -8135,7 +9261,7 @@
       <c r="M4" s="44"/>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="12.75" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
@@ -8151,7 +9277,7 @@
       <c r="M5" s="44"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="12" customHeight="1" thickBot="1">
       <c r="A6" s="46"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -8167,16 +9293,16 @@
       <c r="M6" s="44"/>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="145"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -8185,7 +9311,7 @@
       <c r="M7" s="44"/>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A8" s="46"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -8201,7 +9327,7 @@
       <c r="M8" s="44"/>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="25.5" customHeight="1" thickBot="1">
       <c r="A9" s="12"/>
       <c r="B9" s="7" t="s">
         <v>1</v>
@@ -8221,11 +9347,11 @@
       <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H9" s="60"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="58"/>
+    </row>
+    <row r="10" spans="1:15" ht="40.5">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -8247,9 +9373,9 @@
       <c r="G10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="62"/>
-    </row>
-    <row r="11" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H10" s="61"/>
+    </row>
+    <row r="11" spans="1:15" ht="40.5">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -8272,7 +9398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="40.5">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -8295,7 +9421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="40.5">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -8318,7 +9444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="40.5">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -8341,7 +9467,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="54.75" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -8364,7 +9490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -8384,369 +9510,369 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="164" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="166"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="159" t="s">
+    <row r="20" spans="1:7" ht="14.25" thickBot="1"/>
+    <row r="21" spans="1:7" ht="21.75" thickBot="1">
+      <c r="B21" s="175" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="177"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" thickBot="1"/>
+    <row r="23" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B23" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="159" t="s">
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="160"/>
-      <c r="G23" s="161"/>
-    </row>
-    <row r="24" spans="1:7" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="156"/>
+      <c r="G23" s="157"/>
+    </row>
+    <row r="24" spans="1:7" ht="100.5" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="169"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="168" t="s">
+      <c r="F24" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="169"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="159" t="s">
+      <c r="G24" s="174"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B25" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="160"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="159" t="s">
+      <c r="C25" s="156"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="160"/>
-      <c r="G25" s="161"/>
-    </row>
-    <row r="26" spans="1:7" ht="266.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="159"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="161"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="159" t="s">
+      <c r="F25" s="156"/>
+      <c r="G25" s="157"/>
+    </row>
+    <row r="26" spans="1:7" ht="266.25" customHeight="1" thickBot="1">
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" thickBot="1"/>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B28" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="160"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="159" t="s">
+      <c r="C28" s="156"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="160"/>
-      <c r="G28" s="161"/>
-    </row>
-    <row r="29" spans="1:7" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
+    </row>
+    <row r="29" spans="1:7" ht="134.25" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="168" t="s">
+      <c r="C29" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="169"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="168" t="s">
+      <c r="F29" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="169"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="159" t="s">
+      <c r="G29" s="174"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B30" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="159" t="s">
+      <c r="C30" s="156"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="160"/>
-      <c r="G30" s="161"/>
-    </row>
-    <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="159"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="161"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="159" t="s">
+      <c r="F30" s="156"/>
+      <c r="G30" s="157"/>
+    </row>
+    <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1">
+      <c r="B31" s="155"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="157"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" thickBot="1"/>
+    <row r="33" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B33" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="160"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="159" t="s">
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="160"/>
-      <c r="G33" s="161"/>
-    </row>
-    <row r="34" spans="1:7" ht="164.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="156"/>
+      <c r="G33" s="157"/>
+    </row>
+    <row r="34" spans="1:7" ht="164.25" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="168" t="s">
+      <c r="C34" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="169"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="168" t="s">
+      <c r="F34" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="169"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="159" t="s">
+      <c r="G34" s="174"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B35" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="160"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="159" t="s">
+      <c r="C35" s="156"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="160"/>
-      <c r="G35" s="161"/>
-    </row>
-    <row r="36" spans="1:7" ht="294" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="159"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="161"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="159" t="s">
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
+    </row>
+    <row r="36" spans="1:7" ht="294" customHeight="1" thickBot="1">
+      <c r="B36" s="155"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="157"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1"/>
+    <row r="38" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B38" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="160"/>
-      <c r="D38" s="161"/>
-    </row>
-    <row r="39" spans="1:7" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="156"/>
+      <c r="D38" s="157"/>
+    </row>
+    <row r="39" spans="1:7" ht="126.75" customHeight="1" thickBot="1">
       <c r="B39" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="168" t="s">
+      <c r="C39" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="169"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="159" t="s">
+      <c r="D39" s="174"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B40" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="160"/>
-      <c r="D40" s="161"/>
-    </row>
-    <row r="41" spans="1:7" ht="267" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="159"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="161"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="200"/>
-      <c r="B46" s="167" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="145"/>
-    </row>
-    <row r="47" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="198" t="s">
-        <v>237</v>
-      </c>
-      <c r="B47" s="199"/>
-      <c r="C47" s="199"/>
-      <c r="D47" s="199"/>
-      <c r="E47" s="199"/>
-      <c r="F47" s="199"/>
-      <c r="G47" s="201"/>
-    </row>
-    <row r="48" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="156"/>
+      <c r="D40" s="157"/>
+    </row>
+    <row r="41" spans="1:7" ht="267" customHeight="1" thickBot="1">
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" thickBot="1"/>
+    <row r="46" spans="1:7" ht="21.75" thickBot="1">
+      <c r="A46" s="91"/>
+      <c r="B46" s="169" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="138"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="139"/>
+    </row>
+    <row r="47" spans="1:7" ht="21.75" thickBot="1">
+      <c r="A47" s="170" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="171"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
+      <c r="G47" s="172"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" thickBot="1">
       <c r="A48" s="12"/>
       <c r="B48" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="84" t="s">
+      <c r="E48" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="84" t="s">
+      <c r="F48" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="85" t="s">
+      <c r="G48" s="84" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="40.5">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="86" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="E49" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="86" t="s">
+      <c r="F49" s="85" t="s">
         <v>48</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="40.5">
       <c r="A50" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" s="82" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>239</v>
-      </c>
-      <c r="E50" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="82" t="s">
+      <c r="F50" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="40.5">
       <c r="A51" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C51" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="D51" s="82" t="s">
-        <v>240</v>
-      </c>
-      <c r="E51" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="82" t="s">
+      <c r="F51" s="81" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="40.5">
       <c r="A52" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="82" t="s">
+      <c r="F52" s="81" t="s">
         <v>45</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="40.5">
       <c r="A53" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C53" s="82" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" s="82" t="s">
-        <v>242</v>
-      </c>
-      <c r="E53" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="82" t="s">
+      <c r="F53" s="81" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="54.75" thickBot="1">
       <c r="A54" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C54" s="83" t="s">
-        <v>236</v>
-      </c>
-      <c r="D54" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E54" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="F54" s="83" t="s">
+      <c r="F54" s="82" t="s">
         <v>24</v>
       </c>
       <c r="G54" s="14" t="s">
@@ -8755,6 +9881,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A1:L1"/>
@@ -8771,24 +9915,6 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8811,7 +9937,7 @@
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
@@ -8819,30 +9945,30 @@
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A1" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="129" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="130"/>
+      <c r="N1" s="127"/>
       <c r="O1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
       <c r="A2" s="48"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -8858,12 +9984,12 @@
       <c r="M2" s="42"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
-      <c r="B3" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="68"/>
+      <c r="B3" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="67"/>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
@@ -8876,140 +10002,140 @@
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
     </row>
-    <row r="4" spans="1:15" s="69" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
-      <c r="B4" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-    </row>
-    <row r="5" spans="1:15" s="69" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-    </row>
-    <row r="6" spans="1:15" s="69" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="159" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="161"/>
-    </row>
-    <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="62"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="64"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="173" t="s">
+    <row r="4" spans="1:15" s="68" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="69"/>
+      <c r="B4" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+    </row>
+    <row r="5" spans="1:15" s="68" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+    </row>
+    <row r="6" spans="1:15" s="68" customFormat="1" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:15" ht="14.25" thickBot="1">
+      <c r="B7" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="157"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" thickBot="1">
+      <c r="B8" s="61"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="63"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="173" t="s">
+      <c r="C9" s="182"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="174"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F9" s="182"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="B10" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="59"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="19" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="14.25" thickBot="1">
       <c r="B11" s="21" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="59"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="19" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="62"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+    <row r="12" spans="1:15">
+      <c r="B12" s="61"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="19" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="62"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" thickBot="1">
+      <c r="B13" s="61"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="21" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="62"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="64"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="173" t="s">
+    <row r="14" spans="1:15" ht="14.25" thickBot="1">
+      <c r="B14" s="61"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="63"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="173" t="s">
+      <c r="C15" s="182"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="174"/>
-    </row>
-    <row r="16" spans="1:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="75" t="s">
+      <c r="F15" s="182"/>
+    </row>
+    <row r="16" spans="1:15" ht="27.75" thickBot="1">
+      <c r="B16" s="74" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="39" t="s">
         <v>85</v>
       </c>
@@ -9017,466 +10143,466 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="75" t="s">
+    <row r="17" spans="2:12" ht="27">
+      <c r="B17" s="74" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="64"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="75" t="s">
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="63"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="74" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="64"/>
-    </row>
-    <row r="19" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="76" t="s">
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B19" s="75" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="64"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="62"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="64"/>
-    </row>
-    <row r="21" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="62"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="64"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="173" t="s">
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="63"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="61"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="63"/>
+    </row>
+    <row r="21" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B21" s="61"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="63"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="64"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C22" s="182"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="63"/>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="64"/>
-    </row>
-    <row r="24" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="63"/>
+    </row>
+    <row r="24" spans="2:12" ht="14.25" thickBot="1">
       <c r="B24" s="21" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="64"/>
-    </row>
-    <row r="25" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-    </row>
-    <row r="26" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="159" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="161"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="158"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="150"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="150"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="152"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="150"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="152"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="150"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="152"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B33" s="150"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="152"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B34" s="150"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B35" s="150"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="152"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B36" s="150"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="152"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B37" s="150"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="152"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B38" s="150"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="152"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B39" s="150"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="152"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B40" s="150"/>
-      <c r="C40" s="151"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="152"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="150"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="152"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="150"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="152"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="150"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="152"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="150"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="152"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="150"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="151"/>
-      <c r="K45" s="151"/>
-      <c r="L45" s="152"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B46" s="150"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="151"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="151"/>
-      <c r="L46" s="152"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B47" s="150"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="151"/>
-      <c r="L47" s="152"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B48" s="150"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="152"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B49" s="150"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="151"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="152"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B50" s="150"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="151"/>
-      <c r="K50" s="151"/>
-      <c r="L50" s="152"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B51" s="150"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="151"/>
-      <c r="K51" s="151"/>
-      <c r="L51" s="152"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B52" s="150"/>
-      <c r="C52" s="151"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="151"/>
-      <c r="K52" s="151"/>
-      <c r="L52" s="152"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B53" s="150"/>
-      <c r="C53" s="151"/>
-      <c r="D53" s="151"/>
-      <c r="E53" s="151"/>
-      <c r="F53" s="151"/>
-      <c r="G53" s="151"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="151"/>
-      <c r="K53" s="151"/>
-      <c r="L53" s="152"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" s="150"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="151"/>
-      <c r="F54" s="151"/>
-      <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="151"/>
-      <c r="K54" s="151"/>
-      <c r="L54" s="152"/>
-    </row>
-    <row r="55" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="170"/>
-      <c r="C55" s="171"/>
-      <c r="D55" s="171"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="171"/>
-      <c r="J55" s="171"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="172"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="63"/>
+    </row>
+    <row r="25" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+    </row>
+    <row r="26" spans="2:12" ht="14.25" thickBot="1"/>
+    <row r="27" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B27" s="155" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="157"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="168"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="160"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="162"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="160"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="162"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="160"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="162"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="160"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="162"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="160"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="162"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="160"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="162"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="160"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="162"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="160"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="162"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="160"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="162"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="160"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="162"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="160"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="162"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="160"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="162"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="160"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="162"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="160"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="162"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="160"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="162"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="160"/>
+      <c r="C44" s="161"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="162"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="160"/>
+      <c r="C45" s="161"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="161"/>
+      <c r="L45" s="162"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="160"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="161"/>
+      <c r="L46" s="162"/>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="160"/>
+      <c r="C47" s="161"/>
+      <c r="D47" s="161"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="161"/>
+      <c r="J47" s="161"/>
+      <c r="K47" s="161"/>
+      <c r="L47" s="162"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="160"/>
+      <c r="C48" s="161"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="161"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="161"/>
+      <c r="J48" s="161"/>
+      <c r="K48" s="161"/>
+      <c r="L48" s="162"/>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="160"/>
+      <c r="C49" s="161"/>
+      <c r="D49" s="161"/>
+      <c r="E49" s="161"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="161"/>
+      <c r="J49" s="161"/>
+      <c r="K49" s="161"/>
+      <c r="L49" s="162"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="160"/>
+      <c r="C50" s="161"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="161"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="161"/>
+      <c r="L50" s="162"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="160"/>
+      <c r="C51" s="161"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="161"/>
+      <c r="F51" s="161"/>
+      <c r="G51" s="161"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="161"/>
+      <c r="L51" s="162"/>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="160"/>
+      <c r="C52" s="161"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="161"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="161"/>
+      <c r="K52" s="161"/>
+      <c r="L52" s="162"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="160"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="161"/>
+      <c r="L53" s="162"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="160"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="161"/>
+      <c r="L54" s="162"/>
+    </row>
+    <row r="55" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B55" s="178"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="179"/>
+      <c r="G55" s="179"/>
+      <c r="H55" s="179"/>
+      <c r="I55" s="179"/>
+      <c r="J55" s="179"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9505,14 +10631,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="4" width="9" customWidth="1"/>
@@ -9521,168 +10647,197 @@
     <col min="7" max="7" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:14" ht="46.5" customHeight="1">
+      <c r="A1" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="162" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="163"/>
-      <c r="O1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
+      <c r="N1" s="159"/>
+    </row>
+    <row r="2" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A2" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="44"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="197" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+      <c r="G5" s="90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="G6" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E7" s="18">
         <v>15</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="G7" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E8" s="18">
         <v>15</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="G8" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E9" s="18">
         <v>30</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="22"/>
+      <c r="G9" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9691,7 +10846,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C10">
       <formula1>"回復,強化,補助"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9705,43 +10860,160 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="176" t="s">
+    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A1" s="137" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="176"/>
+      <c r="N1" s="230"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" thickBot="1"/>
+    <row r="4" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B4" s="236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B5" s="237" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" thickBot="1"/>
+    <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B8" s="198" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="205"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="59.25" customHeight="1">
+      <c r="B10" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="18">
+        <v>10</v>
+      </c>
+      <c r="D10" s="18">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18">
+        <v>3</v>
+      </c>
+      <c r="H10" s="18">
+        <v>5</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="235" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B8:K8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="M1:N1" location="Top!A1" display="戻る"/>
+    <hyperlink ref="B5" location="モンスターの能力値" display="能力値"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -9757,452 +11029,452 @@
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A1" s="137" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="229" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="230"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" thickBot="1">
+      <c r="B3" s="71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="162" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="163"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="173" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="174"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="178"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="178"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="178"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="180"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="178"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="180"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="178"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="180"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="178"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="180"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="178"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="180"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="178"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="180"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="178"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="178"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="180"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="178"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="180"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="178"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="180"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="178"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="180"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="178"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="180"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="178"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="178"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="180"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="178"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="180"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="178"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="180"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="178"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="180"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="178"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="178"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="180"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="178"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="180"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="178"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="180"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="178"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="180"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="178"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="180"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="178"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="180"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="178"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="180"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="178"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="180"/>
-    </row>
-    <row r="35" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="181"/>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="182"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="182"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="183"/>
-    </row>
-    <row r="37" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="184" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="186"/>
-    </row>
-    <row r="39" spans="2:10" ht="175.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="187"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="188" t="s">
-        <v>191</v>
-      </c>
-      <c r="G39" s="189"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="189"/>
-      <c r="J39" s="190"/>
-    </row>
-    <row r="40" spans="2:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="178"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="179"/>
-      <c r="F40" s="191" t="s">
-        <v>193</v>
-      </c>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
-      <c r="J40" s="193"/>
-    </row>
-    <row r="41" spans="2:10" ht="180.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="181"/>
-      <c r="C41" s="182"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="194" t="s">
-        <v>194</v>
-      </c>
-      <c r="G41" s="195"/>
-      <c r="H41" s="195"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="196"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
+    <row r="6" spans="1:14">
+      <c r="B6" s="181" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="182"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="196"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="188"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="196"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="188"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="196"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="188"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="196"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="188"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="196"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="188"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="196"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="188"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="196"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="188"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="196"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="188"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="196"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="188"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="196"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="188"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="196"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="188"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="196"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="188"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="196"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="188"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="196"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="188"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="196"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="188"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="196"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="188"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="196"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="188"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="196"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="188"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="196"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="188"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="196"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="188"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="196"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="188"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="196"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="188"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="196"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="188"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="196"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="188"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="196"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="188"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="196"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="188"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="196"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="188"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="196"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.25" thickBot="1">
+      <c r="B35" s="190"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="197"/>
+    </row>
+    <row r="37" spans="2:10" ht="14.25" thickBot="1"/>
+    <row r="38" spans="2:10" ht="14.25" thickBot="1">
+      <c r="B38" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="199"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="200"/>
+    </row>
+    <row r="39" spans="2:10" ht="189" customHeight="1">
+      <c r="B39" s="201"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="202" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="203"/>
+      <c r="H39" s="203"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
+    </row>
+    <row r="40" spans="2:10" ht="313.5" customHeight="1">
+      <c r="B40" s="188"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="185" t="s">
+        <v>254</v>
+      </c>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="187"/>
+    </row>
+    <row r="41" spans="2:10" ht="267.75" customHeight="1" thickBot="1">
+      <c r="B41" s="190"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="192" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" s="193"/>
+      <c r="H41" s="193"/>
+      <c r="I41" s="193"/>
+      <c r="J41" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B7:J35"/>
     <mergeCell ref="B38:J38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="M1:N1" location="Sheet1!A1" display="戻る"/>
+    <hyperlink ref="M1:N1" location="Top!A1" display="戻る"/>
     <hyperlink ref="B4" location="ステージ全景_イメージ" display="全景イメージ"/>
     <hyperlink ref="C4" location="各エリア解説" display="エリア解説"/>
   </hyperlinks>

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="317">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -287,11 +287,6 @@
     <t>『メテオバースト』
 魔法攻撃が三方向に増える
 Mat+15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『盗賊の極意』
-武器攻撃がヒットしたら経験値を2獲得</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1047,10 +1042,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最終更新2016/10/8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑦</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1151,11 +1142,6 @@
   <si>
     <t>『頑強の意思』
 仁王立ち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『ザ・フォートレス』
-大きな砦のアイコン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1231,13 +1217,6 @@
   </si>
   <si>
     <t>小型スライム型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>聖剣伝説のラビが近い
-スライム型の身体に
-獣の耳と尻尾
-体当たりで攻撃する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1294,10 +1273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VSRPG にゃむの思いつき(実装するかはわからない)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VSRPG</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1326,17 +1301,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーは『アイテム』を３つまで獲得する事ができます。
-『アイテム』の種類は回復と強化の二種類に分かれ、
-どのアイテムも拠点内で補充をすることができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>思いつきへ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今後の野望、展望ってあるの？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1354,10 +1319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最終更新2016/10/11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このゲームはどんなゲーム？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1413,11 +1374,201 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>備忘録を知ってもらうために追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>『アイテム』についてを追記</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジックガード』
+盾に魔法のアイコンが描かれている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マギカマッシブ』
+マッスルポーズにオーラをまとわせるシルエット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ミラーコーティング』
+鏡が光を跳ね返している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『薬の知識』
+フラスコにブクブクの泡を立てた液体</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『デュアルバリアー』
+二つの盾、それぞれ別の色に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ホーリーリザレクション』
+天使の輪っかと羽に天から光が差し込む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『そよ風』
+そよ風が流れている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『陽炎』
+回避している人に残像がついてきている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『疾走』
+ダッシュしている人のシルエット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『無影』
+躍動感あふれる回避をしている人のシルエット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『電光石火』
+イナズマの軌跡と共にダッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『完全隠密』
+物陰に身を隠しているシルエット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『物覚え』
+閃いた人のシルエット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ラッキーヒット』
+剣から星が飛び出しているイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ラーニング』
+考える人(石像)をスッピン君がとっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ねこばば』
+コインが地べたに巻かれている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『大物狙い』
+ドラゴンと人のアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『盗賊の極意』
+バンダナとナイフのアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『ザ・フォートレス』
+大きな砦のアイコン
+盾マークがあると好ましい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴロンと前転で回避　プログラムで前進をさせます　イメージ：モンハンの通常回避</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーモーションのイメージ表　(画像は追記)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは『アイテム』を３つまで獲得する事ができます。
+『アイテム』の種類は回復と強化の二種類に分かれ、
+どのアイテムも拠点内で補充をすることができます。
+(！要会議！)
+アイテムの獲得方法について
+専用メニューを開いて獲得するのか、ステージ上に置かれたモデルに触れて獲得するのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖剣伝説のラビが近い
+スライム型の身体に
+獣の耳と尻尾を持つ
+体当たりで攻撃する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『盗賊の極意』
+武器攻撃がヒットしたら
+経験値を2獲得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSRPG にゃむの思いつき＆問題点(実装するかはわからない)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを攻撃しないかもしれない
+　→妨害の旨みが薄いため？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状の問題点・疑問点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続攻撃はするべきか？
+　→一発一発打ってると地味？
+　→だが、やりすぎると魔法を使わなくなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状の問題点を追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今後の野望、展望ってあるの？
+何か問題点はあるの？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2270,7 +2421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2487,424 +2638,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2918,8 +2664,458 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="25" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="26" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -6477,6 +6673,231 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2312989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="23474" r="18567"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="4781550"/>
+          <a:ext cx="2314575" cy="2246314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1123949</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>895349</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2543175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="20824" r="18894"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296024" y="4813837"/>
+          <a:ext cx="2619375" cy="2444213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2726642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24564" r="25995"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="7423628"/>
+          <a:ext cx="2343149" cy="2665839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2599113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="22448" r="23122"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315074" y="7422299"/>
+          <a:ext cx="2457451" cy="2539639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>65484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3076575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1962150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10734" r="8475"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="2151459"/>
+          <a:ext cx="2724150" cy="1896666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -7223,15 +7644,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>714375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>260351</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1490663</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7573,7 +7994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -7584,64 +8005,64 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:15" ht="66" customHeight="1" thickBot="1">
-      <c r="B2" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="B2" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="143" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="144" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+    </row>
+    <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B4" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="120" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-    </row>
-    <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B4" s="109" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111" t="s">
+      <c r="E4" s="121"/>
+      <c r="F4" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113" t="s">
+      <c r="G4" s="119"/>
+      <c r="H4" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="114" t="s">
+      <c r="I4" s="124"/>
+      <c r="J4" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="115"/>
-      <c r="J4" s="113" t="s">
+      <c r="K4" s="119"/>
+      <c r="L4" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="99"/>
+      <c r="M4" s="111"/>
     </row>
     <row r="5" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B5" s="35"/>
@@ -7658,84 +8079,84 @@
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="2:15" ht="22.5" customHeight="1">
-      <c r="B6" s="210" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="211" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="212"/>
+      <c r="B6" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="126"/>
     </row>
     <row r="7" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B7" s="213" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="215"/>
+      <c r="B7" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="129"/>
     </row>
     <row r="8" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B8" s="216"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="217"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B9" s="221" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="222"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="222"/>
-      <c r="J9" s="222"/>
-      <c r="K9" s="222"/>
-      <c r="L9" s="222"/>
-      <c r="M9" s="223"/>
+      <c r="B9" s="133" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="135"/>
     </row>
     <row r="10" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B10" s="218" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="220"/>
+      <c r="B10" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="132"/>
     </row>
     <row r="11" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B11" s="86"/>
@@ -7752,290 +8173,290 @@
       <c r="M11" s="89"/>
     </row>
     <row r="12" spans="2:15" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="138"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="107"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="108" t="s">
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
       <c r="N13" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="48" customHeight="1">
+      <c r="B14" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="249">
+        <v>42653</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="31.5" customHeight="1">
+      <c r="B15" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="250">
+        <v>42653</v>
+      </c>
+      <c r="O15" s="98" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="31.5" customHeight="1">
+      <c r="B16" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="249">
+        <v>42653</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="42.75" customHeight="1">
+      <c r="B17" s="139" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="141" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="250">
+        <v>42653</v>
+      </c>
+      <c r="O17" s="98" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="45.75" customHeight="1">
+      <c r="B18" s="112" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="105">
+        <v>42655</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="30" customHeight="1">
+      <c r="B19" s="139" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="141" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="99">
+        <v>42649</v>
+      </c>
+      <c r="O19" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="O13" s="26" t="s">
+    </row>
+    <row r="20" spans="2:15" ht="30" customHeight="1">
+      <c r="B20" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="249">
+        <v>42653</v>
+      </c>
+      <c r="O20" s="18" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="48" customHeight="1">
-      <c r="B14" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="240">
+    <row r="21" spans="2:15" ht="30" customHeight="1">
+      <c r="B21" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="141" t="s">
+        <v>271</v>
+      </c>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="250">
         <v>42653</v>
       </c>
-      <c r="O14" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B15" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="241">
-        <v>42653</v>
-      </c>
-      <c r="O15" s="228" t="s">
+      <c r="O21" s="98" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B16" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="240">
-        <v>42653</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="42.75" customHeight="1">
-      <c r="B17" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="241">
-        <v>42653</v>
-      </c>
-      <c r="O17" s="228" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="45.75" customHeight="1">
-      <c r="B18" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="224">
-        <v>42651</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="30" customHeight="1">
-      <c r="B19" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="234">
-        <v>42649</v>
-      </c>
-      <c r="O19" s="228" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="30" customHeight="1">
-      <c r="B20" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="240">
-        <v>42653</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="30" customHeight="1">
-      <c r="B21" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="241">
-        <v>42653</v>
-      </c>
-      <c r="O21" s="228" t="s">
-        <v>283</v>
-      </c>
-    </row>
     <row r="22" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B22" s="225" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="226"/>
-      <c r="D22" s="226"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="233" t="s">
-        <v>265</v>
-      </c>
-      <c r="I22" s="233"/>
-      <c r="J22" s="233"/>
-      <c r="K22" s="233"/>
-      <c r="L22" s="233"/>
-      <c r="M22" s="233"/>
-      <c r="N22" s="242">
-        <v>42653</v>
-      </c>
-      <c r="O22" s="227" t="s">
-        <v>284</v>
+      <c r="B22" s="148" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="150" t="s">
+        <v>259</v>
+      </c>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="251">
+        <v>42655</v>
+      </c>
+      <c r="O22" s="97" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -8059,6 +8480,11 @@
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="H13:M13"/>
@@ -8072,11 +8498,6 @@
     <mergeCell ref="B10:M10"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8097,199 +8518,386 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="137" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="231" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="232"/>
+      <c r="A1" s="167" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="237" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="238"/>
     </row>
     <row r="2" spans="1:14" s="68" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="206" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
+      <c r="A2" s="239" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B5" s="198" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200"/>
+      <c r="B5" s="217" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="219"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="207" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="209"/>
+      <c r="B6" s="240" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="207" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208"/>
-      <c r="I7" s="209"/>
+      <c r="B7" s="240" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="242"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="207" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="209"/>
+      <c r="B8" s="240" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="242"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="207"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="209"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="242"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="207"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="209"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="242"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="207"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="208"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="208"/>
-      <c r="I11" s="209"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="242"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="207"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="209"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="241"/>
+      <c r="I12" s="242"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="207"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="209"/>
+      <c r="B13" s="240"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="242"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="207"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="209"/>
+      <c r="B14" s="240"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="242"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="207"/>
-      <c r="C15" s="208"/>
-      <c r="D15" s="208"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="209"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="242"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="207"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="209"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="207"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="209"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="242"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="240"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="242"/>
+    </row>
+    <row r="19" spans="2:11" ht="14.25" thickBot="1"/>
+    <row r="20" spans="2:11" ht="14.25" thickBot="1">
+      <c r="B20" s="217" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="219"/>
+    </row>
+    <row r="21" spans="2:11" ht="14.25" thickBot="1">
+      <c r="B21" s="254" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" s="255"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="255" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="255"/>
+      <c r="H21" s="255"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="255"/>
+      <c r="K21" s="256" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="27" customHeight="1">
+      <c r="B22" s="257" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="253"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="259">
+        <v>42655</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="47.25" customHeight="1">
+      <c r="B23" s="258" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="252"/>
+      <c r="H23" s="252"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="252"/>
+      <c r="K23" s="96">
+        <v>42655</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="252"/>
+      <c r="C24" s="252"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="252"/>
+      <c r="F24" s="252"/>
+      <c r="G24" s="252"/>
+      <c r="H24" s="252"/>
+      <c r="I24" s="252"/>
+      <c r="J24" s="252"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="252"/>
+      <c r="C25" s="252"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="252"/>
+      <c r="F25" s="252"/>
+      <c r="G25" s="252"/>
+      <c r="H25" s="252"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="252"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="252"/>
+      <c r="F26" s="252"/>
+      <c r="G26" s="252"/>
+      <c r="H26" s="252"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="252"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="252"/>
+      <c r="C27" s="252"/>
+      <c r="D27" s="252"/>
+      <c r="E27" s="252"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="252"/>
+      <c r="H27" s="252"/>
+      <c r="I27" s="252"/>
+      <c r="J27" s="252"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="252"/>
+      <c r="C28" s="252"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="252"/>
+      <c r="G28" s="252"/>
+      <c r="H28" s="252"/>
+      <c r="I28" s="252"/>
+      <c r="J28" s="252"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="252"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="252"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="252"/>
+      <c r="H29" s="252"/>
+      <c r="I29" s="252"/>
+      <c r="J29" s="252"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="252"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="252"/>
+      <c r="E30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="252"/>
+      <c r="H30" s="252"/>
+      <c r="I30" s="252"/>
+      <c r="J30" s="252"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="252"/>
+      <c r="C31" s="252"/>
+      <c r="D31" s="252"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="252"/>
+      <c r="I31" s="252"/>
+      <c r="J31" s="252"/>
+      <c r="K31" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="39">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B13:I13"/>
@@ -8320,7 +8928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
@@ -8328,24 +8936,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="184" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="184"/>
+      <c r="A1" s="167" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="243" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8366,69 +8974,69 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="137" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="126" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="127"/>
+      <c r="A1" s="167" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="156" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="157"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="B5" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="128" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="129"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="159"/>
     </row>
     <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1">
-      <c r="B6" s="130" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="132"/>
+      <c r="B6" s="160" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="162"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1">
       <c r="B7" s="49"/>
@@ -8445,35 +9053,35 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="170" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="171"/>
+    </row>
+    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="B9" s="172" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="141"/>
-    </row>
-    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B9" s="142" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="144"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="174"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
       <c r="B10" s="49"/>
@@ -8490,137 +9098,137 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="128" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="159"/>
+    </row>
+    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B12" s="160" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="129"/>
-    </row>
-    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B12" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="132"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="162"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="177" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="178"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="147" t="s">
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="148"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="135" t="s">
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="180"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="149" t="s">
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="179" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="150"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="135" t="s">
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="180"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="165" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="149" t="s">
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="179" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="150"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="135" t="s">
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="180"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="165" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="149" t="s">
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="150"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="135" t="s">
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="180"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B18" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="149" t="s">
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="181" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="150"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="145" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="151" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="152"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="182"/>
     </row>
     <row r="19" spans="2:12" ht="14.25" thickBot="1">
       <c r="B19" s="41"/>
@@ -8637,35 +9245,35 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="170" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="171"/>
+    </row>
+    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1">
+      <c r="B21" s="172" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="141"/>
-    </row>
-    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1">
-      <c r="B21" s="142" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="144"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="174"/>
     </row>
     <row r="22" spans="2:12" ht="14.25" thickBot="1">
       <c r="B22" s="49"/>
@@ -8682,101 +9290,101 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="158" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="159"/>
+    </row>
+    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1">
+      <c r="B24" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="129"/>
-    </row>
-    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B24" s="130" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="132"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="162"/>
     </row>
     <row r="25" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="26" spans="2:12">
       <c r="B26" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="121" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="122"/>
-    </row>
-    <row r="27" spans="2:12" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B27" s="123" t="s">
-        <v>264</v>
-      </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
+        <v>199</v>
+      </c>
+      <c r="C26" s="151" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
+    </row>
+    <row r="27" spans="2:12" ht="130.5" customHeight="1" thickBot="1">
+      <c r="B27" s="153" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
     </row>
     <row r="28" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="29" spans="2:12">
       <c r="B29" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="151" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
+    </row>
+    <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1">
+      <c r="B30" s="153" t="s">
         <v>198</v>
       </c>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="122"/>
-    </row>
-    <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1">
-      <c r="B30" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="125"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -8830,26 +9438,26 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="153" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="154"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="183" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="184"/>
       <c r="O1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="25.5">
@@ -8909,227 +9517,227 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="159"/>
+      <c r="A1" s="167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="189"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1">
       <c r="B3" s="71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="D4" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="E4" s="72" t="s">
         <v>196</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B6" s="155" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="157"/>
+      <c r="B6" s="185" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="187"/>
     </row>
     <row r="7" spans="1:14" ht="296.25" customHeight="1">
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="162"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="192"/>
     </row>
     <row r="8" spans="1:14" ht="78.75" customHeight="1" thickBot="1">
-      <c r="B8" s="163" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="165"/>
+      <c r="B8" s="193" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="195"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B10" s="155" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="157"/>
+      <c r="B10" s="185" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="187"/>
     </row>
     <row r="11" spans="1:14" ht="331.5" customHeight="1">
-      <c r="B11" s="166"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="168"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="198"/>
       <c r="M11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1">
+      <c r="B12" s="193" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1">
-      <c r="B12" s="163" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="165"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="195"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="14" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B14" s="155" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
+      <c r="B14" s="185" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="186"/>
+      <c r="L14" s="187"/>
     </row>
     <row r="15" spans="1:14" ht="329.25" customHeight="1">
-      <c r="B15" s="166"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="168"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="198"/>
     </row>
     <row r="16" spans="1:14" ht="144.75" customHeight="1" thickBot="1">
-      <c r="B16" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="165"/>
+      <c r="B16" s="193" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="195"/>
     </row>
     <row r="17" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="155" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="157"/>
+      <c r="B18" s="185" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
+      <c r="L18" s="187"/>
     </row>
     <row r="19" spans="2:12" ht="329.25" customHeight="1">
-      <c r="B19" s="160"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="162"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="192"/>
     </row>
     <row r="20" spans="2:12" ht="143.25" customHeight="1" thickBot="1">
-      <c r="B20" s="163" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="165"/>
+      <c r="B20" s="193" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9164,11 +9772,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9184,26 +9792,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="153" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="154"/>
+      <c r="A1" s="167" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="183" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="184"/>
       <c r="O1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
@@ -9225,7 +9833,7 @@
     <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
       <c r="B3" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -9243,11 +9851,11 @@
     </row>
     <row r="4" spans="1:15" ht="24.75" customHeight="1">
       <c r="A4" s="48"/>
-      <c r="B4" s="238" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="239" t="s">
-        <v>164</v>
+      <c r="B4" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
@@ -9295,14 +9903,14 @@
     </row>
     <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="169" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="139"/>
+      <c r="B7" s="200" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="169"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -9356,7 +9964,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>55</v>
@@ -9365,13 +9973,13 @@
         <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="61"/>
     </row>
@@ -9380,7 +9988,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
@@ -9389,13 +9997,13 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="40.5">
@@ -9403,22 +10011,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40.5">
@@ -9426,22 +10034,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40.5">
@@ -9449,22 +10057,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="54.75" thickBot="1">
@@ -9472,7 +10080,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>56</v>
@@ -9481,13 +10089,13 @@
         <v>52</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>57</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -9495,230 +10103,230 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="21" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B21" s="175" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="177"/>
+      <c r="B21" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="208"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B23" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="155" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="156"/>
-      <c r="G23" s="157"/>
+      <c r="B23" s="185" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="185" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="186"/>
+      <c r="G23" s="187"/>
     </row>
     <row r="24" spans="1:7" ht="100.5" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="204" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="205"/>
+      <c r="E24" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="204" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="205"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B25" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="173" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="174"/>
-      <c r="E24" s="23" t="s">
+      <c r="C25" s="186"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="174"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B25" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="156"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="156"/>
-      <c r="G25" s="157"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="187"/>
     </row>
     <row r="26" spans="1:7" ht="266.25" customHeight="1" thickBot="1">
-      <c r="B26" s="155"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="157"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="187"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="28" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="185" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="156"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="155" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="156"/>
-      <c r="G28" s="157"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="187"/>
     </row>
     <row r="29" spans="1:7" ht="134.25" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="204" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="205"/>
+      <c r="E29" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="204" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="205"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B30" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="173" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="23" t="s">
+      <c r="C30" s="186"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="173" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="174"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B30" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="156"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="156"/>
-      <c r="G30" s="157"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="187"/>
     </row>
     <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1">
-      <c r="B31" s="155"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="157"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="187"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="33" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B33" s="155" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="156"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="155" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="156"/>
-      <c r="G33" s="157"/>
+      <c r="B33" s="185" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="186"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="185" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="186"/>
+      <c r="G33" s="187"/>
     </row>
     <row r="34" spans="1:7" ht="164.25" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="204" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="205"/>
+      <c r="E34" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="204" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="205"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B35" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="173" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="174"/>
-      <c r="E34" s="23" t="s">
+      <c r="C35" s="186"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="173" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="174"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B35" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="156"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="156"/>
-      <c r="G35" s="157"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="187"/>
     </row>
     <row r="36" spans="1:7" ht="294" customHeight="1" thickBot="1">
-      <c r="B36" s="155"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="157"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="187"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="38" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B38" s="155" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="157"/>
+      <c r="B38" s="185" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="186"/>
+      <c r="D38" s="187"/>
     </row>
     <row r="39" spans="1:7" ht="126.75" customHeight="1" thickBot="1">
       <c r="B39" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="204" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="205"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B40" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="173" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="174"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B40" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="156"/>
-      <c r="D40" s="157"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="187"/>
     </row>
     <row r="41" spans="1:7" ht="267" customHeight="1" thickBot="1">
-      <c r="B41" s="155"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="157"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="187"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="46" spans="1:7" ht="21.75" thickBot="1">
       <c r="A46" s="91"/>
-      <c r="B46" s="169" t="s">
-        <v>214</v>
-      </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="139"/>
+      <c r="B46" s="200" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="169"/>
     </row>
     <row r="47" spans="1:7" ht="21.75" thickBot="1">
-      <c r="A47" s="170" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="171"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="172"/>
+      <c r="A47" s="201" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" s="202"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="202"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="203"/>
     </row>
     <row r="48" spans="1:7" ht="14.25" thickBot="1">
       <c r="A48" s="12"/>
@@ -9746,22 +10354,22 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C49" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D49" s="85" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E49" s="85" t="s">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="F49" s="85" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>60</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="40.5">
@@ -9769,22 +10377,22 @@
         <v>8</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E50" s="81" t="s">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="F50" s="81" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>66</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="40.5">
@@ -9792,22 +10400,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D51" s="81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="F51" s="81" t="s">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="40.5">
@@ -9815,72 +10423,179 @@
         <v>10</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E52" s="81" t="s">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="F52" s="81" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="40.5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="27">
       <c r="A53" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D53" s="81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E53" s="81" t="s">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="F53" s="81" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="54.75" thickBot="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="41.25" thickBot="1">
       <c r="A54" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="E54" s="82" t="s">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="F54" s="82" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>57</v>
-      </c>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" thickBot="1"/>
+    <row r="58" spans="1:7" ht="21.75" thickBot="1">
+      <c r="B58" s="200" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="168"/>
+      <c r="G58" s="169"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="197" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" s="197"/>
+      <c r="D59" s="197" t="s">
+        <v>297</v>
+      </c>
+      <c r="E59" s="197"/>
+      <c r="F59" s="197"/>
+      <c r="G59" s="197"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="199" t="s">
+        <v>298</v>
+      </c>
+      <c r="C60" s="199"/>
+      <c r="D60" s="199" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" s="199"/>
+      <c r="F60" s="199"/>
+      <c r="G60" s="199"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" s="199"/>
+      <c r="C61" s="199"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="199"/>
+      <c r="F61" s="199"/>
+      <c r="G61" s="199"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="B62" s="199"/>
+      <c r="C62" s="199"/>
+      <c r="D62" s="199"/>
+      <c r="E62" s="199"/>
+      <c r="F62" s="199"/>
+      <c r="G62" s="199"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="199"/>
+      <c r="C63" s="199"/>
+      <c r="D63" s="199"/>
+      <c r="E63" s="199"/>
+      <c r="F63" s="199"/>
+      <c r="G63" s="199"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="199"/>
+      <c r="C64" s="199"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="199"/>
+      <c r="F64" s="199"/>
+      <c r="G64" s="199"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="199"/>
+      <c r="C65" s="199"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="199"/>
+      <c r="F65" s="199"/>
+      <c r="G65" s="199"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="199"/>
+      <c r="C66" s="199"/>
+      <c r="D66" s="199"/>
+      <c r="E66" s="199"/>
+      <c r="F66" s="199"/>
+      <c r="G66" s="199"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="199"/>
+      <c r="C67" s="199"/>
+      <c r="D67" s="199"/>
+      <c r="E67" s="199"/>
+      <c r="F67" s="199"/>
+      <c r="G67" s="199"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="199"/>
+      <c r="C68" s="199"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="199"/>
+      <c r="F68" s="199"/>
+      <c r="G68" s="199"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="199"/>
+      <c r="C69" s="199"/>
+      <c r="D69" s="199"/>
+      <c r="E69" s="199"/>
+      <c r="F69" s="199"/>
+      <c r="G69" s="199"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="57">
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="C34:D34"/>
@@ -9915,6 +10630,29 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9946,26 +10684,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="126" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="127"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="156" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="157"/>
       <c r="O1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
@@ -9987,7 +10725,7 @@
     <row r="3" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
       <c r="B3" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="43"/>
@@ -10005,10 +10743,10 @@
     <row r="4" spans="1:15" s="68" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="69"/>
       <c r="B4" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>188</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>189</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
@@ -10040,13 +10778,13 @@
     </row>
     <row r="6" spans="1:15" s="68" customFormat="1" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:15" ht="14.25" thickBot="1">
-      <c r="B7" s="155" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="157"/>
+      <c r="B7" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="187"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1">
       <c r="B8" s="61"/>
@@ -10056,15 +10794,15 @@
       <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="182"/>
+      <c r="C9" s="213"/>
       <c r="D9" s="58"/>
-      <c r="E9" s="181" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="182"/>
+      <c r="E9" s="212" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="213"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="19" t="s">
@@ -10075,18 +10813,18 @@
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" thickBot="1">
       <c r="B11" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="58"/>
       <c r="E11" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="20"/>
     </row>
@@ -10095,10 +10833,10 @@
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
       <c r="E12" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1">
@@ -10106,7 +10844,7 @@
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
       <c r="E13" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="22"/>
     </row>
@@ -10118,29 +10856,29 @@
       <c r="F14" s="63"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="182"/>
+      <c r="C15" s="213"/>
       <c r="D15" s="58"/>
-      <c r="E15" s="181" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="182"/>
+      <c r="E15" s="212" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="213"/>
     </row>
     <row r="16" spans="1:15" ht="27.75" thickBot="1">
       <c r="B16" s="74" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27">
@@ -10148,7 +10886,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
@@ -10189,20 +10927,20 @@
       <c r="F21" s="63"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="181" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="182"/>
+      <c r="B22" s="212" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="213"/>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
       <c r="F22" s="63"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
@@ -10210,7 +10948,7 @@
     </row>
     <row r="24" spans="2:12" ht="14.25" thickBot="1">
       <c r="B24" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="58"/>
@@ -10226,383 +10964,383 @@
     </row>
     <row r="26" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="27" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B27" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="157"/>
+      <c r="B27" s="185" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="187"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="166"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="168"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="198"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="160"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="162"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="192"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="162"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="192"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="162"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="191"/>
+      <c r="H31" s="191"/>
+      <c r="I31" s="191"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="192"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="160"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="162"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="192"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="160"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="162"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="192"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="160"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="162"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="192"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="160"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="162"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="192"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="160"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="162"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="191"/>
+      <c r="L36" s="192"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="160"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="162"/>
+      <c r="B37" s="190"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="191"/>
+      <c r="K37" s="191"/>
+      <c r="L37" s="192"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="160"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="162"/>
+      <c r="B38" s="190"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="191"/>
+      <c r="L38" s="192"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="160"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="162"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="192"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="160"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="162"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
+      <c r="K40" s="191"/>
+      <c r="L40" s="192"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="160"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="161"/>
-      <c r="E41" s="161"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="161"/>
-      <c r="L41" s="162"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="191"/>
+      <c r="L41" s="192"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="160"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="162"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="191"/>
+      <c r="K42" s="191"/>
+      <c r="L42" s="192"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="160"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="162"/>
+      <c r="B43" s="190"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="191"/>
+      <c r="L43" s="192"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="160"/>
-      <c r="C44" s="161"/>
-      <c r="D44" s="161"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="161"/>
-      <c r="L44" s="162"/>
+      <c r="B44" s="190"/>
+      <c r="C44" s="191"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
+      <c r="J44" s="191"/>
+      <c r="K44" s="191"/>
+      <c r="L44" s="192"/>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="160"/>
-      <c r="C45" s="161"/>
-      <c r="D45" s="161"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="161"/>
-      <c r="K45" s="161"/>
-      <c r="L45" s="162"/>
+      <c r="B45" s="190"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="191"/>
+      <c r="K45" s="191"/>
+      <c r="L45" s="192"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="160"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="161"/>
-      <c r="K46" s="161"/>
-      <c r="L46" s="162"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="191"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="191"/>
+      <c r="H46" s="191"/>
+      <c r="I46" s="191"/>
+      <c r="J46" s="191"/>
+      <c r="K46" s="191"/>
+      <c r="L46" s="192"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="160"/>
-      <c r="C47" s="161"/>
-      <c r="D47" s="161"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
-      <c r="J47" s="161"/>
-      <c r="K47" s="161"/>
-      <c r="L47" s="162"/>
+      <c r="B47" s="190"/>
+      <c r="C47" s="191"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="191"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="191"/>
+      <c r="I47" s="191"/>
+      <c r="J47" s="191"/>
+      <c r="K47" s="191"/>
+      <c r="L47" s="192"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="160"/>
-      <c r="C48" s="161"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="161"/>
-      <c r="K48" s="161"/>
-      <c r="L48" s="162"/>
+      <c r="B48" s="190"/>
+      <c r="C48" s="191"/>
+      <c r="D48" s="191"/>
+      <c r="E48" s="191"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
+      <c r="I48" s="191"/>
+      <c r="J48" s="191"/>
+      <c r="K48" s="191"/>
+      <c r="L48" s="192"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="160"/>
-      <c r="C49" s="161"/>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="161"/>
-      <c r="K49" s="161"/>
-      <c r="L49" s="162"/>
+      <c r="B49" s="190"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="191"/>
+      <c r="L49" s="192"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="160"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="161"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
-      <c r="L50" s="162"/>
+      <c r="B50" s="190"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="191"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="191"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="191"/>
+      <c r="L50" s="192"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="160"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="161"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="161"/>
-      <c r="G51" s="161"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="161"/>
-      <c r="J51" s="161"/>
-      <c r="K51" s="161"/>
-      <c r="L51" s="162"/>
+      <c r="B51" s="190"/>
+      <c r="C51" s="191"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="191"/>
+      <c r="F51" s="191"/>
+      <c r="G51" s="191"/>
+      <c r="H51" s="191"/>
+      <c r="I51" s="191"/>
+      <c r="J51" s="191"/>
+      <c r="K51" s="191"/>
+      <c r="L51" s="192"/>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="160"/>
-      <c r="C52" s="161"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="161"/>
-      <c r="J52" s="161"/>
-      <c r="K52" s="161"/>
-      <c r="L52" s="162"/>
+      <c r="B52" s="190"/>
+      <c r="C52" s="191"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="191"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="191"/>
+      <c r="H52" s="191"/>
+      <c r="I52" s="191"/>
+      <c r="J52" s="191"/>
+      <c r="K52" s="191"/>
+      <c r="L52" s="192"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="160"/>
-      <c r="C53" s="161"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="162"/>
+      <c r="B53" s="190"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="191"/>
+      <c r="L53" s="192"/>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="160"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="161"/>
-      <c r="L54" s="162"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="191"/>
+      <c r="G54" s="191"/>
+      <c r="H54" s="191"/>
+      <c r="I54" s="191"/>
+      <c r="J54" s="191"/>
+      <c r="K54" s="191"/>
+      <c r="L54" s="192"/>
     </row>
     <row r="55" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B55" s="178"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="179"/>
-      <c r="E55" s="179"/>
-      <c r="F55" s="179"/>
-      <c r="G55" s="179"/>
-      <c r="H55" s="179"/>
-      <c r="I55" s="179"/>
-      <c r="J55" s="179"/>
-      <c r="K55" s="179"/>
-      <c r="L55" s="180"/>
+      <c r="B55" s="209"/>
+      <c r="C55" s="210"/>
+      <c r="D55" s="210"/>
+      <c r="E55" s="210"/>
+      <c r="F55" s="210"/>
+      <c r="G55" s="210"/>
+      <c r="H55" s="210"/>
+      <c r="I55" s="210"/>
+      <c r="J55" s="210"/>
+      <c r="K55" s="210"/>
+      <c r="L55" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10631,11 +11369,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10648,28 +11386,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="159"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="189"/>
     </row>
     <row r="2" spans="1:14" ht="24.75" customHeight="1">
       <c r="A2" s="79" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
@@ -10701,7 +11439,7 @@
       <c r="M3" s="87"/>
       <c r="N3" s="88"/>
     </row>
-    <row r="4" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:14" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="79"/>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
@@ -10714,139 +11452,278 @@
       <c r="J4" s="80"/>
       <c r="K4" s="80"/>
       <c r="L4" s="80"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-    </row>
-    <row r="5" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="31" t="s">
+      <c r="M4" s="106"/>
+      <c r="N4" s="107"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A5" s="246" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="88"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G6" s="90" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="11">
-        <v>1</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="18">
-        <v>15</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="18">
         <v>15</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="18">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="C10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E10" s="18">
         <v>30</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="22" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="23" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B23" s="217" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="218"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="219"/>
+    </row>
+    <row r="24" spans="2:7" ht="208.5" customHeight="1">
+      <c r="B24" s="245"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+    </row>
+    <row r="25" spans="2:7" ht="218.25" customHeight="1">
+      <c r="B25" s="244"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+    </row>
+    <row r="26" spans="2:7" ht="83.25" customHeight="1">
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="199"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="199"/>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="199"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="199"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="199"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="19">
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C11">
       <formula1>"回復,強化,補助"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10855,16 +11732,17 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10872,43 +11750,43 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="18.75" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="229" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="230"/>
+      <c r="A1" s="167" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="215" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="216"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="4" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B4" s="236" t="s">
-        <v>237</v>
+      <c r="B4" s="101" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B5" s="237" t="s">
-        <v>238</v>
+      <c r="B5" s="102" t="s">
+        <v>235</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="18"/>
@@ -10916,55 +11794,55 @@
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B8" s="198" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="205"/>
+      <c r="B8" s="217" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="218"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="92"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="H9" s="26" t="s">
+      <c r="J9" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="I9" s="26" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="165" customHeight="1">
+      <c r="B10" s="18" t="s">
         <v>247</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="59.25" customHeight="1">
-      <c r="B10" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="C10" s="18">
         <v>10</v>
@@ -10987,12 +11865,12 @@
       <c r="I10" s="18">
         <v>0</v>
       </c>
-      <c r="J10" s="235" t="s">
-        <v>251</v>
+      <c r="J10" s="100" t="s">
+        <v>306</v>
       </c>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="165" customHeight="1">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -11001,8 +11879,44 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="100"/>
       <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11017,14 +11931,15 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
@@ -11035,429 +11950,428 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="137" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="229" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="230"/>
+      <c r="A1" s="167" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="215" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="216"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1">
       <c r="B3" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>186</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14">
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="212" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="213"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="223"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="231"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="231"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="223"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="231"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="223"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="231"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="223"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="231"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="223"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="231"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="223"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="231"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="223"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="231"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="223"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="231"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="223"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="231"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="223"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="231"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="223"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="231"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="223"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="231"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="223"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="231"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="223"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="231"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="223"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="231"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="223"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="231"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="223"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="231"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="223"/>
+      <c r="C25" s="224"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="231"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="223"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="224"/>
+      <c r="J26" s="231"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="223"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="231"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="223"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="224"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="224"/>
+      <c r="I28" s="224"/>
+      <c r="J28" s="231"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="223"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="231"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="223"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="231"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="223"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="224"/>
+      <c r="F31" s="224"/>
+      <c r="G31" s="224"/>
+      <c r="H31" s="224"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="231"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="223"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="224"/>
+      <c r="G32" s="224"/>
+      <c r="H32" s="224"/>
+      <c r="I32" s="224"/>
+      <c r="J32" s="231"/>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="223"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="231"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="223"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="231"/>
+    </row>
+    <row r="35" spans="2:19" ht="14.25" thickBot="1">
+      <c r="B35" s="225"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="232"/>
+    </row>
+    <row r="37" spans="2:19" ht="14.25" thickBot="1"/>
+    <row r="38" spans="2:19" ht="14.25" thickBot="1">
+      <c r="B38" s="217" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="182"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="188"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="196"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="196"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="196"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="188"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="196"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="188"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="196"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="188"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="196"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="188"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="196"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="188"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="196"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="188"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="196"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="188"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="196"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="188"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="196"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="188"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="196"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="188"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="196"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="188"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="189"/>
-      <c r="J20" s="196"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="188"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="196"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="188"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="196"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="188"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="196"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="188"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="189"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="196"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="188"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="196"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="188"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="189"/>
-      <c r="J26" s="196"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="188"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="196"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="188"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="196"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="188"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="189"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="189"/>
-      <c r="J29" s="196"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="188"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="196"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="188"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="196"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="188"/>
-      <c r="C32" s="189"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="196"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="188"/>
-      <c r="C33" s="189"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="196"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="188"/>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="196"/>
-    </row>
-    <row r="35" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B35" s="190"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="197"/>
-    </row>
-    <row r="37" spans="2:10" ht="14.25" thickBot="1"/>
-    <row r="38" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B38" s="198" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="199"/>
-      <c r="D38" s="199"/>
-      <c r="E38" s="199"/>
-      <c r="F38" s="199"/>
-      <c r="G38" s="199"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="200"/>
-    </row>
-    <row r="39" spans="2:10" ht="189" customHeight="1">
-      <c r="B39" s="201"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="202" t="s">
-        <v>253</v>
-      </c>
-      <c r="G39" s="203"/>
-      <c r="H39" s="203"/>
-      <c r="I39" s="203"/>
-      <c r="J39" s="204"/>
-    </row>
-    <row r="40" spans="2:10" ht="313.5" customHeight="1">
-      <c r="B40" s="188"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="185" t="s">
-        <v>254</v>
-      </c>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
-      <c r="J40" s="187"/>
-    </row>
-    <row r="41" spans="2:10" ht="267.75" customHeight="1" thickBot="1">
-      <c r="B41" s="190"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="192" t="s">
-        <v>255</v>
-      </c>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="194"/>
-    </row>
+      <c r="C38" s="218"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="219"/>
+    </row>
+    <row r="39" spans="2:19" ht="189" customHeight="1">
+      <c r="B39" s="233"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="234" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" s="235"/>
+      <c r="H39" s="235"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="236"/>
+    </row>
+    <row r="40" spans="2:19" ht="313.5" customHeight="1" thickBot="1">
+      <c r="B40" s="223"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="220" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="221"/>
+      <c r="H40" s="221"/>
+      <c r="I40" s="221"/>
+      <c r="J40" s="222"/>
+      <c r="K40" s="225"/>
+      <c r="L40" s="226"/>
+      <c r="M40" s="226"/>
+      <c r="N40" s="226"/>
+      <c r="O40" s="227" t="s">
+        <v>251</v>
+      </c>
+      <c r="P40" s="228"/>
+      <c r="Q40" s="228"/>
+      <c r="R40" s="228"/>
+      <c r="S40" s="229"/>
+    </row>
+    <row r="41" spans="2:19" ht="267.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="M1:N1"/>
@@ -11468,8 +12382,8 @@
     <mergeCell ref="F39:J39"/>
     <mergeCell ref="F40:J40"/>
     <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:S40"/>
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -22,8 +22,11 @@
   <definedNames>
     <definedName name="ゲームメインの画面">各画面仕様!$B$18</definedName>
     <definedName name="ステージ全景_イメージ">ステージ!$B$6</definedName>
+    <definedName name="ダメージ計算式">プレイヤー!$B$74</definedName>
+    <definedName name="プレイヤーアップグレードのアイコンイメージ">プレイヤー!$B$46</definedName>
     <definedName name="プレイヤーアップグレード表">プレイヤー!$B$7</definedName>
     <definedName name="プレイヤーの容姿について。">プレイヤー!$B$21</definedName>
+    <definedName name="プレイヤーモーションのイメージ表__画像は追記">プレイヤー!$B$58</definedName>
     <definedName name="マッチング待機画面">各画面仕様!$B$10</definedName>
     <definedName name="モンスターの能力値">モンスター!$B$8</definedName>
     <definedName name="リザルト画面">各画面仕様!$B$14</definedName>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="334">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -398,12 +401,6 @@
   </si>
   <si>
     <t>Atk+50 Mat+5 Def+10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>『マジカルボム』
-Mat+10
-着弾時爆発する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1313,12 +1310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>これまで、我々が開発してきたゲームは基本的にキャラクターに合わせて戦術を変えていた。
-が、その戦術考案に自由度を持たせることによって、ユーザーが編み出す無限の戦略を見出すことが出来るのではないだろうか？
-という事で、そんな『自分で戦略を探すことが好き』なユーザーに対して、『戦略を編み出せる機会を多く設けたゲーム』を開発しよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このゲームはどんなゲーム？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1342,10 +1333,6 @@
   </si>
   <si>
     <t>メインのカメラについて言及</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナイトのラフを追加</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1571,12 +1558,97 @@
 何か問題点はあるの？</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>これまで、我々が開発してきたゲームは基本的にキャラクターに合わせて戦術を変えていた。
+が、その戦術考案に自由度を持たせることによって、ユーザーが編み出す無限の戦略を見出すことが出来るのではないだろうか？
+という事で、そんな『自分で戦略を探すことが好き』なユーザーに対して、『戦略を編み出せる機会を多く設けたゲーム』を開発しよう！
+それと同時に、敷居の高いMOVA系の入口になろう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップグレードアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ計算式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用語解説</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A→与える側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B→受ける側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A.Mat×2 - B.Mdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザ・フォートレス発動時に近接攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A.Atk×2 - B.Def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(A.Atk×2 - B.Def) ÷2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザ・フォートレス発動時に魔法攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(A.Mat×2 - B.Mdf) ÷2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『マジカルボム』
+Mat+10
+発射後一定時間で爆発する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ計算</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ計算式の追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1839,6 +1911,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1860,7 +1939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2416,12 +2495,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2673,449 +2854,513 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="26" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5892,7 +6137,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>661054</xdr:colOff>
+      <xdr:colOff>586971</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>3214687</xdr:rowOff>
     </xdr:to>
@@ -5935,7 +6180,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
+      <xdr:colOff>366448</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>3156335</xdr:rowOff>
     </xdr:to>
@@ -6021,7 +6266,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>189441</xdr:colOff>
+      <xdr:colOff>115358</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>3454213</xdr:rowOff>
     </xdr:to>
@@ -6065,7 +6310,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>506942</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>3252670</xdr:rowOff>
     </xdr:to>
@@ -6108,7 +6353,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:colOff>1771649</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>3648137</xdr:rowOff>
     </xdr:to>
@@ -8005,64 +8250,64 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:15" ht="66" customHeight="1" thickBot="1">
-      <c r="B2" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="B2" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="138"/>
     </row>
     <row r="3" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="129" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+    </row>
+    <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B4" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="144" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-    </row>
-    <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B4" s="118" t="s">
+      <c r="C4" s="141"/>
+      <c r="D4" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120" t="s">
+      <c r="E4" s="143"/>
+      <c r="F4" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="122" t="s">
+      <c r="G4" s="141"/>
+      <c r="H4" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="123" t="s">
+      <c r="I4" s="146"/>
+      <c r="J4" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="122" t="s">
+      <c r="K4" s="141"/>
+      <c r="L4" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="119"/>
-      <c r="L4" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="M4" s="111"/>
+      <c r="M4" s="135"/>
     </row>
     <row r="5" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B5" s="35"/>
@@ -8080,37 +8325,37 @@
     </row>
     <row r="6" spans="2:15" ht="22.5" customHeight="1">
       <c r="B6" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="125" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="126"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="148"/>
     </row>
     <row r="7" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B7" s="127" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="129"/>
+      <c r="B7" s="149" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="151"/>
     </row>
     <row r="8" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
       <c r="B8" s="94"/>
@@ -8127,36 +8372,36 @@
       <c r="M8" s="95"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B9" s="133" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="135"/>
+      <c r="B9" s="155" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="157"/>
     </row>
     <row r="10" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B10" s="130" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="132"/>
+      <c r="B10" s="152" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="154"/>
     </row>
     <row r="11" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B11" s="86"/>
@@ -8173,299 +8418,309 @@
       <c r="M11" s="89"/>
     </row>
     <row r="12" spans="2:15" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="158" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="160"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="138"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="117" t="s">
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
       <c r="N13" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="48" customHeight="1">
+      <c r="B14" s="130" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="131" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="113">
+        <v>42653</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="31.5" customHeight="1">
+      <c r="B15" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="114">
+        <v>42653</v>
+      </c>
+      <c r="O15" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="O13" s="26" t="s">
+    </row>
+    <row r="16" spans="2:15" ht="31.5" customHeight="1">
+      <c r="B16" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="113">
+        <v>42653</v>
+      </c>
+      <c r="O16" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="48" customHeight="1">
-      <c r="B14" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="108" t="s">
+    <row r="17" spans="2:15" ht="42.75" customHeight="1">
+      <c r="B17" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="249">
-        <v>42653</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B15" s="139" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="250">
-        <v>42653</v>
-      </c>
-      <c r="O15" s="98" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B16" s="112" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="249">
-        <v>42653</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="42.75" customHeight="1">
-      <c r="B17" s="139" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141" t="s">
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="281">
+        <v>42655</v>
+      </c>
+      <c r="O17" s="98" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="45.75" customHeight="1">
+      <c r="B18" s="130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="250">
-        <v>42653</v>
-      </c>
-      <c r="O17" s="98" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="45.75" customHeight="1">
-      <c r="B18" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
       <c r="N18" s="105">
         <v>42655</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="30" customHeight="1">
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="126" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141" t="s">
-        <v>201</v>
-      </c>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
       <c r="N19" s="99">
         <v>42649</v>
       </c>
       <c r="O19" s="98" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="30" customHeight="1">
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="249">
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="113">
         <v>42653</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="30" customHeight="1">
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="124" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="126" t="s">
+        <v>268</v>
+      </c>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="114">
+        <v>42653</v>
+      </c>
+      <c r="O21" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="141" t="s">
-        <v>271</v>
-      </c>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="250">
-        <v>42653</v>
-      </c>
-      <c r="O21" s="98" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="22" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B22" s="148" t="s">
-        <v>316</v>
-      </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="150" t="s">
-        <v>259</v>
-      </c>
-      <c r="I22" s="150"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="251">
+      <c r="B22" s="121" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="123" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="115">
         <v>42655</v>
       </c>
       <c r="O22" s="97" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B12:O12"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="B3:J3"/>
@@ -8482,22 +8737,12 @@
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:M22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8520,9 +8765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8531,239 +8776,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="167" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="237" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="238"/>
+      <c r="A1" s="190" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="261" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="262"/>
     </row>
     <row r="2" spans="1:14" s="68" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="239" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
+      <c r="A2" s="263" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="231" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="233"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="258" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="219"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="240" t="s">
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="259"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="260"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="258" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="242"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="240" t="s">
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="259"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="259"/>
+      <c r="H7" s="259"/>
+      <c r="I7" s="260"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="258" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="242"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="240" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="242"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="259"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="260"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="240"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="242"/>
+      <c r="B9" s="258"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="259"/>
+      <c r="H9" s="259"/>
+      <c r="I9" s="260"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="240"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="242"/>
+      <c r="B10" s="258"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="260"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="240"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="242"/>
+      <c r="B11" s="258"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="260"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="240"/>
-      <c r="C12" s="241"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="241"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="241"/>
-      <c r="I12" s="242"/>
+      <c r="B12" s="258"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="260"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="240"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="242"/>
+      <c r="B13" s="258"/>
+      <c r="C13" s="259"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="260"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="240"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="242"/>
+      <c r="B14" s="258"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="260"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="240"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="242"/>
+      <c r="B15" s="258"/>
+      <c r="C15" s="259"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="260"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="240"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="242"/>
+      <c r="B16" s="258"/>
+      <c r="C16" s="259"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="260"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="240"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="242"/>
+      <c r="B17" s="258"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="260"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" thickBot="1"/>
     <row r="20" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B20" s="217" t="s">
-        <v>313</v>
-      </c>
-      <c r="C20" s="218"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="219"/>
+      <c r="B20" s="231" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="232"/>
+      <c r="H20" s="232"/>
+      <c r="I20" s="232"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="233"/>
     </row>
     <row r="21" spans="2:11" ht="14.25" thickBot="1">
       <c r="B21" s="254" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C21" s="255"/>
       <c r="D21" s="255"/>
       <c r="E21" s="255"/>
       <c r="F21" s="255" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G21" s="255"/>
       <c r="H21" s="255"/>
       <c r="I21" s="255"/>
       <c r="J21" s="255"/>
-      <c r="K21" s="256" t="s">
+      <c r="K21" s="116" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="27" customHeight="1">
+      <c r="B22" s="256" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="257"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
+      <c r="H22" s="257"/>
+      <c r="I22" s="257"/>
+      <c r="J22" s="257"/>
+      <c r="K22" s="117">
+        <v>42655</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="47.25" customHeight="1">
+      <c r="B23" s="253" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="27" customHeight="1">
-      <c r="B22" s="257" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22" s="253"/>
-      <c r="D22" s="253"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="253"/>
-      <c r="K22" s="259">
-        <v>42655</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="47.25" customHeight="1">
-      <c r="B23" s="258" t="s">
-        <v>314</v>
       </c>
       <c r="C23" s="252"/>
       <c r="D23" s="252"/>
@@ -8875,45 +9120,45 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:J28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="F29:J29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:J30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="F31:J31"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8936,24 +9181,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="167" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="243" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="243"/>
+      <c r="A1" s="190" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="264" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8975,68 +9220,68 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="156" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="157"/>
+      <c r="A1" s="190" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="181" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="182"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="B5" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="158" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="159"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="184"/>
     </row>
     <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1">
-      <c r="B6" s="160" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="162"/>
+      <c r="B6" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="187"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1">
       <c r="B7" s="49"/>
@@ -9053,35 +9298,35 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="170"/>
+    </row>
+    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="B9" s="173" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="171"/>
-    </row>
-    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B9" s="172" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
       <c r="B10" s="49"/>
@@ -9098,137 +9343,137 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="158" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="183" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="184"/>
+    </row>
+    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B12" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="159"/>
-    </row>
-    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B12" s="160" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="162"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="186"/>
+      <c r="L12" s="187"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="163" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="164"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="177" t="s">
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="165" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="178"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="165" t="s">
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="166"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="179" t="s">
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="165" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="180"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="165" t="s">
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="166"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="179" t="s">
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="180"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="165" t="s">
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="166"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="179" t="s">
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="165" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="180"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="165" t="s">
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="166"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B18" s="161" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="179" t="s">
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="180"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="181" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="182"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="168"/>
     </row>
     <row r="19" spans="2:12" ht="14.25" thickBot="1">
       <c r="B19" s="41"/>
@@ -9245,35 +9490,35 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="170" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="169" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="170"/>
+    </row>
+    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1">
+      <c r="B21" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="171"/>
-    </row>
-    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1">
-      <c r="B21" s="172" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="174"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="175"/>
     </row>
     <row r="22" spans="2:12" ht="14.25" thickBot="1">
       <c r="B22" s="49"/>
@@ -9290,116 +9535,104 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="183" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="184"/>
+    </row>
+    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1">
+      <c r="B24" s="185" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="159"/>
-    </row>
-    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B24" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="162"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="187"/>
     </row>
     <row r="25" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="26" spans="2:12">
       <c r="B26" s="78" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="151" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="152"/>
+        <v>198</v>
+      </c>
+      <c r="C26" s="176" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="177"/>
     </row>
     <row r="27" spans="2:12" ht="130.5" customHeight="1" thickBot="1">
-      <c r="B27" s="153" t="s">
-        <v>305</v>
-      </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="155"/>
+      <c r="B27" s="178" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="180"/>
     </row>
     <row r="28" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="29" spans="2:12">
       <c r="B29" s="78" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="176" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="177"/>
+    </row>
+    <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1">
+      <c r="B30" s="178" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
-    </row>
-    <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1">
-      <c r="B30" s="153" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="155"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
     <mergeCell ref="C29:L29"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="M1:N1"/>
@@ -9416,6 +9649,18 @@
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="C23:L23"/>
     <mergeCell ref="B24:L24"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9438,26 +9683,26 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="183" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="184"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="193" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="194"/>
       <c r="O1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="25.5">
@@ -9517,230 +9762,236 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="167" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="189"/>
+      <c r="A1" s="190" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="181" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="182"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1">
       <c r="B3" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="D4" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="E4" s="72" t="s">
         <v>195</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B6" s="185" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="187"/>
+      <c r="B6" s="204" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="206"/>
     </row>
     <row r="7" spans="1:14" ht="296.25" customHeight="1">
-      <c r="B7" s="190"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="192"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="197"/>
     </row>
     <row r="8" spans="1:14" ht="78.75" customHeight="1" thickBot="1">
-      <c r="B8" s="193" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="195"/>
+      <c r="B8" s="198" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="200"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B10" s="185" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="187"/>
+      <c r="B10" s="204" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="206"/>
     </row>
     <row r="11" spans="1:14" ht="331.5" customHeight="1">
-      <c r="B11" s="196"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="198"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="203"/>
       <c r="M11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1">
+      <c r="B12" s="198" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1">
-      <c r="B12" s="193" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="194"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="195"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="200"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="14" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B14" s="185" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="187"/>
+      <c r="B14" s="204" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="206"/>
     </row>
     <row r="15" spans="1:14" ht="329.25" customHeight="1">
-      <c r="B15" s="196"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="198"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="203"/>
     </row>
     <row r="16" spans="1:14" ht="144.75" customHeight="1" thickBot="1">
-      <c r="B16" s="193" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="195"/>
+      <c r="B16" s="198" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="200"/>
     </row>
     <row r="17" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="185" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="187"/>
+      <c r="B18" s="204" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
+      <c r="L18" s="206"/>
     </row>
     <row r="19" spans="2:12" ht="329.25" customHeight="1">
-      <c r="B19" s="190"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="192"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="197"/>
     </row>
     <row r="20" spans="2:12" ht="143.25" customHeight="1" thickBot="1">
-      <c r="B20" s="193" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="194"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="195"/>
+      <c r="B20" s="198" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B11:L11"/>
@@ -9749,16 +10000,10 @@
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="M1:N1" location="Sheet1!A1" display="戻る"/>
+    <hyperlink ref="M1:N1" location="Top!A1" display="戻る"/>
     <hyperlink ref="B4" location="名前入力画面" display="名前画面"/>
     <hyperlink ref="C4" location="マッチング待機画面" display="待機画面"/>
     <hyperlink ref="D4" location="リザルト画面" display="リザルト"/>
@@ -9772,17 +10017,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.125" customWidth="1"/>
@@ -9792,26 +10037,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="167" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="183" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="184"/>
+      <c r="A1" s="190" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="193" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="194"/>
       <c r="O1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
@@ -9833,7 +10078,7 @@
     <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
       <c r="B3" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -9852,14 +10097,20 @@
     <row r="4" spans="1:15" ht="24.75" customHeight="1">
       <c r="A4" s="48"/>
       <c r="B4" s="103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+        <v>162</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="278" t="s">
+        <v>332</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
@@ -9903,14 +10154,14 @@
     </row>
     <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="200" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="214" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="192"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -10029,7 +10280,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="40.5">
+    <row r="13" spans="1:15" ht="54">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -10037,7 +10288,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>53</v>
@@ -10095,7 +10346,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10106,227 +10357,227 @@
         <v>76</v>
       </c>
       <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>79</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="21" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B21" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="207"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="208"/>
+      <c r="B21" s="211" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="213"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B23" s="185" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="185" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="186"/>
-      <c r="G23" s="187"/>
+      <c r="B23" s="204" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="205"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="204" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="205"/>
+      <c r="G23" s="206"/>
     </row>
     <row r="24" spans="1:7" ht="100.5" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="209" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="210"/>
+      <c r="E24" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="209" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="210"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B25" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="204" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="205"/>
-      <c r="E24" s="23" t="s">
+      <c r="C25" s="205"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="204" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="205"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B25" s="185" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="186"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="185" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="186"/>
-      <c r="G25" s="187"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="206"/>
     </row>
     <row r="26" spans="1:7" ht="266.25" customHeight="1" thickBot="1">
-      <c r="B26" s="185"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="187"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="206"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="28" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B28" s="185" t="s">
+      <c r="B28" s="204" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="205"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="204" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="186"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="185" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="186"/>
-      <c r="G28" s="187"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="206"/>
     </row>
     <row r="29" spans="1:7" ht="134.25" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="210"/>
+      <c r="E29" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="209" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="210"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B30" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="204" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="205"/>
-      <c r="E29" s="23" t="s">
+      <c r="C30" s="205"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="204" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="205"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B30" s="185" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="186"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="185" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="186"/>
-      <c r="G30" s="187"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="206"/>
     </row>
     <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1">
-      <c r="B31" s="185"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="187"/>
+      <c r="B31" s="204"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="206"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="33" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B33" s="185" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="185" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="186"/>
-      <c r="G33" s="187"/>
+      <c r="B33" s="204" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="205"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="204" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="205"/>
+      <c r="G33" s="206"/>
     </row>
     <row r="34" spans="1:7" ht="164.25" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="209" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="210"/>
+      <c r="E34" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="209" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="210"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B35" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="204" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="205"/>
-      <c r="E34" s="23" t="s">
+      <c r="C35" s="205"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="204" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="205"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B35" s="185" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="186"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="185" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="186"/>
-      <c r="G35" s="187"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="206"/>
     </row>
     <row r="36" spans="1:7" ht="294" customHeight="1" thickBot="1">
-      <c r="B36" s="185"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="187"/>
+      <c r="B36" s="204"/>
+      <c r="C36" s="205"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="206"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="38" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B38" s="185" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="186"/>
-      <c r="D38" s="187"/>
+      <c r="B38" s="204" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="205"/>
+      <c r="D38" s="206"/>
     </row>
     <row r="39" spans="1:7" ht="126.75" customHeight="1" thickBot="1">
       <c r="B39" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="209" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="210"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B40" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="204" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="205"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B40" s="185" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="186"/>
-      <c r="D40" s="187"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="206"/>
     </row>
     <row r="41" spans="1:7" ht="267" customHeight="1" thickBot="1">
-      <c r="B41" s="185"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="187"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="205"/>
+      <c r="D41" s="206"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="46" spans="1:7" ht="21.75" thickBot="1">
       <c r="A46" s="91"/>
-      <c r="B46" s="200" t="s">
-        <v>212</v>
-      </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="169"/>
+      <c r="B46" s="214" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="191"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="192"/>
     </row>
     <row r="47" spans="1:7" ht="21.75" thickBot="1">
-      <c r="A47" s="201" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" s="202"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="203"/>
+      <c r="A47" s="215" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="217"/>
     </row>
     <row r="48" spans="1:7" ht="14.25" thickBot="1">
       <c r="A48" s="12"/>
@@ -10354,22 +10605,22 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C49" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D49" s="85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E49" s="85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F49" s="85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="40.5">
@@ -10377,22 +10628,22 @@
         <v>8</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E50" s="81" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F50" s="81" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="40.5">
@@ -10400,22 +10651,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D51" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F51" s="81" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="40.5">
@@ -10423,22 +10674,22 @@
         <v>10</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E52" s="81" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F52" s="81" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="27">
@@ -10446,22 +10697,22 @@
         <v>11</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D53" s="81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="81" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F53" s="81" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="41.25" thickBot="1">
@@ -10469,151 +10720,348 @@
         <v>12</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E54" s="82" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F54" s="82" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="58" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B58" s="200" t="s">
-        <v>300</v>
-      </c>
-      <c r="C58" s="168"/>
-      <c r="D58" s="168"/>
-      <c r="E58" s="168"/>
-      <c r="F58" s="168"/>
-      <c r="G58" s="169"/>
+      <c r="B58" s="214" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" s="191"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="191"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="192"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="B59" s="197" t="s">
+      <c r="B59" s="202" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59" s="202"/>
+      <c r="D59" s="202" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="202"/>
+      <c r="F59" s="202"/>
+      <c r="G59" s="202"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="218" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="218"/>
+      <c r="D60" s="218" t="s">
         <v>296</v>
       </c>
-      <c r="C59" s="197"/>
-      <c r="D59" s="197" t="s">
-        <v>297</v>
-      </c>
-      <c r="E59" s="197"/>
-      <c r="F59" s="197"/>
-      <c r="G59" s="197"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="B60" s="199" t="s">
-        <v>298</v>
-      </c>
-      <c r="C60" s="199"/>
-      <c r="D60" s="199" t="s">
-        <v>299</v>
-      </c>
-      <c r="E60" s="199"/>
-      <c r="F60" s="199"/>
-      <c r="G60" s="199"/>
+      <c r="E60" s="218"/>
+      <c r="F60" s="218"/>
+      <c r="G60" s="218"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="B61" s="199"/>
-      <c r="C61" s="199"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="199"/>
-      <c r="F61" s="199"/>
-      <c r="G61" s="199"/>
+      <c r="B61" s="218"/>
+      <c r="C61" s="218"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="218"/>
+      <c r="G61" s="218"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="B62" s="199"/>
-      <c r="C62" s="199"/>
-      <c r="D62" s="199"/>
-      <c r="E62" s="199"/>
-      <c r="F62" s="199"/>
-      <c r="G62" s="199"/>
+      <c r="B62" s="218"/>
+      <c r="C62" s="218"/>
+      <c r="D62" s="218"/>
+      <c r="E62" s="218"/>
+      <c r="F62" s="218"/>
+      <c r="G62" s="218"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="B63" s="199"/>
-      <c r="C63" s="199"/>
-      <c r="D63" s="199"/>
-      <c r="E63" s="199"/>
-      <c r="F63" s="199"/>
-      <c r="G63" s="199"/>
+      <c r="B63" s="218"/>
+      <c r="C63" s="218"/>
+      <c r="D63" s="218"/>
+      <c r="E63" s="218"/>
+      <c r="F63" s="218"/>
+      <c r="G63" s="218"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="B64" s="199"/>
-      <c r="C64" s="199"/>
-      <c r="D64" s="199"/>
-      <c r="E64" s="199"/>
-      <c r="F64" s="199"/>
-      <c r="G64" s="199"/>
+      <c r="B64" s="218"/>
+      <c r="C64" s="218"/>
+      <c r="D64" s="218"/>
+      <c r="E64" s="218"/>
+      <c r="F64" s="218"/>
+      <c r="G64" s="218"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="199"/>
-      <c r="C65" s="199"/>
-      <c r="D65" s="199"/>
-      <c r="E65" s="199"/>
-      <c r="F65" s="199"/>
-      <c r="G65" s="199"/>
+      <c r="B65" s="218"/>
+      <c r="C65" s="218"/>
+      <c r="D65" s="218"/>
+      <c r="E65" s="218"/>
+      <c r="F65" s="218"/>
+      <c r="G65" s="218"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="199"/>
-      <c r="C66" s="199"/>
-      <c r="D66" s="199"/>
-      <c r="E66" s="199"/>
-      <c r="F66" s="199"/>
-      <c r="G66" s="199"/>
+      <c r="B66" s="218"/>
+      <c r="C66" s="218"/>
+      <c r="D66" s="218"/>
+      <c r="E66" s="218"/>
+      <c r="F66" s="218"/>
+      <c r="G66" s="218"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="199"/>
-      <c r="C67" s="199"/>
-      <c r="D67" s="199"/>
-      <c r="E67" s="199"/>
-      <c r="F67" s="199"/>
-      <c r="G67" s="199"/>
+      <c r="B67" s="218"/>
+      <c r="C67" s="218"/>
+      <c r="D67" s="218"/>
+      <c r="E67" s="218"/>
+      <c r="F67" s="218"/>
+      <c r="G67" s="218"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="199"/>
-      <c r="C68" s="199"/>
-      <c r="D68" s="199"/>
-      <c r="E68" s="199"/>
-      <c r="F68" s="199"/>
-      <c r="G68" s="199"/>
+      <c r="B68" s="218"/>
+      <c r="C68" s="218"/>
+      <c r="D68" s="218"/>
+      <c r="E68" s="218"/>
+      <c r="F68" s="218"/>
+      <c r="G68" s="218"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="199"/>
-      <c r="C69" s="199"/>
-      <c r="D69" s="199"/>
-      <c r="E69" s="199"/>
-      <c r="F69" s="199"/>
-      <c r="G69" s="199"/>
+      <c r="B69" s="218"/>
+      <c r="C69" s="218"/>
+      <c r="D69" s="218"/>
+      <c r="E69" s="218"/>
+      <c r="F69" s="218"/>
+      <c r="G69" s="218"/>
+    </row>
+    <row r="74" spans="2:7" ht="35.25" customHeight="1">
+      <c r="B74" s="265" t="s">
+        <v>317</v>
+      </c>
+      <c r="C74" s="266"/>
+      <c r="D74" s="266"/>
+      <c r="E74" s="266"/>
+      <c r="F74" s="266"/>
+      <c r="G74" s="266"/>
+    </row>
+    <row r="75" spans="2:7" ht="17.25">
+      <c r="B75" s="279" t="s">
+        <v>321</v>
+      </c>
+      <c r="C75" s="267"/>
+      <c r="D75" s="267"/>
+      <c r="E75" s="267"/>
+      <c r="F75" s="267"/>
+      <c r="G75" s="280"/>
+    </row>
+    <row r="76" spans="2:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B76" s="268" t="s">
+        <v>322</v>
+      </c>
+      <c r="C76" s="269" t="s">
+        <v>323</v>
+      </c>
+      <c r="D76" s="270"/>
+      <c r="E76" s="270"/>
+      <c r="F76" s="270"/>
+      <c r="G76" s="271"/>
+    </row>
+    <row r="77" spans="2:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B77" s="112"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="110"/>
+      <c r="G77" s="111"/>
+    </row>
+    <row r="78" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B78" s="272" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" s="273"/>
+      <c r="D78" s="273"/>
+      <c r="E78" s="273" t="s">
+        <v>319</v>
+      </c>
+      <c r="F78" s="273"/>
+      <c r="G78" s="274"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="139" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79" s="139"/>
+      <c r="D79" s="139"/>
+      <c r="E79" s="139" t="s">
+        <v>327</v>
+      </c>
+      <c r="F79" s="139"/>
+      <c r="G79" s="139"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="226" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" s="226"/>
+      <c r="D80" s="226"/>
+      <c r="E80" s="226" t="s">
+        <v>325</v>
+      </c>
+      <c r="F80" s="226"/>
+      <c r="G80" s="226"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="226" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" s="226"/>
+      <c r="D81" s="226"/>
+      <c r="E81" s="226" t="s">
+        <v>328</v>
+      </c>
+      <c r="F81" s="226"/>
+      <c r="G81" s="226"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="226" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82" s="226"/>
+      <c r="D82" s="226"/>
+      <c r="E82" s="226" t="s">
+        <v>330</v>
+      </c>
+      <c r="F82" s="226"/>
+      <c r="G82" s="226"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="226"/>
+      <c r="C83" s="226"/>
+      <c r="D83" s="226"/>
+      <c r="E83" s="226"/>
+      <c r="F83" s="226"/>
+      <c r="G83" s="226"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="275"/>
+      <c r="C84" s="276"/>
+      <c r="D84" s="277"/>
+      <c r="E84" s="275"/>
+      <c r="F84" s="276"/>
+      <c r="G84" s="277"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="275"/>
+      <c r="C85" s="276"/>
+      <c r="D85" s="277"/>
+      <c r="E85" s="275"/>
+      <c r="F85" s="276"/>
+      <c r="G85" s="277"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="226"/>
+      <c r="C86" s="226"/>
+      <c r="D86" s="226"/>
+      <c r="E86" s="226"/>
+      <c r="F86" s="226"/>
+      <c r="G86" s="226"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="218"/>
+      <c r="C87" s="218"/>
+      <c r="D87" s="218"/>
+      <c r="E87" s="218"/>
+      <c r="F87" s="218"/>
+      <c r="G87" s="218"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="218"/>
+      <c r="C88" s="218"/>
+      <c r="D88" s="218"/>
+      <c r="E88" s="218"/>
+      <c r="F88" s="218"/>
+      <c r="G88" s="218"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="218"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="218"/>
+      <c r="E89" s="218"/>
+      <c r="F89" s="218"/>
+      <c r="G89" s="218"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="218"/>
+      <c r="C90" s="218"/>
+      <c r="D90" s="218"/>
+      <c r="E90" s="218"/>
+      <c r="F90" s="218"/>
+      <c r="G90" s="218"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C29:D29"/>
+  <mergeCells count="85">
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A1:L1"/>
@@ -10630,35 +11078,33 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="M1:N1" location="Top!A1" display="戻る"/>
     <hyperlink ref="B4" location="プレイヤーアップグレード表" display="アップグレード表"/>
     <hyperlink ref="C4" location="プレイヤーの容姿について。" display="プレイヤーの見た目"/>
+    <hyperlink ref="D4" location="プレイヤーアップグレードのアイコンイメージ" display="アップグレードアイコン"/>
+    <hyperlink ref="E4" location="プレイヤーモーションのイメージ表__画像は追記" display="モーション"/>
+    <hyperlink ref="F4" location="ダメージ計算式" display="ダメージ計算"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -10684,26 +11130,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="156" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="157"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="181" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="182"/>
       <c r="O1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
@@ -10725,7 +11171,7 @@
     <row r="3" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
       <c r="B3" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="43"/>
@@ -10743,10 +11189,10 @@
     <row r="4" spans="1:15" s="68" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="69"/>
       <c r="B4" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>187</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>188</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
@@ -10778,13 +11224,13 @@
     </row>
     <row r="6" spans="1:15" s="68" customFormat="1" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:15" ht="14.25" thickBot="1">
-      <c r="B7" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="187"/>
+      <c r="B7" s="204" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="206"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1">
       <c r="B8" s="61"/>
@@ -10794,15 +11240,15 @@
       <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="213"/>
+      <c r="C9" s="223"/>
       <c r="D9" s="58"/>
-      <c r="E9" s="212" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="213"/>
+      <c r="E9" s="222" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="223"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="19" t="s">
@@ -10813,18 +11259,18 @@
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" thickBot="1">
       <c r="B11" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="58"/>
       <c r="E11" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="20"/>
     </row>
@@ -10833,10 +11279,10 @@
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
       <c r="E12" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1">
@@ -10844,7 +11290,7 @@
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
       <c r="E13" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="22"/>
     </row>
@@ -10856,29 +11302,29 @@
       <c r="F14" s="63"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="213"/>
+      <c r="C15" s="223"/>
       <c r="D15" s="58"/>
-      <c r="E15" s="212" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="213"/>
+      <c r="E15" s="222" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="223"/>
     </row>
     <row r="16" spans="1:15" ht="27.75" thickBot="1">
       <c r="B16" s="74" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27">
@@ -10886,7 +11332,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
@@ -10927,20 +11373,20 @@
       <c r="F21" s="63"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="212" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="213"/>
+      <c r="B22" s="222" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="223"/>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
       <c r="F22" s="63"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
@@ -10948,7 +11394,7 @@
     </row>
     <row r="24" spans="2:12" ht="14.25" thickBot="1">
       <c r="B24" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="58"/>
@@ -10964,383 +11410,383 @@
     </row>
     <row r="26" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="27" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B27" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="186"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="186"/>
-      <c r="L27" s="187"/>
+      <c r="B27" s="204" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="206"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="196"/>
-      <c r="C28" s="197"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="198"/>
+      <c r="B28" s="201"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="203"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="190"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="192"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="197"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="190"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="191"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="192"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="196"/>
+      <c r="L30" s="197"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="190"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="191"/>
-      <c r="G31" s="191"/>
-      <c r="H31" s="191"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="191"/>
-      <c r="L31" s="192"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="197"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="190"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="191"/>
-      <c r="J32" s="191"/>
-      <c r="K32" s="191"/>
-      <c r="L32" s="192"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="197"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="190"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="191"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="192"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="197"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="190"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="192"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="197"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="190"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="191"/>
-      <c r="K35" s="191"/>
-      <c r="L35" s="192"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="197"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="190"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="191"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="191"/>
-      <c r="I36" s="191"/>
-      <c r="J36" s="191"/>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="197"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="190"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="191"/>
-      <c r="K37" s="191"/>
-      <c r="L37" s="192"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="197"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="191"/>
-      <c r="L38" s="192"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196"/>
+      <c r="L38" s="197"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="190"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="191"/>
-      <c r="K39" s="191"/>
-      <c r="L39" s="192"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="197"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="190"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="191"/>
-      <c r="H40" s="191"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="191"/>
-      <c r="K40" s="191"/>
-      <c r="L40" s="192"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="196"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="196"/>
+      <c r="L40" s="197"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="190"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="191"/>
-      <c r="H41" s="191"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="191"/>
-      <c r="K41" s="191"/>
-      <c r="L41" s="192"/>
+      <c r="B41" s="195"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="197"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="190"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="191"/>
-      <c r="J42" s="191"/>
-      <c r="K42" s="191"/>
-      <c r="L42" s="192"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="196"/>
+      <c r="L42" s="197"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="190"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="191"/>
-      <c r="L43" s="192"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="197"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="190"/>
-      <c r="C44" s="191"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="191"/>
-      <c r="K44" s="191"/>
-      <c r="L44" s="192"/>
+      <c r="B44" s="195"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="196"/>
+      <c r="K44" s="196"/>
+      <c r="L44" s="197"/>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="190"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="191"/>
-      <c r="K45" s="191"/>
-      <c r="L45" s="192"/>
+      <c r="B45" s="195"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="196"/>
+      <c r="L45" s="197"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="190"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="191"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="191"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="191"/>
-      <c r="K46" s="191"/>
-      <c r="L46" s="192"/>
+      <c r="B46" s="195"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="196"/>
+      <c r="K46" s="196"/>
+      <c r="L46" s="197"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="190"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="191"/>
-      <c r="E47" s="191"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="191"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="192"/>
+      <c r="B47" s="195"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="196"/>
+      <c r="K47" s="196"/>
+      <c r="L47" s="197"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="190"/>
-      <c r="C48" s="191"/>
-      <c r="D48" s="191"/>
-      <c r="E48" s="191"/>
-      <c r="F48" s="191"/>
-      <c r="G48" s="191"/>
-      <c r="H48" s="191"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="191"/>
-      <c r="K48" s="191"/>
-      <c r="L48" s="192"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="196"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="196"/>
+      <c r="K48" s="196"/>
+      <c r="L48" s="197"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="190"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="191"/>
-      <c r="F49" s="191"/>
-      <c r="G49" s="191"/>
-      <c r="H49" s="191"/>
-      <c r="I49" s="191"/>
-      <c r="J49" s="191"/>
-      <c r="K49" s="191"/>
-      <c r="L49" s="192"/>
+      <c r="B49" s="195"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="196"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="197"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="190"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="191"/>
-      <c r="E50" s="191"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="191"/>
-      <c r="H50" s="191"/>
-      <c r="I50" s="191"/>
-      <c r="J50" s="191"/>
-      <c r="K50" s="191"/>
-      <c r="L50" s="192"/>
+      <c r="B50" s="195"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="196"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="196"/>
+      <c r="K50" s="196"/>
+      <c r="L50" s="197"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="190"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="191"/>
-      <c r="F51" s="191"/>
-      <c r="G51" s="191"/>
-      <c r="H51" s="191"/>
-      <c r="I51" s="191"/>
-      <c r="J51" s="191"/>
-      <c r="K51" s="191"/>
-      <c r="L51" s="192"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="196"/>
+      <c r="D51" s="196"/>
+      <c r="E51" s="196"/>
+      <c r="F51" s="196"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="196"/>
+      <c r="K51" s="196"/>
+      <c r="L51" s="197"/>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="190"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="191"/>
-      <c r="F52" s="191"/>
-      <c r="G52" s="191"/>
-      <c r="H52" s="191"/>
-      <c r="I52" s="191"/>
-      <c r="J52" s="191"/>
-      <c r="K52" s="191"/>
-      <c r="L52" s="192"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="196"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="196"/>
+      <c r="L52" s="197"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="190"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-      <c r="H53" s="191"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="191"/>
-      <c r="L53" s="192"/>
+      <c r="B53" s="195"/>
+      <c r="C53" s="196"/>
+      <c r="D53" s="196"/>
+      <c r="E53" s="196"/>
+      <c r="F53" s="196"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="196"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="196"/>
+      <c r="K53" s="196"/>
+      <c r="L53" s="197"/>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="190"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="191"/>
-      <c r="H54" s="191"/>
-      <c r="I54" s="191"/>
-      <c r="J54" s="191"/>
-      <c r="K54" s="191"/>
-      <c r="L54" s="192"/>
+      <c r="B54" s="195"/>
+      <c r="C54" s="196"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="196"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="196"/>
+      <c r="L54" s="197"/>
     </row>
     <row r="55" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B55" s="209"/>
-      <c r="C55" s="210"/>
-      <c r="D55" s="210"/>
-      <c r="E55" s="210"/>
-      <c r="F55" s="210"/>
-      <c r="G55" s="210"/>
-      <c r="H55" s="210"/>
-      <c r="I55" s="210"/>
-      <c r="J55" s="210"/>
-      <c r="K55" s="210"/>
-      <c r="L55" s="211"/>
+      <c r="B55" s="219"/>
+      <c r="C55" s="220"/>
+      <c r="D55" s="220"/>
+      <c r="E55" s="220"/>
+      <c r="F55" s="220"/>
+      <c r="G55" s="220"/>
+      <c r="H55" s="220"/>
+      <c r="I55" s="220"/>
+      <c r="J55" s="220"/>
+      <c r="K55" s="220"/>
+      <c r="L55" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11373,7 +11819,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11386,28 +11832,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="189"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="207" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="208"/>
     </row>
     <row r="2" spans="1:14" ht="24.75" customHeight="1">
       <c r="A2" s="79" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
@@ -11456,15 +11902,15 @@
       <c r="N4" s="107"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="246" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="248"/>
+      <c r="A5" s="228" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="229"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="230"/>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
@@ -11491,7 +11937,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -11505,7 +11951,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>19</v>
@@ -11514,7 +11960,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -11525,7 +11971,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>22</v>
@@ -11537,7 +11983,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -11548,7 +11994,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>25</v>
@@ -11560,7 +12006,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -11571,7 +12017,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>19</v>
@@ -11583,7 +12029,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" thickBot="1">
@@ -11597,110 +12043,114 @@
     </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B23" s="217" t="s">
-        <v>302</v>
-      </c>
-      <c r="C23" s="218"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="218"/>
-      <c r="G23" s="219"/>
+      <c r="B23" s="231" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="232"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="232"/>
+      <c r="G23" s="233"/>
     </row>
     <row r="24" spans="2:7" ht="208.5" customHeight="1">
-      <c r="B24" s="245"/>
-      <c r="C24" s="245"/>
-      <c r="D24" s="245"/>
-      <c r="E24" s="245"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
     </row>
     <row r="25" spans="2:7" ht="218.25" customHeight="1">
-      <c r="B25" s="244"/>
-      <c r="C25" s="244"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="224"/>
-      <c r="G25" s="224"/>
+      <c r="B25" s="225"/>
+      <c r="C25" s="225"/>
+      <c r="D25" s="225"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="226"/>
     </row>
     <row r="26" spans="2:7" ht="83.25" customHeight="1">
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="C27" s="199"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="218"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="199"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="218"/>
+      <c r="G31" s="218"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="C32" s="199"/>
-      <c r="D32" s="199"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="199"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="199"/>
-      <c r="D33" s="199"/>
-      <c r="E33" s="199"/>
-      <c r="F33" s="199"/>
-      <c r="G33" s="199"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="199"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="199"/>
-      <c r="G34" s="199"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="199"/>
-      <c r="D36" s="199"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="199"/>
-      <c r="G36" s="199"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B23:G23"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
@@ -11716,10 +12166,6 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -11742,7 +12188,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11754,39 +12200,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="167" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="215" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="216"/>
+      <c r="A1" s="190" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="234" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="235"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="4" spans="1:14" ht="14.25" thickBot="1">
       <c r="B4" s="101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
       <c r="B5" s="102" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="18"/>
@@ -11794,55 +12240,55 @@
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B8" s="217" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="218"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="219"/>
+      <c r="B8" s="231" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
       <c r="L8" s="92"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>244</v>
-      </c>
       <c r="J9" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="165" customHeight="1">
       <c r="B10" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="18">
         <v>10</v>
@@ -11866,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K10" s="18"/>
     </row>
@@ -11950,441 +12396,441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="167" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="215" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="216"/>
+      <c r="A1" s="190" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="234" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="235"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1">
       <c r="B3" s="71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>185</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14">
-      <c r="B6" s="212" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="230"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="213"/>
+      <c r="B6" s="222" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="223"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="223"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="231"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="238"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="223"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="231"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="226"/>
+      <c r="J8" s="238"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="223"/>
-      <c r="C9" s="224"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="231"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="226"/>
+      <c r="H9" s="226"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="238"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="223"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="224"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="231"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
+      <c r="J10" s="238"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="223"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="224"/>
-      <c r="F11" s="224"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="231"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="238"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="223"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="224"/>
-      <c r="I12" s="224"/>
-      <c r="J12" s="231"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="238"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="223"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="224"/>
-      <c r="H13" s="224"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="231"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="226"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="238"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="223"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="231"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="226"/>
+      <c r="D14" s="226"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
+      <c r="I14" s="226"/>
+      <c r="J14" s="238"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="223"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="231"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="226"/>
+      <c r="J15" s="238"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="223"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="224"/>
-      <c r="J16" s="231"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="238"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="223"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="231"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="238"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="223"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="231"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="226"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="238"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="223"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="231"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="226"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="226"/>
+      <c r="J19" s="238"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="223"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="224"/>
-      <c r="H20" s="224"/>
-      <c r="I20" s="224"/>
-      <c r="J20" s="231"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="226"/>
+      <c r="J20" s="238"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="223"/>
-      <c r="C21" s="224"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="224"/>
-      <c r="H21" s="224"/>
-      <c r="I21" s="224"/>
-      <c r="J21" s="231"/>
+      <c r="B21" s="237"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="226"/>
+      <c r="F21" s="226"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="226"/>
+      <c r="I21" s="226"/>
+      <c r="J21" s="238"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="223"/>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="224"/>
-      <c r="H22" s="224"/>
-      <c r="I22" s="224"/>
-      <c r="J22" s="231"/>
+      <c r="B22" s="237"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="238"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="223"/>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="224"/>
-      <c r="H23" s="224"/>
-      <c r="I23" s="224"/>
-      <c r="J23" s="231"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="226"/>
+      <c r="J23" s="238"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="223"/>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="224"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="224"/>
-      <c r="J24" s="231"/>
+      <c r="B24" s="237"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="238"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="223"/>
-      <c r="C25" s="224"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="224"/>
-      <c r="F25" s="224"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="224"/>
-      <c r="I25" s="224"/>
-      <c r="J25" s="231"/>
+      <c r="B25" s="237"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="226"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="226"/>
+      <c r="H25" s="226"/>
+      <c r="I25" s="226"/>
+      <c r="J25" s="238"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="223"/>
-      <c r="C26" s="224"/>
-      <c r="D26" s="224"/>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="224"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="224"/>
-      <c r="J26" s="231"/>
+      <c r="B26" s="237"/>
+      <c r="C26" s="226"/>
+      <c r="D26" s="226"/>
+      <c r="E26" s="226"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="226"/>
+      <c r="I26" s="226"/>
+      <c r="J26" s="238"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="223"/>
-      <c r="C27" s="224"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="224"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="224"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="224"/>
-      <c r="J27" s="231"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="226"/>
+      <c r="I27" s="226"/>
+      <c r="J27" s="238"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="223"/>
-      <c r="C28" s="224"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="224"/>
-      <c r="G28" s="224"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="224"/>
-      <c r="J28" s="231"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="226"/>
+      <c r="D28" s="226"/>
+      <c r="E28" s="226"/>
+      <c r="F28" s="226"/>
+      <c r="G28" s="226"/>
+      <c r="H28" s="226"/>
+      <c r="I28" s="226"/>
+      <c r="J28" s="238"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="223"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="231"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="238"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="223"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="224"/>
-      <c r="J30" s="231"/>
+      <c r="B30" s="237"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="226"/>
+      <c r="J30" s="238"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="223"/>
-      <c r="C31" s="224"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="224"/>
-      <c r="F31" s="224"/>
-      <c r="G31" s="224"/>
-      <c r="H31" s="224"/>
-      <c r="I31" s="224"/>
-      <c r="J31" s="231"/>
+      <c r="B31" s="237"/>
+      <c r="C31" s="226"/>
+      <c r="D31" s="226"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="238"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="223"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="224"/>
-      <c r="F32" s="224"/>
-      <c r="G32" s="224"/>
-      <c r="H32" s="224"/>
-      <c r="I32" s="224"/>
-      <c r="J32" s="231"/>
+      <c r="B32" s="237"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="226"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="238"/>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="223"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="224"/>
-      <c r="I33" s="224"/>
-      <c r="J33" s="231"/>
+      <c r="B33" s="237"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="226"/>
+      <c r="I33" s="226"/>
+      <c r="J33" s="238"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="223"/>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
-      <c r="E34" s="224"/>
-      <c r="F34" s="224"/>
-      <c r="G34" s="224"/>
-      <c r="H34" s="224"/>
-      <c r="I34" s="224"/>
-      <c r="J34" s="231"/>
+      <c r="B34" s="237"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
+      <c r="H34" s="226"/>
+      <c r="I34" s="226"/>
+      <c r="J34" s="238"/>
     </row>
     <row r="35" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B35" s="225"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="226"/>
-      <c r="E35" s="226"/>
-      <c r="F35" s="226"/>
-      <c r="G35" s="226"/>
-      <c r="H35" s="226"/>
-      <c r="I35" s="226"/>
-      <c r="J35" s="232"/>
+      <c r="B35" s="239"/>
+      <c r="C35" s="240"/>
+      <c r="D35" s="240"/>
+      <c r="E35" s="240"/>
+      <c r="F35" s="240"/>
+      <c r="G35" s="240"/>
+      <c r="H35" s="240"/>
+      <c r="I35" s="240"/>
+      <c r="J35" s="241"/>
     </row>
     <row r="37" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="38" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B38" s="217" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="218"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="218"/>
-      <c r="J38" s="219"/>
+      <c r="B38" s="231" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="232"/>
+      <c r="D38" s="232"/>
+      <c r="E38" s="232"/>
+      <c r="F38" s="232"/>
+      <c r="G38" s="232"/>
+      <c r="H38" s="232"/>
+      <c r="I38" s="232"/>
+      <c r="J38" s="233"/>
     </row>
     <row r="39" spans="2:19" ht="189" customHeight="1">
-      <c r="B39" s="233"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="234" t="s">
+      <c r="B39" s="242"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="243" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" s="244"/>
+      <c r="H39" s="244"/>
+      <c r="I39" s="244"/>
+      <c r="J39" s="245"/>
+    </row>
+    <row r="40" spans="2:19" ht="313.5" customHeight="1" thickBot="1">
+      <c r="B40" s="237"/>
+      <c r="C40" s="226"/>
+      <c r="D40" s="226"/>
+      <c r="E40" s="226"/>
+      <c r="F40" s="246" t="s">
         <v>249</v>
       </c>
-      <c r="G39" s="235"/>
-      <c r="H39" s="235"/>
-      <c r="I39" s="235"/>
-      <c r="J39" s="236"/>
-    </row>
-    <row r="40" spans="2:19" ht="313.5" customHeight="1" thickBot="1">
-      <c r="B40" s="223"/>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="220" t="s">
+      <c r="G40" s="247"/>
+      <c r="H40" s="247"/>
+      <c r="I40" s="247"/>
+      <c r="J40" s="248"/>
+      <c r="K40" s="239"/>
+      <c r="L40" s="240"/>
+      <c r="M40" s="240"/>
+      <c r="N40" s="240"/>
+      <c r="O40" s="249" t="s">
         <v>250</v>
       </c>
-      <c r="G40" s="221"/>
-      <c r="H40" s="221"/>
-      <c r="I40" s="221"/>
-      <c r="J40" s="222"/>
-      <c r="K40" s="225"/>
-      <c r="L40" s="226"/>
-      <c r="M40" s="226"/>
-      <c r="N40" s="226"/>
-      <c r="O40" s="227" t="s">
-        <v>251</v>
-      </c>
-      <c r="P40" s="228"/>
-      <c r="Q40" s="228"/>
-      <c r="R40" s="228"/>
-      <c r="S40" s="229"/>
+      <c r="P40" s="250"/>
+      <c r="Q40" s="250"/>
+      <c r="R40" s="250"/>
+      <c r="S40" s="251"/>
     </row>
     <row r="41" spans="2:19" ht="267.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B7:J35"/>
     <mergeCell ref="B38:J38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="345">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -584,11 +584,6 @@
   <si>
     <t>(本編)所持アイテム使用
 (メニュー)カーソル移動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(本編)武器攻撃
-(メニュー)決定</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1497,15 +1492,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーは『アイテム』を３つまで獲得する事ができます。
-『アイテム』の種類は回復と強化の二種類に分かれ、
-どのアイテムも拠点内で補充をすることができます。
-(！要会議！)
-アイテムの獲得方法について
-専用メニューを開いて獲得するのか、ステージ上に置かれたモデルに触れて獲得するのか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>聖剣伝説のラビが近い
 スライム型の身体に
 獣の耳と尻尾を持つ
@@ -1641,6 +1627,63 @@
   </si>
   <si>
     <t>ダメージ計算式の追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの獲得方法について</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは『アイテム』を３つまで獲得する事ができます。
+『アイテム』の種類は回復と強化の二種類に分かれ、
+どのアイテムも拠点内で補充をすることができます。
+～アイテムの獲得方法について～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(本編)武器攻撃、
+(拠点内)アイテムボックスを開く
+(メニュー)決定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターの出現分布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアの色</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総出現数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拠点周り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3匹の群れ×8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2602,7 +2645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2871,6 +2914,133 @@
     <xf numFmtId="14" fontId="26" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2889,116 +3059,77 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3024,84 +3155,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3129,14 +3197,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3144,49 +3287,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3195,51 +3311,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3255,112 +3365,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -7138,6 +7190,402 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1010459</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7725584" y="10843082"/>
+          <a:ext cx="551641" cy="158779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>615949</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>481790</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3778249" y="10873755"/>
+          <a:ext cx="551641" cy="162388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>72005</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>164854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236401</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5794469" y="12711340"/>
+          <a:ext cx="530467" cy="164396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61047</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225443</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5781707" y="8936725"/>
+          <a:ext cx="534076" cy="164396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>445257</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1036032</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>78207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="円/楕円 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4293357" y="9273329"/>
+          <a:ext cx="3457800" cy="3339778"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92073</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>110655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="円/楕円 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4625973" y="9580560"/>
+          <a:ext cx="2813051" cy="2722095"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385173</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>26373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596246</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>36997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円/楕円 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5604873" y="10503873"/>
+          <a:ext cx="896873" cy="867874"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8239,7 +8687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -8250,64 +8698,64 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:15" ht="66" customHeight="1" thickBot="1">
-      <c r="B2" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="B2" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
     </row>
     <row r="3" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="160" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+    </row>
+    <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B4" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="129" t="s">
-        <v>301</v>
-      </c>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-    </row>
-    <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B4" s="140" t="s">
+      <c r="C4" s="135"/>
+      <c r="D4" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142" t="s">
+      <c r="E4" s="137"/>
+      <c r="F4" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="143"/>
-      <c r="F4" s="144" t="s">
+      <c r="G4" s="135"/>
+      <c r="H4" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="141"/>
-      <c r="H4" s="145" t="s">
+      <c r="I4" s="140"/>
+      <c r="J4" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="144" t="s">
+      <c r="K4" s="135"/>
+      <c r="L4" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="141"/>
-      <c r="L4" s="134" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" s="135"/>
+      <c r="M4" s="127"/>
     </row>
     <row r="5" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B5" s="35"/>
@@ -8325,37 +8773,37 @@
     </row>
     <row r="6" spans="2:15" ht="22.5" customHeight="1">
       <c r="B6" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="141" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="147" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="148"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="142"/>
     </row>
     <row r="7" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B7" s="149" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="151"/>
+      <c r="B7" s="143" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="145"/>
     </row>
     <row r="8" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
       <c r="B8" s="94"/>
@@ -8372,36 +8820,36 @@
       <c r="M8" s="95"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="149" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="151"/>
+    </row>
+    <row r="10" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
+      <c r="B10" s="146" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="157"/>
-    </row>
-    <row r="10" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B10" s="152" t="s">
-        <v>262</v>
-      </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="154"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="148"/>
     </row>
     <row r="11" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B11" s="86"/>
@@ -8418,293 +8866,315 @@
       <c r="M11" s="89"/>
     </row>
     <row r="12" spans="2:15" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="152" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="154"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="160"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="139" t="s">
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
       <c r="N13" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="O13" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="O13" s="26" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="14" spans="2:15" ht="48" customHeight="1">
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="131" t="s">
-        <v>165</v>
-      </c>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
       <c r="N14" s="113">
         <v>42653</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B15" s="124" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126" t="s">
+      <c r="B15" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="157" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
       <c r="N15" s="114">
         <v>42653</v>
       </c>
       <c r="O15" s="98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
       <c r="N16" s="113">
         <v>42653</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="42.75" customHeight="1">
-      <c r="B17" s="124" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="126" t="s">
+      <c r="B17" s="155" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="123">
+        <v>42655</v>
+      </c>
+      <c r="O17" s="98" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="45.75" customHeight="1">
+      <c r="B18" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="124" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="281">
-        <v>42655</v>
-      </c>
-      <c r="O17" s="98" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="45.75" customHeight="1">
-      <c r="B18" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="131" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
       <c r="N18" s="105">
         <v>42655</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="30" customHeight="1">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="126" t="s">
-        <v>200</v>
-      </c>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
       <c r="N19" s="99">
         <v>42649</v>
       </c>
       <c r="O19" s="98" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="30" customHeight="1">
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="124" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="131" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
       <c r="N20" s="113">
         <v>42653</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="30" customHeight="1">
-      <c r="B21" s="124" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="126" t="s">
+      <c r="B21" s="155" t="s">
         <v>268</v>
       </c>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="157" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
       <c r="N21" s="114">
         <v>42653</v>
       </c>
       <c r="O21" s="98" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B22" s="121" t="s">
-        <v>313</v>
-      </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="123" t="s">
-        <v>258</v>
-      </c>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
+      <c r="B22" s="164" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="166" t="s">
+        <v>257</v>
+      </c>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
       <c r="N22" s="115">
         <v>42655</v>
       </c>
       <c r="O22" s="97" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="B14:G14"/>
@@ -8721,28 +9191,6 @@
     <mergeCell ref="B10:M10"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:M22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8776,389 +9224,389 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
-        <v>305</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="261" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="262"/>
+      <c r="A1" s="183" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="269" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="270"/>
     </row>
     <row r="2" spans="1:14" s="68" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="263" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
+      <c r="A2" s="271" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="246" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="248"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="272" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="232"/>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="232"/>
-      <c r="I5" s="233"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="258" t="s">
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="274"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="272" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
-      <c r="G6" s="259"/>
-      <c r="H6" s="259"/>
-      <c r="I6" s="260"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="258" t="s">
+      <c r="C7" s="273"/>
+      <c r="D7" s="273"/>
+      <c r="E7" s="273"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="273"/>
+      <c r="H7" s="273"/>
+      <c r="I7" s="274"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="272" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
-      <c r="H7" s="259"/>
-      <c r="I7" s="260"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="258" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="260"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="274"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="258"/>
-      <c r="C9" s="259"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="260"/>
+      <c r="B9" s="272"/>
+      <c r="C9" s="273"/>
+      <c r="D9" s="273"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="273"/>
+      <c r="G9" s="273"/>
+      <c r="H9" s="273"/>
+      <c r="I9" s="274"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="258"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="259"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="260"/>
+      <c r="B10" s="272"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="274"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="258"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="260"/>
+      <c r="B11" s="272"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="273"/>
+      <c r="G11" s="273"/>
+      <c r="H11" s="273"/>
+      <c r="I11" s="274"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="258"/>
-      <c r="C12" s="259"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="259"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="260"/>
+      <c r="B12" s="272"/>
+      <c r="C12" s="273"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="273"/>
+      <c r="F12" s="273"/>
+      <c r="G12" s="273"/>
+      <c r="H12" s="273"/>
+      <c r="I12" s="274"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="258"/>
-      <c r="C13" s="259"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="260"/>
+      <c r="B13" s="272"/>
+      <c r="C13" s="273"/>
+      <c r="D13" s="273"/>
+      <c r="E13" s="273"/>
+      <c r="F13" s="273"/>
+      <c r="G13" s="273"/>
+      <c r="H13" s="273"/>
+      <c r="I13" s="274"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="258"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="259"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="260"/>
+      <c r="B14" s="272"/>
+      <c r="C14" s="273"/>
+      <c r="D14" s="273"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="273"/>
+      <c r="G14" s="273"/>
+      <c r="H14" s="273"/>
+      <c r="I14" s="274"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="258"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="259"/>
-      <c r="H15" s="259"/>
-      <c r="I15" s="260"/>
+      <c r="B15" s="272"/>
+      <c r="C15" s="273"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="273"/>
+      <c r="G15" s="273"/>
+      <c r="H15" s="273"/>
+      <c r="I15" s="274"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="258"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="259"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="259"/>
-      <c r="I16" s="260"/>
+      <c r="B16" s="272"/>
+      <c r="C16" s="273"/>
+      <c r="D16" s="273"/>
+      <c r="E16" s="273"/>
+      <c r="F16" s="273"/>
+      <c r="G16" s="273"/>
+      <c r="H16" s="273"/>
+      <c r="I16" s="274"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="258"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="259"/>
-      <c r="G17" s="259"/>
-      <c r="H17" s="259"/>
-      <c r="I17" s="260"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="273"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="273"/>
+      <c r="G17" s="273"/>
+      <c r="H17" s="273"/>
+      <c r="I17" s="274"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" thickBot="1"/>
     <row r="20" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B20" s="231" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="232"/>
-      <c r="H20" s="232"/>
-      <c r="I20" s="232"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="233"/>
+      <c r="B20" s="246" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="247"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="247"/>
+      <c r="G20" s="247"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="247"/>
+      <c r="J20" s="247"/>
+      <c r="K20" s="248"/>
     </row>
     <row r="21" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B21" s="254" t="s">
+      <c r="B21" s="275" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="276"/>
+      <c r="D21" s="276"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="276" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" s="276"/>
+      <c r="H21" s="276"/>
+      <c r="I21" s="276"/>
+      <c r="J21" s="276"/>
+      <c r="K21" s="116" t="s">
         <v>306</v>
       </c>
-      <c r="C21" s="255"/>
-      <c r="D21" s="255"/>
-      <c r="E21" s="255"/>
-      <c r="F21" s="255" t="s">
+    </row>
+    <row r="22" spans="2:11" ht="27" customHeight="1">
+      <c r="B22" s="277" t="s">
         <v>307</v>
       </c>
-      <c r="G21" s="255"/>
-      <c r="H21" s="255"/>
-      <c r="I21" s="255"/>
-      <c r="J21" s="255"/>
-      <c r="K21" s="116" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="27" customHeight="1">
-      <c r="B22" s="256" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="257"/>
-      <c r="D22" s="257"/>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
-      <c r="H22" s="257"/>
-      <c r="I22" s="257"/>
-      <c r="J22" s="257"/>
+      <c r="C22" s="278"/>
+      <c r="D22" s="278"/>
+      <c r="E22" s="278"/>
+      <c r="F22" s="278"/>
+      <c r="G22" s="278"/>
+      <c r="H22" s="278"/>
+      <c r="I22" s="278"/>
+      <c r="J22" s="278"/>
       <c r="K22" s="117">
         <v>42655</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="47.25" customHeight="1">
-      <c r="B23" s="253" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="252"/>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="252"/>
+      <c r="B23" s="279" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="280"/>
+      <c r="D23" s="280"/>
+      <c r="E23" s="280"/>
+      <c r="F23" s="280"/>
+      <c r="G23" s="280"/>
+      <c r="H23" s="280"/>
+      <c r="I23" s="280"/>
+      <c r="J23" s="280"/>
       <c r="K23" s="96">
         <v>42655</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="252"/>
-      <c r="C24" s="252"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="252"/>
+      <c r="B24" s="280"/>
+      <c r="C24" s="280"/>
+      <c r="D24" s="280"/>
+      <c r="E24" s="280"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="252"/>
-      <c r="C25" s="252"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="252"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="252"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="252"/>
+      <c r="B25" s="280"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="280"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="280"/>
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="252"/>
-      <c r="C26" s="252"/>
-      <c r="D26" s="252"/>
-      <c r="E26" s="252"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="252"/>
-      <c r="H26" s="252"/>
-      <c r="I26" s="252"/>
-      <c r="J26" s="252"/>
+      <c r="B26" s="280"/>
+      <c r="C26" s="280"/>
+      <c r="D26" s="280"/>
+      <c r="E26" s="280"/>
+      <c r="F26" s="280"/>
+      <c r="G26" s="280"/>
+      <c r="H26" s="280"/>
+      <c r="I26" s="280"/>
+      <c r="J26" s="280"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="252"/>
-      <c r="C27" s="252"/>
-      <c r="D27" s="252"/>
-      <c r="E27" s="252"/>
-      <c r="F27" s="252"/>
-      <c r="G27" s="252"/>
-      <c r="H27" s="252"/>
-      <c r="I27" s="252"/>
-      <c r="J27" s="252"/>
+      <c r="B27" s="280"/>
+      <c r="C27" s="280"/>
+      <c r="D27" s="280"/>
+      <c r="E27" s="280"/>
+      <c r="F27" s="280"/>
+      <c r="G27" s="280"/>
+      <c r="H27" s="280"/>
+      <c r="I27" s="280"/>
+      <c r="J27" s="280"/>
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="252"/>
-      <c r="C28" s="252"/>
-      <c r="D28" s="252"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="252"/>
-      <c r="G28" s="252"/>
-      <c r="H28" s="252"/>
-      <c r="I28" s="252"/>
-      <c r="J28" s="252"/>
+      <c r="B28" s="280"/>
+      <c r="C28" s="280"/>
+      <c r="D28" s="280"/>
+      <c r="E28" s="280"/>
+      <c r="F28" s="280"/>
+      <c r="G28" s="280"/>
+      <c r="H28" s="280"/>
+      <c r="I28" s="280"/>
+      <c r="J28" s="280"/>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="252"/>
-      <c r="C29" s="252"/>
-      <c r="D29" s="252"/>
-      <c r="E29" s="252"/>
-      <c r="F29" s="252"/>
-      <c r="G29" s="252"/>
-      <c r="H29" s="252"/>
-      <c r="I29" s="252"/>
-      <c r="J29" s="252"/>
+      <c r="B29" s="280"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="252"/>
-      <c r="C30" s="252"/>
-      <c r="D30" s="252"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="252"/>
-      <c r="G30" s="252"/>
-      <c r="H30" s="252"/>
-      <c r="I30" s="252"/>
-      <c r="J30" s="252"/>
+      <c r="B30" s="280"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="280"/>
+      <c r="E30" s="280"/>
+      <c r="F30" s="280"/>
+      <c r="G30" s="280"/>
+      <c r="H30" s="280"/>
+      <c r="I30" s="280"/>
+      <c r="J30" s="280"/>
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="252"/>
-      <c r="C31" s="252"/>
-      <c r="D31" s="252"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="252"/>
-      <c r="H31" s="252"/>
-      <c r="I31" s="252"/>
-      <c r="J31" s="252"/>
+      <c r="B31" s="280"/>
+      <c r="C31" s="280"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="280"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="280"/>
+      <c r="I31" s="280"/>
+      <c r="J31" s="280"/>
       <c r="K31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9181,24 +9629,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="264" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="264"/>
+      <c r="A1" s="183" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="281" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="281"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9216,72 +9664,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="181" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="182"/>
+      <c r="A1" s="183" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="172" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="173"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="B5" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="183" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="184"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="175"/>
     </row>
     <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1">
-      <c r="B6" s="185" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="187"/>
+      <c r="B6" s="176" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="178"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1">
       <c r="B7" s="49"/>
@@ -9298,35 +9746,35 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="186" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="187"/>
+    </row>
+    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="B9" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
-    </row>
-    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B9" s="173" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="190"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
       <c r="B10" s="49"/>
@@ -9343,137 +9791,137 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="183" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="174" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
+    </row>
+    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B12" s="176" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="184"/>
-    </row>
-    <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B12" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="187"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="178"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="179" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="193" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="194"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="163" t="s">
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="195" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="164"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="171" t="s">
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="196"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="165" t="s">
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="195" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="166"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="171" t="s">
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="196"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="181" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="165" t="s">
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="195" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="166"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="171" t="s">
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="196"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="165" t="s">
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="166"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="171" t="s">
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="196"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B18" s="191" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="165" t="s">
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="166"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="161" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="167" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="168"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="198"/>
     </row>
     <row r="19" spans="2:12" ht="14.25" thickBot="1">
       <c r="B19" s="41"/>
@@ -9490,35 +9938,35 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="169" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="186" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="186"/>
+      <c r="L20" s="187"/>
+    </row>
+    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1">
+      <c r="B21" s="188" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="170"/>
-    </row>
-    <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1">
-      <c r="B21" s="173" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="175"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="190"/>
     </row>
     <row r="22" spans="2:12" ht="14.25" thickBot="1">
       <c r="B22" s="49"/>
@@ -9535,104 +9983,151 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="174" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="174"/>
+      <c r="L23" s="175"/>
+    </row>
+    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1">
+      <c r="B24" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="183" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="184"/>
-    </row>
-    <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B24" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="186"/>
-      <c r="L24" s="187"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="178"/>
     </row>
     <row r="25" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="26" spans="2:12">
       <c r="B26" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="176" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="177"/>
-    </row>
-    <row r="27" spans="2:12" ht="130.5" customHeight="1" thickBot="1">
-      <c r="B27" s="178" t="s">
-        <v>302</v>
-      </c>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="180"/>
+        <v>197</v>
+      </c>
+      <c r="C26" s="167" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="168"/>
+    </row>
+    <row r="27" spans="2:12" ht="254.25" customHeight="1" thickBot="1">
+      <c r="B27" s="282" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" s="283"/>
+      <c r="D27" s="283"/>
+      <c r="E27" s="283"/>
+      <c r="F27" s="283"/>
+      <c r="G27" s="283"/>
+      <c r="H27" s="283"/>
+      <c r="I27" s="283"/>
+      <c r="J27" s="283"/>
+      <c r="K27" s="283"/>
+      <c r="L27" s="284"/>
     </row>
     <row r="28" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="29" spans="2:12">
       <c r="B29" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="176" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="167" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="168"/>
+    </row>
+    <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1">
+      <c r="B30" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="177"/>
-    </row>
-    <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1">
-      <c r="B30" s="178" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="180"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="171"/>
+    </row>
+    <row r="31" spans="2:12" ht="14.25" thickBot="1"/>
+    <row r="32" spans="2:12">
+      <c r="B32" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="167" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="168"/>
+    </row>
+    <row r="33" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B33" s="169" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="171"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="C29:L29"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="M1:N1"/>
@@ -9649,18 +10144,6 @@
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="C23:L23"/>
     <mergeCell ref="B24:L24"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9683,26 +10166,26 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="193" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="194"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="199" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="200"/>
       <c r="O1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="25.5">
@@ -9762,236 +10245,230 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="181" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="182"/>
+      <c r="A1" s="183" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="172" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="173"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1">
       <c r="B3" s="71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="D4" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="E4" s="72" t="s">
         <v>194</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B6" s="204" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="205"/>
-      <c r="L6" s="206"/>
+      <c r="B6" s="201" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="203"/>
     </row>
     <row r="7" spans="1:14" ht="296.25" customHeight="1">
-      <c r="B7" s="195"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="197"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="205"/>
+      <c r="I7" s="205"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="206"/>
     </row>
     <row r="8" spans="1:14" ht="78.75" customHeight="1" thickBot="1">
-      <c r="B8" s="198" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="200"/>
+      <c r="B8" s="207" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="209"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B10" s="204" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="206"/>
+      <c r="B10" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:14" ht="331.5" customHeight="1">
-      <c r="B11" s="201"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="203"/>
+      <c r="B11" s="210"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="212"/>
       <c r="M11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1">
+      <c r="B12" s="207" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1">
-      <c r="B12" s="198" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="200"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="208"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="209"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="14" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B14" s="204" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="205"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="206"/>
+      <c r="B14" s="201" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="203"/>
     </row>
     <row r="15" spans="1:14" ht="329.25" customHeight="1">
-      <c r="B15" s="201"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="203"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="211"/>
+      <c r="L15" s="212"/>
     </row>
     <row r="16" spans="1:14" ht="144.75" customHeight="1" thickBot="1">
-      <c r="B16" s="198" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="199"/>
-      <c r="L16" s="200"/>
+      <c r="B16" s="207" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="209"/>
     </row>
     <row r="17" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="204" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="206"/>
+      <c r="B18" s="201" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="203"/>
     </row>
     <row r="19" spans="2:12" ht="329.25" customHeight="1">
-      <c r="B19" s="195"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="197"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="206"/>
     </row>
     <row r="20" spans="2:12" ht="143.25" customHeight="1" thickBot="1">
-      <c r="B20" s="198" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="199"/>
-      <c r="L20" s="200"/>
+      <c r="B20" s="207" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="208"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="208"/>
+      <c r="K20" s="208"/>
+      <c r="L20" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B11:L11"/>
@@ -10000,6 +10477,12 @@
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -10019,9 +10502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10037,26 +10520,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="193" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="194"/>
+      <c r="A1" s="183" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="199" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="200"/>
       <c r="O1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
@@ -10078,7 +10561,7 @@
     <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
       <c r="B3" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -10097,19 +10580,19 @@
     <row r="4" spans="1:15" ht="24.75" customHeight="1">
       <c r="A4" s="48"/>
       <c r="B4" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E4" s="108" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" s="278" t="s">
-        <v>332</v>
+        <v>314</v>
+      </c>
+      <c r="F4" s="122" t="s">
+        <v>330</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="43"/>
@@ -10154,14 +10637,14 @@
     </row>
     <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="214" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="192"/>
+      <c r="B7" s="226" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="185"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -10280,7 +10763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="54">
+    <row r="13" spans="1:15" ht="40.5">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -10288,7 +10771,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>53</v>
@@ -10346,7 +10829,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10371,213 +10854,213 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="21" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B21" s="211" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="212"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="213"/>
+      <c r="B21" s="232" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="234"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B23" s="204" t="s">
+      <c r="B23" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="204" t="s">
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="201" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="205"/>
-      <c r="G23" s="206"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="203"/>
     </row>
     <row r="24" spans="1:7" ht="100.5" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="209" t="s">
+      <c r="C24" s="230" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="210"/>
+      <c r="D24" s="231"/>
       <c r="E24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="209" t="s">
+      <c r="F24" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="210"/>
+      <c r="G24" s="231"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B25" s="204" t="s">
+      <c r="B25" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="204" t="s">
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="206"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="203"/>
     </row>
     <row r="26" spans="1:7" ht="266.25" customHeight="1" thickBot="1">
-      <c r="B26" s="204"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="206"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="203"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="28" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B28" s="204" t="s">
+      <c r="B28" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="204" t="s">
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="201" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="205"/>
-      <c r="G28" s="206"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="203"/>
     </row>
     <row r="29" spans="1:7" ht="134.25" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="209" t="s">
+      <c r="C29" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="210"/>
+      <c r="D29" s="231"/>
       <c r="E29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="209" t="s">
+      <c r="F29" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="210"/>
+      <c r="G29" s="231"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B30" s="204" t="s">
+      <c r="B30" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="204" t="s">
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="205"/>
-      <c r="G30" s="206"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="203"/>
     </row>
     <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1">
-      <c r="B31" s="204"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="206"/>
+      <c r="B31" s="201"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="203"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="33" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B33" s="204" t="s">
+      <c r="B33" s="201" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="205"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="204" t="s">
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="201" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="205"/>
-      <c r="G33" s="206"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="203"/>
     </row>
     <row r="34" spans="1:7" ht="164.25" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="209" t="s">
+      <c r="C34" s="230" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="210"/>
+      <c r="D34" s="231"/>
       <c r="E34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="209" t="s">
+      <c r="F34" s="230" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="210"/>
+      <c r="G34" s="231"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B35" s="204" t="s">
+      <c r="B35" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="205"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="204" t="s">
+      <c r="C35" s="202"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="205"/>
-      <c r="G35" s="206"/>
+      <c r="F35" s="202"/>
+      <c r="G35" s="203"/>
     </row>
     <row r="36" spans="1:7" ht="294" customHeight="1" thickBot="1">
-      <c r="B36" s="204"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="206"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="203"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="38" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B38" s="204" t="s">
+      <c r="B38" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="205"/>
-      <c r="D38" s="206"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="203"/>
     </row>
     <row r="39" spans="1:7" ht="126.75" customHeight="1" thickBot="1">
       <c r="B39" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="209" t="s">
+      <c r="C39" s="230" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="210"/>
+      <c r="D39" s="231"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B40" s="204" t="s">
+      <c r="B40" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="205"/>
-      <c r="D40" s="206"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="203"/>
     </row>
     <row r="41" spans="1:7" ht="267" customHeight="1" thickBot="1">
-      <c r="B41" s="204"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="206"/>
+      <c r="B41" s="201"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="203"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="46" spans="1:7" ht="21.75" thickBot="1">
       <c r="A46" s="91"/>
-      <c r="B46" s="214" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="191"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="191"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="192"/>
+      <c r="B46" s="226" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="184"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="185"/>
     </row>
     <row r="47" spans="1:7" ht="21.75" thickBot="1">
-      <c r="A47" s="215" t="s">
-        <v>224</v>
-      </c>
-      <c r="B47" s="216"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="217"/>
+      <c r="A47" s="227" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="228"/>
+      <c r="C47" s="228"/>
+      <c r="D47" s="228"/>
+      <c r="E47" s="228"/>
+      <c r="F47" s="228"/>
+      <c r="G47" s="229"/>
     </row>
     <row r="48" spans="1:7" ht="14.25" thickBot="1">
       <c r="A48" s="12"/>
@@ -10605,22 +11088,22 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C49" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" s="85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E49" s="85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F49" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="40.5">
@@ -10628,22 +11111,22 @@
         <v>8</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E50" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F50" s="81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="40.5">
@@ -10651,22 +11134,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D51" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F51" s="81" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="40.5">
@@ -10674,22 +11157,22 @@
         <v>10</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E52" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F52" s="81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="27">
@@ -10697,22 +11180,22 @@
         <v>11</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D53" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E53" s="81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F53" s="81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="41.25" thickBot="1">
@@ -10720,162 +11203,162 @@
         <v>12</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E54" s="82" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F54" s="82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="58" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B58" s="214" t="s">
-        <v>297</v>
-      </c>
-      <c r="C58" s="191"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="191"/>
-      <c r="F58" s="191"/>
-      <c r="G58" s="192"/>
+      <c r="B58" s="226" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="184"/>
+      <c r="D58" s="184"/>
+      <c r="E58" s="184"/>
+      <c r="F58" s="184"/>
+      <c r="G58" s="185"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="B59" s="202" t="s">
+      <c r="B59" s="211" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" s="211"/>
+      <c r="D59" s="211" t="s">
         <v>293</v>
       </c>
-      <c r="C59" s="202"/>
-      <c r="D59" s="202" t="s">
+      <c r="E59" s="211"/>
+      <c r="F59" s="211"/>
+      <c r="G59" s="211"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="216" t="s">
         <v>294</v>
       </c>
-      <c r="E59" s="202"/>
-      <c r="F59" s="202"/>
-      <c r="G59" s="202"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="B60" s="218" t="s">
+      <c r="C60" s="216"/>
+      <c r="D60" s="216" t="s">
         <v>295</v>
       </c>
-      <c r="C60" s="218"/>
-      <c r="D60" s="218" t="s">
-        <v>296</v>
-      </c>
-      <c r="E60" s="218"/>
-      <c r="F60" s="218"/>
-      <c r="G60" s="218"/>
+      <c r="E60" s="216"/>
+      <c r="F60" s="216"/>
+      <c r="G60" s="216"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="B61" s="218"/>
-      <c r="C61" s="218"/>
-      <c r="D61" s="218"/>
-      <c r="E61" s="218"/>
-      <c r="F61" s="218"/>
-      <c r="G61" s="218"/>
+      <c r="B61" s="216"/>
+      <c r="C61" s="216"/>
+      <c r="D61" s="216"/>
+      <c r="E61" s="216"/>
+      <c r="F61" s="216"/>
+      <c r="G61" s="216"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="B62" s="218"/>
-      <c r="C62" s="218"/>
-      <c r="D62" s="218"/>
-      <c r="E62" s="218"/>
-      <c r="F62" s="218"/>
-      <c r="G62" s="218"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="216"/>
+      <c r="E62" s="216"/>
+      <c r="F62" s="216"/>
+      <c r="G62" s="216"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="B63" s="218"/>
-      <c r="C63" s="218"/>
-      <c r="D63" s="218"/>
-      <c r="E63" s="218"/>
-      <c r="F63" s="218"/>
-      <c r="G63" s="218"/>
+      <c r="B63" s="216"/>
+      <c r="C63" s="216"/>
+      <c r="D63" s="216"/>
+      <c r="E63" s="216"/>
+      <c r="F63" s="216"/>
+      <c r="G63" s="216"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="B64" s="218"/>
-      <c r="C64" s="218"/>
-      <c r="D64" s="218"/>
-      <c r="E64" s="218"/>
-      <c r="F64" s="218"/>
-      <c r="G64" s="218"/>
+      <c r="B64" s="216"/>
+      <c r="C64" s="216"/>
+      <c r="D64" s="216"/>
+      <c r="E64" s="216"/>
+      <c r="F64" s="216"/>
+      <c r="G64" s="216"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="218"/>
-      <c r="C65" s="218"/>
-      <c r="D65" s="218"/>
-      <c r="E65" s="218"/>
-      <c r="F65" s="218"/>
-      <c r="G65" s="218"/>
+      <c r="B65" s="216"/>
+      <c r="C65" s="216"/>
+      <c r="D65" s="216"/>
+      <c r="E65" s="216"/>
+      <c r="F65" s="216"/>
+      <c r="G65" s="216"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="218"/>
-      <c r="C66" s="218"/>
-      <c r="D66" s="218"/>
-      <c r="E66" s="218"/>
-      <c r="F66" s="218"/>
-      <c r="G66" s="218"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="216"/>
+      <c r="E66" s="216"/>
+      <c r="F66" s="216"/>
+      <c r="G66" s="216"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="218"/>
-      <c r="C67" s="218"/>
-      <c r="D67" s="218"/>
-      <c r="E67" s="218"/>
-      <c r="F67" s="218"/>
-      <c r="G67" s="218"/>
+      <c r="B67" s="216"/>
+      <c r="C67" s="216"/>
+      <c r="D67" s="216"/>
+      <c r="E67" s="216"/>
+      <c r="F67" s="216"/>
+      <c r="G67" s="216"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="218"/>
-      <c r="C68" s="218"/>
-      <c r="D68" s="218"/>
-      <c r="E68" s="218"/>
-      <c r="F68" s="218"/>
-      <c r="G68" s="218"/>
+      <c r="B68" s="216"/>
+      <c r="C68" s="216"/>
+      <c r="D68" s="216"/>
+      <c r="E68" s="216"/>
+      <c r="F68" s="216"/>
+      <c r="G68" s="216"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="218"/>
-      <c r="C69" s="218"/>
-      <c r="D69" s="218"/>
-      <c r="E69" s="218"/>
-      <c r="F69" s="218"/>
-      <c r="G69" s="218"/>
+      <c r="B69" s="216"/>
+      <c r="C69" s="216"/>
+      <c r="D69" s="216"/>
+      <c r="E69" s="216"/>
+      <c r="F69" s="216"/>
+      <c r="G69" s="216"/>
     </row>
     <row r="74" spans="2:7" ht="35.25" customHeight="1">
-      <c r="B74" s="265" t="s">
-        <v>317</v>
-      </c>
-      <c r="C74" s="266"/>
-      <c r="D74" s="266"/>
-      <c r="E74" s="266"/>
-      <c r="F74" s="266"/>
-      <c r="G74" s="266"/>
+      <c r="B74" s="218" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="219"/>
+      <c r="D74" s="219"/>
+      <c r="E74" s="219"/>
+      <c r="F74" s="219"/>
+      <c r="G74" s="219"/>
     </row>
     <row r="75" spans="2:7" ht="17.25">
-      <c r="B75" s="279" t="s">
+      <c r="B75" s="223" t="s">
+        <v>319</v>
+      </c>
+      <c r="C75" s="224"/>
+      <c r="D75" s="224"/>
+      <c r="E75" s="224"/>
+      <c r="F75" s="224"/>
+      <c r="G75" s="225"/>
+    </row>
+    <row r="76" spans="2:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B76" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="C76" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="C75" s="267"/>
-      <c r="D75" s="267"/>
-      <c r="E75" s="267"/>
-      <c r="F75" s="267"/>
-      <c r="G75" s="280"/>
-    </row>
-    <row r="76" spans="2:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B76" s="268" t="s">
-        <v>322</v>
-      </c>
-      <c r="C76" s="269" t="s">
-        <v>323</v>
-      </c>
-      <c r="D76" s="270"/>
-      <c r="E76" s="270"/>
-      <c r="F76" s="270"/>
-      <c r="G76" s="271"/>
+      <c r="D76" s="120"/>
+      <c r="E76" s="120"/>
+      <c r="F76" s="120"/>
+      <c r="G76" s="121"/>
     </row>
     <row r="77" spans="2:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="B77" s="112"/>
@@ -10886,131 +11369,200 @@
       <c r="G77" s="111"/>
     </row>
     <row r="78" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B78" s="272" t="s">
+      <c r="B78" s="220" t="s">
+        <v>316</v>
+      </c>
+      <c r="C78" s="221"/>
+      <c r="D78" s="221"/>
+      <c r="E78" s="221" t="s">
+        <v>317</v>
+      </c>
+      <c r="F78" s="221"/>
+      <c r="G78" s="222"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="133" t="s">
         <v>318</v>
       </c>
-      <c r="C78" s="273"/>
-      <c r="D78" s="273"/>
-      <c r="E78" s="273" t="s">
-        <v>319</v>
-      </c>
-      <c r="F78" s="273"/>
-      <c r="G78" s="274"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="139" t="s">
-        <v>320</v>
-      </c>
-      <c r="C79" s="139"/>
-      <c r="D79" s="139"/>
-      <c r="E79" s="139" t="s">
+      <c r="C79" s="133"/>
+      <c r="D79" s="133"/>
+      <c r="E79" s="133" t="s">
+        <v>325</v>
+      </c>
+      <c r="F79" s="133"/>
+      <c r="G79" s="133"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="217" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80" s="217"/>
+      <c r="D80" s="217"/>
+      <c r="E80" s="217" t="s">
+        <v>323</v>
+      </c>
+      <c r="F80" s="217"/>
+      <c r="G80" s="217"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="217" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81" s="217"/>
+      <c r="D81" s="217"/>
+      <c r="E81" s="217" t="s">
+        <v>326</v>
+      </c>
+      <c r="F81" s="217"/>
+      <c r="G81" s="217"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="217" t="s">
         <v>327</v>
       </c>
-      <c r="F79" s="139"/>
-      <c r="G79" s="139"/>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="226" t="s">
-        <v>324</v>
-      </c>
-      <c r="C80" s="226"/>
-      <c r="D80" s="226"/>
-      <c r="E80" s="226" t="s">
-        <v>325</v>
-      </c>
-      <c r="F80" s="226"/>
-      <c r="G80" s="226"/>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="226" t="s">
-        <v>326</v>
-      </c>
-      <c r="C81" s="226"/>
-      <c r="D81" s="226"/>
-      <c r="E81" s="226" t="s">
+      <c r="C82" s="217"/>
+      <c r="D82" s="217"/>
+      <c r="E82" s="217" t="s">
         <v>328</v>
       </c>
-      <c r="F81" s="226"/>
-      <c r="G81" s="226"/>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="226" t="s">
-        <v>329</v>
-      </c>
-      <c r="C82" s="226"/>
-      <c r="D82" s="226"/>
-      <c r="E82" s="226" t="s">
-        <v>330</v>
-      </c>
-      <c r="F82" s="226"/>
-      <c r="G82" s="226"/>
+      <c r="F82" s="217"/>
+      <c r="G82" s="217"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="226"/>
-      <c r="C83" s="226"/>
-      <c r="D83" s="226"/>
-      <c r="E83" s="226"/>
-      <c r="F83" s="226"/>
-      <c r="G83" s="226"/>
+      <c r="B83" s="217"/>
+      <c r="C83" s="217"/>
+      <c r="D83" s="217"/>
+      <c r="E83" s="217"/>
+      <c r="F83" s="217"/>
+      <c r="G83" s="217"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="275"/>
-      <c r="C84" s="276"/>
-      <c r="D84" s="277"/>
-      <c r="E84" s="275"/>
-      <c r="F84" s="276"/>
-      <c r="G84" s="277"/>
+      <c r="B84" s="213"/>
+      <c r="C84" s="214"/>
+      <c r="D84" s="215"/>
+      <c r="E84" s="213"/>
+      <c r="F84" s="214"/>
+      <c r="G84" s="215"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="275"/>
-      <c r="C85" s="276"/>
-      <c r="D85" s="277"/>
-      <c r="E85" s="275"/>
-      <c r="F85" s="276"/>
-      <c r="G85" s="277"/>
+      <c r="B85" s="213"/>
+      <c r="C85" s="214"/>
+      <c r="D85" s="215"/>
+      <c r="E85" s="213"/>
+      <c r="F85" s="214"/>
+      <c r="G85" s="215"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="226"/>
-      <c r="C86" s="226"/>
-      <c r="D86" s="226"/>
-      <c r="E86" s="226"/>
-      <c r="F86" s="226"/>
-      <c r="G86" s="226"/>
+      <c r="B86" s="217"/>
+      <c r="C86" s="217"/>
+      <c r="D86" s="217"/>
+      <c r="E86" s="217"/>
+      <c r="F86" s="217"/>
+      <c r="G86" s="217"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="218"/>
-      <c r="C87" s="218"/>
-      <c r="D87" s="218"/>
-      <c r="E87" s="218"/>
-      <c r="F87" s="218"/>
-      <c r="G87" s="218"/>
+      <c r="B87" s="216"/>
+      <c r="C87" s="216"/>
+      <c r="D87" s="216"/>
+      <c r="E87" s="216"/>
+      <c r="F87" s="216"/>
+      <c r="G87" s="216"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="218"/>
-      <c r="C88" s="218"/>
-      <c r="D88" s="218"/>
-      <c r="E88" s="218"/>
-      <c r="F88" s="218"/>
-      <c r="G88" s="218"/>
+      <c r="B88" s="216"/>
+      <c r="C88" s="216"/>
+      <c r="D88" s="216"/>
+      <c r="E88" s="216"/>
+      <c r="F88" s="216"/>
+      <c r="G88" s="216"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="218"/>
-      <c r="C89" s="218"/>
-      <c r="D89" s="218"/>
-      <c r="E89" s="218"/>
-      <c r="F89" s="218"/>
-      <c r="G89" s="218"/>
+      <c r="B89" s="216"/>
+      <c r="C89" s="216"/>
+      <c r="D89" s="216"/>
+      <c r="E89" s="216"/>
+      <c r="F89" s="216"/>
+      <c r="G89" s="216"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="218"/>
-      <c r="C90" s="218"/>
-      <c r="D90" s="218"/>
-      <c r="E90" s="218"/>
-      <c r="F90" s="218"/>
-      <c r="G90" s="218"/>
+      <c r="B90" s="216"/>
+      <c r="C90" s="216"/>
+      <c r="D90" s="216"/>
+      <c r="E90" s="216"/>
+      <c r="F90" s="216"/>
+      <c r="G90" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="E85:G85"/>
     <mergeCell ref="B88:D88"/>
     <mergeCell ref="B89:D89"/>
@@ -11027,75 +11579,6 @@
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -11118,7 +11601,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11130,26 +11613,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="181" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="182"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="172" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="173"/>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
@@ -11171,7 +11654,7 @@
     <row r="3" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
       <c r="B3" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="43"/>
@@ -11189,10 +11672,10 @@
     <row r="4" spans="1:15" s="68" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="69"/>
       <c r="B4" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>186</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>187</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
@@ -11224,13 +11707,13 @@
     </row>
     <row r="6" spans="1:15" s="68" customFormat="1" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:15" ht="14.25" thickBot="1">
-      <c r="B7" s="204" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="206"/>
+      <c r="B7" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="203"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1">
       <c r="B8" s="61"/>
@@ -11240,15 +11723,15 @@
       <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="222" t="s">
+      <c r="B9" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="223"/>
+      <c r="C9" s="239"/>
       <c r="D9" s="58"/>
-      <c r="E9" s="222" t="s">
+      <c r="E9" s="238" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="223"/>
+      <c r="F9" s="239"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="19" t="s">
@@ -11282,7 +11765,7 @@
         <v>87</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1">
@@ -11302,22 +11785,22 @@
       <c r="F14" s="63"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="222" t="s">
+      <c r="B15" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="223"/>
+      <c r="C15" s="239"/>
       <c r="D15" s="58"/>
-      <c r="E15" s="222" t="s">
+      <c r="E15" s="238" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="223"/>
-    </row>
-    <row r="16" spans="1:15" ht="27.75" thickBot="1">
+      <c r="F15" s="239"/>
+    </row>
+    <row r="16" spans="1:15" ht="48.75" customHeight="1" thickBot="1">
       <c r="B16" s="74" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>113</v>
+        <v>335</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="39" t="s">
@@ -11332,7 +11815,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
@@ -11373,10 +11856,10 @@
       <c r="F21" s="63"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="222" t="s">
+      <c r="B22" s="238" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="223"/>
+      <c r="C22" s="239"/>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
       <c r="F22" s="63"/>
@@ -11410,383 +11893,383 @@
     </row>
     <row r="26" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="27" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B27" s="204" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="205"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="206"/>
+      <c r="B27" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="202"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="202"/>
+      <c r="L27" s="203"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="201"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="203"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="211"/>
+      <c r="K28" s="211"/>
+      <c r="L28" s="212"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="195"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="196"/>
-      <c r="L29" s="197"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="205"/>
+      <c r="K29" s="205"/>
+      <c r="L29" s="206"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="195"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="196"/>
-      <c r="L30" s="197"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="205"/>
+      <c r="J30" s="205"/>
+      <c r="K30" s="205"/>
+      <c r="L30" s="206"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="195"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="196"/>
-      <c r="L31" s="197"/>
+      <c r="B31" s="204"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="205"/>
+      <c r="L31" s="206"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="195"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="196"/>
-      <c r="L32" s="197"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="205"/>
+      <c r="K32" s="205"/>
+      <c r="L32" s="206"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="195"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="196"/>
-      <c r="L33" s="197"/>
+      <c r="B33" s="204"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="205"/>
+      <c r="K33" s="205"/>
+      <c r="L33" s="206"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="196"/>
-      <c r="L34" s="197"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="205"/>
+      <c r="L34" s="206"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="195"/>
-      <c r="C35" s="196"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="196"/>
-      <c r="L35" s="197"/>
+      <c r="B35" s="204"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="205"/>
+      <c r="L35" s="206"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="195"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="196"/>
-      <c r="F36" s="196"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="196"/>
-      <c r="K36" s="196"/>
-      <c r="L36" s="197"/>
+      <c r="B36" s="204"/>
+      <c r="C36" s="205"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="205"/>
+      <c r="I36" s="205"/>
+      <c r="J36" s="205"/>
+      <c r="K36" s="205"/>
+      <c r="L36" s="206"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="195"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="196"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="196"/>
-      <c r="G37" s="196"/>
-      <c r="H37" s="196"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="196"/>
-      <c r="K37" s="196"/>
-      <c r="L37" s="197"/>
+      <c r="B37" s="204"/>
+      <c r="C37" s="205"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="206"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="195"/>
-      <c r="C38" s="196"/>
-      <c r="D38" s="196"/>
-      <c r="E38" s="196"/>
-      <c r="F38" s="196"/>
-      <c r="G38" s="196"/>
-      <c r="H38" s="196"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="196"/>
-      <c r="K38" s="196"/>
-      <c r="L38" s="197"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="205"/>
+      <c r="L38" s="206"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="195"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="196"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="196"/>
-      <c r="H39" s="196"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="196"/>
-      <c r="L39" s="197"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="206"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="195"/>
-      <c r="C40" s="196"/>
-      <c r="D40" s="196"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="196"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="196"/>
-      <c r="K40" s="196"/>
-      <c r="L40" s="197"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="205"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="205"/>
+      <c r="K40" s="205"/>
+      <c r="L40" s="206"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="195"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="196"/>
-      <c r="K41" s="196"/>
-      <c r="L41" s="197"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="205"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="205"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="205"/>
+      <c r="I41" s="205"/>
+      <c r="J41" s="205"/>
+      <c r="K41" s="205"/>
+      <c r="L41" s="206"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="195"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="196"/>
-      <c r="L42" s="197"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="205"/>
+      <c r="D42" s="205"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="205"/>
+      <c r="H42" s="205"/>
+      <c r="I42" s="205"/>
+      <c r="J42" s="205"/>
+      <c r="K42" s="205"/>
+      <c r="L42" s="206"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="195"/>
-      <c r="C43" s="196"/>
-      <c r="D43" s="196"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="196"/>
-      <c r="L43" s="197"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="205"/>
+      <c r="D43" s="205"/>
+      <c r="E43" s="205"/>
+      <c r="F43" s="205"/>
+      <c r="G43" s="205"/>
+      <c r="H43" s="205"/>
+      <c r="I43" s="205"/>
+      <c r="J43" s="205"/>
+      <c r="K43" s="205"/>
+      <c r="L43" s="206"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="195"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="196"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="196"/>
-      <c r="G44" s="196"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="196"/>
-      <c r="K44" s="196"/>
-      <c r="L44" s="197"/>
+      <c r="B44" s="204"/>
+      <c r="C44" s="205"/>
+      <c r="D44" s="205"/>
+      <c r="E44" s="205"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="205"/>
+      <c r="H44" s="205"/>
+      <c r="I44" s="205"/>
+      <c r="J44" s="205"/>
+      <c r="K44" s="205"/>
+      <c r="L44" s="206"/>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="195"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="196"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="196"/>
-      <c r="G45" s="196"/>
-      <c r="H45" s="196"/>
-      <c r="I45" s="196"/>
-      <c r="J45" s="196"/>
-      <c r="K45" s="196"/>
-      <c r="L45" s="197"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="205"/>
+      <c r="D45" s="205"/>
+      <c r="E45" s="205"/>
+      <c r="F45" s="205"/>
+      <c r="G45" s="205"/>
+      <c r="H45" s="205"/>
+      <c r="I45" s="205"/>
+      <c r="J45" s="205"/>
+      <c r="K45" s="205"/>
+      <c r="L45" s="206"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="195"/>
-      <c r="C46" s="196"/>
-      <c r="D46" s="196"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="196"/>
-      <c r="H46" s="196"/>
-      <c r="I46" s="196"/>
-      <c r="J46" s="196"/>
-      <c r="K46" s="196"/>
-      <c r="L46" s="197"/>
+      <c r="B46" s="204"/>
+      <c r="C46" s="205"/>
+      <c r="D46" s="205"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="205"/>
+      <c r="J46" s="205"/>
+      <c r="K46" s="205"/>
+      <c r="L46" s="206"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="195"/>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="196"/>
-      <c r="G47" s="196"/>
-      <c r="H47" s="196"/>
-      <c r="I47" s="196"/>
-      <c r="J47" s="196"/>
-      <c r="K47" s="196"/>
-      <c r="L47" s="197"/>
+      <c r="B47" s="204"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="205"/>
+      <c r="H47" s="205"/>
+      <c r="I47" s="205"/>
+      <c r="J47" s="205"/>
+      <c r="K47" s="205"/>
+      <c r="L47" s="206"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="195"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="196"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="196"/>
-      <c r="G48" s="196"/>
-      <c r="H48" s="196"/>
-      <c r="I48" s="196"/>
-      <c r="J48" s="196"/>
-      <c r="K48" s="196"/>
-      <c r="L48" s="197"/>
+      <c r="B48" s="204"/>
+      <c r="C48" s="205"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="205"/>
+      <c r="F48" s="205"/>
+      <c r="G48" s="205"/>
+      <c r="H48" s="205"/>
+      <c r="I48" s="205"/>
+      <c r="J48" s="205"/>
+      <c r="K48" s="205"/>
+      <c r="L48" s="206"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="195"/>
-      <c r="C49" s="196"/>
-      <c r="D49" s="196"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="196"/>
-      <c r="J49" s="196"/>
-      <c r="K49" s="196"/>
-      <c r="L49" s="197"/>
+      <c r="B49" s="204"/>
+      <c r="C49" s="205"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="205"/>
+      <c r="F49" s="205"/>
+      <c r="G49" s="205"/>
+      <c r="H49" s="205"/>
+      <c r="I49" s="205"/>
+      <c r="J49" s="205"/>
+      <c r="K49" s="205"/>
+      <c r="L49" s="206"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="195"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="196"/>
-      <c r="J50" s="196"/>
-      <c r="K50" s="196"/>
-      <c r="L50" s="197"/>
+      <c r="B50" s="204"/>
+      <c r="C50" s="205"/>
+      <c r="D50" s="205"/>
+      <c r="E50" s="205"/>
+      <c r="F50" s="205"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
+      <c r="I50" s="205"/>
+      <c r="J50" s="205"/>
+      <c r="K50" s="205"/>
+      <c r="L50" s="206"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="195"/>
-      <c r="C51" s="196"/>
-      <c r="D51" s="196"/>
-      <c r="E51" s="196"/>
-      <c r="F51" s="196"/>
-      <c r="G51" s="196"/>
-      <c r="H51" s="196"/>
-      <c r="I51" s="196"/>
-      <c r="J51" s="196"/>
-      <c r="K51" s="196"/>
-      <c r="L51" s="197"/>
+      <c r="B51" s="204"/>
+      <c r="C51" s="205"/>
+      <c r="D51" s="205"/>
+      <c r="E51" s="205"/>
+      <c r="F51" s="205"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="205"/>
+      <c r="I51" s="205"/>
+      <c r="J51" s="205"/>
+      <c r="K51" s="205"/>
+      <c r="L51" s="206"/>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="195"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="196"/>
-      <c r="E52" s="196"/>
-      <c r="F52" s="196"/>
-      <c r="G52" s="196"/>
-      <c r="H52" s="196"/>
-      <c r="I52" s="196"/>
-      <c r="J52" s="196"/>
-      <c r="K52" s="196"/>
-      <c r="L52" s="197"/>
+      <c r="B52" s="204"/>
+      <c r="C52" s="205"/>
+      <c r="D52" s="205"/>
+      <c r="E52" s="205"/>
+      <c r="F52" s="205"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="205"/>
+      <c r="I52" s="205"/>
+      <c r="J52" s="205"/>
+      <c r="K52" s="205"/>
+      <c r="L52" s="206"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="195"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="196"/>
-      <c r="E53" s="196"/>
-      <c r="F53" s="196"/>
-      <c r="G53" s="196"/>
-      <c r="H53" s="196"/>
-      <c r="I53" s="196"/>
-      <c r="J53" s="196"/>
-      <c r="K53" s="196"/>
-      <c r="L53" s="197"/>
+      <c r="B53" s="204"/>
+      <c r="C53" s="205"/>
+      <c r="D53" s="205"/>
+      <c r="E53" s="205"/>
+      <c r="F53" s="205"/>
+      <c r="G53" s="205"/>
+      <c r="H53" s="205"/>
+      <c r="I53" s="205"/>
+      <c r="J53" s="205"/>
+      <c r="K53" s="205"/>
+      <c r="L53" s="206"/>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="195"/>
-      <c r="C54" s="196"/>
-      <c r="D54" s="196"/>
-      <c r="E54" s="196"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="196"/>
-      <c r="L54" s="197"/>
+      <c r="B54" s="204"/>
+      <c r="C54" s="205"/>
+      <c r="D54" s="205"/>
+      <c r="E54" s="205"/>
+      <c r="F54" s="205"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="205"/>
+      <c r="I54" s="205"/>
+      <c r="J54" s="205"/>
+      <c r="K54" s="205"/>
+      <c r="L54" s="206"/>
     </row>
     <row r="55" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B55" s="219"/>
-      <c r="C55" s="220"/>
-      <c r="D55" s="220"/>
-      <c r="E55" s="220"/>
-      <c r="F55" s="220"/>
-      <c r="G55" s="220"/>
-      <c r="H55" s="220"/>
-      <c r="I55" s="220"/>
-      <c r="J55" s="220"/>
-      <c r="K55" s="220"/>
-      <c r="L55" s="221"/>
+      <c r="B55" s="235"/>
+      <c r="C55" s="236"/>
+      <c r="D55" s="236"/>
+      <c r="E55" s="236"/>
+      <c r="F55" s="236"/>
+      <c r="G55" s="236"/>
+      <c r="H55" s="236"/>
+      <c r="I55" s="236"/>
+      <c r="J55" s="236"/>
+      <c r="K55" s="236"/>
+      <c r="L55" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11832,28 +12315,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="207" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="208"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="241" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="242"/>
     </row>
     <row r="2" spans="1:14" ht="24.75" customHeight="1">
       <c r="A2" s="79" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
@@ -11902,15 +12385,15 @@
       <c r="N4" s="107"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="228" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="229"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="230"/>
+      <c r="A5" s="243" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="245"/>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
@@ -11937,7 +12420,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -11960,7 +12443,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -11983,7 +12466,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -12006,7 +12489,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -12029,7 +12512,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" thickBot="1">
@@ -12043,115 +12526,110 @@
     </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B23" s="231" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23" s="232"/>
-      <c r="D23" s="232"/>
-      <c r="E23" s="232"/>
-      <c r="F23" s="232"/>
-      <c r="G23" s="233"/>
+      <c r="B23" s="246" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="247"/>
+      <c r="D23" s="247"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="248"/>
     </row>
     <row r="24" spans="2:7" ht="208.5" customHeight="1">
-      <c r="B24" s="224"/>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="224"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
+      <c r="B24" s="249"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="249"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
     </row>
     <row r="25" spans="2:7" ht="218.25" customHeight="1">
-      <c r="B25" s="225"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="225"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="226"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="250"/>
+      <c r="E25" s="250"/>
+      <c r="F25" s="217"/>
+      <c r="G25" s="217"/>
     </row>
     <row r="26" spans="2:7" ht="83.25" customHeight="1">
-      <c r="C26" s="218"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="218"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="216"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="218"/>
-      <c r="G27" s="218"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="C28" s="218"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="218"/>
-      <c r="F28" s="218"/>
-      <c r="G28" s="218"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="218"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="C30" s="218"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="C31" s="218"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="218"/>
-      <c r="G31" s="218"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="218"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
-      <c r="G33" s="218"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="218"/>
-      <c r="G34" s="218"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
+      <c r="G34" s="216"/>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="218"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="218"/>
-      <c r="G36" s="218"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="B24:E24"/>
@@ -12166,6 +12644,11 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="C34:G34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -12184,11 +12667,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12200,39 +12683,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="234" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="251" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="252"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="4" spans="1:14" ht="14.25" thickBot="1">
       <c r="B4" s="101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
       <c r="B5" s="102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="18"/>
@@ -12240,55 +12723,55 @@
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B8" s="231" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="B8" s="246" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="248"/>
       <c r="L8" s="92"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>243</v>
-      </c>
       <c r="J9" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="165" customHeight="1">
       <c r="B10" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="18">
         <v>10</v>
@@ -12312,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K10" s="18"/>
     </row>
@@ -12364,11 +12847,460 @@
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
     </row>
+    <row r="21" spans="2:11" ht="33.75" customHeight="1">
+      <c r="B21" s="216" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="216"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="216"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="216"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="216"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="216"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="216"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="216"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="216"/>
+      <c r="J24" s="216"/>
+      <c r="K24" s="216"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="216"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="216"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="216"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="216"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="216"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="216"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="216"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="216"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="216"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="216"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="216"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="216"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="216"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="216"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="216"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="216"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="216"/>
+      <c r="K34" s="216"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="216"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="216"/>
+      <c r="K35" s="216"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="216"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="216"/>
+      <c r="H36" s="216"/>
+      <c r="I36" s="216"/>
+      <c r="J36" s="216"/>
+      <c r="K36" s="216"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="216"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="216"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="216"/>
+      <c r="I38" s="216"/>
+      <c r="J38" s="216"/>
+      <c r="K38" s="216"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="216"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="216"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="216"/>
+      <c r="J39" s="216"/>
+      <c r="K39" s="216"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="216"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="216"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="216"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="216"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="216"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="216"/>
+      <c r="G41" s="216"/>
+      <c r="H41" s="216"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="216"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="216"/>
+      <c r="C42" s="216"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216"/>
+      <c r="K42" s="216"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="216"/>
+      <c r="C43" s="216"/>
+      <c r="D43" s="216"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="216"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="216"/>
+      <c r="K43" s="216"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="216"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="216"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="216"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="216"/>
+      <c r="I44" s="216"/>
+      <c r="J44" s="216"/>
+      <c r="K44" s="216"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="216"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="216"/>
+      <c r="K45" s="216"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="216"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="216"/>
+      <c r="E46" s="216"/>
+      <c r="F46" s="216"/>
+      <c r="G46" s="216"/>
+      <c r="H46" s="216"/>
+      <c r="I46" s="216"/>
+      <c r="J46" s="216"/>
+      <c r="K46" s="216"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="216"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="216"/>
+      <c r="K48" s="216"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="216"/>
+      <c r="C49" s="216"/>
+      <c r="D49" s="216"/>
+      <c r="E49" s="216"/>
+      <c r="F49" s="216"/>
+      <c r="G49" s="216"/>
+      <c r="H49" s="216"/>
+      <c r="I49" s="216"/>
+      <c r="J49" s="216"/>
+      <c r="K49" s="216"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="216"/>
+      <c r="C50" s="216"/>
+      <c r="D50" s="216"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="216"/>
+      <c r="G50" s="216"/>
+      <c r="H50" s="216"/>
+      <c r="I50" s="216"/>
+      <c r="J50" s="216"/>
+      <c r="K50" s="216"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="216"/>
+      <c r="C51" s="216"/>
+      <c r="D51" s="216"/>
+      <c r="E51" s="216"/>
+      <c r="F51" s="216"/>
+      <c r="G51" s="216"/>
+      <c r="H51" s="216"/>
+      <c r="I51" s="216"/>
+      <c r="J51" s="216"/>
+      <c r="K51" s="216"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="216" t="s">
+        <v>337</v>
+      </c>
+      <c r="C52" s="216" t="s">
+        <v>338</v>
+      </c>
+      <c r="D52" s="216"/>
+      <c r="E52" s="216" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" s="216"/>
+      <c r="G52" s="216"/>
+      <c r="H52" s="216"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="216"/>
+      <c r="C53" s="216"/>
+      <c r="D53" s="216"/>
+      <c r="E53" s="216" t="s">
+        <v>340</v>
+      </c>
+      <c r="F53" s="216"/>
+      <c r="G53" s="216" t="s">
+        <v>341</v>
+      </c>
+      <c r="H53" s="216"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="216" t="s">
+        <v>343</v>
+      </c>
+      <c r="D54" s="216"/>
+      <c r="E54" s="216" t="s">
+        <v>344</v>
+      </c>
+      <c r="F54" s="216"/>
+      <c r="G54" s="216"/>
+      <c r="H54" s="216"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="C55" s="216"/>
+      <c r="D55" s="216"/>
+      <c r="E55" s="216"/>
+      <c r="F55" s="216"/>
+      <c r="G55" s="216"/>
+      <c r="H55" s="216"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="C56" s="216"/>
+      <c r="D56" s="216"/>
+      <c r="E56" s="216"/>
+      <c r="F56" s="216"/>
+      <c r="G56" s="216"/>
+      <c r="H56" s="216"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="19">
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -12396,426 +13328,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="234" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="235"/>
+      <c r="A1" s="183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="251" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="252"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1">
       <c r="B3" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>184</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14">
-      <c r="B6" s="222" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="236"/>
-      <c r="J6" s="223"/>
+      <c r="B6" s="238" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="239"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="237"/>
-      <c r="C7" s="226"/>
-      <c r="D7" s="226"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="226"/>
-      <c r="I7" s="226"/>
-      <c r="J7" s="238"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="263"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="237"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="238"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="263"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="237"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="226"/>
-      <c r="I9" s="226"/>
-      <c r="J9" s="238"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="263"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="237"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="226"/>
-      <c r="J10" s="238"/>
+      <c r="B10" s="256"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="263"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="237"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="226"/>
-      <c r="I11" s="226"/>
-      <c r="J11" s="238"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="263"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="237"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="226"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="226"/>
-      <c r="I12" s="226"/>
-      <c r="J12" s="238"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="217"/>
+      <c r="J12" s="263"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="237"/>
-      <c r="C13" s="226"/>
-      <c r="D13" s="226"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="226"/>
-      <c r="I13" s="226"/>
-      <c r="J13" s="238"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="217"/>
+      <c r="J13" s="263"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="237"/>
-      <c r="C14" s="226"/>
-      <c r="D14" s="226"/>
-      <c r="E14" s="226"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="226"/>
-      <c r="I14" s="226"/>
-      <c r="J14" s="238"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="263"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="237"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="226"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="226"/>
-      <c r="I15" s="226"/>
-      <c r="J15" s="238"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="263"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="237"/>
-      <c r="C16" s="226"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="238"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="217"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="263"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="237"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="226"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="226"/>
-      <c r="I17" s="226"/>
-      <c r="J17" s="238"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="263"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="237"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="226"/>
-      <c r="E18" s="226"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="226"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="238"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="263"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="237"/>
-      <c r="C19" s="226"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="226"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="226"/>
-      <c r="I19" s="226"/>
-      <c r="J19" s="238"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="263"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="237"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="226"/>
-      <c r="J20" s="238"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="217"/>
+      <c r="F20" s="217"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="263"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="237"/>
-      <c r="C21" s="226"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="226"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="226"/>
-      <c r="I21" s="226"/>
-      <c r="J21" s="238"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="263"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="237"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="226"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="226"/>
-      <c r="J22" s="238"/>
+      <c r="B22" s="256"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="263"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="237"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="226"/>
-      <c r="E23" s="226"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="226"/>
-      <c r="I23" s="226"/>
-      <c r="J23" s="238"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="263"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="237"/>
-      <c r="C24" s="226"/>
-      <c r="D24" s="226"/>
-      <c r="E24" s="226"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="226"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="226"/>
-      <c r="J24" s="238"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="263"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="237"/>
-      <c r="C25" s="226"/>
-      <c r="D25" s="226"/>
-      <c r="E25" s="226"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="226"/>
-      <c r="H25" s="226"/>
-      <c r="I25" s="226"/>
-      <c r="J25" s="238"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="217"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="263"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="237"/>
-      <c r="C26" s="226"/>
-      <c r="D26" s="226"/>
-      <c r="E26" s="226"/>
-      <c r="F26" s="226"/>
-      <c r="G26" s="226"/>
-      <c r="H26" s="226"/>
-      <c r="I26" s="226"/>
-      <c r="J26" s="238"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="263"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="237"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="226"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="226"/>
-      <c r="J27" s="238"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="217"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="217"/>
+      <c r="J27" s="263"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="237"/>
-      <c r="C28" s="226"/>
-      <c r="D28" s="226"/>
-      <c r="E28" s="226"/>
-      <c r="F28" s="226"/>
-      <c r="G28" s="226"/>
-      <c r="H28" s="226"/>
-      <c r="I28" s="226"/>
-      <c r="J28" s="238"/>
+      <c r="B28" s="256"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="217"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="217"/>
+      <c r="J28" s="263"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="237"/>
-      <c r="C29" s="226"/>
-      <c r="D29" s="226"/>
-      <c r="E29" s="226"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="226"/>
-      <c r="I29" s="226"/>
-      <c r="J29" s="238"/>
+      <c r="B29" s="256"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="263"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="237"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="226"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="226"/>
-      <c r="J30" s="238"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="263"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="237"/>
-      <c r="C31" s="226"/>
-      <c r="D31" s="226"/>
-      <c r="E31" s="226"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="226"/>
-      <c r="I31" s="226"/>
-      <c r="J31" s="238"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="263"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="237"/>
-      <c r="C32" s="226"/>
-      <c r="D32" s="226"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="226"/>
-      <c r="I32" s="226"/>
-      <c r="J32" s="238"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="217"/>
+      <c r="D32" s="217"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="263"/>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="237"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="226"/>
-      <c r="I33" s="226"/>
-      <c r="J33" s="238"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="263"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="237"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="226"/>
-      <c r="E34" s="226"/>
-      <c r="F34" s="226"/>
-      <c r="G34" s="226"/>
-      <c r="H34" s="226"/>
-      <c r="I34" s="226"/>
-      <c r="J34" s="238"/>
+      <c r="B34" s="256"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="217"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="263"/>
     </row>
     <row r="35" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B35" s="239"/>
-      <c r="C35" s="240"/>
-      <c r="D35" s="240"/>
-      <c r="E35" s="240"/>
-      <c r="F35" s="240"/>
-      <c r="G35" s="240"/>
-      <c r="H35" s="240"/>
-      <c r="I35" s="240"/>
-      <c r="J35" s="241"/>
+      <c r="B35" s="257"/>
+      <c r="C35" s="258"/>
+      <c r="D35" s="258"/>
+      <c r="E35" s="258"/>
+      <c r="F35" s="258"/>
+      <c r="G35" s="258"/>
+      <c r="H35" s="258"/>
+      <c r="I35" s="258"/>
+      <c r="J35" s="264"/>
     </row>
     <row r="37" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="38" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B38" s="231" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="232"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="232"/>
-      <c r="F38" s="232"/>
-      <c r="G38" s="232"/>
-      <c r="H38" s="232"/>
-      <c r="I38" s="232"/>
-      <c r="J38" s="233"/>
+      <c r="B38" s="246" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="247"/>
+      <c r="D38" s="247"/>
+      <c r="E38" s="247"/>
+      <c r="F38" s="247"/>
+      <c r="G38" s="247"/>
+      <c r="H38" s="247"/>
+      <c r="I38" s="247"/>
+      <c r="J38" s="248"/>
     </row>
     <row r="39" spans="2:19" ht="189" customHeight="1">
-      <c r="B39" s="242"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="243" t="s">
+      <c r="B39" s="265"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="266" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="267"/>
+      <c r="H39" s="267"/>
+      <c r="I39" s="267"/>
+      <c r="J39" s="268"/>
+    </row>
+    <row r="40" spans="2:19" ht="313.5" customHeight="1" thickBot="1">
+      <c r="B40" s="256"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="217"/>
+      <c r="E40" s="217"/>
+      <c r="F40" s="253" t="s">
         <v>248</v>
       </c>
-      <c r="G39" s="244"/>
-      <c r="H39" s="244"/>
-      <c r="I39" s="244"/>
-      <c r="J39" s="245"/>
-    </row>
-    <row r="40" spans="2:19" ht="313.5" customHeight="1" thickBot="1">
-      <c r="B40" s="237"/>
-      <c r="C40" s="226"/>
-      <c r="D40" s="226"/>
-      <c r="E40" s="226"/>
-      <c r="F40" s="246" t="s">
+      <c r="G40" s="254"/>
+      <c r="H40" s="254"/>
+      <c r="I40" s="254"/>
+      <c r="J40" s="255"/>
+      <c r="K40" s="257"/>
+      <c r="L40" s="258"/>
+      <c r="M40" s="258"/>
+      <c r="N40" s="258"/>
+      <c r="O40" s="259" t="s">
         <v>249</v>
       </c>
-      <c r="G40" s="247"/>
-      <c r="H40" s="247"/>
-      <c r="I40" s="247"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="239"/>
-      <c r="L40" s="240"/>
-      <c r="M40" s="240"/>
-      <c r="N40" s="240"/>
-      <c r="O40" s="249" t="s">
-        <v>250</v>
-      </c>
-      <c r="P40" s="250"/>
-      <c r="Q40" s="250"/>
-      <c r="R40" s="250"/>
-      <c r="S40" s="251"/>
+      <c r="P40" s="260"/>
+      <c r="Q40" s="260"/>
+      <c r="R40" s="260"/>
+      <c r="S40" s="261"/>
     </row>
     <row r="41" spans="2:19" ht="267.75" customHeight="1"/>
   </sheetData>

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="349">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -1684,6 +1684,22 @@
   </si>
   <si>
     <t>3匹の群れ×8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPグレード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップグレード画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム獲得画面</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2930,24 +2946,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3023,42 +3075,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3074,6 +3090,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3095,18 +3156,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3116,51 +3180,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3170,32 +3222,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3206,63 +3288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3278,6 +3303,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3305,12 +3336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3365,6 +3390,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3374,44 +3426,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5784,7 +5800,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>507999</xdr:colOff>
+      <xdr:colOff>488949</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>3581302</xdr:rowOff>
     </xdr:to>
@@ -5828,7 +5844,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>443441</xdr:colOff>
+      <xdr:colOff>424391</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>4070348</xdr:rowOff>
     </xdr:to>
@@ -5872,7 +5888,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>56444</xdr:colOff>
+      <xdr:colOff>37394</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>3984625</xdr:rowOff>
     </xdr:to>
@@ -5916,7 +5932,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>67733</xdr:colOff>
+      <xdr:colOff>48683</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>3911600</xdr:rowOff>
     </xdr:to>
@@ -6175,6 +6191,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5026634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="5966" b="13731"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657476" y="25349552"/>
+          <a:ext cx="3505200" cy="5004057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3440883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="23580" b="20455"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="33289875"/>
+          <a:ext cx="3305175" cy="3288483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8698,64 +8800,64 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:15" ht="66" customHeight="1" thickBot="1">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="144"/>
     </row>
     <row r="3" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="160" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="135" t="s">
         <v>300</v>
       </c>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
     </row>
     <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="136" t="s">
+      <c r="C4" s="147"/>
+      <c r="D4" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="138" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="139" t="s">
+      <c r="G4" s="147"/>
+      <c r="H4" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="140"/>
-      <c r="J4" s="138" t="s">
+      <c r="I4" s="152"/>
+      <c r="J4" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="126" t="s">
+      <c r="K4" s="147"/>
+      <c r="L4" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="127"/>
+      <c r="M4" s="141"/>
     </row>
     <row r="5" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B5" s="35"/>
@@ -8775,35 +8877,35 @@
       <c r="B6" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="153" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="142"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="154"/>
     </row>
     <row r="7" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="155" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="145"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="157"/>
     </row>
     <row r="8" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
       <c r="B8" s="94"/>
@@ -8820,36 +8922,36 @@
       <c r="M8" s="95"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="161" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="151"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="163"/>
     </row>
     <row r="10" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="148"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="160"/>
     </row>
     <row r="11" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B11" s="86"/>
@@ -8866,40 +8968,40 @@
       <c r="M11" s="89"/>
     </row>
     <row r="12" spans="2:15" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="154"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="166"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133" t="s">
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
       <c r="N13" s="26" t="s">
         <v>262</v>
       </c>
@@ -8908,22 +9010,22 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="48" customHeight="1">
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="124" t="s">
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
       <c r="N14" s="113">
         <v>42653</v>
       </c>
@@ -8932,22 +9034,22 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="157" t="s">
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
       <c r="N15" s="114">
         <v>42653</v>
       </c>
@@ -8956,22 +9058,22 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="124" t="s">
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137" t="s">
         <v>177</v>
       </c>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
       <c r="N16" s="113">
         <v>42653</v>
       </c>
@@ -8980,22 +9082,22 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="42.75" customHeight="1">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="157" t="s">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
       <c r="N17" s="123">
         <v>42655</v>
       </c>
@@ -9004,22 +9106,22 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="45.75" customHeight="1">
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="124" t="s">
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
       <c r="N18" s="105">
         <v>42655</v>
       </c>
@@ -9028,22 +9130,22 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="30" customHeight="1">
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="157" t="s">
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
       <c r="N19" s="99">
         <v>42649</v>
       </c>
@@ -9052,22 +9154,22 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="30" customHeight="1">
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="136" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="124" t="s">
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
       <c r="N20" s="113">
         <v>42653</v>
       </c>
@@ -9076,22 +9178,22 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="30" customHeight="1">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="157" t="s">
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
       <c r="N21" s="114">
         <v>42653</v>
       </c>
@@ -9100,22 +9202,22 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B22" s="164" t="s">
+      <c r="B22" s="127" t="s">
         <v>311</v>
       </c>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="166" t="s">
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="129" t="s">
         <v>257</v>
       </c>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
       <c r="N22" s="115">
         <v>42655</v>
       </c>
@@ -9124,41 +9226,51 @@
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="161"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="161"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B12:O12"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="B3:J3"/>
@@ -9175,22 +9287,12 @@
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:M22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9224,40 +9326,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="199" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="269" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="281" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="270"/>
+      <c r="N1" s="282"/>
     </row>
     <row r="2" spans="1:14" s="68" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="283" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
     </row>
@@ -9268,345 +9370,345 @@
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B5" s="246" t="s">
+      <c r="B5" s="251" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="248"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="253"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="272" t="s">
+      <c r="B6" s="278" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="274"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="280"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="272" t="s">
+      <c r="B7" s="278" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="273"/>
-      <c r="D7" s="273"/>
-      <c r="E7" s="273"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="273"/>
-      <c r="I7" s="274"/>
+      <c r="C7" s="279"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="279"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="280"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="272" t="s">
+      <c r="B8" s="278" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="273"/>
-      <c r="D8" s="273"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="274"/>
+      <c r="C8" s="279"/>
+      <c r="D8" s="279"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="279"/>
+      <c r="G8" s="279"/>
+      <c r="H8" s="279"/>
+      <c r="I8" s="280"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="272"/>
-      <c r="C9" s="273"/>
-      <c r="D9" s="273"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="273"/>
-      <c r="I9" s="274"/>
+      <c r="B9" s="278"/>
+      <c r="C9" s="279"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="279"/>
+      <c r="G9" s="279"/>
+      <c r="H9" s="279"/>
+      <c r="I9" s="280"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="272"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="274"/>
+      <c r="B10" s="278"/>
+      <c r="C10" s="279"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="279"/>
+      <c r="H10" s="279"/>
+      <c r="I10" s="280"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="272"/>
-      <c r="C11" s="273"/>
-      <c r="D11" s="273"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="273"/>
-      <c r="H11" s="273"/>
-      <c r="I11" s="274"/>
+      <c r="B11" s="278"/>
+      <c r="C11" s="279"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="279"/>
+      <c r="G11" s="279"/>
+      <c r="H11" s="279"/>
+      <c r="I11" s="280"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="272"/>
-      <c r="C12" s="273"/>
-      <c r="D12" s="273"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="273"/>
-      <c r="H12" s="273"/>
-      <c r="I12" s="274"/>
+      <c r="B12" s="278"/>
+      <c r="C12" s="279"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="279"/>
+      <c r="H12" s="279"/>
+      <c r="I12" s="280"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="272"/>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="274"/>
+      <c r="B13" s="278"/>
+      <c r="C13" s="279"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="279"/>
+      <c r="F13" s="279"/>
+      <c r="G13" s="279"/>
+      <c r="H13" s="279"/>
+      <c r="I13" s="280"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="272"/>
-      <c r="C14" s="273"/>
-      <c r="D14" s="273"/>
-      <c r="E14" s="273"/>
-      <c r="F14" s="273"/>
-      <c r="G14" s="273"/>
-      <c r="H14" s="273"/>
-      <c r="I14" s="274"/>
+      <c r="B14" s="278"/>
+      <c r="C14" s="279"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="279"/>
+      <c r="F14" s="279"/>
+      <c r="G14" s="279"/>
+      <c r="H14" s="279"/>
+      <c r="I14" s="280"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="272"/>
-      <c r="C15" s="273"/>
-      <c r="D15" s="273"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="273"/>
-      <c r="G15" s="273"/>
-      <c r="H15" s="273"/>
-      <c r="I15" s="274"/>
+      <c r="B15" s="278"/>
+      <c r="C15" s="279"/>
+      <c r="D15" s="279"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="279"/>
+      <c r="I15" s="280"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="272"/>
-      <c r="C16" s="273"/>
-      <c r="D16" s="273"/>
-      <c r="E16" s="273"/>
-      <c r="F16" s="273"/>
-      <c r="G16" s="273"/>
-      <c r="H16" s="273"/>
-      <c r="I16" s="274"/>
+      <c r="B16" s="278"/>
+      <c r="C16" s="279"/>
+      <c r="D16" s="279"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+      <c r="I16" s="280"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="272"/>
-      <c r="C17" s="273"/>
-      <c r="D17" s="273"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="273"/>
-      <c r="G17" s="273"/>
-      <c r="H17" s="273"/>
-      <c r="I17" s="274"/>
+      <c r="B17" s="278"/>
+      <c r="C17" s="279"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="279"/>
+      <c r="I17" s="280"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" thickBot="1"/>
     <row r="20" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B20" s="246" t="s">
+      <c r="B20" s="251" t="s">
         <v>308</v>
       </c>
-      <c r="C20" s="247"/>
-      <c r="D20" s="247"/>
-      <c r="E20" s="247"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
-      <c r="H20" s="247"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="247"/>
-      <c r="K20" s="248"/>
+      <c r="C20" s="252"/>
+      <c r="D20" s="252"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="252"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="252"/>
+      <c r="K20" s="253"/>
     </row>
     <row r="21" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B21" s="275" t="s">
+      <c r="B21" s="274" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="276"/>
-      <c r="D21" s="276"/>
-      <c r="E21" s="276"/>
-      <c r="F21" s="276" t="s">
+      <c r="C21" s="275"/>
+      <c r="D21" s="275"/>
+      <c r="E21" s="275"/>
+      <c r="F21" s="275" t="s">
         <v>305</v>
       </c>
-      <c r="G21" s="276"/>
-      <c r="H21" s="276"/>
-      <c r="I21" s="276"/>
-      <c r="J21" s="276"/>
+      <c r="G21" s="275"/>
+      <c r="H21" s="275"/>
+      <c r="I21" s="275"/>
+      <c r="J21" s="275"/>
       <c r="K21" s="116" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="27" customHeight="1">
-      <c r="B22" s="277" t="s">
+      <c r="B22" s="276" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="278"/>
-      <c r="D22" s="278"/>
-      <c r="E22" s="278"/>
-      <c r="F22" s="278"/>
-      <c r="G22" s="278"/>
-      <c r="H22" s="278"/>
-      <c r="I22" s="278"/>
-      <c r="J22" s="278"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="277"/>
+      <c r="E22" s="277"/>
+      <c r="F22" s="277"/>
+      <c r="G22" s="277"/>
+      <c r="H22" s="277"/>
+      <c r="I22" s="277"/>
+      <c r="J22" s="277"/>
       <c r="K22" s="117">
         <v>42655</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="47.25" customHeight="1">
-      <c r="B23" s="279" t="s">
+      <c r="B23" s="273" t="s">
         <v>309</v>
       </c>
-      <c r="C23" s="280"/>
-      <c r="D23" s="280"/>
-      <c r="E23" s="280"/>
-      <c r="F23" s="280"/>
-      <c r="G23" s="280"/>
-      <c r="H23" s="280"/>
-      <c r="I23" s="280"/>
-      <c r="J23" s="280"/>
+      <c r="C23" s="272"/>
+      <c r="D23" s="272"/>
+      <c r="E23" s="272"/>
+      <c r="F23" s="272"/>
+      <c r="G23" s="272"/>
+      <c r="H23" s="272"/>
+      <c r="I23" s="272"/>
+      <c r="J23" s="272"/>
       <c r="K23" s="96">
         <v>42655</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="280"/>
-      <c r="C24" s="280"/>
-      <c r="D24" s="280"/>
-      <c r="E24" s="280"/>
-      <c r="F24" s="280"/>
-      <c r="G24" s="280"/>
-      <c r="H24" s="280"/>
-      <c r="I24" s="280"/>
-      <c r="J24" s="280"/>
+      <c r="B24" s="272"/>
+      <c r="C24" s="272"/>
+      <c r="D24" s="272"/>
+      <c r="E24" s="272"/>
+      <c r="F24" s="272"/>
+      <c r="G24" s="272"/>
+      <c r="H24" s="272"/>
+      <c r="I24" s="272"/>
+      <c r="J24" s="272"/>
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="280"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="280"/>
+      <c r="B25" s="272"/>
+      <c r="C25" s="272"/>
+      <c r="D25" s="272"/>
+      <c r="E25" s="272"/>
+      <c r="F25" s="272"/>
+      <c r="G25" s="272"/>
+      <c r="H25" s="272"/>
+      <c r="I25" s="272"/>
+      <c r="J25" s="272"/>
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="280"/>
-      <c r="C26" s="280"/>
-      <c r="D26" s="280"/>
-      <c r="E26" s="280"/>
-      <c r="F26" s="280"/>
-      <c r="G26" s="280"/>
-      <c r="H26" s="280"/>
-      <c r="I26" s="280"/>
-      <c r="J26" s="280"/>
+      <c r="B26" s="272"/>
+      <c r="C26" s="272"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="272"/>
+      <c r="H26" s="272"/>
+      <c r="I26" s="272"/>
+      <c r="J26" s="272"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="280"/>
-      <c r="C27" s="280"/>
-      <c r="D27" s="280"/>
-      <c r="E27" s="280"/>
-      <c r="F27" s="280"/>
-      <c r="G27" s="280"/>
-      <c r="H27" s="280"/>
-      <c r="I27" s="280"/>
-      <c r="J27" s="280"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="272"/>
+      <c r="E27" s="272"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="272"/>
+      <c r="H27" s="272"/>
+      <c r="I27" s="272"/>
+      <c r="J27" s="272"/>
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="280"/>
-      <c r="C28" s="280"/>
-      <c r="D28" s="280"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="280"/>
-      <c r="G28" s="280"/>
-      <c r="H28" s="280"/>
-      <c r="I28" s="280"/>
-      <c r="J28" s="280"/>
+      <c r="B28" s="272"/>
+      <c r="C28" s="272"/>
+      <c r="D28" s="272"/>
+      <c r="E28" s="272"/>
+      <c r="F28" s="272"/>
+      <c r="G28" s="272"/>
+      <c r="H28" s="272"/>
+      <c r="I28" s="272"/>
+      <c r="J28" s="272"/>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="280"/>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
-      <c r="E29" s="280"/>
-      <c r="F29" s="280"/>
-      <c r="G29" s="280"/>
-      <c r="H29" s="280"/>
-      <c r="I29" s="280"/>
-      <c r="J29" s="280"/>
+      <c r="B29" s="272"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="272"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="272"/>
+      <c r="H29" s="272"/>
+      <c r="I29" s="272"/>
+      <c r="J29" s="272"/>
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="280"/>
-      <c r="C30" s="280"/>
-      <c r="D30" s="280"/>
-      <c r="E30" s="280"/>
-      <c r="F30" s="280"/>
-      <c r="G30" s="280"/>
-      <c r="H30" s="280"/>
-      <c r="I30" s="280"/>
-      <c r="J30" s="280"/>
+      <c r="B30" s="272"/>
+      <c r="C30" s="272"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="272"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="272"/>
+      <c r="H30" s="272"/>
+      <c r="I30" s="272"/>
+      <c r="J30" s="272"/>
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="280"/>
-      <c r="C31" s="280"/>
-      <c r="D31" s="280"/>
-      <c r="E31" s="280"/>
-      <c r="F31" s="280"/>
-      <c r="G31" s="280"/>
-      <c r="H31" s="280"/>
-      <c r="I31" s="280"/>
-      <c r="J31" s="280"/>
+      <c r="B31" s="272"/>
+      <c r="C31" s="272"/>
+      <c r="D31" s="272"/>
+      <c r="E31" s="272"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="272"/>
+      <c r="I31" s="272"/>
+      <c r="J31" s="272"/>
       <c r="K31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:J28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="F29:J29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:J30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="F31:J31"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9629,24 +9731,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="199" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="281" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="284" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="281"/>
+      <c r="N1" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9674,24 +9776,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="199" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="172" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="173"/>
+      <c r="N1" s="188"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
@@ -9703,33 +9805,33 @@
       <c r="B5" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="174" t="s">
+      <c r="C5" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="175"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="190"/>
     </row>
     <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="191" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="178"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="193"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1">
       <c r="B7" s="49"/>
@@ -9748,33 +9850,33 @@
       <c r="B8" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="186" t="s">
+      <c r="C8" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="187"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="181"/>
     </row>
     <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="190"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="186"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
       <c r="B10" s="49"/>
@@ -9793,135 +9895,135 @@
       <c r="B11" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="189" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="190"/>
     </row>
     <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="191" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="178"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="193"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="179" t="s">
+      <c r="B13" s="197" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="193" t="s">
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="194"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="175"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="182" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="195" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="195"/>
-      <c r="K14" s="195"/>
-      <c r="L14" s="196"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="177"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="195" t="s">
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="195"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="195"/>
-      <c r="L15" s="196"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="177"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="195" t="s">
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="196"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="177"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="182" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="195" t="s">
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="196"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="177"/>
     </row>
     <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="197" t="s">
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="198"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="179"/>
     </row>
     <row r="19" spans="2:12" ht="14.25" thickBot="1">
       <c r="B19" s="41"/>
@@ -9940,33 +10042,33 @@
       <c r="B20" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="186" t="s">
+      <c r="C20" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="186"/>
-      <c r="L20" s="187"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="181"/>
     </row>
     <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1">
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="184" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="190"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="186"/>
     </row>
     <row r="22" spans="2:12" ht="14.25" thickBot="1">
       <c r="B22" s="49"/>
@@ -9985,33 +10087,33 @@
       <c r="B23" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="174" t="s">
+      <c r="C23" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="174"/>
-      <c r="L23" s="175"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="190"/>
     </row>
     <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="191" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="178"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="192"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="193"/>
     </row>
     <row r="25" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="26" spans="2:12">
@@ -10032,19 +10134,19 @@
       <c r="L26" s="168"/>
     </row>
     <row r="27" spans="2:12" ht="254.25" customHeight="1" thickBot="1">
-      <c r="B27" s="282" t="s">
+      <c r="B27" s="194" t="s">
         <v>334</v>
       </c>
-      <c r="C27" s="283"/>
-      <c r="D27" s="283"/>
-      <c r="E27" s="283"/>
-      <c r="F27" s="283"/>
-      <c r="G27" s="283"/>
-      <c r="H27" s="283"/>
-      <c r="I27" s="283"/>
-      <c r="J27" s="283"/>
-      <c r="K27" s="283"/>
-      <c r="L27" s="284"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="196"/>
     </row>
     <row r="28" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="29" spans="2:12">
@@ -10114,22 +10216,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="B30:L30"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C5:L5"/>
     <mergeCell ref="B6:L6"/>
@@ -10144,6 +10230,22 @@
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="C23:L23"/>
     <mergeCell ref="B24:L24"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="B30:L30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -10166,24 +10268,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="199" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="200"/>
+      <c r="N1" s="203"/>
       <c r="O1" t="s">
         <v>229</v>
       </c>
@@ -10235,34 +10337,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="199" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="172" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="173"/>
+      <c r="N1" s="188"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
@@ -10287,22 +10392,28 @@
       <c r="E4" s="72" t="s">
         <v>194</v>
       </c>
+      <c r="F4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="213" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="203"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="215"/>
     </row>
     <row r="7" spans="1:14" ht="296.25" customHeight="1">
       <c r="B7" s="204"/>
@@ -10334,19 +10445,19 @@
     </row>
     <row r="9" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B10" s="201" t="s">
+      <c r="B10" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="203"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="215"/>
     </row>
     <row r="11" spans="1:14" ht="331.5" customHeight="1">
       <c r="B11" s="210"/>
@@ -10381,19 +10492,19 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="14" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="213" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="203"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="215"/>
     </row>
     <row r="15" spans="1:14" ht="329.25" customHeight="1">
       <c r="B15" s="210"/>
@@ -10425,19 +10536,19 @@
     </row>
     <row r="17" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="213" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="203"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="215"/>
     </row>
     <row r="19" spans="2:12" ht="329.25" customHeight="1">
       <c r="B19" s="204"/>
@@ -10467,8 +10578,104 @@
       <c r="K20" s="208"/>
       <c r="L20" s="209"/>
     </row>
+    <row r="21" spans="2:12" ht="14.25" thickBot="1"/>
+    <row r="22" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B22" s="213" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="214"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="215"/>
+    </row>
+    <row r="23" spans="2:12" ht="409.5" customHeight="1">
+      <c r="B23" s="210"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="211"/>
+      <c r="K23" s="211"/>
+      <c r="L23" s="212"/>
+    </row>
+    <row r="24" spans="2:12" ht="177" customHeight="1" thickBot="1">
+      <c r="B24" s="207"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="209"/>
+    </row>
+    <row r="25" spans="2:12" ht="14.25" thickBot="1"/>
+    <row r="26" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B26" s="213" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="215"/>
+    </row>
+    <row r="27" spans="2:12" ht="283.5" customHeight="1">
+      <c r="B27" s="210"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="211"/>
+      <c r="K27" s="211"/>
+      <c r="L27" s="212"/>
+    </row>
+    <row r="28" spans="2:12" ht="186.75" customHeight="1" thickBot="1">
+      <c r="B28" s="207"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="208"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="208"/>
+      <c r="K28" s="208"/>
+      <c r="L28" s="209"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B11:L11"/>
@@ -10477,12 +10684,6 @@
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -10504,7 +10705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10520,24 +10721,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="199" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="199" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="200"/>
+      <c r="N1" s="203"/>
       <c r="O1" t="s">
         <v>229</v>
       </c>
@@ -10637,14 +10838,14 @@
     </row>
     <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="226" t="s">
+      <c r="B7" s="221" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="185"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="201"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -10854,213 +11055,213 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="21" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="218" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="234"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="220"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B23" s="201" t="s">
+      <c r="B23" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="201" t="s">
+      <c r="C23" s="214"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="213" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="202"/>
-      <c r="G23" s="203"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="215"/>
     </row>
     <row r="24" spans="1:7" ht="100.5" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="230" t="s">
+      <c r="C24" s="216" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="231"/>
+      <c r="D24" s="217"/>
       <c r="E24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="230" t="s">
+      <c r="F24" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="231"/>
+      <c r="G24" s="217"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B25" s="201" t="s">
+      <c r="B25" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="201" t="s">
+      <c r="C25" s="214"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="202"/>
-      <c r="G25" s="203"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="215"/>
     </row>
     <row r="26" spans="1:7" ht="266.25" customHeight="1" thickBot="1">
-      <c r="B26" s="201"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="203"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="215"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="28" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B28" s="201" t="s">
+      <c r="B28" s="213" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="201" t="s">
+      <c r="C28" s="214"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="213" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="202"/>
-      <c r="G28" s="203"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="215"/>
     </row>
     <row r="29" spans="1:7" ht="134.25" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="230" t="s">
+      <c r="C29" s="216" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="231"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="230" t="s">
+      <c r="F29" s="216" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="231"/>
+      <c r="G29" s="217"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B30" s="201" t="s">
+      <c r="B30" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
-      <c r="E30" s="201" t="s">
+      <c r="C30" s="214"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="202"/>
-      <c r="G30" s="203"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="215"/>
     </row>
     <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1">
-      <c r="B31" s="201"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="203"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="215"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="33" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B33" s="201" t="s">
+      <c r="B33" s="213" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="201" t="s">
+      <c r="C33" s="214"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="213" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="202"/>
-      <c r="G33" s="203"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="215"/>
     </row>
     <row r="34" spans="1:7" ht="164.25" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="230" t="s">
+      <c r="C34" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="231"/>
+      <c r="D34" s="217"/>
       <c r="E34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="230" t="s">
+      <c r="F34" s="216" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="231"/>
+      <c r="G34" s="217"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B35" s="201" t="s">
+      <c r="B35" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="202"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="201" t="s">
+      <c r="C35" s="214"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="202"/>
-      <c r="G35" s="203"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="215"/>
     </row>
     <row r="36" spans="1:7" ht="294" customHeight="1" thickBot="1">
-      <c r="B36" s="201"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="203"/>
+      <c r="B36" s="213"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="213"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="215"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="38" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B38" s="201" t="s">
+      <c r="B38" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="202"/>
-      <c r="D38" s="203"/>
+      <c r="C38" s="214"/>
+      <c r="D38" s="215"/>
     </row>
     <row r="39" spans="1:7" ht="126.75" customHeight="1" thickBot="1">
       <c r="B39" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="230" t="s">
+      <c r="C39" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="231"/>
+      <c r="D39" s="217"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B40" s="201" t="s">
+      <c r="B40" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="202"/>
-      <c r="D40" s="203"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="215"/>
     </row>
     <row r="41" spans="1:7" ht="267" customHeight="1" thickBot="1">
-      <c r="B41" s="201"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="203"/>
+      <c r="B41" s="213"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="215"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="46" spans="1:7" ht="21.75" thickBot="1">
       <c r="A46" s="91"/>
-      <c r="B46" s="226" t="s">
+      <c r="B46" s="221" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="185"/>
+      <c r="C46" s="200"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="200"/>
+      <c r="F46" s="200"/>
+      <c r="G46" s="201"/>
     </row>
     <row r="47" spans="1:7" ht="21.75" thickBot="1">
-      <c r="A47" s="227" t="s">
+      <c r="A47" s="222" t="s">
         <v>223</v>
       </c>
-      <c r="B47" s="228"/>
-      <c r="C47" s="228"/>
-      <c r="D47" s="228"/>
-      <c r="E47" s="228"/>
-      <c r="F47" s="228"/>
-      <c r="G47" s="229"/>
+      <c r="B47" s="223"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="223"/>
+      <c r="E47" s="223"/>
+      <c r="F47" s="223"/>
+      <c r="G47" s="224"/>
     </row>
     <row r="48" spans="1:7" ht="14.25" thickBot="1">
       <c r="A48" s="12"/>
@@ -11223,14 +11424,14 @@
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="58" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B58" s="226" t="s">
+      <c r="B58" s="221" t="s">
         <v>296</v>
       </c>
-      <c r="C58" s="184"/>
-      <c r="D58" s="184"/>
-      <c r="E58" s="184"/>
-      <c r="F58" s="184"/>
-      <c r="G58" s="185"/>
+      <c r="C58" s="200"/>
+      <c r="D58" s="200"/>
+      <c r="E58" s="200"/>
+      <c r="F58" s="200"/>
+      <c r="G58" s="201"/>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="211" t="s">
@@ -11245,108 +11446,108 @@
       <c r="G59" s="211"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="B60" s="216" t="s">
+      <c r="B60" s="225" t="s">
         <v>294</v>
       </c>
-      <c r="C60" s="216"/>
-      <c r="D60" s="216" t="s">
+      <c r="C60" s="225"/>
+      <c r="D60" s="225" t="s">
         <v>295</v>
       </c>
-      <c r="E60" s="216"/>
-      <c r="F60" s="216"/>
-      <c r="G60" s="216"/>
+      <c r="E60" s="225"/>
+      <c r="F60" s="225"/>
+      <c r="G60" s="225"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="B61" s="216"/>
-      <c r="C61" s="216"/>
-      <c r="D61" s="216"/>
-      <c r="E61" s="216"/>
-      <c r="F61" s="216"/>
-      <c r="G61" s="216"/>
+      <c r="B61" s="225"/>
+      <c r="C61" s="225"/>
+      <c r="D61" s="225"/>
+      <c r="E61" s="225"/>
+      <c r="F61" s="225"/>
+      <c r="G61" s="225"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="B62" s="216"/>
-      <c r="C62" s="216"/>
-      <c r="D62" s="216"/>
-      <c r="E62" s="216"/>
-      <c r="F62" s="216"/>
-      <c r="G62" s="216"/>
+      <c r="B62" s="225"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="225"/>
+      <c r="E62" s="225"/>
+      <c r="F62" s="225"/>
+      <c r="G62" s="225"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="B63" s="216"/>
-      <c r="C63" s="216"/>
-      <c r="D63" s="216"/>
-      <c r="E63" s="216"/>
-      <c r="F63" s="216"/>
-      <c r="G63" s="216"/>
+      <c r="B63" s="225"/>
+      <c r="C63" s="225"/>
+      <c r="D63" s="225"/>
+      <c r="E63" s="225"/>
+      <c r="F63" s="225"/>
+      <c r="G63" s="225"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="B64" s="216"/>
-      <c r="C64" s="216"/>
-      <c r="D64" s="216"/>
-      <c r="E64" s="216"/>
-      <c r="F64" s="216"/>
-      <c r="G64" s="216"/>
+      <c r="B64" s="225"/>
+      <c r="C64" s="225"/>
+      <c r="D64" s="225"/>
+      <c r="E64" s="225"/>
+      <c r="F64" s="225"/>
+      <c r="G64" s="225"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="216"/>
-      <c r="C65" s="216"/>
-      <c r="D65" s="216"/>
-      <c r="E65" s="216"/>
-      <c r="F65" s="216"/>
-      <c r="G65" s="216"/>
+      <c r="B65" s="225"/>
+      <c r="C65" s="225"/>
+      <c r="D65" s="225"/>
+      <c r="E65" s="225"/>
+      <c r="F65" s="225"/>
+      <c r="G65" s="225"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="216"/>
-      <c r="C66" s="216"/>
-      <c r="D66" s="216"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="216"/>
-      <c r="G66" s="216"/>
+      <c r="B66" s="225"/>
+      <c r="C66" s="225"/>
+      <c r="D66" s="225"/>
+      <c r="E66" s="225"/>
+      <c r="F66" s="225"/>
+      <c r="G66" s="225"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="216"/>
-      <c r="C67" s="216"/>
-      <c r="D67" s="216"/>
-      <c r="E67" s="216"/>
-      <c r="F67" s="216"/>
-      <c r="G67" s="216"/>
+      <c r="B67" s="225"/>
+      <c r="C67" s="225"/>
+      <c r="D67" s="225"/>
+      <c r="E67" s="225"/>
+      <c r="F67" s="225"/>
+      <c r="G67" s="225"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="216"/>
-      <c r="C68" s="216"/>
-      <c r="D68" s="216"/>
-      <c r="E68" s="216"/>
-      <c r="F68" s="216"/>
-      <c r="G68" s="216"/>
+      <c r="B68" s="225"/>
+      <c r="C68" s="225"/>
+      <c r="D68" s="225"/>
+      <c r="E68" s="225"/>
+      <c r="F68" s="225"/>
+      <c r="G68" s="225"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="216"/>
-      <c r="C69" s="216"/>
-      <c r="D69" s="216"/>
-      <c r="E69" s="216"/>
-      <c r="F69" s="216"/>
-      <c r="G69" s="216"/>
+      <c r="B69" s="225"/>
+      <c r="C69" s="225"/>
+      <c r="D69" s="225"/>
+      <c r="E69" s="225"/>
+      <c r="F69" s="225"/>
+      <c r="G69" s="225"/>
     </row>
     <row r="74" spans="2:7" ht="35.25" customHeight="1">
-      <c r="B74" s="218" t="s">
+      <c r="B74" s="226" t="s">
         <v>315</v>
       </c>
-      <c r="C74" s="219"/>
-      <c r="D74" s="219"/>
-      <c r="E74" s="219"/>
-      <c r="F74" s="219"/>
-      <c r="G74" s="219"/>
+      <c r="C74" s="227"/>
+      <c r="D74" s="227"/>
+      <c r="E74" s="227"/>
+      <c r="F74" s="227"/>
+      <c r="G74" s="227"/>
     </row>
     <row r="75" spans="2:7" ht="17.25">
-      <c r="B75" s="223" t="s">
+      <c r="B75" s="232" t="s">
         <v>319</v>
       </c>
-      <c r="C75" s="224"/>
-      <c r="D75" s="224"/>
-      <c r="E75" s="224"/>
-      <c r="F75" s="224"/>
-      <c r="G75" s="225"/>
+      <c r="C75" s="233"/>
+      <c r="D75" s="233"/>
+      <c r="E75" s="233"/>
+      <c r="F75" s="233"/>
+      <c r="G75" s="234"/>
     </row>
     <row r="76" spans="2:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="B76" s="118" t="s">
@@ -11369,149 +11570,182 @@
       <c r="G77" s="111"/>
     </row>
     <row r="78" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B78" s="220" t="s">
+      <c r="B78" s="228" t="s">
         <v>316</v>
       </c>
-      <c r="C78" s="221"/>
-      <c r="D78" s="221"/>
-      <c r="E78" s="221" t="s">
+      <c r="C78" s="229"/>
+      <c r="D78" s="229"/>
+      <c r="E78" s="229" t="s">
         <v>317</v>
       </c>
-      <c r="F78" s="221"/>
-      <c r="G78" s="222"/>
+      <c r="F78" s="229"/>
+      <c r="G78" s="230"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="133" t="s">
+      <c r="B79" s="145" t="s">
         <v>318</v>
       </c>
-      <c r="C79" s="133"/>
-      <c r="D79" s="133"/>
-      <c r="E79" s="133" t="s">
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="145" t="s">
         <v>325</v>
       </c>
-      <c r="F79" s="133"/>
-      <c r="G79" s="133"/>
+      <c r="F79" s="145"/>
+      <c r="G79" s="145"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="217" t="s">
+      <c r="B80" s="231" t="s">
         <v>322</v>
       </c>
-      <c r="C80" s="217"/>
-      <c r="D80" s="217"/>
-      <c r="E80" s="217" t="s">
+      <c r="C80" s="231"/>
+      <c r="D80" s="231"/>
+      <c r="E80" s="231" t="s">
         <v>323</v>
       </c>
-      <c r="F80" s="217"/>
-      <c r="G80" s="217"/>
+      <c r="F80" s="231"/>
+      <c r="G80" s="231"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="217" t="s">
+      <c r="B81" s="231" t="s">
         <v>324</v>
       </c>
-      <c r="C81" s="217"/>
-      <c r="D81" s="217"/>
-      <c r="E81" s="217" t="s">
+      <c r="C81" s="231"/>
+      <c r="D81" s="231"/>
+      <c r="E81" s="231" t="s">
         <v>326</v>
       </c>
-      <c r="F81" s="217"/>
-      <c r="G81" s="217"/>
+      <c r="F81" s="231"/>
+      <c r="G81" s="231"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="217" t="s">
+      <c r="B82" s="231" t="s">
         <v>327</v>
       </c>
-      <c r="C82" s="217"/>
-      <c r="D82" s="217"/>
-      <c r="E82" s="217" t="s">
+      <c r="C82" s="231"/>
+      <c r="D82" s="231"/>
+      <c r="E82" s="231" t="s">
         <v>328</v>
       </c>
-      <c r="F82" s="217"/>
-      <c r="G82" s="217"/>
+      <c r="F82" s="231"/>
+      <c r="G82" s="231"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="217"/>
-      <c r="C83" s="217"/>
-      <c r="D83" s="217"/>
-      <c r="E83" s="217"/>
-      <c r="F83" s="217"/>
-      <c r="G83" s="217"/>
+      <c r="B83" s="231"/>
+      <c r="C83" s="231"/>
+      <c r="D83" s="231"/>
+      <c r="E83" s="231"/>
+      <c r="F83" s="231"/>
+      <c r="G83" s="231"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="213"/>
-      <c r="C84" s="214"/>
-      <c r="D84" s="215"/>
-      <c r="E84" s="213"/>
-      <c r="F84" s="214"/>
-      <c r="G84" s="215"/>
+      <c r="B84" s="235"/>
+      <c r="C84" s="236"/>
+      <c r="D84" s="237"/>
+      <c r="E84" s="235"/>
+      <c r="F84" s="236"/>
+      <c r="G84" s="237"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="213"/>
-      <c r="C85" s="214"/>
-      <c r="D85" s="215"/>
-      <c r="E85" s="213"/>
-      <c r="F85" s="214"/>
-      <c r="G85" s="215"/>
+      <c r="B85" s="235"/>
+      <c r="C85" s="236"/>
+      <c r="D85" s="237"/>
+      <c r="E85" s="235"/>
+      <c r="F85" s="236"/>
+      <c r="G85" s="237"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="217"/>
-      <c r="C86" s="217"/>
-      <c r="D86" s="217"/>
-      <c r="E86" s="217"/>
-      <c r="F86" s="217"/>
-      <c r="G86" s="217"/>
+      <c r="B86" s="231"/>
+      <c r="C86" s="231"/>
+      <c r="D86" s="231"/>
+      <c r="E86" s="231"/>
+      <c r="F86" s="231"/>
+      <c r="G86" s="231"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="216"/>
-      <c r="C87" s="216"/>
-      <c r="D87" s="216"/>
-      <c r="E87" s="216"/>
-      <c r="F87" s="216"/>
-      <c r="G87" s="216"/>
+      <c r="B87" s="225"/>
+      <c r="C87" s="225"/>
+      <c r="D87" s="225"/>
+      <c r="E87" s="225"/>
+      <c r="F87" s="225"/>
+      <c r="G87" s="225"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="216"/>
-      <c r="C88" s="216"/>
-      <c r="D88" s="216"/>
-      <c r="E88" s="216"/>
-      <c r="F88" s="216"/>
-      <c r="G88" s="216"/>
+      <c r="B88" s="225"/>
+      <c r="C88" s="225"/>
+      <c r="D88" s="225"/>
+      <c r="E88" s="225"/>
+      <c r="F88" s="225"/>
+      <c r="G88" s="225"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="216"/>
-      <c r="C89" s="216"/>
-      <c r="D89" s="216"/>
-      <c r="E89" s="216"/>
-      <c r="F89" s="216"/>
-      <c r="G89" s="216"/>
+      <c r="B89" s="225"/>
+      <c r="C89" s="225"/>
+      <c r="D89" s="225"/>
+      <c r="E89" s="225"/>
+      <c r="F89" s="225"/>
+      <c r="G89" s="225"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="216"/>
-      <c r="C90" s="216"/>
-      <c r="D90" s="216"/>
-      <c r="E90" s="216"/>
-      <c r="F90" s="216"/>
-      <c r="G90" s="216"/>
+      <c r="B90" s="225"/>
+      <c r="C90" s="225"/>
+      <c r="D90" s="225"/>
+      <c r="E90" s="225"/>
+      <c r="F90" s="225"/>
+      <c r="G90" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A1:L1"/>
@@ -11528,57 +11762,24 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -11613,24 +11814,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="172" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="173"/>
+      <c r="N1" s="188"/>
       <c r="O1" t="s">
         <v>202</v>
       </c>
@@ -11707,13 +11908,13 @@
     </row>
     <row r="6" spans="1:15" s="68" customFormat="1" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:15" ht="14.25" thickBot="1">
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="213" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="203"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="215"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1">
       <c r="B8" s="61"/>
@@ -11723,15 +11924,15 @@
       <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="238" t="s">
+      <c r="B9" s="241" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="239"/>
+      <c r="C9" s="242"/>
       <c r="D9" s="58"/>
-      <c r="E9" s="238" t="s">
+      <c r="E9" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="239"/>
+      <c r="F9" s="242"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="19" t="s">
@@ -11785,15 +11986,15 @@
       <c r="F14" s="63"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="238" t="s">
+      <c r="B15" s="241" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="239"/>
+      <c r="C15" s="242"/>
       <c r="D15" s="58"/>
-      <c r="E15" s="238" t="s">
+      <c r="E15" s="241" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="239"/>
+      <c r="F15" s="242"/>
     </row>
     <row r="16" spans="1:15" ht="48.75" customHeight="1" thickBot="1">
       <c r="B16" s="74" t="s">
@@ -11856,10 +12057,10 @@
       <c r="F21" s="63"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="238" t="s">
+      <c r="B22" s="241" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="239"/>
+      <c r="C22" s="242"/>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
       <c r="F22" s="63"/>
@@ -11893,19 +12094,19 @@
     </row>
     <row r="26" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="27" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B27" s="201" t="s">
+      <c r="B27" s="213" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="202"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="202"/>
-      <c r="L27" s="203"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="215"/>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="210"/>
@@ -12259,17 +12460,17 @@
       <c r="L54" s="206"/>
     </row>
     <row r="55" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B55" s="235"/>
-      <c r="C55" s="236"/>
-      <c r="D55" s="236"/>
-      <c r="E55" s="236"/>
-      <c r="F55" s="236"/>
-      <c r="G55" s="236"/>
-      <c r="H55" s="236"/>
-      <c r="I55" s="236"/>
-      <c r="J55" s="236"/>
-      <c r="K55" s="236"/>
-      <c r="L55" s="237"/>
+      <c r="B55" s="238"/>
+      <c r="C55" s="239"/>
+      <c r="D55" s="239"/>
+      <c r="E55" s="239"/>
+      <c r="F55" s="239"/>
+      <c r="G55" s="239"/>
+      <c r="H55" s="239"/>
+      <c r="I55" s="239"/>
+      <c r="J55" s="239"/>
+      <c r="K55" s="239"/>
+      <c r="L55" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12315,24 +12516,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="241" t="s">
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="246" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="242"/>
+      <c r="N1" s="247"/>
     </row>
     <row r="2" spans="1:14" ht="24.75" customHeight="1">
       <c r="A2" s="79" t="s">
@@ -12385,15 +12586,15 @@
       <c r="N4" s="107"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="248" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="245"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="250"/>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
@@ -12526,110 +12727,115 @@
     </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="251" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="248"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="253"/>
     </row>
     <row r="24" spans="2:7" ht="208.5" customHeight="1">
-      <c r="B24" s="249"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
+      <c r="B24" s="243"/>
+      <c r="C24" s="243"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
     </row>
     <row r="25" spans="2:7" ht="218.25" customHeight="1">
-      <c r="B25" s="250"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="217"/>
-      <c r="G25" s="217"/>
+      <c r="B25" s="244"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="231"/>
     </row>
     <row r="26" spans="2:7" ht="83.25" customHeight="1">
-      <c r="C26" s="216"/>
-      <c r="D26" s="216"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="216"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="225"/>
+      <c r="E26" s="225"/>
+      <c r="F26" s="225"/>
+      <c r="G26" s="225"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="C27" s="216"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="216"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="225"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="225"/>
+      <c r="G27" s="225"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="C28" s="216"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="216"/>
+      <c r="C28" s="225"/>
+      <c r="D28" s="225"/>
+      <c r="E28" s="225"/>
+      <c r="F28" s="225"/>
+      <c r="G28" s="225"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="225"/>
+      <c r="G29" s="225"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="C30" s="216"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="225"/>
+      <c r="F30" s="225"/>
+      <c r="G30" s="225"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="C31" s="216"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="216"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="225"/>
+      <c r="G31" s="225"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="C32" s="216"/>
-      <c r="D32" s="216"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="216"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="216"/>
-      <c r="D33" s="216"/>
-      <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="225"/>
+      <c r="F33" s="225"/>
+      <c r="G33" s="225"/>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="216"/>
-      <c r="D34" s="216"/>
-      <c r="E34" s="216"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="216"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="225"/>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="225"/>
+      <c r="E35" s="225"/>
+      <c r="F35" s="225"/>
+      <c r="G35" s="225"/>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="216"/>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="216"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="B24:E24"/>
@@ -12644,11 +12850,6 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="C34:G34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -12683,24 +12884,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="251" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="252"/>
+      <c r="N1" s="255"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
@@ -12723,18 +12924,18 @@
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B8" s="246" t="s">
+      <c r="B8" s="251" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="248"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="252"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="253"/>
       <c r="L8" s="92"/>
     </row>
     <row r="9" spans="1:14">
@@ -12848,446 +13049,445 @@
       <c r="K14" s="58"/>
     </row>
     <row r="21" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B21" s="216" t="s">
+      <c r="B21" s="225" t="s">
         <v>336</v>
       </c>
-      <c r="C21" s="216"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="216"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="216"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="216"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="225"/>
+      <c r="J21" s="225"/>
+      <c r="K21" s="225"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="216"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="216"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="216"/>
+      <c r="B22" s="225"/>
+      <c r="C22" s="225"/>
+      <c r="D22" s="225"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="225"/>
+      <c r="I22" s="225"/>
+      <c r="J22" s="225"/>
+      <c r="K22" s="225"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="216"/>
-      <c r="K23" s="216"/>
+      <c r="B23" s="225"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="225"/>
+      <c r="E23" s="225"/>
+      <c r="F23" s="225"/>
+      <c r="G23" s="225"/>
+      <c r="H23" s="225"/>
+      <c r="I23" s="225"/>
+      <c r="J23" s="225"/>
+      <c r="K23" s="225"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="216"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="216"/>
-      <c r="K24" s="216"/>
+      <c r="B24" s="225"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="225"/>
+      <c r="E24" s="225"/>
+      <c r="F24" s="225"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="225"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="216"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="216"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="216"/>
+      <c r="B25" s="225"/>
+      <c r="C25" s="225"/>
+      <c r="D25" s="225"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="225"/>
+      <c r="G25" s="225"/>
+      <c r="H25" s="225"/>
+      <c r="I25" s="225"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="225"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="216"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="216"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="216"/>
+      <c r="B26" s="225"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="225"/>
+      <c r="E26" s="225"/>
+      <c r="F26" s="225"/>
+      <c r="G26" s="225"/>
+      <c r="H26" s="225"/>
+      <c r="I26" s="225"/>
+      <c r="J26" s="225"/>
+      <c r="K26" s="225"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="216"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="216"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="216"/>
+      <c r="B27" s="225"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="225"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="225"/>
+      <c r="G27" s="225"/>
+      <c r="H27" s="225"/>
+      <c r="I27" s="225"/>
+      <c r="J27" s="225"/>
+      <c r="K27" s="225"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="216"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="216"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="216"/>
+      <c r="B28" s="225"/>
+      <c r="C28" s="225"/>
+      <c r="D28" s="225"/>
+      <c r="E28" s="225"/>
+      <c r="F28" s="225"/>
+      <c r="G28" s="225"/>
+      <c r="H28" s="225"/>
+      <c r="I28" s="225"/>
+      <c r="J28" s="225"/>
+      <c r="K28" s="225"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="216"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="225"/>
+      <c r="G29" s="225"/>
+      <c r="H29" s="225"/>
+      <c r="I29" s="225"/>
+      <c r="J29" s="225"/>
+      <c r="K29" s="225"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="216"/>
+      <c r="B30" s="225"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="225"/>
+      <c r="F30" s="225"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="225"/>
+      <c r="I30" s="225"/>
+      <c r="J30" s="225"/>
+      <c r="K30" s="225"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="216"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="216"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="216"/>
-      <c r="K31" s="216"/>
+      <c r="B31" s="225"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="225"/>
+      <c r="G31" s="225"/>
+      <c r="H31" s="225"/>
+      <c r="I31" s="225"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="225"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="216"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="216"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="216"/>
-      <c r="J32" s="216"/>
-      <c r="K32" s="216"/>
+      <c r="B32" s="225"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="225"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="225"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="216"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="216"/>
-      <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="216"/>
-      <c r="K33" s="216"/>
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="225"/>
+      <c r="F33" s="225"/>
+      <c r="G33" s="225"/>
+      <c r="H33" s="225"/>
+      <c r="I33" s="225"/>
+      <c r="J33" s="225"/>
+      <c r="K33" s="225"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="216"/>
-      <c r="C34" s="216"/>
-      <c r="D34" s="216"/>
-      <c r="E34" s="216"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="216"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="216"/>
-      <c r="J34" s="216"/>
-      <c r="K34" s="216"/>
+      <c r="B34" s="225"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="225"/>
+      <c r="H34" s="225"/>
+      <c r="I34" s="225"/>
+      <c r="J34" s="225"/>
+      <c r="K34" s="225"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="216"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="216"/>
-      <c r="J35" s="216"/>
-      <c r="K35" s="216"/>
+      <c r="B35" s="225"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="225"/>
+      <c r="E35" s="225"/>
+      <c r="F35" s="225"/>
+      <c r="G35" s="225"/>
+      <c r="H35" s="225"/>
+      <c r="I35" s="225"/>
+      <c r="J35" s="225"/>
+      <c r="K35" s="225"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="216"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="216"/>
-      <c r="H36" s="216"/>
-      <c r="I36" s="216"/>
-      <c r="J36" s="216"/>
-      <c r="K36" s="216"/>
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="225"/>
+      <c r="H36" s="225"/>
+      <c r="I36" s="225"/>
+      <c r="J36" s="225"/>
+      <c r="K36" s="225"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="216"/>
-      <c r="C37" s="216"/>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="216"/>
-      <c r="J37" s="216"/>
-      <c r="K37" s="216"/>
+      <c r="B37" s="225"/>
+      <c r="C37" s="225"/>
+      <c r="D37" s="225"/>
+      <c r="E37" s="225"/>
+      <c r="F37" s="225"/>
+      <c r="G37" s="225"/>
+      <c r="H37" s="225"/>
+      <c r="I37" s="225"/>
+      <c r="J37" s="225"/>
+      <c r="K37" s="225"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="216"/>
-      <c r="C38" s="216"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="216"/>
-      <c r="I38" s="216"/>
-      <c r="J38" s="216"/>
-      <c r="K38" s="216"/>
+      <c r="B38" s="225"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="225"/>
+      <c r="E38" s="225"/>
+      <c r="F38" s="225"/>
+      <c r="G38" s="225"/>
+      <c r="H38" s="225"/>
+      <c r="I38" s="225"/>
+      <c r="J38" s="225"/>
+      <c r="K38" s="225"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="216"/>
-      <c r="C39" s="216"/>
-      <c r="D39" s="216"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="216"/>
-      <c r="I39" s="216"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="216"/>
+      <c r="B39" s="225"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="225"/>
+      <c r="E39" s="225"/>
+      <c r="F39" s="225"/>
+      <c r="G39" s="225"/>
+      <c r="H39" s="225"/>
+      <c r="I39" s="225"/>
+      <c r="J39" s="225"/>
+      <c r="K39" s="225"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="216"/>
-      <c r="C40" s="216"/>
-      <c r="D40" s="216"/>
-      <c r="E40" s="216"/>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
-      <c r="H40" s="216"/>
-      <c r="I40" s="216"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="216"/>
+      <c r="B40" s="225"/>
+      <c r="C40" s="225"/>
+      <c r="D40" s="225"/>
+      <c r="E40" s="225"/>
+      <c r="F40" s="225"/>
+      <c r="G40" s="225"/>
+      <c r="H40" s="225"/>
+      <c r="I40" s="225"/>
+      <c r="J40" s="225"/>
+      <c r="K40" s="225"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="216"/>
-      <c r="C41" s="216"/>
-      <c r="D41" s="216"/>
-      <c r="E41" s="216"/>
-      <c r="F41" s="216"/>
-      <c r="G41" s="216"/>
-      <c r="H41" s="216"/>
-      <c r="I41" s="216"/>
-      <c r="J41" s="216"/>
-      <c r="K41" s="216"/>
+      <c r="B41" s="225"/>
+      <c r="C41" s="225"/>
+      <c r="D41" s="225"/>
+      <c r="E41" s="225"/>
+      <c r="F41" s="225"/>
+      <c r="G41" s="225"/>
+      <c r="H41" s="225"/>
+      <c r="I41" s="225"/>
+      <c r="J41" s="225"/>
+      <c r="K41" s="225"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="216"/>
-      <c r="C42" s="216"/>
-      <c r="D42" s="216"/>
-      <c r="E42" s="216"/>
-      <c r="F42" s="216"/>
-      <c r="G42" s="216"/>
-      <c r="H42" s="216"/>
-      <c r="I42" s="216"/>
-      <c r="J42" s="216"/>
-      <c r="K42" s="216"/>
+      <c r="B42" s="225"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="225"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="225"/>
+      <c r="I42" s="225"/>
+      <c r="J42" s="225"/>
+      <c r="K42" s="225"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="216"/>
-      <c r="C43" s="216"/>
-      <c r="D43" s="216"/>
-      <c r="E43" s="216"/>
-      <c r="F43" s="216"/>
-      <c r="G43" s="216"/>
-      <c r="H43" s="216"/>
-      <c r="I43" s="216"/>
-      <c r="J43" s="216"/>
-      <c r="K43" s="216"/>
+      <c r="B43" s="225"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="225"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="225"/>
+      <c r="H43" s="225"/>
+      <c r="I43" s="225"/>
+      <c r="J43" s="225"/>
+      <c r="K43" s="225"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="216"/>
-      <c r="C44" s="216"/>
-      <c r="D44" s="216"/>
-      <c r="E44" s="216"/>
-      <c r="F44" s="216"/>
-      <c r="G44" s="216"/>
-      <c r="H44" s="216"/>
-      <c r="I44" s="216"/>
-      <c r="J44" s="216"/>
-      <c r="K44" s="216"/>
+      <c r="B44" s="225"/>
+      <c r="C44" s="225"/>
+      <c r="D44" s="225"/>
+      <c r="E44" s="225"/>
+      <c r="F44" s="225"/>
+      <c r="G44" s="225"/>
+      <c r="H44" s="225"/>
+      <c r="I44" s="225"/>
+      <c r="J44" s="225"/>
+      <c r="K44" s="225"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="216"/>
-      <c r="C45" s="216"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="216"/>
-      <c r="G45" s="216"/>
-      <c r="H45" s="216"/>
-      <c r="I45" s="216"/>
-      <c r="J45" s="216"/>
-      <c r="K45" s="216"/>
+      <c r="B45" s="225"/>
+      <c r="C45" s="225"/>
+      <c r="D45" s="225"/>
+      <c r="E45" s="225"/>
+      <c r="F45" s="225"/>
+      <c r="G45" s="225"/>
+      <c r="H45" s="225"/>
+      <c r="I45" s="225"/>
+      <c r="J45" s="225"/>
+      <c r="K45" s="225"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="216"/>
-      <c r="C46" s="216"/>
-      <c r="D46" s="216"/>
-      <c r="E46" s="216"/>
-      <c r="F46" s="216"/>
-      <c r="G46" s="216"/>
-      <c r="H46" s="216"/>
-      <c r="I46" s="216"/>
-      <c r="J46" s="216"/>
-      <c r="K46" s="216"/>
+      <c r="B46" s="225"/>
+      <c r="C46" s="225"/>
+      <c r="D46" s="225"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="225"/>
+      <c r="G46" s="225"/>
+      <c r="H46" s="225"/>
+      <c r="I46" s="225"/>
+      <c r="J46" s="225"/>
+      <c r="K46" s="225"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="216"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="216"/>
-      <c r="H47" s="216"/>
-      <c r="I47" s="216"/>
-      <c r="J47" s="216"/>
-      <c r="K47" s="216"/>
+      <c r="B47" s="225"/>
+      <c r="C47" s="225"/>
+      <c r="D47" s="225"/>
+      <c r="E47" s="225"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="225"/>
+      <c r="H47" s="225"/>
+      <c r="I47" s="225"/>
+      <c r="J47" s="225"/>
+      <c r="K47" s="225"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="216"/>
-      <c r="C48" s="216"/>
-      <c r="D48" s="216"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="216"/>
-      <c r="G48" s="216"/>
-      <c r="H48" s="216"/>
-      <c r="I48" s="216"/>
-      <c r="J48" s="216"/>
-      <c r="K48" s="216"/>
+      <c r="B48" s="225"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="225"/>
+      <c r="E48" s="225"/>
+      <c r="F48" s="225"/>
+      <c r="G48" s="225"/>
+      <c r="H48" s="225"/>
+      <c r="I48" s="225"/>
+      <c r="J48" s="225"/>
+      <c r="K48" s="225"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="216"/>
-      <c r="C49" s="216"/>
-      <c r="D49" s="216"/>
-      <c r="E49" s="216"/>
-      <c r="F49" s="216"/>
-      <c r="G49" s="216"/>
-      <c r="H49" s="216"/>
-      <c r="I49" s="216"/>
-      <c r="J49" s="216"/>
-      <c r="K49" s="216"/>
+      <c r="B49" s="225"/>
+      <c r="C49" s="225"/>
+      <c r="D49" s="225"/>
+      <c r="E49" s="225"/>
+      <c r="F49" s="225"/>
+      <c r="G49" s="225"/>
+      <c r="H49" s="225"/>
+      <c r="I49" s="225"/>
+      <c r="J49" s="225"/>
+      <c r="K49" s="225"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="216"/>
-      <c r="C50" s="216"/>
-      <c r="D50" s="216"/>
-      <c r="E50" s="216"/>
-      <c r="F50" s="216"/>
-      <c r="G50" s="216"/>
-      <c r="H50" s="216"/>
-      <c r="I50" s="216"/>
-      <c r="J50" s="216"/>
-      <c r="K50" s="216"/>
+      <c r="B50" s="225"/>
+      <c r="C50" s="225"/>
+      <c r="D50" s="225"/>
+      <c r="E50" s="225"/>
+      <c r="F50" s="225"/>
+      <c r="G50" s="225"/>
+      <c r="H50" s="225"/>
+      <c r="I50" s="225"/>
+      <c r="J50" s="225"/>
+      <c r="K50" s="225"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="216"/>
-      <c r="C51" s="216"/>
-      <c r="D51" s="216"/>
-      <c r="E51" s="216"/>
-      <c r="F51" s="216"/>
-      <c r="G51" s="216"/>
-      <c r="H51" s="216"/>
-      <c r="I51" s="216"/>
-      <c r="J51" s="216"/>
-      <c r="K51" s="216"/>
+      <c r="B51" s="225"/>
+      <c r="C51" s="225"/>
+      <c r="D51" s="225"/>
+      <c r="E51" s="225"/>
+      <c r="F51" s="225"/>
+      <c r="G51" s="225"/>
+      <c r="H51" s="225"/>
+      <c r="I51" s="225"/>
+      <c r="J51" s="225"/>
+      <c r="K51" s="225"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="216" t="s">
+      <c r="B52" s="225" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="216" t="s">
+      <c r="C52" s="225" t="s">
         <v>338</v>
       </c>
-      <c r="D52" s="216"/>
-      <c r="E52" s="216" t="s">
+      <c r="D52" s="225"/>
+      <c r="E52" s="225" t="s">
         <v>339</v>
       </c>
-      <c r="F52" s="216"/>
-      <c r="G52" s="216"/>
-      <c r="H52" s="216"/>
+      <c r="F52" s="225"/>
+      <c r="G52" s="225"/>
+      <c r="H52" s="225"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="216"/>
-      <c r="C53" s="216"/>
-      <c r="D53" s="216"/>
-      <c r="E53" s="216" t="s">
+      <c r="B53" s="225"/>
+      <c r="C53" s="225"/>
+      <c r="D53" s="225"/>
+      <c r="E53" s="225" t="s">
         <v>340</v>
       </c>
-      <c r="F53" s="216"/>
-      <c r="G53" s="216" t="s">
+      <c r="F53" s="225"/>
+      <c r="G53" s="225" t="s">
         <v>341</v>
       </c>
-      <c r="H53" s="216"/>
+      <c r="H53" s="225"/>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" t="s">
         <v>342</v>
       </c>
-      <c r="C54" s="216" t="s">
+      <c r="C54" s="225" t="s">
         <v>343</v>
       </c>
-      <c r="D54" s="216"/>
-      <c r="E54" s="216" t="s">
+      <c r="D54" s="225"/>
+      <c r="E54" s="225" t="s">
         <v>344</v>
       </c>
-      <c r="F54" s="216"/>
-      <c r="G54" s="216"/>
-      <c r="H54" s="216"/>
+      <c r="F54" s="225"/>
+      <c r="G54" s="225"/>
+      <c r="H54" s="225"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="C55" s="216"/>
-      <c r="D55" s="216"/>
-      <c r="E55" s="216"/>
-      <c r="F55" s="216"/>
-      <c r="G55" s="216"/>
-      <c r="H55" s="216"/>
+      <c r="C55" s="225"/>
+      <c r="D55" s="225"/>
+      <c r="E55" s="225"/>
+      <c r="F55" s="225"/>
+      <c r="G55" s="225"/>
+      <c r="H55" s="225"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="C56" s="216"/>
-      <c r="D56" s="216"/>
-      <c r="E56" s="216"/>
-      <c r="F56" s="216"/>
-      <c r="G56" s="216"/>
-      <c r="H56" s="216"/>
+      <c r="C56" s="225"/>
+      <c r="D56" s="225"/>
+      <c r="E56" s="225"/>
+      <c r="F56" s="225"/>
+      <c r="G56" s="225"/>
+      <c r="H56" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:D53"/>
     <mergeCell ref="E54:F54"/>
@@ -13296,11 +13496,12 @@
     <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="G53:H53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K51"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -13328,24 +13529,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="199" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="251" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="252"/>
+      <c r="N1" s="255"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
@@ -13367,387 +13568,387 @@
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14">
-      <c r="B6" s="238" t="s">
+      <c r="B6" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="262"/>
-      <c r="J6" s="239"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="242"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="256"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="263"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="266"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="256"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="263"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="266"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="256"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="263"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="266"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="256"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="263"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="266"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="256"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="263"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="266"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="256"/>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="263"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="231"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="266"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="256"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="217"/>
-      <c r="J13" s="263"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="231"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="231"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="266"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="256"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="263"/>
+      <c r="B14" s="259"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="231"/>
+      <c r="E14" s="231"/>
+      <c r="F14" s="231"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="266"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="256"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="263"/>
+      <c r="B15" s="259"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="231"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="266"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="256"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="263"/>
+      <c r="B16" s="259"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="231"/>
+      <c r="E16" s="231"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="266"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="256"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="263"/>
+      <c r="B17" s="259"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="231"/>
+      <c r="F17" s="231"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="266"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="256"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="263"/>
+      <c r="B18" s="259"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="231"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="231"/>
+      <c r="H18" s="231"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="266"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="256"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="263"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="266"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="256"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="217"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="217"/>
-      <c r="J20" s="263"/>
+      <c r="B20" s="259"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="266"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="256"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="217"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="263"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="231"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="266"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="256"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="217"/>
-      <c r="G22" s="217"/>
-      <c r="H22" s="217"/>
-      <c r="I22" s="217"/>
-      <c r="J22" s="263"/>
+      <c r="B22" s="259"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="231"/>
+      <c r="H22" s="231"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="266"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="256"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="217"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="263"/>
+      <c r="B23" s="259"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="231"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="266"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="256"/>
-      <c r="C24" s="217"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="263"/>
+      <c r="B24" s="259"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="231"/>
+      <c r="E24" s="231"/>
+      <c r="F24" s="231"/>
+      <c r="G24" s="231"/>
+      <c r="H24" s="231"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="266"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="256"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="217"/>
-      <c r="G25" s="217"/>
-      <c r="H25" s="217"/>
-      <c r="I25" s="217"/>
-      <c r="J25" s="263"/>
+      <c r="B25" s="259"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="231"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="266"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="256"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="263"/>
+      <c r="B26" s="259"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="266"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="256"/>
-      <c r="C27" s="217"/>
-      <c r="D27" s="217"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="217"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="217"/>
-      <c r="J27" s="263"/>
+      <c r="B27" s="259"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="231"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="266"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="256"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="217"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="217"/>
-      <c r="J28" s="263"/>
+      <c r="B28" s="259"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="266"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="256"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="263"/>
+      <c r="B29" s="259"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="231"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="266"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="256"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="263"/>
+      <c r="B30" s="259"/>
+      <c r="C30" s="231"/>
+      <c r="D30" s="231"/>
+      <c r="E30" s="231"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="266"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="256"/>
-      <c r="C31" s="217"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="263"/>
+      <c r="B31" s="259"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="231"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="266"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="256"/>
-      <c r="C32" s="217"/>
-      <c r="D32" s="217"/>
-      <c r="E32" s="217"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="263"/>
+      <c r="B32" s="259"/>
+      <c r="C32" s="231"/>
+      <c r="D32" s="231"/>
+      <c r="E32" s="231"/>
+      <c r="F32" s="231"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="266"/>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="256"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="263"/>
+      <c r="B33" s="259"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="231"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="231"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="266"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="256"/>
-      <c r="C34" s="217"/>
-      <c r="D34" s="217"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="217"/>
-      <c r="H34" s="217"/>
-      <c r="I34" s="217"/>
-      <c r="J34" s="263"/>
+      <c r="B34" s="259"/>
+      <c r="C34" s="231"/>
+      <c r="D34" s="231"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="231"/>
+      <c r="G34" s="231"/>
+      <c r="H34" s="231"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="266"/>
     </row>
     <row r="35" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B35" s="257"/>
-      <c r="C35" s="258"/>
-      <c r="D35" s="258"/>
-      <c r="E35" s="258"/>
-      <c r="F35" s="258"/>
-      <c r="G35" s="258"/>
-      <c r="H35" s="258"/>
-      <c r="I35" s="258"/>
-      <c r="J35" s="264"/>
+      <c r="B35" s="260"/>
+      <c r="C35" s="261"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="261"/>
+      <c r="G35" s="261"/>
+      <c r="H35" s="261"/>
+      <c r="I35" s="261"/>
+      <c r="J35" s="267"/>
     </row>
     <row r="37" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="38" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B38" s="246" t="s">
+      <c r="B38" s="251" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="247"/>
-      <c r="D38" s="247"/>
-      <c r="E38" s="247"/>
-      <c r="F38" s="247"/>
-      <c r="G38" s="247"/>
-      <c r="H38" s="247"/>
-      <c r="I38" s="247"/>
-      <c r="J38" s="248"/>
+      <c r="C38" s="252"/>
+      <c r="D38" s="252"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="252"/>
+      <c r="G38" s="252"/>
+      <c r="H38" s="252"/>
+      <c r="I38" s="252"/>
+      <c r="J38" s="253"/>
     </row>
     <row r="39" spans="2:19" ht="189" customHeight="1">
-      <c r="B39" s="265"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="266" t="s">
+      <c r="B39" s="268"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="269" t="s">
         <v>247</v>
       </c>
-      <c r="G39" s="267"/>
-      <c r="H39" s="267"/>
-      <c r="I39" s="267"/>
-      <c r="J39" s="268"/>
+      <c r="G39" s="270"/>
+      <c r="H39" s="270"/>
+      <c r="I39" s="270"/>
+      <c r="J39" s="271"/>
     </row>
     <row r="40" spans="2:19" ht="313.5" customHeight="1" thickBot="1">
-      <c r="B40" s="256"/>
-      <c r="C40" s="217"/>
-      <c r="D40" s="217"/>
-      <c r="E40" s="217"/>
-      <c r="F40" s="253" t="s">
+      <c r="B40" s="259"/>
+      <c r="C40" s="231"/>
+      <c r="D40" s="231"/>
+      <c r="E40" s="231"/>
+      <c r="F40" s="256" t="s">
         <v>248</v>
       </c>
-      <c r="G40" s="254"/>
-      <c r="H40" s="254"/>
-      <c r="I40" s="254"/>
-      <c r="J40" s="255"/>
-      <c r="K40" s="257"/>
-      <c r="L40" s="258"/>
-      <c r="M40" s="258"/>
-      <c r="N40" s="258"/>
-      <c r="O40" s="259" t="s">
+      <c r="G40" s="257"/>
+      <c r="H40" s="257"/>
+      <c r="I40" s="257"/>
+      <c r="J40" s="258"/>
+      <c r="K40" s="260"/>
+      <c r="L40" s="261"/>
+      <c r="M40" s="261"/>
+      <c r="N40" s="261"/>
+      <c r="O40" s="262" t="s">
         <v>249</v>
       </c>
-      <c r="P40" s="260"/>
-      <c r="Q40" s="260"/>
-      <c r="R40" s="260"/>
-      <c r="S40" s="261"/>
+      <c r="P40" s="263"/>
+      <c r="Q40" s="263"/>
+      <c r="R40" s="263"/>
+      <c r="S40" s="264"/>
     </row>
     <row r="41" spans="2:19" ht="267.75" customHeight="1"/>
   </sheetData>

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Sheet1 (6)" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="アイテム獲得画面">各画面仕様!$B$26</definedName>
+    <definedName name="アップグレード画面">各画面仕様!$B$22</definedName>
     <definedName name="ゲームメインの画面">各画面仕様!$B$18</definedName>
     <definedName name="ステージ全景_イメージ">ステージ!$B$6</definedName>
     <definedName name="ダメージ計算式">プレイヤー!$B$74</definedName>
@@ -28,6 +30,7 @@
     <definedName name="プレイヤーの容姿について。">プレイヤー!$B$21</definedName>
     <definedName name="プレイヤーモーションのイメージ表__画像は追記">プレイヤー!$B$58</definedName>
     <definedName name="マッチング待機画面">各画面仕様!$B$10</definedName>
+    <definedName name="モンスターの出現分布">モンスター!$B$21</definedName>
     <definedName name="モンスターの能力値">モンスター!$B$8</definedName>
     <definedName name="リザルト画面">各画面仕様!$B$14</definedName>
     <definedName name="各エリア解説">ステージ!$B$38</definedName>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="364">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -592,10 +595,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VSRPG　仕様書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目次</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -623,10 +622,6 @@
   <si>
     <t>キャラクターのアップグレード内容が知りたい！
 キャラクターのイメージが知りたい、見たい！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こちら、VSRPG(仮)の仕様書です。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1200,10 +1195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最終更新2016/10/10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ラフ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1352,10 +1343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モンスターの能力＆イメージについて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>『アイテム』についてを追記</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1481,10 +1468,6 @@
   </si>
   <si>
     <t>アイテムイメージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最終更新2016/10/12</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1638,13 +1621,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーは『アイテム』を３つまで獲得する事ができます。
-『アイテム』の種類は回復と強化の二種類に分かれ、
-どのアイテムも拠点内で補充をすることができます。
-～アイテムの獲得方法について～</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(本編)武器攻撃、
 (拠点内)アイテムボックスを開く
 (メニュー)決定</t>
@@ -1700,6 +1676,93 @@
   </si>
   <si>
     <t>アイテム獲得画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１群れ全滅後20秒で復活</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復活スパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４匹の群れ×16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１群れ全滅後25秒で復活</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２匹の群れ×2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1群れ全滅後15秒で復活
+大型は30秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現キャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは『アイテム』を３つまで獲得する事ができます。
+『アイテム』の種類は回復と強化の二種類に分かれ、
+どのアイテムも拠点内で補充をすることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターの出現について記入</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新2016/10/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンティングブレイブス　仕様書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちら、ハンティングブレイブスの仕様書です。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2661,7 +2724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2946,6 +3009,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3075,6 +3140,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3114,72 +3194,57 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3252,6 +3317,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3267,9 +3344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3279,15 +3353,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3335,6 +3400,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6196,13 +6264,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>22577</xdr:rowOff>
+      <xdr:rowOff>60677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>5026634</xdr:rowOff>
+      <xdr:rowOff>5064734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6224,7 +6292,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2657476" y="25349552"/>
+          <a:off x="2657476" y="25387652"/>
           <a:ext cx="3505200" cy="5004057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8789,7 +8857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -8800,64 +8868,64 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:15" ht="66" customHeight="1" thickBot="1">
-      <c r="B2" s="142" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="144"/>
+      <c r="B2" s="144" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="146"/>
     </row>
     <row r="3" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="136" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="137" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+    </row>
+    <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B4" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="149"/>
+      <c r="D4" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="135" t="s">
-        <v>300</v>
-      </c>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-    </row>
-    <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B4" s="146" t="s">
+      <c r="E4" s="151"/>
+      <c r="F4" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148" t="s">
+      <c r="G4" s="149"/>
+      <c r="H4" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="150" t="s">
+      <c r="I4" s="154"/>
+      <c r="J4" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="151" t="s">
+      <c r="K4" s="149"/>
+      <c r="L4" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="152"/>
-      <c r="J4" s="150" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="147"/>
-      <c r="L4" s="140" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" s="141"/>
+      <c r="M4" s="143"/>
     </row>
     <row r="5" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B5" s="35"/>
@@ -8875,37 +8943,37 @@
     </row>
     <row r="6" spans="2:15" ht="22.5" customHeight="1">
       <c r="B6" s="93" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="153" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="154"/>
+        <v>255</v>
+      </c>
+      <c r="C6" s="155" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="156"/>
     </row>
     <row r="7" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B7" s="155" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="157"/>
+      <c r="B7" s="157" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="159"/>
     </row>
     <row r="8" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
       <c r="B8" s="94"/>
@@ -8922,36 +8990,36 @@
       <c r="M8" s="95"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B9" s="161" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="163"/>
+      <c r="B9" s="163" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="165"/>
     </row>
     <row r="10" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B10" s="158" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="160"/>
+      <c r="B10" s="160" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="162"/>
     </row>
     <row r="11" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B11" s="86"/>
@@ -8968,290 +9036,290 @@
       <c r="M11" s="89"/>
     </row>
     <row r="12" spans="2:15" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="166" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="167"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="168"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="166"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="145" t="s">
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
       <c r="N13" s="26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="48" customHeight="1">
-      <c r="B14" s="136" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
+      <c r="B14" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
       <c r="N14" s="113">
         <v>42653</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B15" s="130" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="132" t="s">
+      <c r="B15" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
       <c r="N15" s="114">
         <v>42653</v>
       </c>
       <c r="O15" s="98" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B16" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
+      <c r="B16" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="139" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
       <c r="N16" s="113">
         <v>42653</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="42.75" customHeight="1">
-      <c r="B17" s="130" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
+      <c r="B17" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="134" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
       <c r="N17" s="123">
         <v>42655</v>
       </c>
       <c r="O17" s="98" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="45.75" customHeight="1">
-      <c r="B18" s="136" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
+      <c r="B18" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="139" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
       <c r="N18" s="105">
         <v>42655</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="30" customHeight="1">
-      <c r="B19" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="132" t="s">
-        <v>199</v>
-      </c>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
+      <c r="B19" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
       <c r="N19" s="99">
         <v>42649</v>
       </c>
       <c r="O19" s="98" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="30" customHeight="1">
-      <c r="B20" s="136" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="137" t="s">
-        <v>201</v>
-      </c>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
+      <c r="B20" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
       <c r="N20" s="113">
         <v>42653</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="30" customHeight="1">
-      <c r="B21" s="130" t="s">
-        <v>268</v>
-      </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="132" t="s">
-        <v>267</v>
-      </c>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
+      <c r="B21" s="132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="134" t="s">
+        <v>264</v>
+      </c>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
       <c r="N21" s="114">
-        <v>42653</v>
+        <v>42656</v>
       </c>
       <c r="O21" s="98" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B22" s="127" t="s">
-        <v>311</v>
-      </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="129" t="s">
-        <v>257</v>
-      </c>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
+      <c r="B22" s="129" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="131" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
       <c r="N22" s="115">
         <v>42655</v>
       </c>
       <c r="O22" s="97" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="124"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -9315,9 +9383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9327,7 +9395,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
       <c r="A1" s="199" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B1" s="200"/>
       <c r="C1" s="200"/>
@@ -9340,332 +9408,332 @@
       <c r="J1" s="200"/>
       <c r="K1" s="200"/>
       <c r="L1" s="201"/>
-      <c r="M1" s="281" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="282"/>
+      <c r="M1" s="284" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="285"/>
     </row>
     <row r="2" spans="1:14" s="68" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="283" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
+      <c r="A2" s="286" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="253" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="255"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="281" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="283"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="281" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="282"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="282"/>
+      <c r="I7" s="283"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="281" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="253"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="278" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="279"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="279"/>
-      <c r="I6" s="280"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="278" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="280"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="278" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="279"/>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="279"/>
-      <c r="I8" s="280"/>
+      <c r="C8" s="282"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="282"/>
+      <c r="I8" s="283"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="278"/>
-      <c r="C9" s="279"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="280"/>
+      <c r="B9" s="281"/>
+      <c r="C9" s="282"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="282"/>
+      <c r="G9" s="282"/>
+      <c r="H9" s="282"/>
+      <c r="I9" s="283"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="278"/>
-      <c r="C10" s="279"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="279"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="280"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="282"/>
+      <c r="D10" s="282"/>
+      <c r="E10" s="282"/>
+      <c r="F10" s="282"/>
+      <c r="G10" s="282"/>
+      <c r="H10" s="282"/>
+      <c r="I10" s="283"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="278"/>
-      <c r="C11" s="279"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="279"/>
-      <c r="G11" s="279"/>
-      <c r="H11" s="279"/>
-      <c r="I11" s="280"/>
+      <c r="B11" s="281"/>
+      <c r="C11" s="282"/>
+      <c r="D11" s="282"/>
+      <c r="E11" s="282"/>
+      <c r="F11" s="282"/>
+      <c r="G11" s="282"/>
+      <c r="H11" s="282"/>
+      <c r="I11" s="283"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="278"/>
-      <c r="C12" s="279"/>
-      <c r="D12" s="279"/>
-      <c r="E12" s="279"/>
-      <c r="F12" s="279"/>
-      <c r="G12" s="279"/>
-      <c r="H12" s="279"/>
-      <c r="I12" s="280"/>
+      <c r="B12" s="281"/>
+      <c r="C12" s="282"/>
+      <c r="D12" s="282"/>
+      <c r="E12" s="282"/>
+      <c r="F12" s="282"/>
+      <c r="G12" s="282"/>
+      <c r="H12" s="282"/>
+      <c r="I12" s="283"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="278"/>
-      <c r="C13" s="279"/>
-      <c r="D13" s="279"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="279"/>
-      <c r="H13" s="279"/>
-      <c r="I13" s="280"/>
+      <c r="B13" s="281"/>
+      <c r="C13" s="282"/>
+      <c r="D13" s="282"/>
+      <c r="E13" s="282"/>
+      <c r="F13" s="282"/>
+      <c r="G13" s="282"/>
+      <c r="H13" s="282"/>
+      <c r="I13" s="283"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="278"/>
-      <c r="C14" s="279"/>
-      <c r="D14" s="279"/>
-      <c r="E14" s="279"/>
-      <c r="F14" s="279"/>
-      <c r="G14" s="279"/>
-      <c r="H14" s="279"/>
-      <c r="I14" s="280"/>
+      <c r="B14" s="281"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="282"/>
+      <c r="E14" s="282"/>
+      <c r="F14" s="282"/>
+      <c r="G14" s="282"/>
+      <c r="H14" s="282"/>
+      <c r="I14" s="283"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="278"/>
-      <c r="C15" s="279"/>
-      <c r="D15" s="279"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="280"/>
+      <c r="B15" s="281"/>
+      <c r="C15" s="282"/>
+      <c r="D15" s="282"/>
+      <c r="E15" s="282"/>
+      <c r="F15" s="282"/>
+      <c r="G15" s="282"/>
+      <c r="H15" s="282"/>
+      <c r="I15" s="283"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="278"/>
-      <c r="C16" s="279"/>
-      <c r="D16" s="279"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="280"/>
+      <c r="B16" s="281"/>
+      <c r="C16" s="282"/>
+      <c r="D16" s="282"/>
+      <c r="E16" s="282"/>
+      <c r="F16" s="282"/>
+      <c r="G16" s="282"/>
+      <c r="H16" s="282"/>
+      <c r="I16" s="283"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="278"/>
-      <c r="C17" s="279"/>
-      <c r="D17" s="279"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="279"/>
-      <c r="I17" s="280"/>
+      <c r="B17" s="281"/>
+      <c r="C17" s="282"/>
+      <c r="D17" s="282"/>
+      <c r="E17" s="282"/>
+      <c r="F17" s="282"/>
+      <c r="G17" s="282"/>
+      <c r="H17" s="282"/>
+      <c r="I17" s="283"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" thickBot="1"/>
     <row r="20" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B20" s="251" t="s">
-        <v>308</v>
-      </c>
-      <c r="C20" s="252"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="253"/>
+      <c r="B20" s="253" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="254"/>
+      <c r="D20" s="254"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="255"/>
     </row>
     <row r="21" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B21" s="274" t="s">
-        <v>304</v>
-      </c>
-      <c r="C21" s="275"/>
-      <c r="D21" s="275"/>
-      <c r="E21" s="275"/>
-      <c r="F21" s="275" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" s="275"/>
-      <c r="H21" s="275"/>
-      <c r="I21" s="275"/>
-      <c r="J21" s="275"/>
+      <c r="B21" s="277" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="278"/>
+      <c r="D21" s="278"/>
+      <c r="E21" s="278"/>
+      <c r="F21" s="278" t="s">
+        <v>300</v>
+      </c>
+      <c r="G21" s="278"/>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="278"/>
       <c r="K21" s="116" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="27" customHeight="1">
-      <c r="B22" s="276" t="s">
-        <v>307</v>
-      </c>
-      <c r="C22" s="277"/>
-      <c r="D22" s="277"/>
-      <c r="E22" s="277"/>
-      <c r="F22" s="277"/>
-      <c r="G22" s="277"/>
-      <c r="H22" s="277"/>
-      <c r="I22" s="277"/>
-      <c r="J22" s="277"/>
+      <c r="B22" s="279" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="280"/>
+      <c r="D22" s="280"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="280"/>
+      <c r="G22" s="280"/>
+      <c r="H22" s="280"/>
+      <c r="I22" s="280"/>
+      <c r="J22" s="280"/>
       <c r="K22" s="117">
         <v>42655</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="47.25" customHeight="1">
-      <c r="B23" s="273" t="s">
-        <v>309</v>
-      </c>
-      <c r="C23" s="272"/>
-      <c r="D23" s="272"/>
-      <c r="E23" s="272"/>
-      <c r="F23" s="272"/>
-      <c r="G23" s="272"/>
-      <c r="H23" s="272"/>
-      <c r="I23" s="272"/>
-      <c r="J23" s="272"/>
+      <c r="B23" s="276" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="275"/>
+      <c r="D23" s="275"/>
+      <c r="E23" s="275"/>
+      <c r="F23" s="275"/>
+      <c r="G23" s="275"/>
+      <c r="H23" s="275"/>
+      <c r="I23" s="275"/>
+      <c r="J23" s="275"/>
       <c r="K23" s="96">
         <v>42655</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="272"/>
-      <c r="C24" s="272"/>
-      <c r="D24" s="272"/>
-      <c r="E24" s="272"/>
-      <c r="F24" s="272"/>
-      <c r="G24" s="272"/>
-      <c r="H24" s="272"/>
-      <c r="I24" s="272"/>
-      <c r="J24" s="272"/>
+      <c r="B24" s="275"/>
+      <c r="C24" s="275"/>
+      <c r="D24" s="275"/>
+      <c r="E24" s="275"/>
+      <c r="F24" s="275"/>
+      <c r="G24" s="275"/>
+      <c r="H24" s="275"/>
+      <c r="I24" s="275"/>
+      <c r="J24" s="275"/>
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="272"/>
-      <c r="C25" s="272"/>
-      <c r="D25" s="272"/>
-      <c r="E25" s="272"/>
-      <c r="F25" s="272"/>
-      <c r="G25" s="272"/>
-      <c r="H25" s="272"/>
-      <c r="I25" s="272"/>
-      <c r="J25" s="272"/>
+      <c r="B25" s="275"/>
+      <c r="C25" s="275"/>
+      <c r="D25" s="275"/>
+      <c r="E25" s="275"/>
+      <c r="F25" s="275"/>
+      <c r="G25" s="275"/>
+      <c r="H25" s="275"/>
+      <c r="I25" s="275"/>
+      <c r="J25" s="275"/>
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="272"/>
-      <c r="C26" s="272"/>
-      <c r="D26" s="272"/>
-      <c r="E26" s="272"/>
-      <c r="F26" s="272"/>
-      <c r="G26" s="272"/>
-      <c r="H26" s="272"/>
-      <c r="I26" s="272"/>
-      <c r="J26" s="272"/>
+      <c r="B26" s="275"/>
+      <c r="C26" s="275"/>
+      <c r="D26" s="275"/>
+      <c r="E26" s="275"/>
+      <c r="F26" s="275"/>
+      <c r="G26" s="275"/>
+      <c r="H26" s="275"/>
+      <c r="I26" s="275"/>
+      <c r="J26" s="275"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="272"/>
-      <c r="C27" s="272"/>
-      <c r="D27" s="272"/>
-      <c r="E27" s="272"/>
-      <c r="F27" s="272"/>
-      <c r="G27" s="272"/>
-      <c r="H27" s="272"/>
-      <c r="I27" s="272"/>
-      <c r="J27" s="272"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="275"/>
+      <c r="D27" s="275"/>
+      <c r="E27" s="275"/>
+      <c r="F27" s="275"/>
+      <c r="G27" s="275"/>
+      <c r="H27" s="275"/>
+      <c r="I27" s="275"/>
+      <c r="J27" s="275"/>
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="272"/>
-      <c r="C28" s="272"/>
-      <c r="D28" s="272"/>
-      <c r="E28" s="272"/>
-      <c r="F28" s="272"/>
-      <c r="G28" s="272"/>
-      <c r="H28" s="272"/>
-      <c r="I28" s="272"/>
-      <c r="J28" s="272"/>
+      <c r="B28" s="275"/>
+      <c r="C28" s="275"/>
+      <c r="D28" s="275"/>
+      <c r="E28" s="275"/>
+      <c r="F28" s="275"/>
+      <c r="G28" s="275"/>
+      <c r="H28" s="275"/>
+      <c r="I28" s="275"/>
+      <c r="J28" s="275"/>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="272"/>
-      <c r="C29" s="272"/>
-      <c r="D29" s="272"/>
-      <c r="E29" s="272"/>
-      <c r="F29" s="272"/>
-      <c r="G29" s="272"/>
-      <c r="H29" s="272"/>
-      <c r="I29" s="272"/>
-      <c r="J29" s="272"/>
+      <c r="B29" s="275"/>
+      <c r="C29" s="275"/>
+      <c r="D29" s="275"/>
+      <c r="E29" s="275"/>
+      <c r="F29" s="275"/>
+      <c r="G29" s="275"/>
+      <c r="H29" s="275"/>
+      <c r="I29" s="275"/>
+      <c r="J29" s="275"/>
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="272"/>
-      <c r="C30" s="272"/>
-      <c r="D30" s="272"/>
-      <c r="E30" s="272"/>
-      <c r="F30" s="272"/>
-      <c r="G30" s="272"/>
-      <c r="H30" s="272"/>
-      <c r="I30" s="272"/>
-      <c r="J30" s="272"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="275"/>
+      <c r="I30" s="275"/>
+      <c r="J30" s="275"/>
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="272"/>
-      <c r="C31" s="272"/>
-      <c r="D31" s="272"/>
-      <c r="E31" s="272"/>
-      <c r="F31" s="272"/>
-      <c r="G31" s="272"/>
-      <c r="H31" s="272"/>
-      <c r="I31" s="272"/>
-      <c r="J31" s="272"/>
+      <c r="B31" s="275"/>
+      <c r="C31" s="275"/>
+      <c r="D31" s="275"/>
+      <c r="E31" s="275"/>
+      <c r="F31" s="275"/>
+      <c r="G31" s="275"/>
+      <c r="H31" s="275"/>
+      <c r="I31" s="275"/>
+      <c r="J31" s="275"/>
       <c r="K31" s="18"/>
     </row>
   </sheetData>
@@ -9732,7 +9800,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
       <c r="A1" s="199" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B1" s="200"/>
       <c r="C1" s="200"/>
@@ -9745,10 +9813,10 @@
       <c r="J1" s="200"/>
       <c r="K1" s="200"/>
       <c r="L1" s="201"/>
-      <c r="M1" s="284" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="284"/>
+      <c r="M1" s="287" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="287"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9769,15 +9837,15 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
       <c r="A1" s="199" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="200"/>
       <c r="C1" s="200"/>
@@ -9791,22 +9859,22 @@
       <c r="K1" s="200"/>
       <c r="L1" s="201"/>
       <c r="M1" s="187" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N1" s="188"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="B5" s="53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="189" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="189"/>
       <c r="E5" s="189"/>
@@ -9820,7 +9888,7 @@
     </row>
     <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1">
       <c r="B6" s="191" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="192"/>
       <c r="D6" s="192"/>
@@ -9848,35 +9916,35 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="202" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
+    </row>
+    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
+      <c r="B9" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="180" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="181"/>
-    </row>
-    <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B9" s="184" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="186"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
       <c r="B10" s="49"/>
@@ -9893,10 +9961,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="189"/>
       <c r="E11" s="189"/>
@@ -9910,7 +9978,7 @@
     </row>
     <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
       <c r="B12" s="191" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="192"/>
       <c r="D12" s="192"/>
@@ -9925,105 +9993,105 @@
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="197" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="198"/>
       <c r="D13" s="198"/>
       <c r="E13" s="198"/>
-      <c r="F13" s="174" t="s">
+      <c r="F13" s="181" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="182"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="172" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="183" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="184"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="172" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="175"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="182" t="s">
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="184"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="172" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="176" t="s">
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="183" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="177"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="182" t="s">
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="184"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="172" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="176" t="s">
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="177"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="182" t="s">
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="184"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.25" thickBot="1">
+      <c r="B18" s="179" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="176" t="s">
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="185" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="177"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="182" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="176" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="177"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="172" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="178" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="179"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="186"/>
     </row>
     <row r="19" spans="2:12" ht="14.25" thickBot="1">
       <c r="B19" s="41"/>
@@ -10040,35 +10108,35 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="180" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="181"/>
+        <v>149</v>
+      </c>
+      <c r="C20" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="203"/>
     </row>
     <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1">
-      <c r="B21" s="184" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="186"/>
+      <c r="B21" s="169" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="171"/>
     </row>
     <row r="22" spans="2:12" ht="14.25" thickBot="1">
       <c r="B22" s="49"/>
@@ -10085,10 +10153,10 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="189" t="s">
         <v>156</v>
-      </c>
-      <c r="C23" s="189" t="s">
-        <v>158</v>
       </c>
       <c r="D23" s="189"/>
       <c r="E23" s="189"/>
@@ -10102,7 +10170,7 @@
     </row>
     <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1">
       <c r="B24" s="191" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" s="192"/>
       <c r="D24" s="192"/>
@@ -10118,24 +10186,24 @@
     <row r="25" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="26" spans="2:12">
       <c r="B26" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" s="167" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="168"/>
-    </row>
-    <row r="27" spans="2:12" ht="254.25" customHeight="1" thickBot="1">
+        <v>195</v>
+      </c>
+      <c r="C26" s="174" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="175"/>
+    </row>
+    <row r="27" spans="2:12" ht="93" customHeight="1" thickBot="1">
       <c r="B27" s="194" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="C27" s="195"/>
       <c r="D27" s="195"/>
@@ -10151,68 +10219,68 @@
     <row r="28" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="29" spans="2:12">
       <c r="B29" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="C29" s="167" t="s">
-        <v>333</v>
-      </c>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="168"/>
+        <v>327</v>
+      </c>
+      <c r="C29" s="174" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="175"/>
     </row>
     <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1">
-      <c r="B30" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="171"/>
+      <c r="B30" s="176" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="178"/>
     </row>
     <row r="31" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="32" spans="2:12">
       <c r="B32" s="78" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="167" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="168"/>
+        <v>206</v>
+      </c>
+      <c r="C32" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="175"/>
     </row>
     <row r="33" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B33" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="171"/>
+      <c r="B33" s="176" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -10268,26 +10336,26 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="202" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="203"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="204" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="205"/>
       <c r="O1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="25.5">
@@ -10340,8 +10408,8 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27:L27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10351,7 +10419,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
       <c r="A1" s="199" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B1" s="200"/>
       <c r="C1" s="200"/>
@@ -10365,302 +10433,302 @@
       <c r="K1" s="200"/>
       <c r="L1" s="201"/>
       <c r="M1" s="187" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N1" s="188"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1">
       <c r="B3" s="71" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="E4" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G4" t="s">
-        <v>346</v>
+      <c r="F4" s="125" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" s="125" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B6" s="213" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="214"/>
-      <c r="L6" s="215"/>
+      <c r="B6" s="215" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="217"/>
     </row>
     <row r="7" spans="1:14" ht="296.25" customHeight="1">
-      <c r="B7" s="204"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="205"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="205"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="206"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="208"/>
     </row>
     <row r="8" spans="1:14" ht="78.75" customHeight="1" thickBot="1">
-      <c r="B8" s="207" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="209"/>
+      <c r="B8" s="209" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="210"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
+      <c r="J8" s="210"/>
+      <c r="K8" s="210"/>
+      <c r="L8" s="211"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B10" s="213" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="215"/>
+      <c r="B10" s="215" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="216"/>
+      <c r="L10" s="217"/>
     </row>
     <row r="11" spans="1:14" ht="331.5" customHeight="1">
-      <c r="B11" s="210"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="211"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="212"/>
+      <c r="B11" s="212"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="214"/>
       <c r="M11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1">
-      <c r="B12" s="207" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="208"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="209"/>
+      <c r="B12" s="209" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="211"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="14" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B14" s="213" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="214"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="215"/>
+      <c r="B14" s="215" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="216"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="217"/>
     </row>
     <row r="15" spans="1:14" ht="329.25" customHeight="1">
-      <c r="B15" s="210"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="212"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="214"/>
     </row>
     <row r="16" spans="1:14" ht="144.75" customHeight="1" thickBot="1">
-      <c r="B16" s="207" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="209"/>
+      <c r="B16" s="209" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="210"/>
+      <c r="K16" s="210"/>
+      <c r="L16" s="211"/>
     </row>
     <row r="17" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="213" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="215"/>
+      <c r="B18" s="215" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="216"/>
+      <c r="L18" s="217"/>
     </row>
     <row r="19" spans="2:12" ht="329.25" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="206"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="207"/>
+      <c r="L19" s="208"/>
     </row>
     <row r="20" spans="2:12" ht="143.25" customHeight="1" thickBot="1">
-      <c r="B20" s="207" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="208"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="208"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="208"/>
-      <c r="K20" s="208"/>
-      <c r="L20" s="209"/>
+      <c r="B20" s="209" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="211"/>
     </row>
     <row r="21" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="22" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B22" s="213" t="s">
-        <v>347</v>
-      </c>
-      <c r="C22" s="214"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="214"/>
-      <c r="K22" s="214"/>
-      <c r="L22" s="215"/>
+      <c r="B22" s="215" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" s="216"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="216"/>
+      <c r="L22" s="217"/>
     </row>
     <row r="23" spans="2:12" ht="409.5" customHeight="1">
-      <c r="B23" s="210"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="212"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="214"/>
     </row>
     <row r="24" spans="2:12" ht="177" customHeight="1" thickBot="1">
-      <c r="B24" s="207"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="209"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="210"/>
+      <c r="L24" s="211"/>
     </row>
     <row r="25" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="26" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B26" s="213" t="s">
-        <v>348</v>
-      </c>
-      <c r="C26" s="214"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="214"/>
-      <c r="K26" s="214"/>
-      <c r="L26" s="215"/>
+      <c r="B26" s="215" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="216"/>
+      <c r="L26" s="217"/>
     </row>
     <row r="27" spans="2:12" ht="283.5" customHeight="1">
-      <c r="B27" s="210"/>
-      <c r="C27" s="211"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="211"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="212"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="214"/>
     </row>
     <row r="28" spans="2:12" ht="186.75" customHeight="1" thickBot="1">
-      <c r="B28" s="207"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="208"/>
-      <c r="K28" s="208"/>
-      <c r="L28" s="209"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="210"/>
+      <c r="K28" s="210"/>
+      <c r="L28" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -10692,6 +10760,8 @@
     <hyperlink ref="C4" location="マッチング待機画面" display="待機画面"/>
     <hyperlink ref="D4" location="リザルト画面" display="リザルト"/>
     <hyperlink ref="E4" location="ゲームメインの画面" display="メインUI"/>
+    <hyperlink ref="F4" location="アップグレード画面" display="UPグレード"/>
+    <hyperlink ref="G4" location="アイテム獲得画面" display="アイテム"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -10703,9 +10773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10722,7 +10792,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
       <c r="A1" s="199" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="200"/>
       <c r="C1" s="200"/>
@@ -10735,12 +10805,12 @@
       <c r="J1" s="200"/>
       <c r="K1" s="200"/>
       <c r="L1" s="201"/>
-      <c r="M1" s="202" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="203"/>
+      <c r="M1" s="204" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="205"/>
       <c r="O1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
@@ -10762,7 +10832,7 @@
     <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
       <c r="B3" s="62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -10781,19 +10851,19 @@
     <row r="4" spans="1:15" ht="24.75" customHeight="1">
       <c r="A4" s="48"/>
       <c r="B4" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>161</v>
-      </c>
       <c r="D4" s="76" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E4" s="108" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F4" s="122" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="43"/>
@@ -10838,8 +10908,8 @@
     </row>
     <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="221" t="s">
-        <v>138</v>
+      <c r="B7" s="223" t="s">
+        <v>136</v>
       </c>
       <c r="C7" s="200"/>
       <c r="D7" s="200"/>
@@ -10972,7 +11042,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>53</v>
@@ -11030,7 +11100,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11055,196 +11125,196 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="21" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B21" s="218" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="220"/>
+      <c r="B21" s="220" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="222"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B23" s="213" t="s">
+      <c r="B23" s="215" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="214"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="213" t="s">
+      <c r="C23" s="216"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="215" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="214"/>
-      <c r="G23" s="215"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="217"/>
     </row>
     <row r="24" spans="1:7" ht="100.5" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="216" t="s">
+      <c r="C24" s="218" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="217"/>
+      <c r="D24" s="219"/>
       <c r="E24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="216" t="s">
+      <c r="F24" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="217"/>
+      <c r="G24" s="219"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B25" s="213" t="s">
+      <c r="B25" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="214"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="213" t="s">
+      <c r="C25" s="216"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="214"/>
-      <c r="G25" s="215"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="217"/>
     </row>
     <row r="26" spans="1:7" ht="266.25" customHeight="1" thickBot="1">
-      <c r="B26" s="213"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="215"/>
+      <c r="B26" s="215"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="217"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="28" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B28" s="213" t="s">
+      <c r="B28" s="215" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="213" t="s">
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="215" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="214"/>
-      <c r="G28" s="215"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="217"/>
     </row>
     <row r="29" spans="1:7" ht="134.25" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="216" t="s">
+      <c r="C29" s="218" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="217"/>
+      <c r="D29" s="219"/>
       <c r="E29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="216" t="s">
+      <c r="F29" s="218" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="217"/>
+      <c r="G29" s="219"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B30" s="213" t="s">
+      <c r="B30" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="214"/>
-      <c r="D30" s="215"/>
-      <c r="E30" s="213" t="s">
+      <c r="C30" s="216"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="214"/>
-      <c r="G30" s="215"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="217"/>
     </row>
     <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1">
-      <c r="B31" s="213"/>
-      <c r="C31" s="214"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="215"/>
+      <c r="B31" s="215"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="217"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="33" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="215" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="214"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="213" t="s">
+      <c r="C33" s="216"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="215" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="214"/>
-      <c r="G33" s="215"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="217"/>
     </row>
     <row r="34" spans="1:7" ht="164.25" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="216" t="s">
+      <c r="C34" s="218" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="217"/>
+      <c r="D34" s="219"/>
       <c r="E34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="216" t="s">
+      <c r="F34" s="218" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="217"/>
+      <c r="G34" s="219"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B35" s="213" t="s">
+      <c r="B35" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="213" t="s">
+      <c r="C35" s="216"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="214"/>
-      <c r="G35" s="215"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="217"/>
     </row>
     <row r="36" spans="1:7" ht="294" customHeight="1" thickBot="1">
-      <c r="B36" s="213"/>
-      <c r="C36" s="214"/>
-      <c r="D36" s="215"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="215"/>
+      <c r="B36" s="215"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="217"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="38" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B38" s="213" t="s">
+      <c r="B38" s="215" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="215"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="217"/>
     </row>
     <row r="39" spans="1:7" ht="126.75" customHeight="1" thickBot="1">
       <c r="B39" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="216" t="s">
+      <c r="C39" s="218" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="217"/>
+      <c r="D39" s="219"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B40" s="213" t="s">
+      <c r="B40" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="215"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="217"/>
     </row>
     <row r="41" spans="1:7" ht="267" customHeight="1" thickBot="1">
-      <c r="B41" s="213"/>
-      <c r="C41" s="214"/>
-      <c r="D41" s="215"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="217"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="46" spans="1:7" ht="21.75" thickBot="1">
       <c r="A46" s="91"/>
-      <c r="B46" s="221" t="s">
-        <v>210</v>
+      <c r="B46" s="223" t="s">
+        <v>208</v>
       </c>
       <c r="C46" s="200"/>
       <c r="D46" s="200"/>
@@ -11253,15 +11323,15 @@
       <c r="G46" s="201"/>
     </row>
     <row r="47" spans="1:7" ht="21.75" thickBot="1">
-      <c r="A47" s="222" t="s">
-        <v>223</v>
-      </c>
-      <c r="B47" s="223"/>
-      <c r="C47" s="223"/>
-      <c r="D47" s="223"/>
-      <c r="E47" s="223"/>
-      <c r="F47" s="223"/>
-      <c r="G47" s="224"/>
+      <c r="A47" s="224" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="225"/>
+      <c r="C47" s="225"/>
+      <c r="D47" s="225"/>
+      <c r="E47" s="225"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="226"/>
     </row>
     <row r="48" spans="1:7" ht="14.25" thickBot="1">
       <c r="A48" s="12"/>
@@ -11289,22 +11359,22 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C49" s="85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D49" s="85" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E49" s="85" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F49" s="85" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="40.5">
@@ -11312,22 +11382,22 @@
         <v>8</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E50" s="81" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F50" s="81" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="40.5">
@@ -11335,22 +11405,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D51" s="81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F51" s="81" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="40.5">
@@ -11358,22 +11428,22 @@
         <v>10</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E52" s="81" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F52" s="81" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="27">
@@ -11381,22 +11451,22 @@
         <v>11</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D53" s="81" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E53" s="81" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F53" s="81" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="41.25" thickBot="1">
@@ -11404,28 +11474,28 @@
         <v>12</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E54" s="82" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F54" s="82" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="58" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B58" s="221" t="s">
-        <v>296</v>
+      <c r="B58" s="223" t="s">
+        <v>292</v>
       </c>
       <c r="C58" s="200"/>
       <c r="D58" s="200"/>
@@ -11434,127 +11504,127 @@
       <c r="G58" s="201"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="B59" s="211" t="s">
-        <v>292</v>
-      </c>
-      <c r="C59" s="211"/>
-      <c r="D59" s="211" t="s">
-        <v>293</v>
-      </c>
-      <c r="E59" s="211"/>
-      <c r="F59" s="211"/>
-      <c r="G59" s="211"/>
+      <c r="B59" s="213" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" s="213"/>
+      <c r="D59" s="213" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" s="213"/>
+      <c r="F59" s="213"/>
+      <c r="G59" s="213"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="B60" s="225" t="s">
-        <v>294</v>
-      </c>
-      <c r="C60" s="225"/>
-      <c r="D60" s="225" t="s">
-        <v>295</v>
-      </c>
-      <c r="E60" s="225"/>
-      <c r="F60" s="225"/>
-      <c r="G60" s="225"/>
+      <c r="B60" s="227" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" s="227"/>
+      <c r="D60" s="227" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" s="227"/>
+      <c r="F60" s="227"/>
+      <c r="G60" s="227"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="B61" s="225"/>
-      <c r="C61" s="225"/>
-      <c r="D61" s="225"/>
-      <c r="E61" s="225"/>
-      <c r="F61" s="225"/>
-      <c r="G61" s="225"/>
+      <c r="B61" s="227"/>
+      <c r="C61" s="227"/>
+      <c r="D61" s="227"/>
+      <c r="E61" s="227"/>
+      <c r="F61" s="227"/>
+      <c r="G61" s="227"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="B62" s="225"/>
-      <c r="C62" s="225"/>
-      <c r="D62" s="225"/>
-      <c r="E62" s="225"/>
-      <c r="F62" s="225"/>
-      <c r="G62" s="225"/>
+      <c r="B62" s="227"/>
+      <c r="C62" s="227"/>
+      <c r="D62" s="227"/>
+      <c r="E62" s="227"/>
+      <c r="F62" s="227"/>
+      <c r="G62" s="227"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="B63" s="225"/>
-      <c r="C63" s="225"/>
-      <c r="D63" s="225"/>
-      <c r="E63" s="225"/>
-      <c r="F63" s="225"/>
-      <c r="G63" s="225"/>
+      <c r="B63" s="227"/>
+      <c r="C63" s="227"/>
+      <c r="D63" s="227"/>
+      <c r="E63" s="227"/>
+      <c r="F63" s="227"/>
+      <c r="G63" s="227"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="B64" s="225"/>
-      <c r="C64" s="225"/>
-      <c r="D64" s="225"/>
-      <c r="E64" s="225"/>
-      <c r="F64" s="225"/>
-      <c r="G64" s="225"/>
+      <c r="B64" s="227"/>
+      <c r="C64" s="227"/>
+      <c r="D64" s="227"/>
+      <c r="E64" s="227"/>
+      <c r="F64" s="227"/>
+      <c r="G64" s="227"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="225"/>
-      <c r="C65" s="225"/>
-      <c r="D65" s="225"/>
-      <c r="E65" s="225"/>
-      <c r="F65" s="225"/>
-      <c r="G65" s="225"/>
+      <c r="B65" s="227"/>
+      <c r="C65" s="227"/>
+      <c r="D65" s="227"/>
+      <c r="E65" s="227"/>
+      <c r="F65" s="227"/>
+      <c r="G65" s="227"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="225"/>
-      <c r="C66" s="225"/>
-      <c r="D66" s="225"/>
-      <c r="E66" s="225"/>
-      <c r="F66" s="225"/>
-      <c r="G66" s="225"/>
+      <c r="B66" s="227"/>
+      <c r="C66" s="227"/>
+      <c r="D66" s="227"/>
+      <c r="E66" s="227"/>
+      <c r="F66" s="227"/>
+      <c r="G66" s="227"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="225"/>
-      <c r="C67" s="225"/>
-      <c r="D67" s="225"/>
-      <c r="E67" s="225"/>
-      <c r="F67" s="225"/>
-      <c r="G67" s="225"/>
+      <c r="B67" s="227"/>
+      <c r="C67" s="227"/>
+      <c r="D67" s="227"/>
+      <c r="E67" s="227"/>
+      <c r="F67" s="227"/>
+      <c r="G67" s="227"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="225"/>
-      <c r="C68" s="225"/>
-      <c r="D68" s="225"/>
-      <c r="E68" s="225"/>
-      <c r="F68" s="225"/>
-      <c r="G68" s="225"/>
+      <c r="B68" s="227"/>
+      <c r="C68" s="227"/>
+      <c r="D68" s="227"/>
+      <c r="E68" s="227"/>
+      <c r="F68" s="227"/>
+      <c r="G68" s="227"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="225"/>
-      <c r="C69" s="225"/>
-      <c r="D69" s="225"/>
-      <c r="E69" s="225"/>
-      <c r="F69" s="225"/>
-      <c r="G69" s="225"/>
+      <c r="B69" s="227"/>
+      <c r="C69" s="227"/>
+      <c r="D69" s="227"/>
+      <c r="E69" s="227"/>
+      <c r="F69" s="227"/>
+      <c r="G69" s="227"/>
     </row>
     <row r="74" spans="2:7" ht="35.25" customHeight="1">
-      <c r="B74" s="226" t="s">
-        <v>315</v>
-      </c>
-      <c r="C74" s="227"/>
-      <c r="D74" s="227"/>
-      <c r="E74" s="227"/>
-      <c r="F74" s="227"/>
-      <c r="G74" s="227"/>
+      <c r="B74" s="232" t="s">
+        <v>310</v>
+      </c>
+      <c r="C74" s="233"/>
+      <c r="D74" s="233"/>
+      <c r="E74" s="233"/>
+      <c r="F74" s="233"/>
+      <c r="G74" s="233"/>
     </row>
     <row r="75" spans="2:7" ht="17.25">
-      <c r="B75" s="232" t="s">
-        <v>319</v>
-      </c>
-      <c r="C75" s="233"/>
-      <c r="D75" s="233"/>
-      <c r="E75" s="233"/>
-      <c r="F75" s="233"/>
-      <c r="G75" s="234"/>
+      <c r="B75" s="237" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="238"/>
+      <c r="D75" s="238"/>
+      <c r="E75" s="238"/>
+      <c r="F75" s="238"/>
+      <c r="G75" s="239"/>
     </row>
     <row r="76" spans="2:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="B76" s="118" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C76" s="119" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
@@ -11570,61 +11640,61 @@
       <c r="G77" s="111"/>
     </row>
     <row r="78" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B78" s="228" t="s">
-        <v>316</v>
-      </c>
-      <c r="C78" s="229"/>
-      <c r="D78" s="229"/>
-      <c r="E78" s="229" t="s">
-        <v>317</v>
-      </c>
-      <c r="F78" s="229"/>
-      <c r="G78" s="230"/>
+      <c r="B78" s="234" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" s="235"/>
+      <c r="D78" s="235"/>
+      <c r="E78" s="235" t="s">
+        <v>312</v>
+      </c>
+      <c r="F78" s="235"/>
+      <c r="G78" s="236"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="145" t="s">
-        <v>318</v>
-      </c>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
-      <c r="E79" s="145" t="s">
-        <v>325</v>
-      </c>
-      <c r="F79" s="145"/>
-      <c r="G79" s="145"/>
+      <c r="B79" s="147" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" s="147"/>
+      <c r="D79" s="147"/>
+      <c r="E79" s="147" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" s="147"/>
+      <c r="G79" s="147"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="231" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C80" s="231"/>
       <c r="D80" s="231"/>
       <c r="E80" s="231" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F80" s="231"/>
       <c r="G80" s="231"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="231" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C81" s="231"/>
       <c r="D81" s="231"/>
       <c r="E81" s="231" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F81" s="231"/>
       <c r="G81" s="231"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="231" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C82" s="231"/>
       <c r="D82" s="231"/>
       <c r="E82" s="231" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F82" s="231"/>
       <c r="G82" s="231"/>
@@ -11638,20 +11708,20 @@
       <c r="G83" s="231"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="235"/>
-      <c r="C84" s="236"/>
-      <c r="D84" s="237"/>
-      <c r="E84" s="235"/>
-      <c r="F84" s="236"/>
-      <c r="G84" s="237"/>
+      <c r="B84" s="228"/>
+      <c r="C84" s="229"/>
+      <c r="D84" s="230"/>
+      <c r="E84" s="228"/>
+      <c r="F84" s="229"/>
+      <c r="G84" s="230"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="235"/>
-      <c r="C85" s="236"/>
-      <c r="D85" s="237"/>
-      <c r="E85" s="235"/>
-      <c r="F85" s="236"/>
-      <c r="G85" s="237"/>
+      <c r="B85" s="228"/>
+      <c r="C85" s="229"/>
+      <c r="D85" s="230"/>
+      <c r="E85" s="228"/>
+      <c r="F85" s="229"/>
+      <c r="G85" s="230"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="231"/>
@@ -11662,36 +11732,36 @@
       <c r="G86" s="231"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="225"/>
-      <c r="C87" s="225"/>
-      <c r="D87" s="225"/>
-      <c r="E87" s="225"/>
-      <c r="F87" s="225"/>
-      <c r="G87" s="225"/>
+      <c r="B87" s="227"/>
+      <c r="C87" s="227"/>
+      <c r="D87" s="227"/>
+      <c r="E87" s="227"/>
+      <c r="F87" s="227"/>
+      <c r="G87" s="227"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="225"/>
-      <c r="C88" s="225"/>
-      <c r="D88" s="225"/>
-      <c r="E88" s="225"/>
-      <c r="F88" s="225"/>
-      <c r="G88" s="225"/>
+      <c r="B88" s="227"/>
+      <c r="C88" s="227"/>
+      <c r="D88" s="227"/>
+      <c r="E88" s="227"/>
+      <c r="F88" s="227"/>
+      <c r="G88" s="227"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="225"/>
-      <c r="C89" s="225"/>
-      <c r="D89" s="225"/>
-      <c r="E89" s="225"/>
-      <c r="F89" s="225"/>
-      <c r="G89" s="225"/>
+      <c r="B89" s="227"/>
+      <c r="C89" s="227"/>
+      <c r="D89" s="227"/>
+      <c r="E89" s="227"/>
+      <c r="F89" s="227"/>
+      <c r="G89" s="227"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="225"/>
-      <c r="C90" s="225"/>
-      <c r="D90" s="225"/>
-      <c r="E90" s="225"/>
-      <c r="F90" s="225"/>
-      <c r="G90" s="225"/>
+      <c r="B90" s="227"/>
+      <c r="C90" s="227"/>
+      <c r="D90" s="227"/>
+      <c r="E90" s="227"/>
+      <c r="F90" s="227"/>
+      <c r="G90" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -11802,7 +11872,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11829,11 +11899,11 @@
       <c r="K1" s="200"/>
       <c r="L1" s="201"/>
       <c r="M1" s="187" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N1" s="188"/>
       <c r="O1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
@@ -11855,7 +11925,7 @@
     <row r="3" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
       <c r="B3" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="43"/>
@@ -11873,10 +11943,10 @@
     <row r="4" spans="1:15" s="68" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="69"/>
       <c r="B4" s="77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
@@ -11908,13 +11978,13 @@
     </row>
     <row r="6" spans="1:15" s="68" customFormat="1" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:15" ht="14.25" thickBot="1">
-      <c r="B7" s="213" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="215"/>
+      <c r="B7" s="215" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="217"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1">
       <c r="B8" s="61"/>
@@ -11924,15 +11994,15 @@
       <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="241" t="s">
+      <c r="B9" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="242"/>
+      <c r="C9" s="244"/>
       <c r="D9" s="58"/>
-      <c r="E9" s="241" t="s">
+      <c r="E9" s="243" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="242"/>
+      <c r="F9" s="244"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="19" t="s">
@@ -11966,7 +12036,7 @@
         <v>87</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1">
@@ -11986,22 +12056,22 @@
       <c r="F14" s="63"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="241" t="s">
+      <c r="B15" s="243" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="242"/>
+      <c r="C15" s="244"/>
       <c r="D15" s="58"/>
-      <c r="E15" s="241" t="s">
+      <c r="E15" s="243" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="242"/>
+      <c r="F15" s="244"/>
     </row>
     <row r="16" spans="1:15" ht="48.75" customHeight="1" thickBot="1">
       <c r="B16" s="74" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="39" t="s">
@@ -12057,10 +12127,10 @@
       <c r="F21" s="63"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="241" t="s">
+      <c r="B22" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="242"/>
+      <c r="C22" s="244"/>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
       <c r="F22" s="63"/>
@@ -12094,383 +12164,383 @@
     </row>
     <row r="26" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="27" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B27" s="213" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="214"/>
-      <c r="J27" s="214"/>
-      <c r="K27" s="214"/>
-      <c r="L27" s="215"/>
+      <c r="B27" s="215" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="216"/>
+      <c r="L27" s="217"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="210"/>
-      <c r="C28" s="211"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="211"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="212"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="214"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="204"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="205"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="205"/>
-      <c r="H29" s="205"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="205"/>
-      <c r="K29" s="205"/>
-      <c r="L29" s="206"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="207"/>
+      <c r="K29" s="207"/>
+      <c r="L29" s="208"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="204"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="206"/>
+      <c r="B30" s="206"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="207"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="207"/>
+      <c r="K30" s="207"/>
+      <c r="L30" s="208"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="204"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="205"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="205"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="205"/>
-      <c r="K31" s="205"/>
-      <c r="L31" s="206"/>
+      <c r="B31" s="206"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="208"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="204"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="205"/>
-      <c r="K32" s="205"/>
-      <c r="L32" s="206"/>
+      <c r="B32" s="206"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="207"/>
+      <c r="L32" s="208"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="204"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="205"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="205"/>
-      <c r="H33" s="205"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="205"/>
-      <c r="K33" s="205"/>
-      <c r="L33" s="206"/>
+      <c r="B33" s="206"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="208"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="204"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="205"/>
-      <c r="K34" s="205"/>
-      <c r="L34" s="206"/>
+      <c r="B34" s="206"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="207"/>
+      <c r="K34" s="207"/>
+      <c r="L34" s="208"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="204"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="205"/>
-      <c r="K35" s="205"/>
-      <c r="L35" s="206"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="207"/>
+      <c r="F35" s="207"/>
+      <c r="G35" s="207"/>
+      <c r="H35" s="207"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="207"/>
+      <c r="K35" s="207"/>
+      <c r="L35" s="208"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="204"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="205"/>
-      <c r="K36" s="205"/>
-      <c r="L36" s="206"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="207"/>
+      <c r="L36" s="208"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="204"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="206"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="207"/>
+      <c r="L37" s="208"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="204"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="205"/>
-      <c r="K38" s="205"/>
-      <c r="L38" s="206"/>
+      <c r="B38" s="206"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="208"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="204"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="205"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="205"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="206"/>
+      <c r="B39" s="206"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="207"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="208"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="204"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="205"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="205"/>
-      <c r="K40" s="205"/>
-      <c r="L40" s="206"/>
+      <c r="B40" s="206"/>
+      <c r="C40" s="207"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="208"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="204"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="205"/>
-      <c r="G41" s="205"/>
-      <c r="H41" s="205"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="205"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="206"/>
+      <c r="B41" s="206"/>
+      <c r="C41" s="207"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="207"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="208"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="204"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="205"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
-      <c r="I42" s="205"/>
-      <c r="J42" s="205"/>
-      <c r="K42" s="205"/>
-      <c r="L42" s="206"/>
+      <c r="B42" s="206"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="207"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="207"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="207"/>
+      <c r="K42" s="207"/>
+      <c r="L42" s="208"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="204"/>
-      <c r="C43" s="205"/>
-      <c r="D43" s="205"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="205"/>
-      <c r="G43" s="205"/>
-      <c r="H43" s="205"/>
-      <c r="I43" s="205"/>
-      <c r="J43" s="205"/>
-      <c r="K43" s="205"/>
-      <c r="L43" s="206"/>
+      <c r="B43" s="206"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="207"/>
+      <c r="F43" s="207"/>
+      <c r="G43" s="207"/>
+      <c r="H43" s="207"/>
+      <c r="I43" s="207"/>
+      <c r="J43" s="207"/>
+      <c r="K43" s="207"/>
+      <c r="L43" s="208"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="204"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="205"/>
-      <c r="G44" s="205"/>
-      <c r="H44" s="205"/>
-      <c r="I44" s="205"/>
-      <c r="J44" s="205"/>
-      <c r="K44" s="205"/>
-      <c r="L44" s="206"/>
+      <c r="B44" s="206"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="207"/>
+      <c r="E44" s="207"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="207"/>
+      <c r="H44" s="207"/>
+      <c r="I44" s="207"/>
+      <c r="J44" s="207"/>
+      <c r="K44" s="207"/>
+      <c r="L44" s="208"/>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="204"/>
-      <c r="C45" s="205"/>
-      <c r="D45" s="205"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="205"/>
-      <c r="G45" s="205"/>
-      <c r="H45" s="205"/>
-      <c r="I45" s="205"/>
-      <c r="J45" s="205"/>
-      <c r="K45" s="205"/>
-      <c r="L45" s="206"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="207"/>
+      <c r="E45" s="207"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="207"/>
+      <c r="H45" s="207"/>
+      <c r="I45" s="207"/>
+      <c r="J45" s="207"/>
+      <c r="K45" s="207"/>
+      <c r="L45" s="208"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="204"/>
-      <c r="C46" s="205"/>
-      <c r="D46" s="205"/>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="205"/>
-      <c r="J46" s="205"/>
-      <c r="K46" s="205"/>
-      <c r="L46" s="206"/>
+      <c r="B46" s="206"/>
+      <c r="C46" s="207"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="207"/>
+      <c r="F46" s="207"/>
+      <c r="G46" s="207"/>
+      <c r="H46" s="207"/>
+      <c r="I46" s="207"/>
+      <c r="J46" s="207"/>
+      <c r="K46" s="207"/>
+      <c r="L46" s="208"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="204"/>
-      <c r="C47" s="205"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="205"/>
-      <c r="F47" s="205"/>
-      <c r="G47" s="205"/>
-      <c r="H47" s="205"/>
-      <c r="I47" s="205"/>
-      <c r="J47" s="205"/>
-      <c r="K47" s="205"/>
-      <c r="L47" s="206"/>
+      <c r="B47" s="206"/>
+      <c r="C47" s="207"/>
+      <c r="D47" s="207"/>
+      <c r="E47" s="207"/>
+      <c r="F47" s="207"/>
+      <c r="G47" s="207"/>
+      <c r="H47" s="207"/>
+      <c r="I47" s="207"/>
+      <c r="J47" s="207"/>
+      <c r="K47" s="207"/>
+      <c r="L47" s="208"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="204"/>
-      <c r="C48" s="205"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="205"/>
-      <c r="F48" s="205"/>
-      <c r="G48" s="205"/>
-      <c r="H48" s="205"/>
-      <c r="I48" s="205"/>
-      <c r="J48" s="205"/>
-      <c r="K48" s="205"/>
-      <c r="L48" s="206"/>
+      <c r="B48" s="206"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="207"/>
+      <c r="E48" s="207"/>
+      <c r="F48" s="207"/>
+      <c r="G48" s="207"/>
+      <c r="H48" s="207"/>
+      <c r="I48" s="207"/>
+      <c r="J48" s="207"/>
+      <c r="K48" s="207"/>
+      <c r="L48" s="208"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="204"/>
-      <c r="C49" s="205"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="205"/>
-      <c r="F49" s="205"/>
-      <c r="G49" s="205"/>
-      <c r="H49" s="205"/>
-      <c r="I49" s="205"/>
-      <c r="J49" s="205"/>
-      <c r="K49" s="205"/>
-      <c r="L49" s="206"/>
+      <c r="B49" s="206"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="207"/>
+      <c r="K49" s="207"/>
+      <c r="L49" s="208"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="204"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="205"/>
-      <c r="E50" s="205"/>
-      <c r="F50" s="205"/>
-      <c r="G50" s="205"/>
-      <c r="H50" s="205"/>
-      <c r="I50" s="205"/>
-      <c r="J50" s="205"/>
-      <c r="K50" s="205"/>
-      <c r="L50" s="206"/>
+      <c r="B50" s="206"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="207"/>
+      <c r="K50" s="207"/>
+      <c r="L50" s="208"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="204"/>
-      <c r="C51" s="205"/>
-      <c r="D51" s="205"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="205"/>
-      <c r="G51" s="205"/>
-      <c r="H51" s="205"/>
-      <c r="I51" s="205"/>
-      <c r="J51" s="205"/>
-      <c r="K51" s="205"/>
-      <c r="L51" s="206"/>
+      <c r="B51" s="206"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="207"/>
+      <c r="E51" s="207"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="207"/>
+      <c r="H51" s="207"/>
+      <c r="I51" s="207"/>
+      <c r="J51" s="207"/>
+      <c r="K51" s="207"/>
+      <c r="L51" s="208"/>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="204"/>
-      <c r="C52" s="205"/>
-      <c r="D52" s="205"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="205"/>
-      <c r="G52" s="205"/>
-      <c r="H52" s="205"/>
-      <c r="I52" s="205"/>
-      <c r="J52" s="205"/>
-      <c r="K52" s="205"/>
-      <c r="L52" s="206"/>
+      <c r="B52" s="206"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="207"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="207"/>
+      <c r="I52" s="207"/>
+      <c r="J52" s="207"/>
+      <c r="K52" s="207"/>
+      <c r="L52" s="208"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="204"/>
-      <c r="C53" s="205"/>
-      <c r="D53" s="205"/>
-      <c r="E53" s="205"/>
-      <c r="F53" s="205"/>
-      <c r="G53" s="205"/>
-      <c r="H53" s="205"/>
-      <c r="I53" s="205"/>
-      <c r="J53" s="205"/>
-      <c r="K53" s="205"/>
-      <c r="L53" s="206"/>
+      <c r="B53" s="206"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="207"/>
+      <c r="E53" s="207"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="207"/>
+      <c r="H53" s="207"/>
+      <c r="I53" s="207"/>
+      <c r="J53" s="207"/>
+      <c r="K53" s="207"/>
+      <c r="L53" s="208"/>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="204"/>
-      <c r="C54" s="205"/>
-      <c r="D54" s="205"/>
-      <c r="E54" s="205"/>
-      <c r="F54" s="205"/>
-      <c r="G54" s="205"/>
-      <c r="H54" s="205"/>
-      <c r="I54" s="205"/>
-      <c r="J54" s="205"/>
-      <c r="K54" s="205"/>
-      <c r="L54" s="206"/>
+      <c r="B54" s="206"/>
+      <c r="C54" s="207"/>
+      <c r="D54" s="207"/>
+      <c r="E54" s="207"/>
+      <c r="F54" s="207"/>
+      <c r="G54" s="207"/>
+      <c r="H54" s="207"/>
+      <c r="I54" s="207"/>
+      <c r="J54" s="207"/>
+      <c r="K54" s="207"/>
+      <c r="L54" s="208"/>
     </row>
     <row r="55" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B55" s="238"/>
-      <c r="C55" s="239"/>
-      <c r="D55" s="239"/>
-      <c r="E55" s="239"/>
-      <c r="F55" s="239"/>
-      <c r="G55" s="239"/>
-      <c r="H55" s="239"/>
-      <c r="I55" s="239"/>
-      <c r="J55" s="239"/>
-      <c r="K55" s="239"/>
-      <c r="L55" s="240"/>
+      <c r="B55" s="240"/>
+      <c r="C55" s="241"/>
+      <c r="D55" s="241"/>
+      <c r="E55" s="241"/>
+      <c r="F55" s="241"/>
+      <c r="G55" s="241"/>
+      <c r="H55" s="241"/>
+      <c r="I55" s="241"/>
+      <c r="J55" s="241"/>
+      <c r="K55" s="241"/>
+      <c r="L55" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12516,28 +12586,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="246" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="247"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="248" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="249"/>
     </row>
     <row r="2" spans="1:14" ht="24.75" customHeight="1">
       <c r="A2" s="79" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
@@ -12586,15 +12656,15 @@
       <c r="N4" s="107"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="248" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="250"/>
+      <c r="A5" s="250" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="251"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
@@ -12621,7 +12691,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -12644,7 +12714,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -12667,7 +12737,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -12690,7 +12760,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -12713,7 +12783,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" thickBot="1">
@@ -12727,107 +12797,107 @@
     </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B23" s="251" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" s="252"/>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="253"/>
+      <c r="B23" s="253" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="254"/>
+      <c r="D23" s="254"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="255"/>
     </row>
     <row r="24" spans="2:7" ht="208.5" customHeight="1">
-      <c r="B24" s="243"/>
-      <c r="C24" s="243"/>
-      <c r="D24" s="243"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
+      <c r="B24" s="245"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
     </row>
     <row r="25" spans="2:7" ht="218.25" customHeight="1">
-      <c r="B25" s="244"/>
-      <c r="C25" s="244"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="244"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="246"/>
       <c r="F25" s="231"/>
       <c r="G25" s="231"/>
     </row>
     <row r="26" spans="2:7" ht="83.25" customHeight="1">
-      <c r="C26" s="225"/>
-      <c r="D26" s="225"/>
-      <c r="E26" s="225"/>
-      <c r="F26" s="225"/>
-      <c r="G26" s="225"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="227"/>
+      <c r="F26" s="227"/>
+      <c r="G26" s="227"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="C27" s="225"/>
-      <c r="D27" s="225"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="225"/>
-      <c r="G27" s="225"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="227"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="C28" s="225"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="225"/>
-      <c r="G28" s="225"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
+      <c r="G28" s="227"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="227"/>
+      <c r="F29" s="227"/>
+      <c r="G29" s="227"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="C30" s="225"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="225"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="C31" s="225"/>
-      <c r="D31" s="225"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="225"/>
-      <c r="G31" s="225"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="227"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="C32" s="225"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="225"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="227"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="227"/>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="225"/>
-      <c r="G33" s="225"/>
+      <c r="C33" s="227"/>
+      <c r="D33" s="227"/>
+      <c r="E33" s="227"/>
+      <c r="F33" s="227"/>
+      <c r="G33" s="227"/>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="225"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="225"/>
-      <c r="D35" s="225"/>
-      <c r="E35" s="225"/>
-      <c r="F35" s="225"/>
-      <c r="G35" s="225"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="227"/>
+      <c r="F35" s="227"/>
+      <c r="G35" s="227"/>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="225"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="227"/>
+      <c r="G36" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -12871,8 +12941,8 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55:F55"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12885,7 +12955,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
       <c r="A1" s="199" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="200"/>
       <c r="C1" s="200"/>
@@ -12898,81 +12968,83 @@
       <c r="J1" s="200"/>
       <c r="K1" s="200"/>
       <c r="L1" s="201"/>
-      <c r="M1" s="254" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="255"/>
+      <c r="M1" s="257" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="258"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="4" spans="1:14" ht="14.25" thickBot="1">
       <c r="B4" s="101" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
       <c r="B5" s="102" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="33"/>
+        <v>231</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>358</v>
+      </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B8" s="251" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="252"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="252"/>
-      <c r="H8" s="252"/>
-      <c r="I8" s="252"/>
-      <c r="J8" s="252"/>
-      <c r="K8" s="253"/>
+      <c r="B8" s="253" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="254"/>
+      <c r="K8" s="255"/>
       <c r="L8" s="92"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="E9" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="J9" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>241</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="165" customHeight="1">
       <c r="B10" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C10" s="18">
         <v>10</v>
@@ -12996,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K10" s="18"/>
     </row>
@@ -13049,440 +13121,482 @@
       <c r="K14" s="58"/>
     </row>
     <row r="21" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B21" s="225" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="225"/>
-      <c r="J21" s="225"/>
-      <c r="K21" s="225"/>
+      <c r="B21" s="227" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="227"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="227"/>
+      <c r="I21" s="227"/>
+      <c r="J21" s="227"/>
+      <c r="K21" s="227"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="225"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="225"/>
-      <c r="H22" s="225"/>
-      <c r="I22" s="225"/>
-      <c r="J22" s="225"/>
-      <c r="K22" s="225"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="227"/>
+      <c r="I22" s="227"/>
+      <c r="J22" s="227"/>
+      <c r="K22" s="227"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="225"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="225"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="225"/>
-      <c r="G23" s="225"/>
-      <c r="H23" s="225"/>
-      <c r="I23" s="225"/>
-      <c r="J23" s="225"/>
-      <c r="K23" s="225"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="227"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="227"/>
+      <c r="J23" s="227"/>
+      <c r="K23" s="227"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="225"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="225"/>
-      <c r="E24" s="225"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="225"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="225"/>
-      <c r="K24" s="225"/>
+      <c r="B24" s="227"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="227"/>
+      <c r="F24" s="227"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="227"/>
+      <c r="J24" s="227"/>
+      <c r="K24" s="227"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="225"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="225"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="225"/>
-      <c r="G25" s="225"/>
-      <c r="H25" s="225"/>
-      <c r="I25" s="225"/>
-      <c r="J25" s="225"/>
-      <c r="K25" s="225"/>
+      <c r="B25" s="227"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="227"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="227"/>
+      <c r="I25" s="227"/>
+      <c r="J25" s="227"/>
+      <c r="K25" s="227"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="225"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="225"/>
-      <c r="E26" s="225"/>
-      <c r="F26" s="225"/>
-      <c r="G26" s="225"/>
-      <c r="H26" s="225"/>
-      <c r="I26" s="225"/>
-      <c r="J26" s="225"/>
-      <c r="K26" s="225"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="227"/>
+      <c r="F26" s="227"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="227"/>
+      <c r="K26" s="227"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="225"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="225"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="225"/>
-      <c r="G27" s="225"/>
-      <c r="H27" s="225"/>
-      <c r="I27" s="225"/>
-      <c r="J27" s="225"/>
-      <c r="K27" s="225"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="227"/>
+      <c r="J27" s="227"/>
+      <c r="K27" s="227"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="225"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="225"/>
-      <c r="G28" s="225"/>
-      <c r="H28" s="225"/>
-      <c r="I28" s="225"/>
-      <c r="J28" s="225"/>
-      <c r="K28" s="225"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
+      <c r="G28" s="227"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="227"/>
+      <c r="K28" s="227"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="225"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="225"/>
-      <c r="J29" s="225"/>
-      <c r="K29" s="225"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="227"/>
+      <c r="F29" s="227"/>
+      <c r="G29" s="227"/>
+      <c r="H29" s="227"/>
+      <c r="I29" s="227"/>
+      <c r="J29" s="227"/>
+      <c r="K29" s="227"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="225"/>
-      <c r="C30" s="225"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="225"/>
-      <c r="H30" s="225"/>
-      <c r="I30" s="225"/>
-      <c r="J30" s="225"/>
-      <c r="K30" s="225"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="227"/>
+      <c r="J30" s="227"/>
+      <c r="K30" s="227"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="225"/>
-      <c r="C31" s="225"/>
-      <c r="D31" s="225"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="225"/>
-      <c r="G31" s="225"/>
-      <c r="H31" s="225"/>
-      <c r="I31" s="225"/>
-      <c r="J31" s="225"/>
-      <c r="K31" s="225"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="227"/>
+      <c r="H31" s="227"/>
+      <c r="I31" s="227"/>
+      <c r="J31" s="227"/>
+      <c r="K31" s="227"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="225"/>
-      <c r="C32" s="225"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="225"/>
-      <c r="H32" s="225"/>
-      <c r="I32" s="225"/>
-      <c r="J32" s="225"/>
-      <c r="K32" s="225"/>
+      <c r="B32" s="227"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="227"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="227"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="227"/>
+      <c r="K32" s="227"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="225"/>
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="225"/>
-      <c r="G33" s="225"/>
-      <c r="H33" s="225"/>
-      <c r="I33" s="225"/>
-      <c r="J33" s="225"/>
-      <c r="K33" s="225"/>
+      <c r="B33" s="227"/>
+      <c r="C33" s="227"/>
+      <c r="D33" s="227"/>
+      <c r="E33" s="227"/>
+      <c r="F33" s="227"/>
+      <c r="G33" s="227"/>
+      <c r="H33" s="227"/>
+      <c r="I33" s="227"/>
+      <c r="J33" s="227"/>
+      <c r="K33" s="227"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="225"/>
-      <c r="H34" s="225"/>
-      <c r="I34" s="225"/>
-      <c r="J34" s="225"/>
-      <c r="K34" s="225"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
+      <c r="H34" s="227"/>
+      <c r="I34" s="227"/>
+      <c r="J34" s="227"/>
+      <c r="K34" s="227"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="225"/>
-      <c r="C35" s="225"/>
-      <c r="D35" s="225"/>
-      <c r="E35" s="225"/>
-      <c r="F35" s="225"/>
-      <c r="G35" s="225"/>
-      <c r="H35" s="225"/>
-      <c r="I35" s="225"/>
-      <c r="J35" s="225"/>
-      <c r="K35" s="225"/>
+      <c r="B35" s="227"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="227"/>
+      <c r="F35" s="227"/>
+      <c r="G35" s="227"/>
+      <c r="H35" s="227"/>
+      <c r="I35" s="227"/>
+      <c r="J35" s="227"/>
+      <c r="K35" s="227"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="225"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="225"/>
-      <c r="H36" s="225"/>
-      <c r="I36" s="225"/>
-      <c r="J36" s="225"/>
-      <c r="K36" s="225"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="227"/>
+      <c r="G36" s="227"/>
+      <c r="H36" s="227"/>
+      <c r="I36" s="227"/>
+      <c r="J36" s="227"/>
+      <c r="K36" s="227"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="225"/>
-      <c r="C37" s="225"/>
-      <c r="D37" s="225"/>
-      <c r="E37" s="225"/>
-      <c r="F37" s="225"/>
-      <c r="G37" s="225"/>
-      <c r="H37" s="225"/>
-      <c r="I37" s="225"/>
-      <c r="J37" s="225"/>
-      <c r="K37" s="225"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="227"/>
+      <c r="F37" s="227"/>
+      <c r="G37" s="227"/>
+      <c r="H37" s="227"/>
+      <c r="I37" s="227"/>
+      <c r="J37" s="227"/>
+      <c r="K37" s="227"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="225"/>
-      <c r="C38" s="225"/>
-      <c r="D38" s="225"/>
-      <c r="E38" s="225"/>
-      <c r="F38" s="225"/>
-      <c r="G38" s="225"/>
-      <c r="H38" s="225"/>
-      <c r="I38" s="225"/>
-      <c r="J38" s="225"/>
-      <c r="K38" s="225"/>
+      <c r="B38" s="227"/>
+      <c r="C38" s="227"/>
+      <c r="D38" s="227"/>
+      <c r="E38" s="227"/>
+      <c r="F38" s="227"/>
+      <c r="G38" s="227"/>
+      <c r="H38" s="227"/>
+      <c r="I38" s="227"/>
+      <c r="J38" s="227"/>
+      <c r="K38" s="227"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="225"/>
-      <c r="C39" s="225"/>
-      <c r="D39" s="225"/>
-      <c r="E39" s="225"/>
-      <c r="F39" s="225"/>
-      <c r="G39" s="225"/>
-      <c r="H39" s="225"/>
-      <c r="I39" s="225"/>
-      <c r="J39" s="225"/>
-      <c r="K39" s="225"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="227"/>
+      <c r="E39" s="227"/>
+      <c r="F39" s="227"/>
+      <c r="G39" s="227"/>
+      <c r="H39" s="227"/>
+      <c r="I39" s="227"/>
+      <c r="J39" s="227"/>
+      <c r="K39" s="227"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="225"/>
-      <c r="C40" s="225"/>
-      <c r="D40" s="225"/>
-      <c r="E40" s="225"/>
-      <c r="F40" s="225"/>
-      <c r="G40" s="225"/>
-      <c r="H40" s="225"/>
-      <c r="I40" s="225"/>
-      <c r="J40" s="225"/>
-      <c r="K40" s="225"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="227"/>
+      <c r="D40" s="227"/>
+      <c r="E40" s="227"/>
+      <c r="F40" s="227"/>
+      <c r="G40" s="227"/>
+      <c r="H40" s="227"/>
+      <c r="I40" s="227"/>
+      <c r="J40" s="227"/>
+      <c r="K40" s="227"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="225"/>
-      <c r="C41" s="225"/>
-      <c r="D41" s="225"/>
-      <c r="E41" s="225"/>
-      <c r="F41" s="225"/>
-      <c r="G41" s="225"/>
-      <c r="H41" s="225"/>
-      <c r="I41" s="225"/>
-      <c r="J41" s="225"/>
-      <c r="K41" s="225"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="227"/>
+      <c r="H41" s="227"/>
+      <c r="I41" s="227"/>
+      <c r="J41" s="227"/>
+      <c r="K41" s="227"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="225"/>
-      <c r="C42" s="225"/>
-      <c r="D42" s="225"/>
-      <c r="E42" s="225"/>
-      <c r="F42" s="225"/>
-      <c r="G42" s="225"/>
-      <c r="H42" s="225"/>
-      <c r="I42" s="225"/>
-      <c r="J42" s="225"/>
-      <c r="K42" s="225"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="227"/>
+      <c r="G42" s="227"/>
+      <c r="H42" s="227"/>
+      <c r="I42" s="227"/>
+      <c r="J42" s="227"/>
+      <c r="K42" s="227"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="225"/>
-      <c r="C43" s="225"/>
-      <c r="D43" s="225"/>
-      <c r="E43" s="225"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="225"/>
-      <c r="H43" s="225"/>
-      <c r="I43" s="225"/>
-      <c r="J43" s="225"/>
-      <c r="K43" s="225"/>
+      <c r="B43" s="227"/>
+      <c r="C43" s="227"/>
+      <c r="D43" s="227"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="227"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="227"/>
+      <c r="I43" s="227"/>
+      <c r="J43" s="227"/>
+      <c r="K43" s="227"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="225"/>
-      <c r="C44" s="225"/>
-      <c r="D44" s="225"/>
-      <c r="E44" s="225"/>
-      <c r="F44" s="225"/>
-      <c r="G44" s="225"/>
-      <c r="H44" s="225"/>
-      <c r="I44" s="225"/>
-      <c r="J44" s="225"/>
-      <c r="K44" s="225"/>
+      <c r="B44" s="227"/>
+      <c r="C44" s="227"/>
+      <c r="D44" s="227"/>
+      <c r="E44" s="227"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="227"/>
+      <c r="H44" s="227"/>
+      <c r="I44" s="227"/>
+      <c r="J44" s="227"/>
+      <c r="K44" s="227"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="225"/>
-      <c r="C45" s="225"/>
-      <c r="D45" s="225"/>
-      <c r="E45" s="225"/>
-      <c r="F45" s="225"/>
-      <c r="G45" s="225"/>
-      <c r="H45" s="225"/>
-      <c r="I45" s="225"/>
-      <c r="J45" s="225"/>
-      <c r="K45" s="225"/>
+      <c r="B45" s="227"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="227"/>
+      <c r="E45" s="227"/>
+      <c r="F45" s="227"/>
+      <c r="G45" s="227"/>
+      <c r="H45" s="227"/>
+      <c r="I45" s="227"/>
+      <c r="J45" s="227"/>
+      <c r="K45" s="227"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="225"/>
-      <c r="C46" s="225"/>
-      <c r="D46" s="225"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="225"/>
-      <c r="G46" s="225"/>
-      <c r="H46" s="225"/>
-      <c r="I46" s="225"/>
-      <c r="J46" s="225"/>
-      <c r="K46" s="225"/>
+      <c r="B46" s="227"/>
+      <c r="C46" s="227"/>
+      <c r="D46" s="227"/>
+      <c r="E46" s="227"/>
+      <c r="F46" s="227"/>
+      <c r="G46" s="227"/>
+      <c r="H46" s="227"/>
+      <c r="I46" s="227"/>
+      <c r="J46" s="227"/>
+      <c r="K46" s="227"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="225"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="225"/>
-      <c r="E47" s="225"/>
-      <c r="F47" s="225"/>
-      <c r="G47" s="225"/>
-      <c r="H47" s="225"/>
-      <c r="I47" s="225"/>
-      <c r="J47" s="225"/>
-      <c r="K47" s="225"/>
+      <c r="B47" s="227"/>
+      <c r="C47" s="227"/>
+      <c r="D47" s="227"/>
+      <c r="E47" s="227"/>
+      <c r="F47" s="227"/>
+      <c r="G47" s="227"/>
+      <c r="H47" s="227"/>
+      <c r="I47" s="227"/>
+      <c r="J47" s="227"/>
+      <c r="K47" s="227"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="225"/>
-      <c r="C48" s="225"/>
-      <c r="D48" s="225"/>
-      <c r="E48" s="225"/>
-      <c r="F48" s="225"/>
-      <c r="G48" s="225"/>
-      <c r="H48" s="225"/>
-      <c r="I48" s="225"/>
-      <c r="J48" s="225"/>
-      <c r="K48" s="225"/>
+      <c r="B48" s="227"/>
+      <c r="C48" s="227"/>
+      <c r="D48" s="227"/>
+      <c r="E48" s="227"/>
+      <c r="F48" s="227"/>
+      <c r="G48" s="227"/>
+      <c r="H48" s="227"/>
+      <c r="I48" s="227"/>
+      <c r="J48" s="227"/>
+      <c r="K48" s="227"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="225"/>
-      <c r="C49" s="225"/>
-      <c r="D49" s="225"/>
-      <c r="E49" s="225"/>
-      <c r="F49" s="225"/>
-      <c r="G49" s="225"/>
-      <c r="H49" s="225"/>
-      <c r="I49" s="225"/>
-      <c r="J49" s="225"/>
-      <c r="K49" s="225"/>
+      <c r="B49" s="227"/>
+      <c r="C49" s="227"/>
+      <c r="D49" s="227"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="227"/>
+      <c r="G49" s="227"/>
+      <c r="H49" s="227"/>
+      <c r="I49" s="227"/>
+      <c r="J49" s="227"/>
+      <c r="K49" s="227"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="225"/>
-      <c r="C50" s="225"/>
-      <c r="D50" s="225"/>
-      <c r="E50" s="225"/>
-      <c r="F50" s="225"/>
-      <c r="G50" s="225"/>
-      <c r="H50" s="225"/>
-      <c r="I50" s="225"/>
-      <c r="J50" s="225"/>
-      <c r="K50" s="225"/>
+      <c r="B50" s="227"/>
+      <c r="C50" s="227"/>
+      <c r="D50" s="227"/>
+      <c r="E50" s="227"/>
+      <c r="F50" s="227"/>
+      <c r="G50" s="227"/>
+      <c r="H50" s="227"/>
+      <c r="I50" s="227"/>
+      <c r="J50" s="227"/>
+      <c r="K50" s="227"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="225"/>
-      <c r="C51" s="225"/>
-      <c r="D51" s="225"/>
-      <c r="E51" s="225"/>
-      <c r="F51" s="225"/>
-      <c r="G51" s="225"/>
-      <c r="H51" s="225"/>
-      <c r="I51" s="225"/>
-      <c r="J51" s="225"/>
-      <c r="K51" s="225"/>
+      <c r="B51" s="227"/>
+      <c r="C51" s="227"/>
+      <c r="D51" s="227"/>
+      <c r="E51" s="227"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="227"/>
+      <c r="H51" s="227"/>
+      <c r="I51" s="227"/>
+      <c r="J51" s="227"/>
+      <c r="K51" s="227"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="225" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" s="225" t="s">
-        <v>338</v>
-      </c>
-      <c r="D52" s="225"/>
-      <c r="E52" s="225" t="s">
-        <v>339</v>
-      </c>
-      <c r="F52" s="225"/>
-      <c r="G52" s="225"/>
-      <c r="H52" s="225"/>
+      <c r="B52" s="227" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" s="227" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="227"/>
+      <c r="E52" s="227" t="s">
+        <v>333</v>
+      </c>
+      <c r="F52" s="227"/>
+      <c r="G52" s="227"/>
+      <c r="H52" s="227"/>
+      <c r="I52" s="227" t="s">
+        <v>345</v>
+      </c>
+      <c r="J52" s="227"/>
+      <c r="K52" s="227" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="225"/>
-      <c r="C53" s="225"/>
-      <c r="D53" s="225"/>
-      <c r="E53" s="225" t="s">
-        <v>340</v>
-      </c>
-      <c r="F53" s="225"/>
-      <c r="G53" s="225" t="s">
-        <v>341</v>
-      </c>
-      <c r="H53" s="225"/>
+      <c r="B53" s="227"/>
+      <c r="C53" s="227"/>
+      <c r="D53" s="227"/>
+      <c r="E53" s="227" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" s="227"/>
+      <c r="G53" s="227" t="s">
+        <v>335</v>
+      </c>
+      <c r="H53" s="227"/>
+      <c r="I53" s="227"/>
+      <c r="J53" s="227"/>
+      <c r="K53" s="227"/>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" t="s">
-        <v>342</v>
-      </c>
-      <c r="C54" s="225" t="s">
+        <v>336</v>
+      </c>
+      <c r="C54" s="227" t="s">
+        <v>337</v>
+      </c>
+      <c r="D54" s="227"/>
+      <c r="E54" s="227" t="s">
+        <v>338</v>
+      </c>
+      <c r="F54" s="227"/>
+      <c r="G54" s="227" t="s">
         <v>343</v>
       </c>
-      <c r="D54" s="225"/>
-      <c r="E54" s="225" t="s">
+      <c r="H54" s="227"/>
+      <c r="I54" s="227" t="s">
         <v>344</v>
       </c>
-      <c r="F54" s="225"/>
-      <c r="G54" s="225"/>
-      <c r="H54" s="225"/>
+      <c r="J54" s="227"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="C55" s="225"/>
-      <c r="D55" s="225"/>
-      <c r="E55" s="225"/>
-      <c r="F55" s="225"/>
-      <c r="G55" s="225"/>
-      <c r="H55" s="225"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="C56" s="225"/>
-      <c r="D56" s="225"/>
-      <c r="E56" s="225"/>
-      <c r="F56" s="225"/>
-      <c r="G56" s="225"/>
-      <c r="H56" s="225"/>
+      <c r="B55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55" s="227" t="s">
+        <v>347</v>
+      </c>
+      <c r="D55" s="227"/>
+      <c r="E55" s="227" t="s">
+        <v>348</v>
+      </c>
+      <c r="F55" s="227"/>
+      <c r="G55" s="227" t="s">
+        <v>349</v>
+      </c>
+      <c r="H55" s="227"/>
+      <c r="I55" s="227" t="s">
+        <v>350</v>
+      </c>
+      <c r="J55" s="227"/>
+    </row>
+    <row r="56" spans="2:11" ht="27.75" customHeight="1">
+      <c r="B56" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" s="227" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" s="227"/>
+      <c r="E56" s="227" t="s">
+        <v>353</v>
+      </c>
+      <c r="F56" s="227"/>
+      <c r="G56" s="227" t="s">
+        <v>354</v>
+      </c>
+      <c r="H56" s="227"/>
+      <c r="I56" s="256" t="s">
+        <v>355</v>
+      </c>
+      <c r="J56" s="227"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="B8:K8"/>
@@ -13502,11 +13616,17 @@
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="G56:H56"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I52:J53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="M1:N1" location="Top!A1" display="戻る"/>
     <hyperlink ref="B5" location="モンスターの能力値" display="能力値"/>
+    <hyperlink ref="C5" location="モンスターの出現分布" display="分布"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -13530,7 +13650,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
       <c r="A1" s="199" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="200"/>
       <c r="C1" s="200"/>
@@ -13543,45 +13663,45 @@
       <c r="J1" s="200"/>
       <c r="K1" s="200"/>
       <c r="L1" s="201"/>
-      <c r="M1" s="254" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="255"/>
+      <c r="M1" s="257" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="258"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1">
       <c r="B3" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14">
-      <c r="B6" s="241" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="242"/>
+      <c r="B6" s="243" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="244"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="259"/>
+      <c r="B7" s="262"/>
       <c r="C7" s="231"/>
       <c r="D7" s="231"/>
       <c r="E7" s="231"/>
@@ -13589,10 +13709,10 @@
       <c r="G7" s="231"/>
       <c r="H7" s="231"/>
       <c r="I7" s="231"/>
-      <c r="J7" s="266"/>
+      <c r="J7" s="269"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="259"/>
+      <c r="B8" s="262"/>
       <c r="C8" s="231"/>
       <c r="D8" s="231"/>
       <c r="E8" s="231"/>
@@ -13600,10 +13720,10 @@
       <c r="G8" s="231"/>
       <c r="H8" s="231"/>
       <c r="I8" s="231"/>
-      <c r="J8" s="266"/>
+      <c r="J8" s="269"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="259"/>
+      <c r="B9" s="262"/>
       <c r="C9" s="231"/>
       <c r="D9" s="231"/>
       <c r="E9" s="231"/>
@@ -13611,10 +13731,10 @@
       <c r="G9" s="231"/>
       <c r="H9" s="231"/>
       <c r="I9" s="231"/>
-      <c r="J9" s="266"/>
+      <c r="J9" s="269"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="259"/>
+      <c r="B10" s="262"/>
       <c r="C10" s="231"/>
       <c r="D10" s="231"/>
       <c r="E10" s="231"/>
@@ -13622,10 +13742,10 @@
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
       <c r="I10" s="231"/>
-      <c r="J10" s="266"/>
+      <c r="J10" s="269"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="259"/>
+      <c r="B11" s="262"/>
       <c r="C11" s="231"/>
       <c r="D11" s="231"/>
       <c r="E11" s="231"/>
@@ -13633,10 +13753,10 @@
       <c r="G11" s="231"/>
       <c r="H11" s="231"/>
       <c r="I11" s="231"/>
-      <c r="J11" s="266"/>
+      <c r="J11" s="269"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="259"/>
+      <c r="B12" s="262"/>
       <c r="C12" s="231"/>
       <c r="D12" s="231"/>
       <c r="E12" s="231"/>
@@ -13644,10 +13764,10 @@
       <c r="G12" s="231"/>
       <c r="H12" s="231"/>
       <c r="I12" s="231"/>
-      <c r="J12" s="266"/>
+      <c r="J12" s="269"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="259"/>
+      <c r="B13" s="262"/>
       <c r="C13" s="231"/>
       <c r="D13" s="231"/>
       <c r="E13" s="231"/>
@@ -13655,10 +13775,10 @@
       <c r="G13" s="231"/>
       <c r="H13" s="231"/>
       <c r="I13" s="231"/>
-      <c r="J13" s="266"/>
+      <c r="J13" s="269"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="259"/>
+      <c r="B14" s="262"/>
       <c r="C14" s="231"/>
       <c r="D14" s="231"/>
       <c r="E14" s="231"/>
@@ -13666,10 +13786,10 @@
       <c r="G14" s="231"/>
       <c r="H14" s="231"/>
       <c r="I14" s="231"/>
-      <c r="J14" s="266"/>
+      <c r="J14" s="269"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="259"/>
+      <c r="B15" s="262"/>
       <c r="C15" s="231"/>
       <c r="D15" s="231"/>
       <c r="E15" s="231"/>
@@ -13677,10 +13797,10 @@
       <c r="G15" s="231"/>
       <c r="H15" s="231"/>
       <c r="I15" s="231"/>
-      <c r="J15" s="266"/>
+      <c r="J15" s="269"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="259"/>
+      <c r="B16" s="262"/>
       <c r="C16" s="231"/>
       <c r="D16" s="231"/>
       <c r="E16" s="231"/>
@@ -13688,10 +13808,10 @@
       <c r="G16" s="231"/>
       <c r="H16" s="231"/>
       <c r="I16" s="231"/>
-      <c r="J16" s="266"/>
+      <c r="J16" s="269"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="259"/>
+      <c r="B17" s="262"/>
       <c r="C17" s="231"/>
       <c r="D17" s="231"/>
       <c r="E17" s="231"/>
@@ -13699,10 +13819,10 @@
       <c r="G17" s="231"/>
       <c r="H17" s="231"/>
       <c r="I17" s="231"/>
-      <c r="J17" s="266"/>
+      <c r="J17" s="269"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="259"/>
+      <c r="B18" s="262"/>
       <c r="C18" s="231"/>
       <c r="D18" s="231"/>
       <c r="E18" s="231"/>
@@ -13710,10 +13830,10 @@
       <c r="G18" s="231"/>
       <c r="H18" s="231"/>
       <c r="I18" s="231"/>
-      <c r="J18" s="266"/>
+      <c r="J18" s="269"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="259"/>
+      <c r="B19" s="262"/>
       <c r="C19" s="231"/>
       <c r="D19" s="231"/>
       <c r="E19" s="231"/>
@@ -13721,10 +13841,10 @@
       <c r="G19" s="231"/>
       <c r="H19" s="231"/>
       <c r="I19" s="231"/>
-      <c r="J19" s="266"/>
+      <c r="J19" s="269"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="259"/>
+      <c r="B20" s="262"/>
       <c r="C20" s="231"/>
       <c r="D20" s="231"/>
       <c r="E20" s="231"/>
@@ -13732,10 +13852,10 @@
       <c r="G20" s="231"/>
       <c r="H20" s="231"/>
       <c r="I20" s="231"/>
-      <c r="J20" s="266"/>
+      <c r="J20" s="269"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="259"/>
+      <c r="B21" s="262"/>
       <c r="C21" s="231"/>
       <c r="D21" s="231"/>
       <c r="E21" s="231"/>
@@ -13743,10 +13863,10 @@
       <c r="G21" s="231"/>
       <c r="H21" s="231"/>
       <c r="I21" s="231"/>
-      <c r="J21" s="266"/>
+      <c r="J21" s="269"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="259"/>
+      <c r="B22" s="262"/>
       <c r="C22" s="231"/>
       <c r="D22" s="231"/>
       <c r="E22" s="231"/>
@@ -13754,10 +13874,10 @@
       <c r="G22" s="231"/>
       <c r="H22" s="231"/>
       <c r="I22" s="231"/>
-      <c r="J22" s="266"/>
+      <c r="J22" s="269"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="259"/>
+      <c r="B23" s="262"/>
       <c r="C23" s="231"/>
       <c r="D23" s="231"/>
       <c r="E23" s="231"/>
@@ -13765,10 +13885,10 @@
       <c r="G23" s="231"/>
       <c r="H23" s="231"/>
       <c r="I23" s="231"/>
-      <c r="J23" s="266"/>
+      <c r="J23" s="269"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="259"/>
+      <c r="B24" s="262"/>
       <c r="C24" s="231"/>
       <c r="D24" s="231"/>
       <c r="E24" s="231"/>
@@ -13776,10 +13896,10 @@
       <c r="G24" s="231"/>
       <c r="H24" s="231"/>
       <c r="I24" s="231"/>
-      <c r="J24" s="266"/>
+      <c r="J24" s="269"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="259"/>
+      <c r="B25" s="262"/>
       <c r="C25" s="231"/>
       <c r="D25" s="231"/>
       <c r="E25" s="231"/>
@@ -13787,10 +13907,10 @@
       <c r="G25" s="231"/>
       <c r="H25" s="231"/>
       <c r="I25" s="231"/>
-      <c r="J25" s="266"/>
+      <c r="J25" s="269"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="259"/>
+      <c r="B26" s="262"/>
       <c r="C26" s="231"/>
       <c r="D26" s="231"/>
       <c r="E26" s="231"/>
@@ -13798,10 +13918,10 @@
       <c r="G26" s="231"/>
       <c r="H26" s="231"/>
       <c r="I26" s="231"/>
-      <c r="J26" s="266"/>
+      <c r="J26" s="269"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="259"/>
+      <c r="B27" s="262"/>
       <c r="C27" s="231"/>
       <c r="D27" s="231"/>
       <c r="E27" s="231"/>
@@ -13809,10 +13929,10 @@
       <c r="G27" s="231"/>
       <c r="H27" s="231"/>
       <c r="I27" s="231"/>
-      <c r="J27" s="266"/>
+      <c r="J27" s="269"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="259"/>
+      <c r="B28" s="262"/>
       <c r="C28" s="231"/>
       <c r="D28" s="231"/>
       <c r="E28" s="231"/>
@@ -13820,10 +13940,10 @@
       <c r="G28" s="231"/>
       <c r="H28" s="231"/>
       <c r="I28" s="231"/>
-      <c r="J28" s="266"/>
+      <c r="J28" s="269"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="259"/>
+      <c r="B29" s="262"/>
       <c r="C29" s="231"/>
       <c r="D29" s="231"/>
       <c r="E29" s="231"/>
@@ -13831,10 +13951,10 @@
       <c r="G29" s="231"/>
       <c r="H29" s="231"/>
       <c r="I29" s="231"/>
-      <c r="J29" s="266"/>
+      <c r="J29" s="269"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="259"/>
+      <c r="B30" s="262"/>
       <c r="C30" s="231"/>
       <c r="D30" s="231"/>
       <c r="E30" s="231"/>
@@ -13842,10 +13962,10 @@
       <c r="G30" s="231"/>
       <c r="H30" s="231"/>
       <c r="I30" s="231"/>
-      <c r="J30" s="266"/>
+      <c r="J30" s="269"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="259"/>
+      <c r="B31" s="262"/>
       <c r="C31" s="231"/>
       <c r="D31" s="231"/>
       <c r="E31" s="231"/>
@@ -13853,10 +13973,10 @@
       <c r="G31" s="231"/>
       <c r="H31" s="231"/>
       <c r="I31" s="231"/>
-      <c r="J31" s="266"/>
+      <c r="J31" s="269"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="259"/>
+      <c r="B32" s="262"/>
       <c r="C32" s="231"/>
       <c r="D32" s="231"/>
       <c r="E32" s="231"/>
@@ -13864,10 +13984,10 @@
       <c r="G32" s="231"/>
       <c r="H32" s="231"/>
       <c r="I32" s="231"/>
-      <c r="J32" s="266"/>
+      <c r="J32" s="269"/>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="259"/>
+      <c r="B33" s="262"/>
       <c r="C33" s="231"/>
       <c r="D33" s="231"/>
       <c r="E33" s="231"/>
@@ -13875,10 +13995,10 @@
       <c r="G33" s="231"/>
       <c r="H33" s="231"/>
       <c r="I33" s="231"/>
-      <c r="J33" s="266"/>
+      <c r="J33" s="269"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="259"/>
+      <c r="B34" s="262"/>
       <c r="C34" s="231"/>
       <c r="D34" s="231"/>
       <c r="E34" s="231"/>
@@ -13886,69 +14006,69 @@
       <c r="G34" s="231"/>
       <c r="H34" s="231"/>
       <c r="I34" s="231"/>
-      <c r="J34" s="266"/>
+      <c r="J34" s="269"/>
     </row>
     <row r="35" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B35" s="260"/>
-      <c r="C35" s="261"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="261"/>
-      <c r="F35" s="261"/>
-      <c r="G35" s="261"/>
-      <c r="H35" s="261"/>
-      <c r="I35" s="261"/>
-      <c r="J35" s="267"/>
+      <c r="B35" s="263"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="264"/>
+      <c r="E35" s="264"/>
+      <c r="F35" s="264"/>
+      <c r="G35" s="264"/>
+      <c r="H35" s="264"/>
+      <c r="I35" s="264"/>
+      <c r="J35" s="270"/>
     </row>
     <row r="37" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="38" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B38" s="251" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="252"/>
-      <c r="D38" s="252"/>
-      <c r="E38" s="252"/>
-      <c r="F38" s="252"/>
-      <c r="G38" s="252"/>
-      <c r="H38" s="252"/>
-      <c r="I38" s="252"/>
-      <c r="J38" s="253"/>
+      <c r="B38" s="253" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="254"/>
+      <c r="D38" s="254"/>
+      <c r="E38" s="254"/>
+      <c r="F38" s="254"/>
+      <c r="G38" s="254"/>
+      <c r="H38" s="254"/>
+      <c r="I38" s="254"/>
+      <c r="J38" s="255"/>
     </row>
     <row r="39" spans="2:19" ht="189" customHeight="1">
-      <c r="B39" s="268"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="269" t="s">
-        <v>247</v>
-      </c>
-      <c r="G39" s="270"/>
-      <c r="H39" s="270"/>
-      <c r="I39" s="270"/>
-      <c r="J39" s="271"/>
+      <c r="B39" s="271"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="272" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" s="273"/>
+      <c r="H39" s="273"/>
+      <c r="I39" s="273"/>
+      <c r="J39" s="274"/>
     </row>
     <row r="40" spans="2:19" ht="313.5" customHeight="1" thickBot="1">
-      <c r="B40" s="259"/>
+      <c r="B40" s="262"/>
       <c r="C40" s="231"/>
       <c r="D40" s="231"/>
       <c r="E40" s="231"/>
-      <c r="F40" s="256" t="s">
-        <v>248</v>
-      </c>
-      <c r="G40" s="257"/>
-      <c r="H40" s="257"/>
-      <c r="I40" s="257"/>
-      <c r="J40" s="258"/>
-      <c r="K40" s="260"/>
-      <c r="L40" s="261"/>
-      <c r="M40" s="261"/>
-      <c r="N40" s="261"/>
-      <c r="O40" s="262" t="s">
-        <v>249</v>
-      </c>
-      <c r="P40" s="263"/>
-      <c r="Q40" s="263"/>
-      <c r="R40" s="263"/>
-      <c r="S40" s="264"/>
+      <c r="F40" s="259" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" s="260"/>
+      <c r="H40" s="260"/>
+      <c r="I40" s="260"/>
+      <c r="J40" s="261"/>
+      <c r="K40" s="263"/>
+      <c r="L40" s="264"/>
+      <c r="M40" s="264"/>
+      <c r="N40" s="264"/>
+      <c r="O40" s="265" t="s">
+        <v>246</v>
+      </c>
+      <c r="P40" s="266"/>
+      <c r="Q40" s="266"/>
+      <c r="R40" s="266"/>
+      <c r="S40" s="267"/>
     </row>
     <row r="41" spans="2:19" ht="267.75" customHeight="1"/>
   </sheetData>

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="366">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -1318,14 +1318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メインのカメラについて言及</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムのイメージ文を追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モンスターへ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1750,19 +1742,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>最終更新2016/10/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンティングブレイブス　仕様書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちら、ハンティングブレイブスの仕様書です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムのイメージを追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップグレード・アイテム画面の追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>モンスターの出現について記入</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>茶野君をどこかに入れるぞ！！！！！！！！！！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>最終更新2016/10/13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハンティングブレイブス　仕様書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こちら、ハンティングブレイブスの仕様書です。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2724,7 +2732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3011,6 +3019,117 @@
     <xf numFmtId="14" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3029,116 +3148,68 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3149,18 +3220,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3194,63 +3253,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3260,32 +3295,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3302,57 +3361,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3368,42 +3376,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3458,44 +3463,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8857,7 +8876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -8868,64 +8887,64 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:15" ht="66" customHeight="1" thickBot="1">
-      <c r="B2" s="144" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="146"/>
+      <c r="B2" s="132" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
     </row>
     <row r="3" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B3" s="136" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137" t="s">
-        <v>361</v>
-      </c>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
+      <c r="B3" s="161" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162" t="s">
+        <v>358</v>
+      </c>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
     </row>
     <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="150" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="152" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="149"/>
-      <c r="H4" s="153" t="s">
+      <c r="G4" s="137"/>
+      <c r="H4" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="154"/>
-      <c r="J4" s="152" t="s">
+      <c r="I4" s="142"/>
+      <c r="J4" s="140" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="149"/>
-      <c r="L4" s="142" t="s">
+      <c r="K4" s="137"/>
+      <c r="L4" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="143"/>
+      <c r="M4" s="129"/>
     </row>
     <row r="5" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B5" s="35"/>
@@ -8945,35 +8964,35 @@
       <c r="B6" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="143" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="156"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="144"/>
     </row>
     <row r="7" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B7" s="157" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="159"/>
+      <c r="B7" s="145" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="147"/>
     </row>
     <row r="8" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
       <c r="B8" s="94"/>
@@ -8990,36 +9009,36 @@
       <c r="M8" s="95"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="151" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="165"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="153"/>
     </row>
     <row r="10" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="148" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="162"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="150"/>
     </row>
     <row r="11" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B11" s="86"/>
@@ -9036,40 +9055,40 @@
       <c r="M11" s="89"/>
     </row>
     <row r="12" spans="2:15" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="168"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="156"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147" t="s">
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
       <c r="N13" s="26" t="s">
         <v>259</v>
       </c>
@@ -9078,46 +9097,46 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="48" customHeight="1">
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="139" t="s">
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
       <c r="N14" s="113">
         <v>42653</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="134" t="s">
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="160"/>
       <c r="N15" s="114">
         <v>42653</v>
       </c>
@@ -9126,203 +9145,225 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="130" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="139" t="s">
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="113">
-        <v>42653</v>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="105">
+        <v>42656</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>262</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="42.75" customHeight="1">
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="134" t="s">
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="123">
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="114">
         <v>42655</v>
       </c>
       <c r="O17" s="98" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="45.75" customHeight="1">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="139" t="s">
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="105">
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="113">
         <v>42655</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>263</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="30" customHeight="1">
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="157" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="134" t="s">
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="159" t="s">
         <v>197</v>
       </c>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
       <c r="N19" s="99">
         <v>42649</v>
       </c>
       <c r="O19" s="98" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="30" customHeight="1">
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="139" t="s">
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
       <c r="N20" s="113">
         <v>42653</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="30" customHeight="1">
-      <c r="B21" s="132" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="134" t="s">
-        <v>264</v>
-      </c>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="114">
+      <c r="B21" s="157" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="159" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="160"/>
+      <c r="N21" s="123">
         <v>42656</v>
       </c>
       <c r="O21" s="98" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B22" s="129" t="s">
-        <v>306</v>
-      </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="131" t="s">
+      <c r="B22" s="166" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="168" t="s">
         <v>254</v>
       </c>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="168"/>
       <c r="N22" s="115">
         <v>42655</v>
       </c>
       <c r="O22" s="97" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="B14:G14"/>
@@ -9339,28 +9380,6 @@
     <mergeCell ref="B10:M10"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:M22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9383,7 +9402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
@@ -9394,389 +9413,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="284" t="s">
+      <c r="A1" s="185" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="274" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="285"/>
+      <c r="N1" s="275"/>
     </row>
     <row r="2" spans="1:14" s="68" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="276" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B5" s="253" t="s">
+      <c r="B5" s="251" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="255"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="253"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="281" t="s">
+      <c r="B6" s="277" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="283"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="279"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="277" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="283"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="279"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="281" t="s">
+      <c r="B8" s="277" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="282"/>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="283"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="279"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="281"/>
-      <c r="C9" s="282"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="283"/>
+      <c r="B9" s="277" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="278"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="278"/>
+      <c r="I9" s="279"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="281"/>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="283"/>
+      <c r="B10" s="277"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="278"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="279"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="281"/>
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="282"/>
-      <c r="G11" s="282"/>
-      <c r="H11" s="282"/>
-      <c r="I11" s="283"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="278"/>
+      <c r="E11" s="278"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="278"/>
+      <c r="H11" s="278"/>
+      <c r="I11" s="279"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="281"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="282"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="282"/>
-      <c r="G12" s="282"/>
-      <c r="H12" s="282"/>
-      <c r="I12" s="283"/>
+      <c r="B12" s="277"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="278"/>
+      <c r="G12" s="278"/>
+      <c r="H12" s="278"/>
+      <c r="I12" s="279"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="281"/>
-      <c r="C13" s="282"/>
-      <c r="D13" s="282"/>
-      <c r="E13" s="282"/>
-      <c r="F13" s="282"/>
-      <c r="G13" s="282"/>
-      <c r="H13" s="282"/>
-      <c r="I13" s="283"/>
+      <c r="B13" s="277"/>
+      <c r="C13" s="278"/>
+      <c r="D13" s="278"/>
+      <c r="E13" s="278"/>
+      <c r="F13" s="278"/>
+      <c r="G13" s="278"/>
+      <c r="H13" s="278"/>
+      <c r="I13" s="279"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="281"/>
-      <c r="C14" s="282"/>
-      <c r="D14" s="282"/>
-      <c r="E14" s="282"/>
-      <c r="F14" s="282"/>
-      <c r="G14" s="282"/>
-      <c r="H14" s="282"/>
-      <c r="I14" s="283"/>
+      <c r="B14" s="277"/>
+      <c r="C14" s="278"/>
+      <c r="D14" s="278"/>
+      <c r="E14" s="278"/>
+      <c r="F14" s="278"/>
+      <c r="G14" s="278"/>
+      <c r="H14" s="278"/>
+      <c r="I14" s="279"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="281"/>
-      <c r="C15" s="282"/>
-      <c r="D15" s="282"/>
-      <c r="E15" s="282"/>
-      <c r="F15" s="282"/>
-      <c r="G15" s="282"/>
-      <c r="H15" s="282"/>
-      <c r="I15" s="283"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="279"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="281"/>
-      <c r="C16" s="282"/>
-      <c r="D16" s="282"/>
-      <c r="E16" s="282"/>
-      <c r="F16" s="282"/>
-      <c r="G16" s="282"/>
-      <c r="H16" s="282"/>
-      <c r="I16" s="283"/>
+      <c r="B16" s="277"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="278"/>
+      <c r="E16" s="278"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="278"/>
+      <c r="H16" s="278"/>
+      <c r="I16" s="279"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="281"/>
-      <c r="C17" s="282"/>
-      <c r="D17" s="282"/>
-      <c r="E17" s="282"/>
-      <c r="F17" s="282"/>
-      <c r="G17" s="282"/>
-      <c r="H17" s="282"/>
-      <c r="I17" s="283"/>
+      <c r="B17" s="277"/>
+      <c r="C17" s="278"/>
+      <c r="D17" s="278"/>
+      <c r="E17" s="278"/>
+      <c r="F17" s="278"/>
+      <c r="G17" s="278"/>
+      <c r="H17" s="278"/>
+      <c r="I17" s="279"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" thickBot="1"/>
     <row r="20" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B20" s="253" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="254"/>
-      <c r="D20" s="254"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="254"/>
-      <c r="G20" s="254"/>
-      <c r="H20" s="254"/>
-      <c r="I20" s="254"/>
-      <c r="J20" s="254"/>
-      <c r="K20" s="255"/>
+      <c r="B20" s="251" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="252"/>
+      <c r="D20" s="252"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="252"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="252"/>
+      <c r="K20" s="253"/>
     </row>
     <row r="21" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B21" s="277" t="s">
+      <c r="B21" s="280" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="281" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" s="281"/>
+      <c r="H21" s="281"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="116" t="s">
         <v>299</v>
       </c>
-      <c r="C21" s="278"/>
-      <c r="D21" s="278"/>
-      <c r="E21" s="278"/>
-      <c r="F21" s="278" t="s">
+    </row>
+    <row r="22" spans="2:11" ht="27" customHeight="1">
+      <c r="B22" s="282" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="278"/>
-      <c r="H21" s="278"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="278"/>
-      <c r="K21" s="116" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="27" customHeight="1">
-      <c r="B22" s="279" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="280"/>
-      <c r="D22" s="280"/>
-      <c r="E22" s="280"/>
-      <c r="F22" s="280"/>
-      <c r="G22" s="280"/>
-      <c r="H22" s="280"/>
-      <c r="I22" s="280"/>
-      <c r="J22" s="280"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="283"/>
+      <c r="E22" s="283"/>
+      <c r="F22" s="283"/>
+      <c r="G22" s="283"/>
+      <c r="H22" s="283"/>
+      <c r="I22" s="283"/>
+      <c r="J22" s="283"/>
       <c r="K22" s="117">
         <v>42655</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="47.25" customHeight="1">
-      <c r="B23" s="276" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="275"/>
-      <c r="D23" s="275"/>
-      <c r="E23" s="275"/>
-      <c r="F23" s="275"/>
-      <c r="G23" s="275"/>
-      <c r="H23" s="275"/>
-      <c r="I23" s="275"/>
-      <c r="J23" s="275"/>
+      <c r="B23" s="284" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="285"/>
+      <c r="H23" s="285"/>
+      <c r="I23" s="285"/>
+      <c r="J23" s="285"/>
       <c r="K23" s="96">
         <v>42655</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="275"/>
-      <c r="C24" s="275"/>
-      <c r="D24" s="275"/>
-      <c r="E24" s="275"/>
-      <c r="F24" s="275"/>
-      <c r="G24" s="275"/>
-      <c r="H24" s="275"/>
-      <c r="I24" s="275"/>
-      <c r="J24" s="275"/>
+      <c r="B24" s="285"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="285"/>
+      <c r="G24" s="285"/>
+      <c r="H24" s="285"/>
+      <c r="I24" s="285"/>
+      <c r="J24" s="285"/>
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="275"/>
-      <c r="C25" s="275"/>
-      <c r="D25" s="275"/>
-      <c r="E25" s="275"/>
-      <c r="F25" s="275"/>
-      <c r="G25" s="275"/>
-      <c r="H25" s="275"/>
-      <c r="I25" s="275"/>
-      <c r="J25" s="275"/>
+      <c r="B25" s="285"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="285"/>
+      <c r="G25" s="285"/>
+      <c r="H25" s="285"/>
+      <c r="I25" s="285"/>
+      <c r="J25" s="285"/>
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="275"/>
-      <c r="C26" s="275"/>
-      <c r="D26" s="275"/>
-      <c r="E26" s="275"/>
-      <c r="F26" s="275"/>
-      <c r="G26" s="275"/>
-      <c r="H26" s="275"/>
-      <c r="I26" s="275"/>
-      <c r="J26" s="275"/>
+      <c r="B26" s="285"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="285"/>
+      <c r="G26" s="285"/>
+      <c r="H26" s="285"/>
+      <c r="I26" s="285"/>
+      <c r="J26" s="285"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="275"/>
-      <c r="C27" s="275"/>
-      <c r="D27" s="275"/>
-      <c r="E27" s="275"/>
-      <c r="F27" s="275"/>
-      <c r="G27" s="275"/>
-      <c r="H27" s="275"/>
-      <c r="I27" s="275"/>
-      <c r="J27" s="275"/>
+      <c r="B27" s="285"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="285"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="285"/>
+      <c r="H27" s="285"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="285"/>
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="275"/>
-      <c r="C28" s="275"/>
-      <c r="D28" s="275"/>
-      <c r="E28" s="275"/>
-      <c r="F28" s="275"/>
-      <c r="G28" s="275"/>
-      <c r="H28" s="275"/>
-      <c r="I28" s="275"/>
-      <c r="J28" s="275"/>
+      <c r="B28" s="285"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="285"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="285"/>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="275"/>
-      <c r="C29" s="275"/>
-      <c r="D29" s="275"/>
-      <c r="E29" s="275"/>
-      <c r="F29" s="275"/>
-      <c r="G29" s="275"/>
-      <c r="H29" s="275"/>
-      <c r="I29" s="275"/>
-      <c r="J29" s="275"/>
+      <c r="B29" s="285"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="285"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="285"/>
+      <c r="H29" s="285"/>
+      <c r="I29" s="285"/>
+      <c r="J29" s="285"/>
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="275"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="275"/>
-      <c r="I30" s="275"/>
-      <c r="J30" s="275"/>
+      <c r="B30" s="285"/>
+      <c r="C30" s="285"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="285"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="285"/>
+      <c r="I30" s="285"/>
+      <c r="J30" s="285"/>
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="275"/>
-      <c r="C31" s="275"/>
-      <c r="D31" s="275"/>
-      <c r="E31" s="275"/>
-      <c r="F31" s="275"/>
-      <c r="G31" s="275"/>
-      <c r="H31" s="275"/>
-      <c r="I31" s="275"/>
-      <c r="J31" s="275"/>
+      <c r="B31" s="285"/>
+      <c r="C31" s="285"/>
+      <c r="D31" s="285"/>
+      <c r="E31" s="285"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="285"/>
+      <c r="H31" s="285"/>
+      <c r="I31" s="285"/>
+      <c r="J31" s="285"/>
       <c r="K31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9799,24 +9820,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="185" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="287" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="286" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="287"/>
+      <c r="N1" s="286"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9844,24 +9865,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="185" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="187" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="188"/>
+      <c r="N1" s="170"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
@@ -9873,33 +9894,33 @@
       <c r="B5" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="189" t="s">
+      <c r="C5" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="190"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="172"/>
     </row>
     <row r="6" spans="1:14" ht="42" customHeight="1" thickBot="1">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="193"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="175"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1">
       <c r="B7" s="49"/>
@@ -9918,33 +9939,33 @@
       <c r="B8" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="202" t="s">
+      <c r="C8" s="188" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="203"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="189"/>
     </row>
     <row r="9" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="171"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="192"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
       <c r="B10" s="49"/>
@@ -9963,135 +9984,135 @@
       <c r="B11" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="171" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="190"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="172"/>
     </row>
     <row r="12" spans="1:14" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="193"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="181" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="181" t="s">
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="198" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="182"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="199"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="183" t="s">
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="200" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="184"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="201"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="183" t="s">
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="200" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="184"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="201"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="183" t="s">
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="200" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="184"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="201"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="183" t="s">
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="200" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="184"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="201"/>
     </row>
     <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="196" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="185" t="s">
+      <c r="C18" s="197"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="186"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="203"/>
     </row>
     <row r="19" spans="2:12" ht="14.25" thickBot="1">
       <c r="B19" s="41"/>
@@ -10110,33 +10131,33 @@
       <c r="B20" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="202" t="s">
+      <c r="C20" s="188" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="203"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="189"/>
     </row>
     <row r="21" spans="2:12" ht="49.5" customHeight="1" thickBot="1">
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="190" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="171"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="192"/>
     </row>
     <row r="22" spans="2:12" ht="14.25" thickBot="1">
       <c r="B22" s="49"/>
@@ -10155,135 +10176,149 @@
       <c r="B23" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="189" t="s">
+      <c r="C23" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="190"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:12" ht="76.5" customHeight="1" thickBot="1">
-      <c r="B24" s="191" t="s">
+      <c r="B24" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="193"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="175"/>
     </row>
     <row r="25" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="26" spans="2:12">
       <c r="B26" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="174" t="s">
+      <c r="C26" s="176" t="s">
         <v>253</v>
       </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="175"/>
-    </row>
-    <row r="27" spans="2:12" ht="93" customHeight="1" thickBot="1">
-      <c r="B27" s="194" t="s">
-        <v>359</v>
-      </c>
-      <c r="C27" s="195"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="195"/>
-      <c r="L27" s="196"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="177"/>
+    </row>
+    <row r="27" spans="2:12" ht="64.5" customHeight="1" thickBot="1">
+      <c r="B27" s="178" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="180"/>
     </row>
     <row r="28" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="29" spans="2:12">
       <c r="B29" s="78" t="s">
-        <v>327</v>
-      </c>
-      <c r="C29" s="174" t="s">
-        <v>328</v>
-      </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="175"/>
+        <v>325</v>
+      </c>
+      <c r="C29" s="176" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="177"/>
     </row>
     <row r="30" spans="2:12" ht="72.75" customHeight="1" thickBot="1">
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="177"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="178"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="195"/>
     </row>
     <row r="31" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="32" spans="2:12">
       <c r="B32" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="175"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="177"/>
     </row>
     <row r="33" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="178"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="B30:L30"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C5:L5"/>
     <mergeCell ref="B6:L6"/>
@@ -10300,20 +10335,6 @@
     <mergeCell ref="B24:L24"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="B30:L30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -10336,20 +10357,20 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
       <c r="M1" s="204" t="s">
         <v>117</v>
       </c>
@@ -10418,28 +10439,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="187" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="188"/>
+      <c r="N1" s="170"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1">
@@ -10461,71 +10482,71 @@
         <v>192</v>
       </c>
       <c r="F4" s="125" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G4" s="125" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B6" s="215" t="s">
+      <c r="B6" s="209" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="217"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="210"/>
+      <c r="L6" s="211"/>
     </row>
     <row r="7" spans="1:14" ht="296.25" customHeight="1">
-      <c r="B7" s="206"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="207"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="207"/>
-      <c r="K7" s="207"/>
-      <c r="L7" s="208"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="217"/>
     </row>
     <row r="8" spans="1:14" ht="78.75" customHeight="1" thickBot="1">
-      <c r="B8" s="209" t="s">
+      <c r="B8" s="206" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="210"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="211"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="208"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B10" s="215" t="s">
+      <c r="B10" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="217"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="211"/>
     </row>
     <row r="11" spans="1:14" ht="331.5" customHeight="1">
       <c r="B11" s="212"/>
@@ -10544,35 +10565,35 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="110.25" customHeight="1" thickBot="1">
-      <c r="B12" s="209" t="s">
+      <c r="B12" s="206" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="211"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="208"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="14" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B14" s="215" t="s">
+      <c r="B14" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="216"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="216"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="217"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="210"/>
+      <c r="L14" s="211"/>
     </row>
     <row r="15" spans="1:14" ht="329.25" customHeight="1">
       <c r="B15" s="212"/>
@@ -10588,79 +10609,79 @@
       <c r="L15" s="214"/>
     </row>
     <row r="16" spans="1:14" ht="144.75" customHeight="1" thickBot="1">
-      <c r="B16" s="209" t="s">
+      <c r="B16" s="206" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="210"/>
-      <c r="G16" s="210"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="210"/>
-      <c r="K16" s="210"/>
-      <c r="L16" s="211"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="207"/>
+      <c r="L16" s="208"/>
     </row>
     <row r="17" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="18" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B18" s="215" t="s">
+      <c r="B18" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="216"/>
-      <c r="K18" s="216"/>
-      <c r="L18" s="217"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="211"/>
     </row>
     <row r="19" spans="2:12" ht="329.25" customHeight="1">
-      <c r="B19" s="206"/>
-      <c r="C19" s="207"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="207"/>
-      <c r="L19" s="208"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="216"/>
+      <c r="L19" s="217"/>
     </row>
     <row r="20" spans="2:12" ht="143.25" customHeight="1" thickBot="1">
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="206" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="211"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="208"/>
     </row>
     <row r="21" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="22" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B22" s="215" t="s">
-        <v>341</v>
-      </c>
-      <c r="C22" s="216"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="216"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="217"/>
+      <c r="B22" s="209" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="210"/>
+      <c r="L22" s="211"/>
     </row>
     <row r="23" spans="2:12" ht="409.5" customHeight="1">
       <c r="B23" s="212"/>
@@ -10676,33 +10697,33 @@
       <c r="L23" s="214"/>
     </row>
     <row r="24" spans="2:12" ht="177" customHeight="1" thickBot="1">
-      <c r="B24" s="209"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="210"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="210"/>
-      <c r="K24" s="210"/>
-      <c r="L24" s="211"/>
+      <c r="B24" s="206"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="208"/>
     </row>
     <row r="25" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="26" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B26" s="215" t="s">
-        <v>342</v>
-      </c>
-      <c r="C26" s="216"/>
-      <c r="D26" s="216"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="216"/>
-      <c r="L26" s="217"/>
+      <c r="B26" s="209" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="210"/>
+      <c r="L26" s="211"/>
     </row>
     <row r="27" spans="2:12" ht="283.5" customHeight="1">
       <c r="B27" s="212"/>
@@ -10718,32 +10739,20 @@
       <c r="L27" s="214"/>
     </row>
     <row r="28" spans="2:12" ht="186.75" customHeight="1" thickBot="1">
-      <c r="B28" s="209"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="210"/>
-      <c r="H28" s="210"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="210"/>
-      <c r="L28" s="211"/>
+      <c r="B28" s="206"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="207"/>
+      <c r="K28" s="207"/>
+      <c r="L28" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B8:L8"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B11:L11"/>
@@ -10752,6 +10761,18 @@
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -10791,20 +10812,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="201"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="187"/>
       <c r="M1" s="204" t="s">
         <v>117</v>
       </c>
@@ -10857,13 +10878,13 @@
         <v>159</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E4" s="108" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F4" s="122" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="43"/>
@@ -10908,14 +10929,14 @@
     </row>
     <row r="7" spans="1:15" ht="36.75" customHeight="1" thickBot="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="223" t="s">
+      <c r="B7" s="231" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="187"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -11042,7 +11063,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>53</v>
@@ -11100,7 +11121,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11125,213 +11146,213 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="21" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B21" s="220" t="s">
+      <c r="B21" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="222"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="238"/>
+      <c r="G21" s="239"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B23" s="215" t="s">
+      <c r="B23" s="209" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="215" t="s">
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="209" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="216"/>
-      <c r="G23" s="217"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="211"/>
     </row>
     <row r="24" spans="1:7" ht="100.5" customHeight="1" thickBot="1">
       <c r="B24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="218" t="s">
+      <c r="C24" s="235" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="219"/>
+      <c r="D24" s="236"/>
       <c r="E24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="218" t="s">
+      <c r="F24" s="235" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="219"/>
+      <c r="G24" s="236"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B25" s="215" t="s">
+      <c r="B25" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="216"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="215" t="s">
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="216"/>
-      <c r="G25" s="217"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="211"/>
     </row>
     <row r="26" spans="1:7" ht="266.25" customHeight="1" thickBot="1">
-      <c r="B26" s="215"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="217"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="211"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="28" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B28" s="215" t="s">
+      <c r="B28" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="215" t="s">
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="216"/>
-      <c r="G28" s="217"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="211"/>
     </row>
     <row r="29" spans="1:7" ht="134.25" customHeight="1" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="218" t="s">
+      <c r="C29" s="235" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="219"/>
+      <c r="D29" s="236"/>
       <c r="E29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="218" t="s">
+      <c r="F29" s="235" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="219"/>
+      <c r="G29" s="236"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B30" s="215" t="s">
+      <c r="B30" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="216"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="215" t="s">
+      <c r="C30" s="210"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="216"/>
-      <c r="G30" s="217"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="211"/>
     </row>
     <row r="31" spans="1:7" ht="260.25" customHeight="1" thickBot="1">
-      <c r="B31" s="215"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="217"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="211"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="33" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B33" s="215" t="s">
+      <c r="B33" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="216"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="215" t="s">
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="216"/>
-      <c r="G33" s="217"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="211"/>
     </row>
     <row r="34" spans="1:7" ht="164.25" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="218" t="s">
+      <c r="C34" s="235" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="219"/>
+      <c r="D34" s="236"/>
       <c r="E34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="218" t="s">
+      <c r="F34" s="235" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="219"/>
+      <c r="G34" s="236"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B35" s="215" t="s">
+      <c r="B35" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="216"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="215" t="s">
+      <c r="C35" s="210"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="216"/>
-      <c r="G35" s="217"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="211"/>
     </row>
     <row r="36" spans="1:7" ht="294" customHeight="1" thickBot="1">
-      <c r="B36" s="215"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="217"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="217"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="211"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="38" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B38" s="215" t="s">
+      <c r="B38" s="209" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="216"/>
-      <c r="D38" s="217"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="211"/>
     </row>
     <row r="39" spans="1:7" ht="126.75" customHeight="1" thickBot="1">
       <c r="B39" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="218" t="s">
+      <c r="C39" s="235" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="219"/>
+      <c r="D39" s="236"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B40" s="215" t="s">
+      <c r="B40" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="216"/>
-      <c r="D40" s="217"/>
+      <c r="C40" s="210"/>
+      <c r="D40" s="211"/>
     </row>
     <row r="41" spans="1:7" ht="267" customHeight="1" thickBot="1">
-      <c r="B41" s="215"/>
-      <c r="C41" s="216"/>
-      <c r="D41" s="217"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="210"/>
+      <c r="D41" s="211"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="46" spans="1:7" ht="21.75" thickBot="1">
       <c r="A46" s="91"/>
-      <c r="B46" s="223" t="s">
+      <c r="B46" s="231" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="200"/>
-      <c r="D46" s="200"/>
-      <c r="E46" s="200"/>
-      <c r="F46" s="200"/>
-      <c r="G46" s="201"/>
+      <c r="C46" s="186"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="187"/>
     </row>
     <row r="47" spans="1:7" ht="21.75" thickBot="1">
-      <c r="A47" s="224" t="s">
+      <c r="A47" s="232" t="s">
         <v>221</v>
       </c>
-      <c r="B47" s="225"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="225"/>
-      <c r="E47" s="225"/>
-      <c r="F47" s="225"/>
-      <c r="G47" s="226"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="233"/>
+      <c r="D47" s="233"/>
+      <c r="E47" s="233"/>
+      <c r="F47" s="233"/>
+      <c r="G47" s="234"/>
     </row>
     <row r="48" spans="1:7" ht="14.25" thickBot="1">
       <c r="A48" s="12"/>
@@ -11368,13 +11389,13 @@
         <v>222</v>
       </c>
       <c r="E49" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F49" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="40.5">
@@ -11391,13 +11412,13 @@
         <v>223</v>
       </c>
       <c r="E50" s="81" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F50" s="81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="40.5">
@@ -11414,13 +11435,13 @@
         <v>224</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F51" s="81" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="40.5">
@@ -11437,13 +11458,13 @@
         <v>225</v>
       </c>
       <c r="E52" s="81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F52" s="81" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="27">
@@ -11460,13 +11481,13 @@
         <v>226</v>
       </c>
       <c r="E53" s="81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F53" s="81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="41.25" thickBot="1">
@@ -11480,151 +11501,151 @@
         <v>220</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E54" s="82" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F54" s="82" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1"/>
     <row r="58" spans="1:7" ht="21.75" thickBot="1">
-      <c r="B58" s="223" t="s">
-        <v>292</v>
-      </c>
-      <c r="C58" s="200"/>
-      <c r="D58" s="200"/>
-      <c r="E58" s="200"/>
-      <c r="F58" s="200"/>
-      <c r="G58" s="201"/>
+      <c r="B58" s="231" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" s="186"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="186"/>
+      <c r="F58" s="186"/>
+      <c r="G58" s="187"/>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="213" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C59" s="213"/>
       <c r="D59" s="213" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E59" s="213"/>
       <c r="F59" s="213"/>
       <c r="G59" s="213"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="B60" s="227" t="s">
-        <v>290</v>
-      </c>
-      <c r="C60" s="227"/>
-      <c r="D60" s="227" t="s">
-        <v>291</v>
-      </c>
-      <c r="E60" s="227"/>
-      <c r="F60" s="227"/>
-      <c r="G60" s="227"/>
+      <c r="B60" s="218" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="218"/>
+      <c r="D60" s="218" t="s">
+        <v>289</v>
+      </c>
+      <c r="E60" s="218"/>
+      <c r="F60" s="218"/>
+      <c r="G60" s="218"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="B61" s="227"/>
-      <c r="C61" s="227"/>
-      <c r="D61" s="227"/>
-      <c r="E61" s="227"/>
-      <c r="F61" s="227"/>
-      <c r="G61" s="227"/>
+      <c r="B61" s="218"/>
+      <c r="C61" s="218"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="218"/>
+      <c r="G61" s="218"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="B62" s="227"/>
-      <c r="C62" s="227"/>
-      <c r="D62" s="227"/>
-      <c r="E62" s="227"/>
-      <c r="F62" s="227"/>
-      <c r="G62" s="227"/>
+      <c r="B62" s="218"/>
+      <c r="C62" s="218"/>
+      <c r="D62" s="218"/>
+      <c r="E62" s="218"/>
+      <c r="F62" s="218"/>
+      <c r="G62" s="218"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="B63" s="227"/>
-      <c r="C63" s="227"/>
-      <c r="D63" s="227"/>
-      <c r="E63" s="227"/>
-      <c r="F63" s="227"/>
-      <c r="G63" s="227"/>
+      <c r="B63" s="218"/>
+      <c r="C63" s="218"/>
+      <c r="D63" s="218"/>
+      <c r="E63" s="218"/>
+      <c r="F63" s="218"/>
+      <c r="G63" s="218"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="B64" s="227"/>
-      <c r="C64" s="227"/>
-      <c r="D64" s="227"/>
-      <c r="E64" s="227"/>
-      <c r="F64" s="227"/>
-      <c r="G64" s="227"/>
+      <c r="B64" s="218"/>
+      <c r="C64" s="218"/>
+      <c r="D64" s="218"/>
+      <c r="E64" s="218"/>
+      <c r="F64" s="218"/>
+      <c r="G64" s="218"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="227"/>
-      <c r="C65" s="227"/>
-      <c r="D65" s="227"/>
-      <c r="E65" s="227"/>
-      <c r="F65" s="227"/>
-      <c r="G65" s="227"/>
+      <c r="B65" s="218"/>
+      <c r="C65" s="218"/>
+      <c r="D65" s="218"/>
+      <c r="E65" s="218"/>
+      <c r="F65" s="218"/>
+      <c r="G65" s="218"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="227"/>
-      <c r="C66" s="227"/>
-      <c r="D66" s="227"/>
-      <c r="E66" s="227"/>
-      <c r="F66" s="227"/>
-      <c r="G66" s="227"/>
+      <c r="B66" s="218"/>
+      <c r="C66" s="218"/>
+      <c r="D66" s="218"/>
+      <c r="E66" s="218"/>
+      <c r="F66" s="218"/>
+      <c r="G66" s="218"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="227"/>
-      <c r="C67" s="227"/>
-      <c r="D67" s="227"/>
-      <c r="E67" s="227"/>
-      <c r="F67" s="227"/>
-      <c r="G67" s="227"/>
+      <c r="B67" s="218"/>
+      <c r="C67" s="218"/>
+      <c r="D67" s="218"/>
+      <c r="E67" s="218"/>
+      <c r="F67" s="218"/>
+      <c r="G67" s="218"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="227"/>
-      <c r="C68" s="227"/>
-      <c r="D68" s="227"/>
-      <c r="E68" s="227"/>
-      <c r="F68" s="227"/>
-      <c r="G68" s="227"/>
+      <c r="B68" s="218"/>
+      <c r="C68" s="218"/>
+      <c r="D68" s="218"/>
+      <c r="E68" s="218"/>
+      <c r="F68" s="218"/>
+      <c r="G68" s="218"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="227"/>
-      <c r="C69" s="227"/>
-      <c r="D69" s="227"/>
-      <c r="E69" s="227"/>
-      <c r="F69" s="227"/>
-      <c r="G69" s="227"/>
+      <c r="B69" s="218"/>
+      <c r="C69" s="218"/>
+      <c r="D69" s="218"/>
+      <c r="E69" s="218"/>
+      <c r="F69" s="218"/>
+      <c r="G69" s="218"/>
     </row>
     <row r="74" spans="2:7" ht="35.25" customHeight="1">
-      <c r="B74" s="232" t="s">
-        <v>310</v>
-      </c>
-      <c r="C74" s="233"/>
-      <c r="D74" s="233"/>
-      <c r="E74" s="233"/>
-      <c r="F74" s="233"/>
-      <c r="G74" s="233"/>
+      <c r="B74" s="223" t="s">
+        <v>308</v>
+      </c>
+      <c r="C74" s="224"/>
+      <c r="D74" s="224"/>
+      <c r="E74" s="224"/>
+      <c r="F74" s="224"/>
+      <c r="G74" s="224"/>
     </row>
     <row r="75" spans="2:7" ht="17.25">
-      <c r="B75" s="237" t="s">
-        <v>314</v>
-      </c>
-      <c r="C75" s="238"/>
-      <c r="D75" s="238"/>
-      <c r="E75" s="238"/>
-      <c r="F75" s="238"/>
-      <c r="G75" s="239"/>
+      <c r="B75" s="228" t="s">
+        <v>312</v>
+      </c>
+      <c r="C75" s="229"/>
+      <c r="D75" s="229"/>
+      <c r="E75" s="229"/>
+      <c r="F75" s="229"/>
+      <c r="G75" s="230"/>
     </row>
     <row r="76" spans="2:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="B76" s="118" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C76" s="119" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
@@ -11640,131 +11661,200 @@
       <c r="G77" s="111"/>
     </row>
     <row r="78" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B78" s="234" t="s">
+      <c r="B78" s="225" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" s="226"/>
+      <c r="D78" s="226"/>
+      <c r="E78" s="226" t="s">
+        <v>310</v>
+      </c>
+      <c r="F78" s="226"/>
+      <c r="G78" s="227"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="135" t="s">
         <v>311</v>
       </c>
-      <c r="C78" s="235"/>
-      <c r="D78" s="235"/>
-      <c r="E78" s="235" t="s">
-        <v>312</v>
-      </c>
-      <c r="F78" s="235"/>
-      <c r="G78" s="236"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="147" t="s">
-        <v>313</v>
-      </c>
-      <c r="C79" s="147"/>
-      <c r="D79" s="147"/>
-      <c r="E79" s="147" t="s">
+      <c r="C79" s="135"/>
+      <c r="D79" s="135"/>
+      <c r="E79" s="135" t="s">
+        <v>318</v>
+      </c>
+      <c r="F79" s="135"/>
+      <c r="G79" s="135"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="219" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="219"/>
+      <c r="D80" s="219"/>
+      <c r="E80" s="219" t="s">
+        <v>316</v>
+      </c>
+      <c r="F80" s="219"/>
+      <c r="G80" s="219"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="219" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="219"/>
+      <c r="D81" s="219"/>
+      <c r="E81" s="219" t="s">
+        <v>319</v>
+      </c>
+      <c r="F81" s="219"/>
+      <c r="G81" s="219"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="219" t="s">
         <v>320</v>
       </c>
-      <c r="F79" s="147"/>
-      <c r="G79" s="147"/>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="231" t="s">
-        <v>317</v>
-      </c>
-      <c r="C80" s="231"/>
-      <c r="D80" s="231"/>
-      <c r="E80" s="231" t="s">
-        <v>318</v>
-      </c>
-      <c r="F80" s="231"/>
-      <c r="G80" s="231"/>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="231" t="s">
-        <v>319</v>
-      </c>
-      <c r="C81" s="231"/>
-      <c r="D81" s="231"/>
-      <c r="E81" s="231" t="s">
+      <c r="C82" s="219"/>
+      <c r="D82" s="219"/>
+      <c r="E82" s="219" t="s">
         <v>321</v>
       </c>
-      <c r="F81" s="231"/>
-      <c r="G81" s="231"/>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="231" t="s">
-        <v>322</v>
-      </c>
-      <c r="C82" s="231"/>
-      <c r="D82" s="231"/>
-      <c r="E82" s="231" t="s">
-        <v>323</v>
-      </c>
-      <c r="F82" s="231"/>
-      <c r="G82" s="231"/>
+      <c r="F82" s="219"/>
+      <c r="G82" s="219"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="231"/>
-      <c r="C83" s="231"/>
-      <c r="D83" s="231"/>
-      <c r="E83" s="231"/>
-      <c r="F83" s="231"/>
-      <c r="G83" s="231"/>
+      <c r="B83" s="219"/>
+      <c r="C83" s="219"/>
+      <c r="D83" s="219"/>
+      <c r="E83" s="219"/>
+      <c r="F83" s="219"/>
+      <c r="G83" s="219"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="228"/>
-      <c r="C84" s="229"/>
-      <c r="D84" s="230"/>
-      <c r="E84" s="228"/>
-      <c r="F84" s="229"/>
-      <c r="G84" s="230"/>
+      <c r="B84" s="220"/>
+      <c r="C84" s="221"/>
+      <c r="D84" s="222"/>
+      <c r="E84" s="220"/>
+      <c r="F84" s="221"/>
+      <c r="G84" s="222"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="228"/>
-      <c r="C85" s="229"/>
-      <c r="D85" s="230"/>
-      <c r="E85" s="228"/>
-      <c r="F85" s="229"/>
-      <c r="G85" s="230"/>
+      <c r="B85" s="220"/>
+      <c r="C85" s="221"/>
+      <c r="D85" s="222"/>
+      <c r="E85" s="220"/>
+      <c r="F85" s="221"/>
+      <c r="G85" s="222"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="231"/>
-      <c r="C86" s="231"/>
-      <c r="D86" s="231"/>
-      <c r="E86" s="231"/>
-      <c r="F86" s="231"/>
-      <c r="G86" s="231"/>
+      <c r="B86" s="219"/>
+      <c r="C86" s="219"/>
+      <c r="D86" s="219"/>
+      <c r="E86" s="219"/>
+      <c r="F86" s="219"/>
+      <c r="G86" s="219"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="227"/>
-      <c r="C87" s="227"/>
-      <c r="D87" s="227"/>
-      <c r="E87" s="227"/>
-      <c r="F87" s="227"/>
-      <c r="G87" s="227"/>
+      <c r="B87" s="218"/>
+      <c r="C87" s="218"/>
+      <c r="D87" s="218"/>
+      <c r="E87" s="218"/>
+      <c r="F87" s="218"/>
+      <c r="G87" s="218"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="227"/>
-      <c r="C88" s="227"/>
-      <c r="D88" s="227"/>
-      <c r="E88" s="227"/>
-      <c r="F88" s="227"/>
-      <c r="G88" s="227"/>
+      <c r="B88" s="218"/>
+      <c r="C88" s="218"/>
+      <c r="D88" s="218"/>
+      <c r="E88" s="218"/>
+      <c r="F88" s="218"/>
+      <c r="G88" s="218"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="227"/>
-      <c r="C89" s="227"/>
-      <c r="D89" s="227"/>
-      <c r="E89" s="227"/>
-      <c r="F89" s="227"/>
-      <c r="G89" s="227"/>
+      <c r="B89" s="218"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="218"/>
+      <c r="E89" s="218"/>
+      <c r="F89" s="218"/>
+      <c r="G89" s="218"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="227"/>
-      <c r="C90" s="227"/>
-      <c r="D90" s="227"/>
-      <c r="E90" s="227"/>
-      <c r="F90" s="227"/>
-      <c r="G90" s="227"/>
+      <c r="B90" s="218"/>
+      <c r="C90" s="218"/>
+      <c r="D90" s="218"/>
+      <c r="E90" s="218"/>
+      <c r="F90" s="218"/>
+      <c r="G90" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B75:G75"/>
     <mergeCell ref="B88:D88"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B90:D90"/>
@@ -11781,75 +11871,6 @@
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -11884,24 +11905,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="187" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="188"/>
+      <c r="N1" s="170"/>
       <c r="O1" t="s">
         <v>200</v>
       </c>
@@ -11978,13 +11999,13 @@
     </row>
     <row r="6" spans="1:15" s="68" customFormat="1" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:15" ht="14.25" thickBot="1">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="209" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="217"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="211"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1">
       <c r="B8" s="61"/>
@@ -12071,7 +12092,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="39" t="s">
@@ -12164,19 +12185,19 @@
     </row>
     <row r="26" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="27" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B27" s="215" t="s">
+      <c r="B27" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="216"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="216"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="216"/>
-      <c r="L27" s="217"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="210"/>
+      <c r="L27" s="211"/>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="212"/>
@@ -12192,342 +12213,342 @@
       <c r="L28" s="214"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="206"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="207"/>
-      <c r="K29" s="207"/>
-      <c r="L29" s="208"/>
+      <c r="B29" s="215"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="216"/>
+      <c r="L29" s="217"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="206"/>
-      <c r="C30" s="207"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="207"/>
-      <c r="K30" s="207"/>
-      <c r="L30" s="208"/>
+      <c r="B30" s="215"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="217"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="206"/>
-      <c r="C31" s="207"/>
-      <c r="D31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="207"/>
-      <c r="K31" s="207"/>
-      <c r="L31" s="208"/>
+      <c r="B31" s="215"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="217"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="206"/>
-      <c r="C32" s="207"/>
-      <c r="D32" s="207"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="207"/>
-      <c r="L32" s="208"/>
+      <c r="B32" s="215"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="216"/>
+      <c r="L32" s="217"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="206"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="207"/>
-      <c r="K33" s="207"/>
-      <c r="L33" s="208"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="216"/>
+      <c r="L33" s="217"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="206"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="207"/>
-      <c r="K34" s="207"/>
-      <c r="L34" s="208"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="216"/>
+      <c r="K34" s="216"/>
+      <c r="L34" s="217"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="206"/>
-      <c r="C35" s="207"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="207"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="207"/>
-      <c r="K35" s="207"/>
-      <c r="L35" s="208"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="216"/>
+      <c r="K35" s="216"/>
+      <c r="L35" s="217"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="206"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="207"/>
-      <c r="K36" s="207"/>
-      <c r="L36" s="208"/>
+      <c r="B36" s="215"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="216"/>
+      <c r="H36" s="216"/>
+      <c r="I36" s="216"/>
+      <c r="J36" s="216"/>
+      <c r="K36" s="216"/>
+      <c r="L36" s="217"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="206"/>
-      <c r="C37" s="207"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="207"/>
-      <c r="K37" s="207"/>
-      <c r="L37" s="208"/>
+      <c r="B37" s="215"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="217"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="206"/>
-      <c r="C38" s="207"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="207"/>
-      <c r="K38" s="207"/>
-      <c r="L38" s="208"/>
+      <c r="B38" s="215"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="216"/>
+      <c r="I38" s="216"/>
+      <c r="J38" s="216"/>
+      <c r="K38" s="216"/>
+      <c r="L38" s="217"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="206"/>
-      <c r="C39" s="207"/>
-      <c r="D39" s="207"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="207"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="207"/>
-      <c r="K39" s="207"/>
-      <c r="L39" s="208"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="216"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="216"/>
+      <c r="J39" s="216"/>
+      <c r="K39" s="216"/>
+      <c r="L39" s="217"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="206"/>
-      <c r="C40" s="207"/>
-      <c r="D40" s="207"/>
-      <c r="E40" s="207"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="207"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="207"/>
-      <c r="K40" s="207"/>
-      <c r="L40" s="208"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="216"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="216"/>
+      <c r="L40" s="217"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="206"/>
-      <c r="C41" s="207"/>
-      <c r="D41" s="207"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="207"/>
-      <c r="K41" s="207"/>
-      <c r="L41" s="208"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="216"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="216"/>
+      <c r="G41" s="216"/>
+      <c r="H41" s="216"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="217"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="206"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="207"/>
-      <c r="E42" s="207"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="207"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="207"/>
-      <c r="K42" s="207"/>
-      <c r="L42" s="208"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="216"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216"/>
+      <c r="K42" s="216"/>
+      <c r="L42" s="217"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="206"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="207"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="207"/>
-      <c r="H43" s="207"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="207"/>
-      <c r="K43" s="207"/>
-      <c r="L43" s="208"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="216"/>
+      <c r="D43" s="216"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="216"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="216"/>
+      <c r="K43" s="216"/>
+      <c r="L43" s="217"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="206"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="207"/>
-      <c r="E44" s="207"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="207"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="207"/>
-      <c r="K44" s="207"/>
-      <c r="L44" s="208"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="216"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="216"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="216"/>
+      <c r="I44" s="216"/>
+      <c r="J44" s="216"/>
+      <c r="K44" s="216"/>
+      <c r="L44" s="217"/>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="206"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="207"/>
-      <c r="E45" s="207"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="207"/>
-      <c r="H45" s="207"/>
-      <c r="I45" s="207"/>
-      <c r="J45" s="207"/>
-      <c r="K45" s="207"/>
-      <c r="L45" s="208"/>
+      <c r="B45" s="215"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="216"/>
+      <c r="K45" s="216"/>
+      <c r="L45" s="217"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="206"/>
-      <c r="C46" s="207"/>
-      <c r="D46" s="207"/>
-      <c r="E46" s="207"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="207"/>
-      <c r="H46" s="207"/>
-      <c r="I46" s="207"/>
-      <c r="J46" s="207"/>
-      <c r="K46" s="207"/>
-      <c r="L46" s="208"/>
+      <c r="B46" s="215"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="216"/>
+      <c r="E46" s="216"/>
+      <c r="F46" s="216"/>
+      <c r="G46" s="216"/>
+      <c r="H46" s="216"/>
+      <c r="I46" s="216"/>
+      <c r="J46" s="216"/>
+      <c r="K46" s="216"/>
+      <c r="L46" s="217"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="206"/>
-      <c r="C47" s="207"/>
-      <c r="D47" s="207"/>
-      <c r="E47" s="207"/>
-      <c r="F47" s="207"/>
-      <c r="G47" s="207"/>
-      <c r="H47" s="207"/>
-      <c r="I47" s="207"/>
-      <c r="J47" s="207"/>
-      <c r="K47" s="207"/>
-      <c r="L47" s="208"/>
+      <c r="B47" s="215"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="216"/>
+      <c r="L47" s="217"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="206"/>
-      <c r="C48" s="207"/>
-      <c r="D48" s="207"/>
-      <c r="E48" s="207"/>
-      <c r="F48" s="207"/>
-      <c r="G48" s="207"/>
-      <c r="H48" s="207"/>
-      <c r="I48" s="207"/>
-      <c r="J48" s="207"/>
-      <c r="K48" s="207"/>
-      <c r="L48" s="208"/>
+      <c r="B48" s="215"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="216"/>
+      <c r="K48" s="216"/>
+      <c r="L48" s="217"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="206"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="207"/>
-      <c r="K49" s="207"/>
-      <c r="L49" s="208"/>
+      <c r="B49" s="215"/>
+      <c r="C49" s="216"/>
+      <c r="D49" s="216"/>
+      <c r="E49" s="216"/>
+      <c r="F49" s="216"/>
+      <c r="G49" s="216"/>
+      <c r="H49" s="216"/>
+      <c r="I49" s="216"/>
+      <c r="J49" s="216"/>
+      <c r="K49" s="216"/>
+      <c r="L49" s="217"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="206"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="207"/>
-      <c r="E50" s="207"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="207"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="207"/>
-      <c r="K50" s="207"/>
-      <c r="L50" s="208"/>
+      <c r="B50" s="215"/>
+      <c r="C50" s="216"/>
+      <c r="D50" s="216"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="216"/>
+      <c r="G50" s="216"/>
+      <c r="H50" s="216"/>
+      <c r="I50" s="216"/>
+      <c r="J50" s="216"/>
+      <c r="K50" s="216"/>
+      <c r="L50" s="217"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="206"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="207"/>
-      <c r="E51" s="207"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="207"/>
-      <c r="H51" s="207"/>
-      <c r="I51" s="207"/>
-      <c r="J51" s="207"/>
-      <c r="K51" s="207"/>
-      <c r="L51" s="208"/>
+      <c r="B51" s="215"/>
+      <c r="C51" s="216"/>
+      <c r="D51" s="216"/>
+      <c r="E51" s="216"/>
+      <c r="F51" s="216"/>
+      <c r="G51" s="216"/>
+      <c r="H51" s="216"/>
+      <c r="I51" s="216"/>
+      <c r="J51" s="216"/>
+      <c r="K51" s="216"/>
+      <c r="L51" s="217"/>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="206"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="207"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="207"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="207"/>
-      <c r="K52" s="207"/>
-      <c r="L52" s="208"/>
+      <c r="B52" s="215"/>
+      <c r="C52" s="216"/>
+      <c r="D52" s="216"/>
+      <c r="E52" s="216"/>
+      <c r="F52" s="216"/>
+      <c r="G52" s="216"/>
+      <c r="H52" s="216"/>
+      <c r="I52" s="216"/>
+      <c r="J52" s="216"/>
+      <c r="K52" s="216"/>
+      <c r="L52" s="217"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="206"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="207"/>
-      <c r="E53" s="207"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="207"/>
-      <c r="H53" s="207"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="207"/>
-      <c r="K53" s="207"/>
-      <c r="L53" s="208"/>
+      <c r="B53" s="215"/>
+      <c r="C53" s="216"/>
+      <c r="D53" s="216"/>
+      <c r="E53" s="216"/>
+      <c r="F53" s="216"/>
+      <c r="G53" s="216"/>
+      <c r="H53" s="216"/>
+      <c r="I53" s="216"/>
+      <c r="J53" s="216"/>
+      <c r="K53" s="216"/>
+      <c r="L53" s="217"/>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="206"/>
-      <c r="C54" s="207"/>
-      <c r="D54" s="207"/>
-      <c r="E54" s="207"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="207"/>
-      <c r="H54" s="207"/>
-      <c r="I54" s="207"/>
-      <c r="J54" s="207"/>
-      <c r="K54" s="207"/>
-      <c r="L54" s="208"/>
+      <c r="B54" s="215"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="216"/>
+      <c r="E54" s="216"/>
+      <c r="F54" s="216"/>
+      <c r="G54" s="216"/>
+      <c r="H54" s="216"/>
+      <c r="I54" s="216"/>
+      <c r="J54" s="216"/>
+      <c r="K54" s="216"/>
+      <c r="L54" s="217"/>
     </row>
     <row r="55" spans="2:12" ht="14.25" thickBot="1">
       <c r="B55" s="240"/>
@@ -12586,28 +12607,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
-      <c r="M1" s="248" t="s">
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="246" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="249"/>
+      <c r="N1" s="247"/>
     </row>
     <row r="2" spans="1:14" ht="24.75" customHeight="1">
       <c r="A2" s="79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
@@ -12656,15 +12677,15 @@
       <c r="N4" s="107"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="250" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="252"/>
+      <c r="A5" s="248" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="250"/>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
@@ -12797,115 +12818,110 @@
     </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B23" s="253" t="s">
-        <v>294</v>
-      </c>
-      <c r="C23" s="254"/>
-      <c r="D23" s="254"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="255"/>
+      <c r="B23" s="251" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="253"/>
     </row>
     <row r="24" spans="2:7" ht="208.5" customHeight="1">
-      <c r="B24" s="245"/>
-      <c r="C24" s="245"/>
-      <c r="D24" s="245"/>
-      <c r="E24" s="245"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
+      <c r="B24" s="254"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="254"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
     </row>
     <row r="25" spans="2:7" ht="218.25" customHeight="1">
-      <c r="B25" s="246"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="246"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
+      <c r="B25" s="255"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="255"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
     </row>
     <row r="26" spans="2:7" ht="83.25" customHeight="1">
-      <c r="C26" s="227"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="227"/>
-      <c r="F26" s="227"/>
-      <c r="G26" s="227"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="227"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="227"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="218"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="227"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="227"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="227"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="227"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="218"/>
+      <c r="G31" s="218"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="C32" s="227"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="227"/>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="227"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="227"/>
-      <c r="D34" s="227"/>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
     </row>
     <row r="35" spans="3:7">
-      <c r="C35" s="227"/>
-      <c r="D35" s="227"/>
-      <c r="E35" s="227"/>
-      <c r="F35" s="227"/>
-      <c r="G35" s="227"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
     </row>
     <row r="36" spans="3:7">
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
-      <c r="E36" s="227"/>
-      <c r="F36" s="227"/>
-      <c r="G36" s="227"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="B24:E24"/>
@@ -12920,6 +12936,11 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="C34:G34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -12942,7 +12963,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12954,28 +12975,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="257" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="258"/>
+      <c r="N1" s="257"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1"/>
@@ -12989,25 +13010,25 @@
         <v>231</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B8" s="253" t="s">
+      <c r="B8" s="251" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="254"/>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="254"/>
-      <c r="J8" s="254"/>
-      <c r="K8" s="255"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="252"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="253"/>
       <c r="L8" s="92"/>
     </row>
     <row r="9" spans="1:14">
@@ -13068,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K10" s="18"/>
     </row>
@@ -13120,488 +13141,498 @@
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
     </row>
-    <row r="21" spans="2:11" ht="33.75" customHeight="1">
-      <c r="B21" s="227" t="s">
+    <row r="20" spans="2:11" ht="14.25" thickBot="1"/>
+    <row r="21" spans="2:11" ht="33.75" customHeight="1" thickBot="1">
+      <c r="B21" s="209" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="211"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="212"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="214"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="215"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="216"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="217"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="215"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="216"/>
+      <c r="J24" s="216"/>
+      <c r="K24" s="217"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="215"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="216"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="217"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="215"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="217"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="215"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="217"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="215"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="217"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="215"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="217"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="215"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="217"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="215"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="217"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="215"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="217"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="215"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="217"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="215"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="216"/>
+      <c r="K34" s="217"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="215"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="216"/>
+      <c r="K35" s="217"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="215"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="216"/>
+      <c r="H36" s="216"/>
+      <c r="I36" s="216"/>
+      <c r="J36" s="216"/>
+      <c r="K36" s="217"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="215"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="217"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="215"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="216"/>
+      <c r="I38" s="216"/>
+      <c r="J38" s="216"/>
+      <c r="K38" s="217"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="215"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="216"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="216"/>
+      <c r="J39" s="216"/>
+      <c r="K39" s="217"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="215"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="216"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="217"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="215"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="216"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="216"/>
+      <c r="G41" s="216"/>
+      <c r="H41" s="216"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="217"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="215"/>
+      <c r="C42" s="216"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216"/>
+      <c r="K42" s="217"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="215"/>
+      <c r="C43" s="216"/>
+      <c r="D43" s="216"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="216"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="216"/>
+      <c r="K43" s="217"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="215"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="216"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="216"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="216"/>
+      <c r="I44" s="216"/>
+      <c r="J44" s="216"/>
+      <c r="K44" s="217"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="215"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="216"/>
+      <c r="K45" s="217"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="215"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="216"/>
+      <c r="E46" s="216"/>
+      <c r="F46" s="216"/>
+      <c r="G46" s="216"/>
+      <c r="H46" s="216"/>
+      <c r="I46" s="216"/>
+      <c r="J46" s="216"/>
+      <c r="K46" s="217"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="215"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="217"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="215"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="216"/>
+      <c r="K48" s="217"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="215"/>
+      <c r="C49" s="216"/>
+      <c r="D49" s="216"/>
+      <c r="E49" s="216"/>
+      <c r="F49" s="216"/>
+      <c r="G49" s="216"/>
+      <c r="H49" s="216"/>
+      <c r="I49" s="216"/>
+      <c r="J49" s="216"/>
+      <c r="K49" s="217"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="215"/>
+      <c r="C50" s="216"/>
+      <c r="D50" s="216"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="216"/>
+      <c r="G50" s="216"/>
+      <c r="H50" s="216"/>
+      <c r="I50" s="216"/>
+      <c r="J50" s="216"/>
+      <c r="K50" s="217"/>
+    </row>
+    <row r="51" spans="2:11" ht="14.25" thickBot="1">
+      <c r="B51" s="215"/>
+      <c r="C51" s="216"/>
+      <c r="D51" s="216"/>
+      <c r="E51" s="216"/>
+      <c r="F51" s="216"/>
+      <c r="G51" s="216"/>
+      <c r="H51" s="216"/>
+      <c r="I51" s="216"/>
+      <c r="J51" s="216"/>
+      <c r="K51" s="217"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="243" t="s">
+        <v>329</v>
+      </c>
+      <c r="C52" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="227"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="227"/>
-      <c r="K21" s="227"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="227"/>
-      <c r="J22" s="227"/>
-      <c r="K22" s="227"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="227"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="227"/>
-      <c r="F23" s="227"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="227"/>
-      <c r="J23" s="227"/>
-      <c r="K23" s="227"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="227"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="227"/>
-      <c r="E24" s="227"/>
-      <c r="F24" s="227"/>
-      <c r="G24" s="227"/>
-      <c r="H24" s="227"/>
-      <c r="I24" s="227"/>
-      <c r="J24" s="227"/>
-      <c r="K24" s="227"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="227"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="227"/>
-      <c r="H25" s="227"/>
-      <c r="I25" s="227"/>
-      <c r="J25" s="227"/>
-      <c r="K25" s="227"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="227"/>
-      <c r="C26" s="227"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="227"/>
-      <c r="F26" s="227"/>
-      <c r="G26" s="227"/>
-      <c r="H26" s="227"/>
-      <c r="I26" s="227"/>
-      <c r="J26" s="227"/>
-      <c r="K26" s="227"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="227"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="227"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="227"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="227"/>
-      <c r="J27" s="227"/>
-      <c r="K27" s="227"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="227"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="227"/>
-      <c r="J28" s="227"/>
-      <c r="K28" s="227"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="227"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="227"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="227"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="227"/>
-      <c r="J29" s="227"/>
-      <c r="K29" s="227"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="227"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="227"/>
-      <c r="J30" s="227"/>
-      <c r="K30" s="227"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="227"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="227"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="227"/>
-      <c r="J31" s="227"/>
-      <c r="K31" s="227"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="227"/>
-      <c r="C32" s="227"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="227"/>
-      <c r="K32" s="227"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="227"/>
-      <c r="C33" s="227"/>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="227"/>
-      <c r="J33" s="227"/>
-      <c r="K33" s="227"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="227"/>
-      <c r="C34" s="227"/>
-      <c r="D34" s="227"/>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="227"/>
-      <c r="K34" s="227"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="227"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="227"/>
-      <c r="E35" s="227"/>
-      <c r="F35" s="227"/>
-      <c r="G35" s="227"/>
-      <c r="H35" s="227"/>
-      <c r="I35" s="227"/>
-      <c r="J35" s="227"/>
-      <c r="K35" s="227"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="227"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
-      <c r="E36" s="227"/>
-      <c r="F36" s="227"/>
-      <c r="G36" s="227"/>
-      <c r="H36" s="227"/>
-      <c r="I36" s="227"/>
-      <c r="J36" s="227"/>
-      <c r="K36" s="227"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="227"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="227"/>
-      <c r="E37" s="227"/>
-      <c r="F37" s="227"/>
-      <c r="G37" s="227"/>
-      <c r="H37" s="227"/>
-      <c r="I37" s="227"/>
-      <c r="J37" s="227"/>
-      <c r="K37" s="227"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="227"/>
-      <c r="C38" s="227"/>
-      <c r="D38" s="227"/>
-      <c r="E38" s="227"/>
-      <c r="F38" s="227"/>
-      <c r="G38" s="227"/>
-      <c r="H38" s="227"/>
-      <c r="I38" s="227"/>
-      <c r="J38" s="227"/>
-      <c r="K38" s="227"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="227"/>
-      <c r="E39" s="227"/>
-      <c r="F39" s="227"/>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
-      <c r="I39" s="227"/>
-      <c r="J39" s="227"/>
-      <c r="K39" s="227"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="227"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="227"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
-      <c r="K40" s="227"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="227"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="227"/>
-      <c r="G41" s="227"/>
-      <c r="H41" s="227"/>
-      <c r="I41" s="227"/>
-      <c r="J41" s="227"/>
-      <c r="K41" s="227"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
-      <c r="E42" s="227"/>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
-      <c r="H42" s="227"/>
-      <c r="I42" s="227"/>
-      <c r="J42" s="227"/>
-      <c r="K42" s="227"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="227"/>
-      <c r="C43" s="227"/>
-      <c r="D43" s="227"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="227"/>
-      <c r="G43" s="227"/>
-      <c r="H43" s="227"/>
-      <c r="I43" s="227"/>
-      <c r="J43" s="227"/>
-      <c r="K43" s="227"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="227"/>
-      <c r="C44" s="227"/>
-      <c r="D44" s="227"/>
-      <c r="E44" s="227"/>
-      <c r="F44" s="227"/>
-      <c r="G44" s="227"/>
-      <c r="H44" s="227"/>
-      <c r="I44" s="227"/>
-      <c r="J44" s="227"/>
-      <c r="K44" s="227"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="227"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="227"/>
-      <c r="E45" s="227"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="227"/>
-      <c r="H45" s="227"/>
-      <c r="I45" s="227"/>
-      <c r="J45" s="227"/>
-      <c r="K45" s="227"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="227"/>
-      <c r="C46" s="227"/>
-      <c r="D46" s="227"/>
-      <c r="E46" s="227"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="227"/>
-      <c r="H46" s="227"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="227"/>
-      <c r="K46" s="227"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="227"/>
-      <c r="C47" s="227"/>
-      <c r="D47" s="227"/>
-      <c r="E47" s="227"/>
-      <c r="F47" s="227"/>
-      <c r="G47" s="227"/>
-      <c r="H47" s="227"/>
-      <c r="I47" s="227"/>
-      <c r="J47" s="227"/>
-      <c r="K47" s="227"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="227"/>
-      <c r="C48" s="227"/>
-      <c r="D48" s="227"/>
-      <c r="E48" s="227"/>
-      <c r="F48" s="227"/>
-      <c r="G48" s="227"/>
-      <c r="H48" s="227"/>
-      <c r="I48" s="227"/>
-      <c r="J48" s="227"/>
-      <c r="K48" s="227"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="227"/>
-      <c r="C49" s="227"/>
-      <c r="D49" s="227"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="227"/>
-      <c r="G49" s="227"/>
-      <c r="H49" s="227"/>
-      <c r="I49" s="227"/>
-      <c r="J49" s="227"/>
-      <c r="K49" s="227"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="227"/>
-      <c r="C50" s="227"/>
-      <c r="D50" s="227"/>
-      <c r="E50" s="227"/>
-      <c r="F50" s="227"/>
-      <c r="G50" s="227"/>
-      <c r="H50" s="227"/>
-      <c r="I50" s="227"/>
-      <c r="J50" s="227"/>
-      <c r="K50" s="227"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="227"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="227"/>
-      <c r="E51" s="227"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="227"/>
-      <c r="H51" s="227"/>
-      <c r="I51" s="227"/>
-      <c r="J51" s="227"/>
-      <c r="K51" s="227"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="227" t="s">
+      <c r="D52" s="267"/>
+      <c r="E52" s="267" t="s">
         <v>331</v>
       </c>
-      <c r="C52" s="227" t="s">
+      <c r="F52" s="267"/>
+      <c r="G52" s="267"/>
+      <c r="H52" s="267"/>
+      <c r="I52" s="267" t="s">
+        <v>343</v>
+      </c>
+      <c r="J52" s="267"/>
+      <c r="K52" s="244" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="14.25" thickBot="1">
+      <c r="B53" s="287"/>
+      <c r="C53" s="288"/>
+      <c r="D53" s="288"/>
+      <c r="E53" s="288" t="s">
         <v>332</v>
       </c>
-      <c r="D52" s="227"/>
-      <c r="E52" s="227" t="s">
+      <c r="F53" s="288"/>
+      <c r="G53" s="288" t="s">
         <v>333</v>
       </c>
-      <c r="F52" s="227"/>
-      <c r="G52" s="227"/>
-      <c r="H52" s="227"/>
-      <c r="I52" s="227" t="s">
+      <c r="H53" s="288"/>
+      <c r="I53" s="288"/>
+      <c r="J53" s="288"/>
+      <c r="K53" s="289"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="290" t="s">
+        <v>334</v>
+      </c>
+      <c r="C54" s="267" t="s">
+        <v>335</v>
+      </c>
+      <c r="D54" s="267"/>
+      <c r="E54" s="267" t="s">
+        <v>336</v>
+      </c>
+      <c r="F54" s="267"/>
+      <c r="G54" s="267" t="s">
+        <v>341</v>
+      </c>
+      <c r="H54" s="267"/>
+      <c r="I54" s="267" t="s">
+        <v>342</v>
+      </c>
+      <c r="J54" s="267"/>
+      <c r="K54" s="291"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" s="219" t="s">
         <v>345</v>
       </c>
-      <c r="J52" s="227"/>
-      <c r="K52" s="227" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="227"/>
-      <c r="C53" s="227"/>
-      <c r="D53" s="227"/>
-      <c r="E53" s="227" t="s">
-        <v>334</v>
-      </c>
-      <c r="F53" s="227"/>
-      <c r="G53" s="227" t="s">
-        <v>335</v>
-      </c>
-      <c r="H53" s="227"/>
-      <c r="I53" s="227"/>
-      <c r="J53" s="227"/>
-      <c r="K53" s="227"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" t="s">
-        <v>336</v>
-      </c>
-      <c r="C54" s="227" t="s">
-        <v>337</v>
-      </c>
-      <c r="D54" s="227"/>
-      <c r="E54" s="227" t="s">
-        <v>338</v>
-      </c>
-      <c r="F54" s="227"/>
-      <c r="G54" s="227" t="s">
-        <v>343</v>
-      </c>
-      <c r="H54" s="227"/>
-      <c r="I54" s="227" t="s">
-        <v>344</v>
-      </c>
-      <c r="J54" s="227"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" t="s">
+      <c r="D55" s="219"/>
+      <c r="E55" s="219" t="s">
         <v>346</v>
       </c>
-      <c r="C55" s="227" t="s">
+      <c r="F55" s="219"/>
+      <c r="G55" s="219" t="s">
         <v>347</v>
       </c>
-      <c r="D55" s="227"/>
-      <c r="E55" s="227" t="s">
+      <c r="H55" s="219"/>
+      <c r="I55" s="219" t="s">
         <v>348</v>
       </c>
-      <c r="F55" s="227"/>
-      <c r="G55" s="227" t="s">
+      <c r="J55" s="219"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="2:11" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B56" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="H55" s="227"/>
-      <c r="I55" s="227" t="s">
+      <c r="C56" s="263" t="s">
         <v>350</v>
       </c>
-      <c r="J55" s="227"/>
-    </row>
-    <row r="56" spans="2:11" ht="27.75" customHeight="1">
-      <c r="B56" t="s">
+      <c r="D56" s="263"/>
+      <c r="E56" s="263" t="s">
         <v>351</v>
       </c>
-      <c r="C56" s="227" t="s">
+      <c r="F56" s="263"/>
+      <c r="G56" s="263" t="s">
         <v>352</v>
       </c>
-      <c r="D56" s="227"/>
-      <c r="E56" s="227" t="s">
+      <c r="H56" s="263"/>
+      <c r="I56" s="292" t="s">
         <v>353</v>
       </c>
-      <c r="F56" s="227"/>
-      <c r="G56" s="227" t="s">
-        <v>354</v>
-      </c>
-      <c r="H56" s="227"/>
-      <c r="I56" s="256" t="s">
-        <v>355</v>
-      </c>
-      <c r="J56" s="227"/>
+      <c r="J56" s="263"/>
+      <c r="K56" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:D53"/>
     <mergeCell ref="E54:F54"/>
@@ -13610,17 +13641,11 @@
     <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -13649,24 +13674,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="185" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="257" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="258"/>
+      <c r="N1" s="257"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickBot="1">
       <c r="A2" t="s">
@@ -13691,384 +13716,384 @@
       <c r="B6" s="243" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="267"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="267"/>
       <c r="J6" s="244"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="262"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="269"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="268"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="262"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="269"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="268"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="262"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="269"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="268"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="262"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="269"/>
+      <c r="B10" s="261"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="268"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="262"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="269"/>
+      <c r="B11" s="261"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="268"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="262"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="231"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="269"/>
+      <c r="B12" s="261"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="219"/>
+      <c r="J12" s="268"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="262"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="231"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="269"/>
+      <c r="B13" s="261"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="268"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="262"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
-      <c r="E14" s="231"/>
-      <c r="F14" s="231"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="231"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="269"/>
+      <c r="B14" s="261"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="268"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="262"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="269"/>
+      <c r="B15" s="261"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="268"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="262"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="231"/>
-      <c r="E16" s="231"/>
-      <c r="F16" s="231"/>
-      <c r="G16" s="231"/>
-      <c r="H16" s="231"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="269"/>
+      <c r="B16" s="261"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="268"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="262"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="231"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="231"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="269"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="268"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="262"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="231"/>
-      <c r="F18" s="231"/>
-      <c r="G18" s="231"/>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="269"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="268"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="262"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="269"/>
+      <c r="B19" s="261"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="268"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="262"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="269"/>
+      <c r="B20" s="261"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="268"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="262"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="231"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="269"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="268"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="262"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="231"/>
-      <c r="G22" s="231"/>
-      <c r="H22" s="231"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="269"/>
+      <c r="B22" s="261"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="268"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="262"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="231"/>
-      <c r="H23" s="231"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="269"/>
+      <c r="B23" s="261"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="268"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="262"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="231"/>
-      <c r="E24" s="231"/>
-      <c r="F24" s="231"/>
-      <c r="G24" s="231"/>
-      <c r="H24" s="231"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="269"/>
+      <c r="B24" s="261"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="268"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="262"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="269"/>
+      <c r="B25" s="261"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="268"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="262"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="231"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="231"/>
-      <c r="H26" s="231"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="269"/>
+      <c r="B26" s="261"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="268"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="262"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="231"/>
-      <c r="G27" s="231"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="269"/>
+      <c r="B27" s="261"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="268"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="262"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="231"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="231"/>
-      <c r="G28" s="231"/>
-      <c r="H28" s="231"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="269"/>
+      <c r="B28" s="261"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="268"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="262"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="231"/>
-      <c r="E29" s="231"/>
-      <c r="F29" s="231"/>
-      <c r="G29" s="231"/>
-      <c r="H29" s="231"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="269"/>
+      <c r="B29" s="261"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="268"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="262"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="231"/>
-      <c r="E30" s="231"/>
-      <c r="F30" s="231"/>
-      <c r="G30" s="231"/>
-      <c r="H30" s="231"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="269"/>
+      <c r="B30" s="261"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="268"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="262"/>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="231"/>
-      <c r="F31" s="231"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="269"/>
+      <c r="B31" s="261"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="268"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="262"/>
-      <c r="C32" s="231"/>
-      <c r="D32" s="231"/>
-      <c r="E32" s="231"/>
-      <c r="F32" s="231"/>
-      <c r="G32" s="231"/>
-      <c r="H32" s="231"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="269"/>
+      <c r="B32" s="261"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="268"/>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="262"/>
-      <c r="C33" s="231"/>
-      <c r="D33" s="231"/>
-      <c r="E33" s="231"/>
-      <c r="F33" s="231"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="231"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="269"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="268"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="262"/>
-      <c r="C34" s="231"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="231"/>
-      <c r="G34" s="231"/>
-      <c r="H34" s="231"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="269"/>
+      <c r="B34" s="261"/>
+      <c r="C34" s="219"/>
+      <c r="D34" s="219"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="268"/>
     </row>
     <row r="35" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B35" s="263"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="264"/>
-      <c r="E35" s="264"/>
-      <c r="F35" s="264"/>
-      <c r="G35" s="264"/>
-      <c r="H35" s="264"/>
-      <c r="I35" s="264"/>
-      <c r="J35" s="270"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="263"/>
+      <c r="D35" s="263"/>
+      <c r="E35" s="263"/>
+      <c r="F35" s="263"/>
+      <c r="G35" s="263"/>
+      <c r="H35" s="263"/>
+      <c r="I35" s="263"/>
+      <c r="J35" s="269"/>
     </row>
     <row r="37" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="38" spans="2:19" ht="14.25" thickBot="1">
-      <c r="B38" s="253" t="s">
+      <c r="B38" s="251" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="254"/>
-      <c r="D38" s="254"/>
-      <c r="E38" s="254"/>
-      <c r="F38" s="254"/>
-      <c r="G38" s="254"/>
-      <c r="H38" s="254"/>
-      <c r="I38" s="254"/>
-      <c r="J38" s="255"/>
+      <c r="C38" s="252"/>
+      <c r="D38" s="252"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="252"/>
+      <c r="G38" s="252"/>
+      <c r="H38" s="252"/>
+      <c r="I38" s="252"/>
+      <c r="J38" s="253"/>
     </row>
     <row r="39" spans="2:19" ht="189" customHeight="1">
-      <c r="B39" s="271"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="272" t="s">
+      <c r="B39" s="270"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="271" t="s">
         <v>244</v>
       </c>
-      <c r="G39" s="273"/>
-      <c r="H39" s="273"/>
-      <c r="I39" s="273"/>
-      <c r="J39" s="274"/>
+      <c r="G39" s="272"/>
+      <c r="H39" s="272"/>
+      <c r="I39" s="272"/>
+      <c r="J39" s="273"/>
     </row>
     <row r="40" spans="2:19" ht="313.5" customHeight="1" thickBot="1">
-      <c r="B40" s="262"/>
-      <c r="C40" s="231"/>
-      <c r="D40" s="231"/>
-      <c r="E40" s="231"/>
-      <c r="F40" s="259" t="s">
+      <c r="B40" s="261"/>
+      <c r="C40" s="219"/>
+      <c r="D40" s="219"/>
+      <c r="E40" s="219"/>
+      <c r="F40" s="258" t="s">
         <v>245</v>
       </c>
-      <c r="G40" s="260"/>
-      <c r="H40" s="260"/>
-      <c r="I40" s="260"/>
-      <c r="J40" s="261"/>
-      <c r="K40" s="263"/>
-      <c r="L40" s="264"/>
-      <c r="M40" s="264"/>
-      <c r="N40" s="264"/>
-      <c r="O40" s="265" t="s">
+      <c r="G40" s="259"/>
+      <c r="H40" s="259"/>
+      <c r="I40" s="259"/>
+      <c r="J40" s="260"/>
+      <c r="K40" s="262"/>
+      <c r="L40" s="263"/>
+      <c r="M40" s="263"/>
+      <c r="N40" s="263"/>
+      <c r="O40" s="264" t="s">
         <v>246</v>
       </c>
-      <c r="P40" s="266"/>
-      <c r="Q40" s="266"/>
-      <c r="R40" s="266"/>
-      <c r="S40" s="267"/>
+      <c r="P40" s="265"/>
+      <c r="Q40" s="265"/>
+      <c r="R40" s="265"/>
+      <c r="S40" s="266"/>
     </row>
     <row r="41" spans="2:19" ht="267.75" customHeight="1"/>
   </sheetData>

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="370">
   <si>
     <t>VSRPG　フローチャート</t>
     <phoneticPr fontId="1"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×1.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>効果時間(秒)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -162,10 +158,6 @@
   </si>
   <si>
     <t>与ダメージを1.5倍にする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>被ダメージを1.5倍にする</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1609,10 +1601,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムの獲得方法について</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(本編)武器攻撃、
 (拠点内)アイテムボックスを開く
 (メニュー)決定</t>
@@ -1771,6 +1759,36 @@
   </si>
   <si>
     <t>最終更新2016/10/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大型モンスターの討伐数について</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大型モンスターの討伐数はトドメ(ラストヒット)を刺したプレイヤーに加算されます。
+今のところはラストヒット制にしていますが、今後総ダメージ量+ラストヒットのボーナスに変更となる可能性があります。
+(この部分は要テストプレイ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメージを0.5倍にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諸刃の母</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与ダメージと被ダメージを2倍にする</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2069,7 +2087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2727,12 +2745,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3019,24 +3061,62 @@
     <xf numFmtId="14" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3112,41 +3192,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3169,12 +3267,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3190,12 +3282,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3211,54 +3297,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3268,6 +3321,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3277,39 +3339,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3334,33 +3405,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3376,6 +3420,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3403,11 +3453,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3431,9 +3493,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3442,9 +3501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3463,6 +3519,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3472,50 +3555,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -7163,13 +7212,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>2312989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7206,13 +7255,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1123949</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>98962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>895349</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>2543175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7249,13 +7298,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>60803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>2726642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7292,13 +7341,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>59474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>2599113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8887,64 +8936,64 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:15" ht="66" customHeight="1" thickBot="1">
-      <c r="B2" s="132" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
+      <c r="B2" s="146" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="148"/>
     </row>
     <row r="3" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B3" s="161" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162" t="s">
-        <v>358</v>
-      </c>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
+      <c r="B3" s="138" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139" t="s">
+        <v>355</v>
+      </c>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
     </row>
     <row r="4" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="150" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="153"/>
+      <c r="F4" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="138" t="s">
+      <c r="G4" s="151"/>
+      <c r="H4" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140" t="s">
+      <c r="I4" s="156"/>
+      <c r="J4" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="141" t="s">
+      <c r="K4" s="151"/>
+      <c r="L4" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="140" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="137"/>
-      <c r="L4" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="129"/>
+      <c r="M4" s="145"/>
     </row>
     <row r="5" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B5" s="35"/>
@@ -8962,37 +9011,37 @@
     </row>
     <row r="6" spans="2:15" ht="22.5" customHeight="1">
       <c r="B6" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="143" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="144"/>
+        <v>253</v>
+      </c>
+      <c r="C6" s="157" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="158"/>
     </row>
     <row r="7" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B7" s="145" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="147"/>
+      <c r="B7" s="159" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="161"/>
     </row>
     <row r="8" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
       <c r="B8" s="94"/>
@@ -9009,36 +9058,36 @@
       <c r="M8" s="95"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B9" s="151" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="153"/>
+      <c r="B9" s="165" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="167"/>
     </row>
     <row r="10" spans="2:15" ht="54.75" customHeight="1" thickBot="1">
-      <c r="B10" s="148" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="150"/>
+      <c r="B10" s="162" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="164"/>
     </row>
     <row r="11" spans="2:15" ht="32.25" customHeight="1" thickBot="1">
       <c r="B11" s="86"/>
@@ -9055,299 +9104,309 @@
       <c r="M11" s="89"/>
     </row>
     <row r="12" spans="2:15" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="168" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="170"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="156"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="135" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
       <c r="N13" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="48" customHeight="1">
-      <c r="B14" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="126" t="s">
-        <v>162</v>
-      </c>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
+      <c r="B14" s="140" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
       <c r="N14" s="113">
         <v>42653</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B15" s="157" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="159" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
+      <c r="B15" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
       <c r="N15" s="114">
         <v>42653</v>
       </c>
       <c r="O15" s="98" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B16" s="130" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="126" t="s">
-        <v>175</v>
-      </c>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
+      <c r="B16" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="141" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
       <c r="N16" s="105">
         <v>42656</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="42.75" customHeight="1">
-      <c r="B17" s="157" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="159" t="s">
-        <v>163</v>
-      </c>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
+      <c r="B17" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="136" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
       <c r="N17" s="114">
         <v>42655</v>
       </c>
       <c r="O17" s="98" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="45.75" customHeight="1">
-      <c r="B18" s="130" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="126" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
+      <c r="B18" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
       <c r="N18" s="113">
         <v>42655</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="30" customHeight="1">
-      <c r="B19" s="157" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="159" t="s">
-        <v>197</v>
-      </c>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
+      <c r="B19" s="134" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
       <c r="N19" s="99">
         <v>42649</v>
       </c>
       <c r="O19" s="98" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="30" customHeight="1">
-      <c r="B20" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
+      <c r="B20" s="140" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
       <c r="N20" s="113">
         <v>42653</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="30" customHeight="1">
-      <c r="B21" s="157" t="s">
-        <v>263</v>
-      </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="159" t="s">
-        <v>262</v>
-      </c>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
+      <c r="B21" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="136" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
       <c r="N21" s="123">
         <v>42656</v>
       </c>
       <c r="O21" s="98" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B22" s="166" t="s">
-        <v>304</v>
-      </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="168" t="s">
-        <v>254</v>
-      </c>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
+      <c r="B22" s="131" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="133" t="s">
+        <v>252</v>
+      </c>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
       <c r="N22" s="115">
         <v>42655</v>
       </c>
       <c r="O22" s="97" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="163"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="163"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B12:O12"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="B3:J3"/>
@@ -9364,22 +9423,12 @@
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:M22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9402,7 +9451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
@@ -9413,391 +9462,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="185" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="274" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="275"/>
+      <c r="A1" s="201" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="289" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="290"/>
     </row>
     <row r="2" spans="1:14" s="68" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="276" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
+      <c r="A2" s="291" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="14.25" thickBot="1">
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="255" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="256"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="257"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="286" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="288"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="286" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="253"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="277" t="s">
+      <c r="C7" s="287"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="287"/>
+      <c r="H7" s="287"/>
+      <c r="I7" s="288"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="286" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="278"/>
-      <c r="D6" s="278"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="279"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="278"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="279"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="278"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="279"/>
+      <c r="C8" s="287"/>
+      <c r="D8" s="287"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="288"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="277" t="s">
-        <v>364</v>
-      </c>
-      <c r="C9" s="278"/>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="278"/>
-      <c r="I9" s="279"/>
+      <c r="B9" s="286" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" s="287"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="287"/>
+      <c r="H9" s="287"/>
+      <c r="I9" s="288"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="277"/>
-      <c r="C10" s="278"/>
-      <c r="D10" s="278"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="279"/>
+      <c r="B10" s="286"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="288"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="277"/>
-      <c r="C11" s="278"/>
-      <c r="D11" s="278"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="278"/>
-      <c r="G11" s="278"/>
-      <c r="H11" s="278"/>
-      <c r="I11" s="279"/>
+      <c r="B11" s="286"/>
+      <c r="C11" s="287"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="287"/>
+      <c r="F11" s="287"/>
+      <c r="G11" s="287"/>
+      <c r="H11" s="287"/>
+      <c r="I11" s="288"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="277"/>
-      <c r="C12" s="278"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="278"/>
-      <c r="G12" s="278"/>
-      <c r="H12" s="278"/>
-      <c r="I12" s="279"/>
+      <c r="B12" s="286"/>
+      <c r="C12" s="287"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="288"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="277"/>
-      <c r="C13" s="278"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="278"/>
-      <c r="G13" s="278"/>
-      <c r="H13" s="278"/>
-      <c r="I13" s="279"/>
+      <c r="B13" s="286"/>
+      <c r="C13" s="287"/>
+      <c r="D13" s="287"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="287"/>
+      <c r="I13" s="288"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="277"/>
-      <c r="C14" s="278"/>
-      <c r="D14" s="278"/>
-      <c r="E14" s="278"/>
-      <c r="F14" s="278"/>
-      <c r="G14" s="278"/>
-      <c r="H14" s="278"/>
-      <c r="I14" s="279"/>
+      <c r="B14" s="286"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="288"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="277"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="278"/>
-      <c r="I15" s="279"/>
+      <c r="B15" s="286"/>
+      <c r="C15" s="287"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="287"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="287"/>
+      <c r="I15" s="288"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="277"/>
-      <c r="C16" s="278"/>
-      <c r="D16" s="278"/>
-      <c r="E16" s="278"/>
-      <c r="F16" s="278"/>
-      <c r="G16" s="278"/>
-      <c r="H16" s="278"/>
-      <c r="I16" s="279"/>
+      <c r="B16" s="286"/>
+      <c r="C16" s="287"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="288"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="277"/>
-      <c r="C17" s="278"/>
-      <c r="D17" s="278"/>
-      <c r="E17" s="278"/>
-      <c r="F17" s="278"/>
-      <c r="G17" s="278"/>
-      <c r="H17" s="278"/>
-      <c r="I17" s="279"/>
+      <c r="B17" s="286"/>
+      <c r="C17" s="287"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="287"/>
+      <c r="F17" s="287"/>
+      <c r="G17" s="287"/>
+      <c r="H17" s="287"/>
+      <c r="I17" s="288"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" thickBot="1"/>
     <row r="20" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B20" s="251" t="s">
-        <v>301</v>
-      </c>
-      <c r="C20" s="252"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="253"/>
+      <c r="B20" s="255" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="256"/>
+      <c r="D20" s="256"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="256"/>
+      <c r="J20" s="256"/>
+      <c r="K20" s="257"/>
     </row>
     <row r="21" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B21" s="280" t="s">
+      <c r="B21" s="282" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="283" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" s="283"/>
+      <c r="H21" s="283"/>
+      <c r="I21" s="283"/>
+      <c r="J21" s="283"/>
+      <c r="K21" s="116" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281" t="s">
+    </row>
+    <row r="22" spans="2:11" ht="27" customHeight="1">
+      <c r="B22" s="284" t="s">
         <v>298</v>
       </c>
-      <c r="G21" s="281"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="281"/>
-      <c r="K21" s="116" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="27" customHeight="1">
-      <c r="B22" s="282" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="283"/>
-      <c r="D22" s="283"/>
-      <c r="E22" s="283"/>
-      <c r="F22" s="283"/>
-      <c r="G22" s="283"/>
-      <c r="H22" s="283"/>
-      <c r="I22" s="283"/>
-      <c r="J22" s="283"/>
+      <c r="C22" s="285"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="285"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="285"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="285"/>
+      <c r="J22" s="285"/>
       <c r="K22" s="117">
         <v>42655</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="47.25" customHeight="1">
-      <c r="B23" s="284" t="s">
-        <v>302</v>
-      </c>
-      <c r="C23" s="285"/>
-      <c r="D23" s="285"/>
-      <c r="E23" s="285"/>
-      <c r="F23" s="285"/>
-      <c r="G23" s="285"/>
-      <c r="H23" s="285"/>
-      <c r="I23" s="285"/>
-      <c r="J23" s="285"/>
+      <c r="B23" s="281" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="280"/>
+      <c r="D23" s="280"/>
+      <c r="E23" s="280"/>
+      <c r="F23" s="280"/>
+      <c r="G23" s="280"/>
+      <c r="H23" s="280"/>
+      <c r="I23" s="280"/>
+      <c r="J23" s="280"/>
       <c r="K23" s="96">
         <v>42655</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="285"/>
-      <c r="C24" s="285"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="285"/>
-      <c r="F24" s="285"/>
-      <c r="G24" s="285"/>
-      <c r="H24" s="285"/>
-      <c r="I24" s="285"/>
-      <c r="J24" s="285"/>
+      <c r="B24" s="280"/>
+      <c r="C24" s="280"/>
+      <c r="D24" s="280"/>
+      <c r="E24" s="280"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="285"/>
-      <c r="C25" s="285"/>
-      <c r="D25" s="285"/>
-      <c r="E25" s="285"/>
-      <c r="F25" s="285"/>
-      <c r="G25" s="285"/>
-      <c r="H25" s="285"/>
-      <c r="I25" s="285"/>
-      <c r="J25" s="285"/>
+      <c r="B25" s="280"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="280"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="280"/>
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="285"/>
-      <c r="C26" s="285"/>
-      <c r="D26" s="285"/>
-      <c r="E26" s="285"/>
-      <c r="F26" s="285"/>
-      <c r="G26" s="285"/>
-      <c r="H26" s="285"/>
-      <c r="I26" s="285"/>
-      <c r="J26" s="285"/>
+      <c r="B26" s="280"/>
+      <c r="C26" s="280"/>
+      <c r="D26" s="280"/>
+      <c r="E26" s="280"/>
+      <c r="F26" s="280"/>
+      <c r="G26" s="280"/>
+      <c r="H26" s="280"/>
+      <c r="I26" s="280"/>
+      <c r="J26" s="280"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="285"/>
-      <c r="C27" s="285"/>
-      <c r="D27" s="285"/>
-      <c r="E27" s="285"/>
-      <c r="F27" s="285"/>
-      <c r="G27" s="285"/>
-      <c r="H27" s="285"/>
-      <c r="I27" s="285"/>
-      <c r="J27" s="285"/>
+      <c r="B27" s="280"/>
+      <c r="C27" s="280"/>
+      <c r="D27" s="280"/>
+      <c r="E27" s="280"/>
+      <c r="F27" s="280"/>
+      <c r="G27" s="280"/>
+      <c r="H27" s="280"/>
+      <c r="I27" s="280"/>
+      <c r="J27" s="280"/>
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="285"/>
-      <c r="C28" s="285"/>
-      <c r="D28" s="285"/>
-      <c r="E28" s="285"/>
-      <c r="F28" s="285"/>
-      <c r="G28" s="285"/>
-      <c r="H28" s="285"/>
-      <c r="I28" s="285"/>
-      <c r="J28" s="285"/>
+      <c r="B28" s="280"/>
+      <c r="C28" s="280"/>
+      <c r="D28" s="280"/>
+      <c r="E28" s="280"/>
+      <c r="F28" s="280"/>
+      <c r="G28" s="280"/>
+      <c r="H28" s="280"/>
+      <c r="I28" s="280"/>
+      <c r="J28" s="280"/>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="285"/>
-      <c r="C29" s="285"/>
-      <c r="D29" s="285"/>
-      <c r="E29" s="285"/>
-      <c r="F29" s="285"/>
-      <c r="G29" s="285"/>
-      <c r="H29" s="285"/>
-      <c r="I29" s="285"/>
-      <c r="J29" s="285"/>
+      <c r="B29" s="280"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="285"/>
-      <c r="C30" s="285"/>
-      <c r="D30" s="285"/>
-      <c r="E30" s="285"/>
-      <c r="F30" s="285"/>
-      <c r="G30" s="285"/>
-      <c r="H30" s="285"/>
-      <c r="I30" s="285"/>
-      <c r="J30" s="285"/>
+      <c r="B30" s="280"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="280"/>
+      <c r="E30" s="280"/>
+      <c r="F30" s="280"/>
+      <c r="G30" s="280"/>
+      <c r="H30" s="280"/>
+      <c r="I30" s="280"/>
+      <c r="J30" s="280"/>
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="285"/>
-      <c r="C31" s="285"/>
-      <c r="D31" s="285"/>
-      <c r="E31" s="285"/>
-      <c r="F31" s="285"/>
-      <c r="G31" s="285"/>
-      <c r="H31" s="285"/>
-      <c r="I31" s="285"/>
-      <c r="J31" s="285"/>
+      <c r="B31" s="280"/>
+      <c r="C31" s="280"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="280"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="280"/>
+      <c r="I31" s="280"/>
+      <c r="J31" s="280"/>
       <c r="K31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:J28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="F29:J29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:J30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="F31:J31"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9820,24 +9869,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="185" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="286" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="286"/>
+      <c r="A1" s="201" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="292" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="292"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9858,69 +9907,69 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A1" s="185" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="169" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="170"/>
+      <c r="A1" s="201" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="189" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="190"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="B5" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="171" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="172"/>
+        <v>126<